--- a/Result.xlsx
+++ b/Result.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Add normal" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,34 +32,604 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[167, 13, 99, 89, 107, 124], [184, 57, 96, 161, 110, 183], [50, 0, 4, 32, 174, 112], [113, 37, 85, 156, 51, 46], [86, 126, 5, 171, 115, 130]]</t>
-  </si>
-  <si>
-    <t>[[104, 130, 179, 61, 184, 129], [163, 166, 110, 108, 96, 124], [89, 180, 83, 164, 78, 151], [159, 87, 140, 111, 45, 82], [105, 39, 95, 107, 183, 138]]</t>
-  </si>
-  <si>
-    <t>[[3, 78, 51, 157, 37, 74], [124, 42, 159, 154, 131, 7], [90, 72, 174, 104, 134, 31], [147, 140, 111, 148, 180, 184], [88, 79, 133, 28, 99, 89]]</t>
-  </si>
-  <si>
-    <t>[[91, 78, 73, 123, 169, 92], [15, 179, 156, 181, 84, 125], [11, 118, 89, 153, 110, 37], [21, 35, 0, 86, 70, 19], [124, 141, 96, 39, 130, 90]]</t>
-  </si>
-  <si>
-    <t>[[78, 182, 8, 163, 51, 105], [131, 125, 29, 121, 152, 90], [124, 180, 71, 98, 89, 123], [4, 128, 31, 52, 73, 40], [110, 154, 72, 62, 13, 17]]</t>
-  </si>
-  <si>
-    <t>[[121, 101, 50, 110, 149, 130], [96, 158, 39, 74, 89, 180], [160, 181, 178, 122, 161, 51], [140, 147, 19, 153, 116, 107], [78, 118, 42, 52, 137, 148]]</t>
-  </si>
-  <si>
-    <t>[[140, 141, 32, 78, 97, 180], [129, 75, 123, 99, 181, 107], [51, 121, 164, 124, 168, 102], [10, 15, 179, 161, 125, 65], [90, 174, 94, 87, 11, 39]]</t>
-  </si>
-  <si>
-    <t>[[184, 0, 158, 82, 92, 133], [181, 110, 124, 180, 78, 42], [10, 60, 45, 39, 70, 79], [140, 126, 151, 99, 31, 102], [108, 37, 154, 123, 89, 5]]</t>
-  </si>
-  <si>
-    <t>[[131, 140, 73, 99, 121, 163], [124, 141, 148, 37, 58, 180], [50, 107, 64, 39, 172, 122], [89, 188, 102, 87, 78, 94], [44, 125, 168, 7, 179, 171]]</t>
-  </si>
-  <si>
-    <t>[[89, 49, 46, 153, 119, 11], [165, 118, 42, 37, 78, 107], [180, 31, 16, 38, 133, 124], [22, 15, 28, 86, 4, 121], [83, 99, 82, 132, 103, 73]]</t>
+    <t>[[12, 83, 127, 181, 163, 0], [57, 79, 108, 1, 46], [40, 188, 32, 130, 138], [91, 132, 164, 142, 110], [90, 104, 44, 125, 136]]</t>
+  </si>
+  <si>
+    <t>[[90, 38, 119, 69, 46, 0], [40, 91, 50, 188, 142], [108, 155, 33, 74, 53], [29, 41, 141, 32, 51], [162, 139, 163, 181, 103]]</t>
+  </si>
+  <si>
+    <t>[[100, 80, 111, 125, 40, 0], [32, 183, 122, 104, 181], [182, 132, 155, 114, 38], [12, 83, 68, 164, 72], [165, 43, 119, 71, 117]]</t>
+  </si>
+  <si>
+    <t>[[154, 172, 40, 133, 90, 0], [97, 46, 169, 22, 84], [184, 162, 181, 124, 100], [165, 30, 35, 86, 112], [79, 88, 117, 44, 148]]</t>
+  </si>
+  <si>
+    <t>[[79, 159, 41, 8, 6, 0], [16, 56, 80, 17, 127], [178, 90, 119, 125, 54], [138, 162, 23, 108, 65], [91, 46, 61, 18, 181]]</t>
+  </si>
+  <si>
+    <t>[[178, 101, 162, 15, 79, 0], [119, 153, 166, 68, 10], [51, 155, 130, 4, 2], [30, 40, 183, 125, 124], [164, 106, 181, 81, 108]]</t>
+  </si>
+  <si>
+    <t>[[40, 164, 75, 165, 30, 0], [38, 101, 16, 142, 124], [18, 85, 20, 79, 35], [181, 97, 126, 159, 60], [130, 113, 56, 108, 114]]</t>
+  </si>
+  <si>
+    <t>[[73, 40, 5, 185, 49, 0], [136, 79, 88, 125, 122], [35, 159, 90, 87, 181], [173, 130, 56, 179, 105], [24, 4, 118, 53, 100]]</t>
+  </si>
+  <si>
+    <t>[[13, 181, 90, 121, 129, 0], [164, 6, 79, 119, 70], [130, 50, 127, 165, 46], [157, 56, 40, 182, 52], [153, 142, 115, 111, 60]]</t>
+  </si>
+  <si>
+    <t>[[5, 12, 121, 3, 187, 0], [127, 80, 125, 120, 106], [122, 47, 130, 181, 166], [137, 65, 56, 50, 40], [97, 33, 79, 165, 90]]</t>
+  </si>
+  <si>
+    <t>[[103, 91, 41, 125, 24, 0], [38, 149, 79, 154, 8], [119, 75, 181, 99, 104], [127, 92, 152, 90, 100], [66, 40, 72, 88, 111]]</t>
+  </si>
+  <si>
+    <t>[[40, 77, 52, 120, 165, 0], [29, 138, 59, 181, 129], [124, 125, 34, 133, 79], [35, 111, 184, 163, 106], [142, 97, 130, 108, 89]]</t>
+  </si>
+  <si>
+    <t>[[165, 54, 43, 5, 63, 0], [71, 8, 90, 99, 103], [127, 46, 119, 108, 181], [95, 74, 180, 142, 184], [153, 38, 185, 159, 146]]</t>
+  </si>
+  <si>
+    <t>[[108, 123, 146, 181, 77, 0], [184, 46, 26, 131, 113], [40, 86, 38, 126, 5], [32, 90, 189, 119, 79], [63, 39, 74, 16, 125]]</t>
+  </si>
+  <si>
+    <t>[[107, 186, 125, 108, 131, 0], [97, 87, 104, 188, 181], [38, 93, 187, 146, 159], [61, 90, 39, 154, 165], [70, 66, 79, 183, 138]]</t>
+  </si>
+  <si>
+    <t>[[107, 35, 145, 79, 149, 0], [6, 181, 123, 90, 77], [100, 130, 81, 155, 169], [20, 80, 125, 62, 118], [16, 167, 126, 134, 124]]</t>
+  </si>
+  <si>
+    <t>[[53, 81, 79, 63, 173, 0], [180, 10, 108, 130, 44], [71, 138, 124, 20, 75], [183, 72, 38, 40, 181], [92, 104, 100, 52, 122]]</t>
+  </si>
+  <si>
+    <t>[[123, 189, 183, 40, 62, 0], [110, 90, 159, 162, 6], [61, 166, 41, 119, 53], [155, 9, 125, 58, 181], [176, 79, 92, 133, 127]]</t>
+  </si>
+  <si>
+    <t>[[173, 14, 81, 181, 38, 0], [90, 24, 79, 146, 12], [41, 179, 1, 117, 10], [33, 35, 125, 74, 164], [30, 180, 144, 124, 147]]</t>
+  </si>
+  <si>
+    <t>[[35, 133, 79, 100, 181, 0], [52, 88, 74, 99, 83], [117, 75, 185, 47, 90], [162, 14, 112, 40, 119], [39, 127, 55, 121, 71]]</t>
+  </si>
+  <si>
+    <t>[[71, 112, 5, 168, 179, 0], [55, 34, 154, 33, 32], [90, 116, 131, 97, 30], [20, 149, 182, 79, 119], [9, 180, 40, 127, 181]]</t>
+  </si>
+  <si>
+    <t>[[6, 40, 20, 35, 137, 0], [134, 72, 147, 135, 132], [183, 158, 182, 90, 179], [28, 70, 181, 159, 92], [83, 125, 119, 93, 98]]</t>
+  </si>
+  <si>
+    <t>[[115, 90, 5, 79, 108, 0], [165, 12, 148, 126, 125], [63, 83, 93, 123, 181], [155, 65, 136, 62, 164], [133, 24, 30, 135, 20]]</t>
+  </si>
+  <si>
+    <t>[[163, 40, 66, 113, 67, 0], [125, 90, 155, 153, 178], [28, 73, 181, 149, 130], [38, 60, 33, 71, 34], [119, 185, 79, 47, 82]]</t>
+  </si>
+  <si>
+    <t>[[181, 85, 111, 90, 124, 0], [58, 116, 40, 108, 8], [59, 148, 164, 142, 60], [140, 44, 112, 38, 97], [12, 79, 162, 91, 183]]</t>
+  </si>
+  <si>
+    <t>[[46, 167, 139, 125, 99, 0], [179, 149, 90, 47, 142], [70, 40, 119, 69, 8], [155, 181, 100, 184, 171], [81, 5, 166, 49, 159]]</t>
+  </si>
+  <si>
+    <t>[[133, 164, 77, 38, 30, 0], [124, 149, 112, 79, 155], [125, 109, 42, 132, 104], [181, 188, 171, 34, 180], [20, 81, 90, 113, 1]]</t>
+  </si>
+  <si>
+    <t>[[181, 81, 67, 32, 153, 0], [38, 79, 71, 150, 97], [74, 88, 185, 140, 9], [130, 125, 134, 47, 80], [52, 155, 24, 90, 100]]</t>
+  </si>
+  <si>
+    <t>[[79, 59, 129, 61, 38, 0], [181, 96, 108, 142, 74], [146, 88, 40, 73, 90], [42, 93, 67, 180, 179], [34, 163, 125, 32, 132]]</t>
+  </si>
+  <si>
+    <t>[[74, 180, 14, 155, 79, 0], [125, 132, 149, 60, 5], [116, 73, 90, 88, 102], [104, 168, 35, 179, 50], [181, 34, 40, 13, 70]]</t>
+  </si>
+  <si>
+    <t>[[185, 79, 16, 127, 102, 0], [55, 165, 70, 15, 134], [47, 52, 104, 8, 181], [123, 38, 37, 20, 56], [153, 40, 108, 21, 91]]</t>
+  </si>
+  <si>
+    <t>[[141, 176, 100, 90, 173, 0], [5, 139, 187, 104, 79], [142, 116, 111, 85, 125], [166, 95, 119, 108, 129], [181, 3, 40, 168, 72]]</t>
+  </si>
+  <si>
+    <t>[[164, 79, 127, 114, 108, 0], [131, 13, 104, 99, 125], [180, 181, 152, 184, 20], [4, 17, 40, 145, 56], [90, 185, 23, 48, 146]]</t>
+  </si>
+  <si>
+    <t>[[130, 124, 183, 35, 125, 0], [79, 38, 181, 74, 134], [100, 115, 91, 147, 21], [29, 119, 71, 52, 153], [34, 159, 3, 162, 184]]</t>
+  </si>
+  <si>
+    <t>[[5, 93, 46, 40, 108, 0], [36, 153, 88, 33, 47], [113, 23, 79, 104, 155], [149, 119, 54, 181, 81], [166, 125, 185, 110, 180]]</t>
+  </si>
+  <si>
+    <t>[[180, 5, 38, 125, 68, 0], [51, 65, 119, 57, 33], [91, 70, 181, 86, 146], [138, 139, 90, 55, 127], [176, 178, 47, 164, 40]]</t>
+  </si>
+  <si>
+    <t>[[169, 114, 88, 20, 43, 0], [156, 125, 164, 3, 82], [79, 132, 47, 100, 35], [8, 108, 118, 127, 112], [181, 109, 165, 40, 60]]</t>
+  </si>
+  <si>
+    <t>[[119, 117, 155, 148, 40, 0], [124, 47, 85, 168, 79], [137, 122, 181, 32, 90], [125, 123, 77, 1, 20], [3, 130, 154, 78, 128]]</t>
+  </si>
+  <si>
+    <t>[[124, 130, 136, 175, 21, 0], [125, 122, 131, 188, 90], [113, 65, 153, 99, 108], [92, 1, 120, 32, 93], [104, 40, 91, 181, 51]]</t>
+  </si>
+  <si>
+    <t>[[181, 32, 50, 69, 72, 0], [103, 35, 124, 183, 82], [145, 90, 34, 95, 180], [165, 40, 137, 74, 86], [119, 79, 71, 97, 125]]</t>
+  </si>
+  <si>
+    <t>[[100, 181, 164, 117, 129, 0], [147, 44, 74, 132, 99], [90, 171, 79, 62, 180], [124, 16, 106, 134, 168], [91, 22, 130, 125, 144]]</t>
+  </si>
+  <si>
+    <t>[[125, 101, 176, 40, 108, 0], [73, 52, 159, 181, 126], [124, 55, 38, 143, 139], [100, 104, 179, 164, 166], [133, 18, 81, 37, 79]]</t>
+  </si>
+  <si>
+    <t>[[131, 35, 149, 180, 30, 0], [40, 181, 23, 78, 17], [142, 96, 159, 71, 127], [108, 90, 112, 52, 125], [6, 61, 44, 16, 43]]</t>
+  </si>
+  <si>
+    <t>[[182, 149, 63, 81, 97, 0], [91, 8, 33, 100, 78], [71, 135, 125, 123, 180], [119, 164, 185, 59, 136], [13, 173, 40, 79, 181]]</t>
+  </si>
+  <si>
+    <t>[[164, 90, 32, 181, 83, 0], [108, 152, 40, 58, 103], [15, 93, 155, 13, 142], [76, 99, 179, 16, 80], [91, 119, 53, 25, 79]]</t>
+  </si>
+  <si>
+    <t>[[186, 88, 40, 55, 130, 0], [90, 187, 159, 44, 181], [24, 75, 125, 131, 124], [18, 91, 164, 46, 81], [5, 133, 165, 163, 147]]</t>
+  </si>
+  <si>
+    <t>[[67, 75, 38, 47, 112, 0], [34, 125, 181, 5, 33], [90, 56, 131, 79, 162], [130, 119, 159, 80, 117], [120, 62, 108, 96, 7]]</t>
+  </si>
+  <si>
+    <t>[[179, 89, 181, 90, 187, 0], [108, 8, 71, 117, 55], [32, 159, 63, 79, 40], [137, 97, 111, 38, 154], [56, 138, 51, 180, 148]]</t>
+  </si>
+  <si>
+    <t>[[104, 40, 58, 177, 34, 0], [125, 100, 92, 14, 38], [21, 39, 80, 127, 56], [108, 181, 146, 119, 44], [183, 118, 167, 83, 79]]</t>
+  </si>
+  <si>
+    <t>[[33, 52, 180, 189, 12, 0], [79, 149, 100, 30, 46], [142, 125, 185, 130, 162], [17, 109, 126, 51, 74], [37, 104, 114, 181, 91]]</t>
+  </si>
+  <si>
+    <t>[[52, 125, 60, 99, 70, 0], [47, 24, 69, 123, 97], [154, 34, 93, 17, 80], [131, 79, 91, 63, 181], [171, 81, 90, 142, 40]]</t>
+  </si>
+  <si>
+    <t>[[79, 124, 122, 15, 65, 0], [70, 150, 93, 185, 108], [103, 178, 169, 130, 38], [126, 181, 164, 162, 99], [139, 40, 127, 54, 159]]</t>
+  </si>
+  <si>
+    <t>[[20, 159, 30, 13, 38, 0], [166, 40, 125, 184, 181], [119, 91, 46, 139, 35], [17, 85, 53, 65, 24], [103, 183, 90, 189, 84]]</t>
+  </si>
+  <si>
+    <t>[[102, 63, 86, 40, 142, 0], [28, 47, 68, 159, 119], [127, 6, 162, 42, 79], [52, 93, 169, 2, 99], [80, 74, 135, 90, 100]]</t>
+  </si>
+  <si>
+    <t>[[33, 181, 67, 52, 119, 0], [141, 155, 60, 124, 125], [79, 44, 81, 95, 172], [47, 114, 100, 63, 154], [153, 123, 53, 104, 8]]</t>
+  </si>
+  <si>
+    <t>[[13, 125, 36, 132, 12, 0], [45, 79, 28, 52, 124], [62, 164, 184, 33, 155], [94, 40, 181, 43, 91], [107, 163, 75, 74, 2]]</t>
+  </si>
+  <si>
+    <t>[[74, 97, 72, 160, 90, 0], [79, 22, 10, 180, 181], [171, 111, 16, 108, 66], [7, 122, 137, 52, 40], [185, 142, 162, 125, 56]]</t>
+  </si>
+  <si>
+    <t>[[71, 138, 29, 161, 32, 0], [149, 180, 182, 12, 130], [159, 20, 66, 79, 69], [181, 122, 164, 2, 40], [33, 102, 28, 46, 125]]</t>
+  </si>
+  <si>
+    <t>[[104, 47, 30, 52, 178, 0], [81, 71, 133, 58, 181], [90, 91, 188, 99, 83], [145, 114, 40, 3, 87], [130, 74, 125, 73, 93]]</t>
+  </si>
+  <si>
+    <t>[[100, 158, 40, 39, 32, 0], [139, 154, 135, 147, 51], [165, 146, 35, 48, 129], [128, 79, 125, 65, 181], [90, 91, 38, 3, 54]]</t>
+  </si>
+  <si>
+    <t>[[90, 75, 53, 125, 113, 0], [161, 40, 155, 2, 181], [141, 185, 79, 24, 171], [142, 34, 22, 173, 180], [35, 189, 52, 96, 54]]</t>
+  </si>
+  <si>
+    <t>[[174, 20, 149, 179, 90, 0], [52, 51, 111, 130, 6], [37, 104, 79, 127, 30], [46, 26, 119, 184, 125], [177, 74, 165, 40, 32]]</t>
+  </si>
+  <si>
+    <t>[[144, 79, 7, 21, 40, 0], [3, 33, 88, 86, 126], [132, 13, 52, 91, 34], [181, 141, 117, 162, 90], [125, 110, 23, 183, 58]]</t>
+  </si>
+  <si>
+    <t>[[154, 108, 72, 162, 117, 0], [74, 182, 166, 16, 40], [142, 100, 155, 6, 34], [81, 187, 171, 79, 41], [144, 86, 130, 20, 181]]</t>
+  </si>
+  <si>
+    <t>[[142, 125, 28, 68, 178, 0], [181, 108, 1, 91, 155], [139, 79, 33, 99, 66], [40, 52, 161, 189, 137], [119, 121, 133, 186, 130]]</t>
+  </si>
+  <si>
+    <t>[[100, 79, 16, 125, 66, 0], [40, 20, 50, 90, 80], [9, 153, 38, 47, 183], [52, 62, 73, 35, 86], [45, 51, 174, 111, 148]]</t>
+  </si>
+  <si>
+    <t>[[81, 125, 111, 185, 63, 0], [181, 153, 154, 8, 90], [79, 97, 106, 108, 166], [95, 40, 73, 55, 61], [163, 47, 6, 168, 15]]</t>
+  </si>
+  <si>
+    <t>[[54, 65, 114, 155, 100, 0], [159, 127, 86, 174, 18], [125, 30, 122, 180, 117], [90, 75, 79, 91, 83], [13, 181, 171, 70, 44]]</t>
+  </si>
+  <si>
+    <t>[[104, 51, 90, 34, 109, 0], [155, 62, 108, 114, 175], [100, 65, 6, 124, 20], [113, 186, 182, 181, 91], [35, 40, 122, 2, 80]]</t>
+  </si>
+  <si>
+    <t>[[93, 32, 38, 79, 90, 0], [99, 155, 112, 84, 54], [151, 4, 131, 81, 53], [122, 147, 50, 108, 74], [166, 181, 167, 102, 40]]</t>
+  </si>
+  <si>
+    <t>[[17, 108, 90, 24, 133, 0], [88, 122, 28, 40, 186], [79, 164, 120, 185, 2], [49, 91, 47, 102, 5], [34, 155, 93, 64, 125]]</t>
+  </si>
+  <si>
+    <t>[[100, 142, 93, 63, 125, 0], [149, 83, 123, 47, 51], [37, 81, 185, 40, 111], [120, 141, 52, 110, 162], [17, 95, 1, 90, 79]]</t>
+  </si>
+  <si>
+    <t>[[5, 79, 159, 119, 74, 0], [55, 42, 39, 181, 30], [22, 183, 10, 35, 64], [172, 184, 40, 110, 137], [125, 123, 141, 90, 18]]</t>
+  </si>
+  <si>
+    <t>[[181, 47, 91, 46, 34, 0], [188, 108, 125, 149, 128], [38, 6, 133, 157, 92], [126, 40, 154, 10, 44], [135, 123, 130, 90, 131]]</t>
+  </si>
+  <si>
+    <t>[[99, 148, 36, 18, 79, 0], [141, 123, 175, 46, 172], [108, 164, 182, 65, 100], [38, 90, 95, 44, 53], [40, 181, 9, 91, 127]]</t>
+  </si>
+  <si>
+    <t>[[1, 165, 127, 74, 154, 0], [51, 184, 7, 122, 16], [139, 40, 3, 136, 79], [112, 61, 83, 17, 181], [175, 90, 34, 125, 71]]</t>
+  </si>
+  <si>
+    <t>[[98, 39, 5, 77, 86, 0], [80, 65, 92, 118, 38], [91, 181, 90, 81, 183], [83, 154, 32, 40, 72], [136, 71, 79, 133, 111]]</t>
+  </si>
+  <si>
+    <t>[[48, 164, 149, 180, 90, 0], [142, 122, 79, 146, 47], [38, 6, 40, 82, 182], [60, 189, 154, 165, 2], [88, 24, 93, 181, 133]]</t>
+  </si>
+  <si>
+    <t>[[6, 35, 51, 103, 132, 0], [181, 174, 98, 63, 79], [95, 127, 119, 133, 184], [30, 134, 125, 16, 147], [107, 75, 83, 40, 159]]</t>
+  </si>
+  <si>
+    <t>[[159, 122, 65, 112, 179, 0], [130, 102, 155, 125, 133], [30, 34, 47, 181, 18], [90, 4, 2, 40, 111], [119, 98, 17, 61, 87]]</t>
+  </si>
+  <si>
+    <t>[[137, 125, 166, 91, 39, 0], [88, 70, 181, 79, 6], [52, 92, 67, 32, 100], [163, 122, 22, 159, 153], [96, 99, 90, 61, 58]]</t>
+  </si>
+  <si>
+    <t>[[108, 125, 79, 65, 139, 0], [148, 165, 90, 93, 186], [92, 33, 70, 30, 171], [28, 129, 181, 124, 180], [136, 8, 42, 91, 40]]</t>
+  </si>
+  <si>
+    <t>[[163, 181, 121, 85, 125, 0], [141, 111, 42, 38, 79], [160, 5, 91, 133, 118], [113, 20, 106, 90, 122], [40, 124, 29, 47, 6]]</t>
+  </si>
+  <si>
+    <t>[[120, 154, 28, 164, 119, 0], [179, 66, 79, 10, 91], [100, 34, 41, 17, 104], [40, 185, 95, 181, 90], [108, 47, 152, 157, 184]]</t>
+  </si>
+  <si>
+    <t>[[67, 100, 63, 103, 146], [40, 38, 61, 52, 71, 0], [181, 141, 137, 28, 90], [125, 108, 79, 177, 119], [57, 65, 89, 178, 14]]</t>
+  </si>
+  <si>
+    <t>[[112, 61, 13, 93, 108, 0], [125, 16, 181, 38, 52], [119, 140, 74, 35, 29], [124, 63, 91, 64, 55], [79, 154, 162, 80, 151]]</t>
+  </si>
+  <si>
+    <t>[[189, 40, 91, 90, 181, 0], [106, 145, 167, 79, 14], [123, 162, 68, 169, 6], [134, 180, 102, 52, 71], [8, 155, 149, 148, 130]]</t>
+  </si>
+  <si>
+    <t>[[79, 38, 2, 125, 113, 0], [116, 32, 181, 40, 189], [52, 41, 124, 119, 106], [71, 5, 169, 93, 56], [63, 180, 54, 158, 44]]</t>
+  </si>
+  <si>
+    <t>[[137, 127, 100, 182, 49, 0], [113, 23, 40, 81, 153], [41, 13, 181, 47, 60], [110, 51, 159, 146, 154], [108, 79, 90, 119, 84]]</t>
+  </si>
+  <si>
+    <t>[[35, 8, 130, 118, 188, 0], [30, 123, 178, 90, 124], [79, 114, 96, 1, 2], [40, 137, 33, 44, 80], [119, 52, 181, 81, 67]]</t>
+  </si>
+  <si>
+    <t>[[64, 29, 132, 40, 130, 0], [116, 91, 125, 161, 181], [165, 50, 63, 149, 90], [185, 94, 179, 41, 38], [153, 1, 180, 79, 35]]</t>
+  </si>
+  <si>
+    <t>[[112, 160, 130, 178, 40, 0], [13, 85, 90, 16, 132], [24, 75, 162, 181, 125], [30, 79, 180, 134, 123], [145, 122, 88, 12, 161]]</t>
+  </si>
+  <si>
+    <t>[[169, 108, 37, 90, 153, 0], [59, 79, 14, 128, 99], [181, 142, 53, 112, 100], [182, 184, 91, 172, 125], [71, 97, 174, 51, 124]]</t>
+  </si>
+  <si>
+    <t>[[93, 125, 132, 185, 169, 0], [75, 10, 6, 32, 40], [90, 160, 121, 181, 184], [151, 62, 9, 38, 79], [165, 111, 170, 155, 16]]</t>
+  </si>
+  <si>
+    <t>[[179, 76, 57, 26, 90, 0], [153, 184, 110, 97, 119], [183, 24, 135, 181, 100], [79, 178, 1, 189, 20], [16, 35, 40, 159, 147]]</t>
+  </si>
+  <si>
+    <t>[[103, 34, 171, 123, 181, 0], [106, 77, 38, 88, 79], [5, 47, 83, 133, 164], [90, 159, 97, 71, 40], [158, 91, 165, 69, 9]]</t>
+  </si>
+  <si>
+    <t>[[87, 181, 20, 164, 71, 0], [67, 180, 188, 125, 92], [2, 118, 97, 39, 104], [107, 73, 90, 84, 79], [182, 162, 61, 40, 53]]</t>
+  </si>
+  <si>
+    <t>[[148, 123, 178, 183, 68, 0], [40, 79, 56, 87, 52], [92, 78, 47, 125, 181], [154, 50, 165, 182, 119], [46, 155, 29, 122, 131]]</t>
+  </si>
+  <si>
+    <t>[[149, 124, 139, 80, 111, 0], [51, 122, 55, 181, 130], [125, 71, 93, 187, 155], [2, 43, 90, 79, 176], [68, 172, 100, 126, 146]]</t>
+  </si>
+  <si>
+    <t>[[74, 108, 6, 181, 94, 0], [79, 119, 123, 133, 83], [124, 20, 47, 159, 137], [142, 84, 90, 35, 21], [146, 5, 102, 52, 81]]</t>
+  </si>
+  <si>
+    <t>[[38, 79, 55, 81, 134, 0], [135, 73, 90, 21, 53], [62, 88, 2, 180, 51], [14, 91, 74, 98, 40], [93, 181, 125, 100, 50]]</t>
+  </si>
+  <si>
+    <t>[[125, 128, 115, 99, 119, 0], [165, 124, 166, 93, 182], [154, 7, 141, 181, 40], [90, 91, 179, 39, 183], [57, 151, 2, 169, 4]]</t>
+  </si>
+  <si>
+    <t>[[125, 39, 43, 38, 108, 0], [90, 127, 50, 181, 129], [12, 92, 141, 11, 56], [79, 113, 57, 51, 115], [179, 114, 52, 124, 122]]</t>
+  </si>
+  <si>
+    <t>[[79, 168, 33, 50, 16, 0], [104, 125, 90, 38, 21], [185, 137, 1, 40, 161], [22, 135, 181, 2, 132], [111, 119, 166, 165, 87]]</t>
+  </si>
+  <si>
+    <t>[[126, 40, 58, 48, 86, 0], [32, 113, 125, 38, 57], [39, 134, 158, 90, 77], [15, 97, 47, 124, 56], [79, 100, 108, 133, 136]]</t>
+  </si>
+  <si>
+    <t>[[125, 109, 119, 79, 38, 0], [147, 123, 110, 28, 167], [65, 99, 40, 46, 52], [91, 72, 20, 8, 179], [181, 135, 139, 32, 23]]</t>
+  </si>
+  <si>
+    <t>[[149, 37, 108, 52, 83, 0], [1, 54, 120, 38, 125], [135, 40, 41, 181, 119], [164, 100, 110, 5, 90], [17, 55, 50, 93, 45]]</t>
+  </si>
+  <si>
+    <t>[[57, 161, 28, 163, 182, 0], [141, 92, 172, 150, 30], [132, 52, 34, 90, 79], [125, 166, 77, 126, 93], [181, 40, 162, 110, 55]]</t>
+  </si>
+  <si>
+    <t>[[13, 57, 147, 117, 81, 0], [154, 143, 40, 181, 61], [162, 155, 111, 134, 51], [176, 132, 43, 79, 6], [45, 90, 38, 55, 125]]</t>
+  </si>
+  <si>
+    <t>[[79, 44, 90, 129, 134, 0], [38, 40, 164, 99, 74], [118, 100, 93, 125, 83], [108, 173, 162, 159, 119], [102, 167, 183, 63, 20]]</t>
+  </si>
+  <si>
+    <t>[[5, 14, 62, 126, 125, 0], [65, 114, 9, 148, 123], [129, 79, 131, 40, 159], [181, 90, 47, 59, 80], [74, 34, 38, 172, 54]]</t>
+  </si>
+  <si>
+    <t>[[179, 66, 125, 112, 35, 0], [122, 90, 81, 30, 83], [56, 181, 51, 133, 91], [139, 126, 8, 116, 6], [18, 29, 135, 79, 40]]</t>
+  </si>
+  <si>
+    <t>[[56, 4, 74, 57, 45, 0], [86, 181, 131, 9, 124], [147, 180, 123, 41, 122], [90, 125, 5, 91, 40], [133, 119, 126, 164, 77]]</t>
+  </si>
+  <si>
+    <t>[[8, 79, 12, 90, 81, 0], [52, 173, 40, 11, 137], [141, 91, 100, 45, 131], [134, 142, 50, 167, 126], [181, 108, 125, 2, 42]]</t>
+  </si>
+  <si>
+    <t>[[127, 150, 2, 79, 62, 0], [31, 39, 165, 184, 58], [146, 74, 148, 40, 104], [90, 182, 116, 181, 100], [83, 125, 162, 30, 50]]</t>
+  </si>
+  <si>
+    <t>[[38, 155, 8, 58, 100, 0], [184, 119, 91, 44, 2], [34, 46, 146, 39, 125], [164, 40, 159, 51, 56], [182, 20, 29, 149, 138]]</t>
+  </si>
+  <si>
+    <t>[[165, 92, 40, 52, 132, 0], [159, 145, 124, 127, 35], [16, 160, 91, 72, 174], [129, 108, 41, 120, 125], [181, 79, 153, 172, 12]]</t>
+  </si>
+  <si>
+    <t>[[125, 152, 108, 28, 54, 0], [90, 38, 126, 158, 186], [155, 30, 67, 63, 185], [123, 32, 79, 181, 70], [40, 103, 2, 135, 29]]</t>
+  </si>
+  <si>
+    <t>[[119, 60, 13, 110, 90, 0], [40, 1, 159, 125, 171], [181, 124, 12, 2, 166], [6, 47, 164, 139, 185], [17, 152, 34, 48, 43]]</t>
+  </si>
+  <si>
+    <t>[[130, 181, 165, 3, 27], [90, 109, 40, 108, 79, 0], [119, 72, 124, 118, 164], [21, 77, 114, 125, 59], [131, 187, 14, 80, 154]]</t>
+  </si>
+  <si>
+    <t>[[2, 142, 38, 162, 111, 0], [23, 79, 110, 59, 181], [8, 91, 125, 154, 45], [155, 90, 34, 33, 182], [83, 32, 156, 81, 30]]</t>
+  </si>
+  <si>
+    <t>[[95, 170, 139, 106, 15, 0], [86, 125, 146, 79, 52], [137, 56, 87, 51, 181], [34, 164, 187, 182, 155], [90, 122, 70, 133, 40]]</t>
+  </si>
+  <si>
+    <t>[[181, 67, 32, 38, 62, 0], [40, 119, 163, 108, 143], [126, 79, 99, 21, 140], [47, 142, 130, 74, 125], [75, 133, 83, 97, 95]]</t>
+  </si>
+  <si>
+    <t>[[6, 181, 63, 165, 79, 0], [77, 17, 126, 90, 182], [40, 104, 180, 103, 20], [135, 148, 159, 172, 83], [16, 41, 97, 125, 24]]</t>
+  </si>
+  <si>
+    <t>[[29, 51, 8, 20, 77, 0], [149, 28, 79, 108, 40], [110, 52, 125, 103, 74], [178, 55, 90, 169, 132], [124, 135, 75, 93, 85]]</t>
+  </si>
+  <si>
+    <t>[[24, 119, 142, 90, 182, 0], [33, 6, 85, 180, 52], [130, 20, 40, 164, 92], [63, 56, 187, 112, 39], [125, 72, 162, 165, 79]]</t>
+  </si>
+  <si>
+    <t>[[179, 122, 42, 135, 5, 0], [91, 38, 40, 159, 186], [18, 90, 4, 23, 155], [164, 52, 10, 92, 181], [184, 79, 119, 56, 129]]</t>
+  </si>
+  <si>
+    <t>[[154, 46, 145, 132, 61, 0], [180, 90, 8, 181, 52], [58, 93, 39, 79, 32], [130, 136, 169, 77, 119], [60, 165, 40, 155, 162]]</t>
+  </si>
+  <si>
+    <t>[[32, 90, 159, 125, 20, 0], [124, 35, 79, 40, 70], [164, 21, 55, 128, 29], [106, 33, 172, 182, 127], [181, 58, 139, 84, 57]]</t>
+  </si>
+  <si>
+    <t>[[109, 97, 81, 90, 9, 0], [165, 5, 2, 153, 79], [127, 77, 181, 40, 35], [75, 108, 4, 100, 121], [119, 91, 130, 139, 142]]</t>
+  </si>
+  <si>
+    <t>[[185, 122, 141, 67, 135, 0], [142, 178, 63, 181, 123], [35, 91, 172, 74, 124], [95, 179, 125, 101, 92], [47, 90, 29, 97, 79]]</t>
+  </si>
+  <si>
+    <t>[[1, 142, 28, 125, 50, 0], [79, 2, 90, 99, 133], [119, 112, 185, 149, 113], [181, 65, 167, 40, 104], [69, 39, 134, 6, 92]]</t>
+  </si>
+  <si>
+    <t>[[177, 32, 169, 162, 128, 0], [46, 9, 154, 122, 30], [124, 182, 40, 20, 164], [181, 85, 71, 100, 125], [140, 79, 82, 72, 90]]</t>
+  </si>
+  <si>
+    <t>[[79, 153, 88, 9, 64, 0], [154, 122, 60, 149, 63], [40, 30, 18, 15, 179], [181, 132, 119, 91, 90], [81, 95, 71, 124, 159]]</t>
+  </si>
+  <si>
+    <t>[[184, 90, 26, 181, 0, 152], [52, 73, 38, 1, 65], [161, 61, 79, 125, 39], [124, 130, 111, 34, 132], [40, 153, 31, 114, 113]]</t>
+  </si>
+  <si>
+    <t>[[3, 12, 182, 79, 186, 0], [97, 165, 132, 181, 40], [66, 109, 52, 93, 90], [106, 87, 125, 103, 123], [108, 6, 172, 185, 166]]</t>
+  </si>
+  <si>
+    <t>[[90, 39, 52, 125, 6, 0], [30, 174, 119, 29, 183], [169, 181, 124, 131, 9], [17, 79, 138, 8, 69], [81, 148, 108, 167, 127]]</t>
+  </si>
+  <si>
+    <t>[[20, 1, 90, 65, 50, 0], [171, 52, 57, 142, 154], [75, 132, 181, 86, 149], [125, 18, 180, 182, 133], [80, 113, 79, 69, 108]]</t>
+  </si>
+  <si>
+    <t>[[181, 43, 79, 90, 119, 0], [38, 155, 145, 124, 113], [6, 40, 98, 154, 47], [57, 51, 74, 35, 187], [126, 164, 106, 12, 68]]</t>
+  </si>
+  <si>
+    <t>[[55, 79, 104, 133, 47, 0], [153, 108, 52, 40, 32], [178, 110, 185, 38, 154], [56, 39, 131, 132, 51], [81, 139, 46, 5, 111]]</t>
+  </si>
+  <si>
+    <t>[[30, 45, 72, 110, 24, 0], [90, 85, 111, 97, 14], [50, 52, 119, 104, 178], [81, 86, 181, 105, 40], [79, 172, 35, 186, 125]]</t>
+  </si>
+  <si>
+    <t>[[133, 39, 154, 57, 55, 0], [156, 158, 33, 164, 181], [107, 63, 101, 104, 119], [54, 52, 70, 100, 91], [159, 79, 125, 90, 34]]</t>
+  </si>
+  <si>
+    <t>[[40, 113, 51, 11, 52, 0], [184, 124, 106, 78, 132], [175, 59, 125, 159, 185], [92, 8, 127, 141, 54], [38, 90, 62, 79, 181]]</t>
+  </si>
+  <si>
+    <t>[[105, 123, 100, 8, 74, 0], [175, 65, 46, 18, 181], [52, 110, 169, 171, 126], [166, 35, 119, 90, 81], [125, 114, 54, 180, 79]]</t>
+  </si>
+  <si>
+    <t>[[125, 79, 49, 90, 29, 0], [110, 138, 108, 188, 65], [181, 141, 164, 8, 91], [33, 119, 63, 120, 72], [180, 112, 17, 124, 146]]</t>
+  </si>
+  <si>
+    <t>[[90, 100, 109, 129, 6, 0], [125, 32, 73, 84, 130], [91, 79, 108, 164, 89], [127, 135, 92, 35, 40], [38, 61, 112, 88, 132]]</t>
+  </si>
+  <si>
+    <t>[[17, 53, 6, 181, 86, 0], [91, 79, 83, 154, 164], [122, 57, 159, 125, 130], [42, 178, 40, 163, 90], [127, 16, 104, 50, 80]]</t>
+  </si>
+  <si>
+    <t>[[16, 40, 112, 79, 55, 0], [39, 125, 29, 111, 166], [90, 32, 139, 178, 24], [2, 173, 8, 164, 181], [174, 167, 176, 93, 114]]</t>
+  </si>
+  <si>
+    <t>[[125, 112, 159, 40, 169, 0], [39, 52, 9, 79, 13], [71, 181, 157, 90, 66], [126, 161, 8, 32, 38], [100, 16, 129, 76, 86]]</t>
+  </si>
+  <si>
+    <t>[[77, 159, 93, 108, 91, 0], [161, 40, 175, 131, 125], [83, 20, 164, 9, 51], [179, 155, 84, 39, 79], [81, 165, 189, 181, 87]]</t>
+  </si>
+  <si>
+    <t>[[187, 81, 104, 91, 40, 0], [181, 180, 74, 170, 79], [32, 131, 164, 5, 70], [166, 56, 78, 108, 88], [165, 118, 38, 51, 125]]</t>
+  </si>
+  <si>
+    <t>[[14, 141, 54, 83, 185, 0], [123, 89, 74, 125, 124], [5, 40, 85, 79, 108], [71, 53, 31, 41, 155], [29, 181, 166, 172, 32]]</t>
+  </si>
+  <si>
+    <t>[[159, 180, 189, 18, 93, 0], [184, 182, 79, 181, 39], [40, 148, 141, 104, 183], [125, 16, 100, 119, 108], [34, 61, 88, 101, 113]]</t>
+  </si>
+  <si>
+    <t>[[40, 141, 74, 90, 83, 0], [79, 104, 132, 93, 169], [125, 126, 111, 159, 44], [147, 151, 130, 123, 180], [154, 84, 155, 62, 145]]</t>
+  </si>
+  <si>
+    <t>[[47, 57, 145, 6, 187, 0], [28, 181, 184, 138, 83], [79, 108, 162, 2, 40], [166, 102, 90, 124, 116], [92, 24, 127, 159, 174]]</t>
+  </si>
+  <si>
+    <t>[[97, 178, 138, 119, 154, 0], [181, 38, 84, 137, 155], [79, 117, 40, 63, 166], [44, 113, 8, 161, 139], [91, 74, 83, 177, 90]]</t>
+  </si>
+  <si>
+    <t>[[70, 137, 125, 124, 74, 0], [181, 154, 67, 142, 40], [94, 55, 163, 90, 141], [62, 60, 80, 79, 146], [52, 180, 185, 108, 138]]</t>
+  </si>
+  <si>
+    <t>[[61, 126, 30, 32, 75, 0], [40, 138, 132, 125, 181], [79, 145, 171, 10, 89], [178, 136, 119, 108, 148], [34, 122, 91, 93, 99]]</t>
+  </si>
+  <si>
+    <t>[[114, 180, 106, 90, 53, 0], [131, 21, 20, 40, 81], [39, 30, 130, 128, 1], [74, 91, 184, 99, 132], [103, 35, 125, 5, 181]]</t>
+  </si>
+  <si>
+    <t>[[12, 6, 40, 166, 90, 0], [32, 2, 125, 141, 112], [155, 94, 100, 132, 1], [57, 50, 126, 153, 83], [104, 95, 119, 79, 43]]</t>
+  </si>
+  <si>
+    <t>[[165, 159, 32, 164, 113, 0], [47, 71, 57, 158, 17], [129, 119, 79, 186, 127], [41, 69, 40, 90, 39], [51, 82, 108, 53, 181]]</t>
+  </si>
+  <si>
+    <t>[[70, 16, 173, 30, 117, 0], [6, 38, 130, 179, 32], [79, 181, 91, 128, 125], [80, 129, 169, 149, 12], [126, 108, 90, 57, 14]]</t>
+  </si>
+  <si>
+    <t>[[163, 125, 38, 40, 103, 0], [119, 181, 81, 180, 67], [175, 50, 94, 71, 52], [111, 126, 124, 35, 172], [141, 97, 104, 90, 65]]</t>
+  </si>
+  <si>
+    <t>[[79, 150, 8, 125, 89, 0], [181, 100, 185, 110, 83], [165, 55, 38, 162, 61], [166, 40, 72, 133, 126], [24, 119, 90, 131, 124]]</t>
+  </si>
+  <si>
+    <t>[[5, 164, 2, 38, 51, 0], [47, 52, 159, 181, 74], [153, 134, 151, 100, 40], [60, 127, 125, 78, 99], [61, 104, 112, 117, 18]]</t>
+  </si>
+  <si>
+    <t>[[58, 115, 126, 130, 100, 0], [47, 52, 56, 104, 72], [90, 82, 9, 89, 38], [79, 74, 91, 163, 155], [93, 125, 133, 181, 174]]</t>
+  </si>
+  <si>
+    <t>[[79, 87, 123, 127, 169, 0], [108, 72, 17, 48, 59], [6, 88, 141, 166, 90], [125, 184, 119, 181, 154], [101, 74, 111, 32, 124]]</t>
+  </si>
+  <si>
+    <t>[[126, 75, 91, 146, 38, 0], [8, 6, 99, 5, 165], [125, 51, 127, 181, 122], [95, 52, 17, 40, 166], [21, 159, 164, 124, 123]]</t>
+  </si>
+  <si>
+    <t>[[136, 40, 100, 44, 79, 0], [34, 58, 63, 86, 17], [149, 90, 5, 124, 133], [68, 134, 181, 132, 4], [189, 37, 159, 38, 108]]</t>
+  </si>
+  <si>
+    <t>[[3, 134, 6, 59, 45, 0], [57, 127, 122, 90, 82], [107, 40, 125, 142, 185], [91, 181, 154, 38, 39], [100, 148, 32, 138, 119]]</t>
+  </si>
+  <si>
+    <t>[[40, 75, 16, 82, 90, 0], [46, 181, 1, 187, 81], [61, 66, 125, 152, 155], [122, 91, 29, 45, 186], [44, 166, 71, 79, 52]]</t>
+  </si>
+  <si>
+    <t>[[81, 32, 153, 61, 79, 0], [72, 91, 98, 92, 123], [179, 29, 74, 58, 127], [164, 1, 21, 119, 48], [40, 90, 181, 99, 130]]</t>
+  </si>
+  <si>
+    <t>[[79, 94, 153, 125, 171, 0], [110, 108, 53, 39, 184], [162, 114, 59, 83, 159], [32, 181, 146, 40, 135], [175, 90, 119, 28, 47]]</t>
+  </si>
+  <si>
+    <t>[[30, 141, 108, 189, 124, 0], [112, 16, 2, 90, 135], [50, 122, 83, 162, 33], [144, 75, 87, 52, 96], [92, 79, 125, 47, 56]]</t>
+  </si>
+  <si>
+    <t>[[6, 44, 181, 97, 185, 0], [20, 79, 133, 93, 108], [127, 76, 8, 47, 54], [51, 40, 61, 144, 157], [74, 155, 125, 128, 34]]</t>
+  </si>
+  <si>
+    <t>[[62, 79, 28, 91, 61, 0], [100, 16, 3, 90, 6], [77, 162, 123, 113, 127], [40, 45, 87, 181, 8], [166, 30, 163, 133, 177]]</t>
+  </si>
+  <si>
+    <t>[[179, 55, 163, 149, 184, 0], [173, 119, 147, 79, 188], [74, 159, 164, 97, 123], [125, 40, 35, 169, 151], [114, 181, 24, 132, 93]]</t>
+  </si>
+  <si>
+    <t>[[187, 104, 144, 139, 91, 0], [149, 130, 4, 184, 164], [2, 179, 66, 113, 181], [125, 40, 116, 90, 142], [96, 74, 34, 100, 86]]</t>
+  </si>
+  <si>
+    <t>[[130, 125, 108, 4, 187, 0], [44, 154, 40, 46, 28], [132, 136, 122, 181, 104], [35, 155, 82, 59, 183], [93, 9, 81, 79, 34]]</t>
+  </si>
+  <si>
+    <t>[[107, 164, 38, 34, 14, 0], [133, 103, 129, 88, 139], [179, 28, 189, 56, 125], [79, 40, 122, 85, 132], [182, 110, 181, 51, 80]]</t>
+  </si>
+  <si>
+    <t>[[79, 141, 81, 90, 133, 0], [83, 128, 111, 180, 124], [75, 188, 39, 50, 52], [181, 38, 59, 155, 154], [28, 66, 132, 178, 108]]</t>
+  </si>
+  <si>
+    <t>[[97, 5, 57, 52, 90, 0], [119, 40, 79, 127, 113], [124, 118, 69, 83, 125], [70, 46, 181, 37, 61], [99, 185, 92, 20, 95]]</t>
+  </si>
+  <si>
+    <t>[[97, 164, 38, 119, 141, 0], [182, 13, 79, 52, 125], [91, 40, 187, 136, 58], [87, 35, 124, 181, 104], [103, 4, 185, 138, 134]]</t>
+  </si>
+  <si>
+    <t>[[37, 78, 79, 6, 125, 0], [124, 113, 9, 114, 185], [56, 108, 159, 102, 53], [165, 38, 16, 147, 40], [81, 74, 181, 55, 90]]</t>
+  </si>
+  <si>
+    <t>[[133, 30, 166, 132, 52, 0], [184, 74, 79, 185, 17], [122, 90, 187, 88, 58], [110, 4, 127, 181, 57], [16, 61, 145, 125, 27]]</t>
+  </si>
+  <si>
+    <t>[[33, 145, 62, 90, 132, 0], [20, 30, 184, 127, 51], [181, 80, 125, 79, 128], [96, 171, 32, 40, 130], [177, 66, 24, 16, 112]]</t>
+  </si>
+  <si>
+    <t>[[6, 179, 44, 88, 139, 0], [87, 90, 68, 34, 38], [178, 50, 154, 56, 126], [155, 16, 80, 122, 104], [39, 103, 181, 40, 119]]</t>
+  </si>
+  <si>
+    <t>[[86, 130, 184, 4, 142, 0], [135, 74, 33, 80, 93], [79, 108, 164, 155, 32], [40, 90, 31, 123, 180], [97, 181, 166, 72, 122]]</t>
+  </si>
+  <si>
+    <t>[[111, 126, 92, 4, 21, 0], [187, 91, 65, 186, 143], [9, 38, 79, 133, 114], [40, 52, 153, 125, 30], [155, 6, 32, 90, 75]]</t>
+  </si>
+  <si>
+    <t>[[64, 79, 47, 96, 40, 0], [163, 1, 99, 182, 73], [164, 110, 136, 126, 90], [181, 141, 158, 91, 27], [52, 86, 148, 125, 93]]</t>
+  </si>
+  <si>
+    <t>[[149, 174, 125, 141, 87, 0], [66, 108, 90, 82, 142], [39, 104, 123, 189, 128], [9, 51, 100, 79, 80], [46, 1, 49, 40, 181]]</t>
+  </si>
+  <si>
+    <t>[[61, 9, 54, 28, 135, 0], [5, 14, 100, 169, 123], [107, 188, 35, 130, 79], [55, 125, 149, 159, 38], [182, 90, 181, 119, 71]]</t>
+  </si>
+  <si>
+    <t>[[90, 40, 74, 79, 141, 0], [9, 125, 44, 132, 72], [162, 157, 180, 108, 1], [38, 104, 126, 47, 120], [179, 56, 35, 149, 153]]</t>
+  </si>
+  <si>
+    <t>[[134, 142, 6, 154, 16, 0], [181, 139, 40, 61, 13], [79, 125, 41, 183, 62], [124, 22, 123, 132, 35], [108, 83, 182, 189, 82]]</t>
+  </si>
+  <si>
+    <t>[[88, 132, 81, 146, 126, 0], [138, 103, 108, 47, 59], [32, 38, 181, 163, 52], [134, 139, 44, 184, 90], [178, 50, 5, 79, 13]]</t>
+  </si>
+  <si>
+    <t>[[100, 148, 12, 39, 123, 0], [91, 166, 22, 141, 40], [23, 54, 59, 122, 181], [79, 119, 52, 180, 127], [51, 125, 120, 111, 50]]</t>
+  </si>
+  <si>
+    <t>[[110, 52, 132, 12, 114, 0], [7, 23, 91, 46, 125], [137, 24, 6, 71, 87], [40, 131, 1, 130, 181], [79, 163, 121, 90, 182]]</t>
+  </si>
+  <si>
+    <t>[[181, 126, 6, 40, 32, 0], [2, 52, 122, 139, 163], [94, 46, 124, 85, 93], [38, 87, 92, 186, 154], [149, 125, 81, 180, 79]]</t>
+  </si>
+  <si>
+    <t>[[181, 38, 91, 179, 80, 0], [30, 178, 44, 20, 49], [96, 40, 100, 129, 1], [73, 131, 32, 39, 90], [165, 112, 159, 150, 79]]</t>
+  </si>
+  <si>
+    <t>[[95, 52, 137, 113, 89, 0], [181, 125, 2, 90, 120], [100, 136, 12, 20, 79], [18, 72, 83, 4, 122], [133, 86, 132, 124, 108]]</t>
   </si>
 </sst>
 </file>
@@ -132,39 +702,39 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7113550661463608</v>
+        <v>0.8163011482895508</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>90.65</v>
+        <v>81.7</v>
       </c>
       <c r="D2" t="n">
-        <v>48.33</v>
+        <v>82.93999999999998</v>
       </c>
       <c r="E2" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>2064.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.707488566722712</v>
+        <v>0.8254014247181033</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>91.65999999999998</v>
+        <v>78.91999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>39.75000000000001</v>
+        <v>67.76999999999998</v>
       </c>
       <c r="E3" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -172,39 +742,39 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.707488566722712</v>
+        <v>0.8244585698903072</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>91.65999999999998</v>
+        <v>79.61</v>
       </c>
       <c r="D4" t="n">
-        <v>39.75000000000001</v>
+        <v>65.21000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>5539.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.707488566722712</v>
+        <v>0.8254120821542387</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>91.65999999999998</v>
+        <v>78.95</v>
       </c>
       <c r="D5" t="n">
-        <v>39.75000000000001</v>
+        <v>77.13999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -212,39 +782,39 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.707488566722712</v>
+        <v>0.8210150591228412</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>91.65999999999998</v>
+        <v>80.35999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>39.75000000000001</v>
+        <v>58.56</v>
       </c>
       <c r="E6" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>3670.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.707488566722712</v>
+        <v>0.8250669857910194</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>91.65999999999998</v>
+        <v>79.0</v>
       </c>
       <c r="D7" t="n">
-        <v>39.75000000000001</v>
+        <v>62.220000000000006</v>
       </c>
       <c r="E7" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -252,19 +822,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.707488566722712</v>
+        <v>0.8234560104232483</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>91.65999999999998</v>
+        <v>79.48000000000002</v>
       </c>
       <c r="D8" t="n">
-        <v>39.75000000000001</v>
+        <v>65.30000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -272,19 +842,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7071263422877694</v>
+        <v>0.8249538153963464</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>91.75000000000001</v>
+        <v>79.02000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>36.53</v>
+        <v>57.769999999999996</v>
       </c>
       <c r="E9" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -292,19 +862,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7071263422877694</v>
+        <v>0.8247082025040947</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>91.75000000000001</v>
+        <v>79.09</v>
       </c>
       <c r="D10" t="n">
-        <v>36.53</v>
+        <v>57.17000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -312,19 +882,19 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7071263422877694</v>
+        <v>0.8235695738764802</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>91.75000000000001</v>
+        <v>79.47000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>36.53</v>
+        <v>72.19</v>
       </c>
       <c r="E11" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -332,19 +902,19 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7071263422877694</v>
+        <v>0.8199934172045995</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>91.75000000000001</v>
+        <v>80.46</v>
       </c>
       <c r="D12" t="n">
-        <v>36.53</v>
+        <v>54.140000000000015</v>
       </c>
       <c r="E12" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -352,39 +922,39 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7071263422877694</v>
+        <v>0.8252278831000303</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>91.75000000000001</v>
+        <v>79.07000000000002</v>
       </c>
       <c r="D13" t="n">
-        <v>36.53</v>
+        <v>74.83</v>
       </c>
       <c r="E13" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>2331.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7015877673814106</v>
+        <v>0.8264588192298989</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>93.33999999999999</v>
+        <v>78.57000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>72.91000000000001</v>
+        <v>53.71</v>
       </c>
       <c r="E14" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -392,59 +962,59 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7015877673814106</v>
+        <v>0.8209322976875696</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>93.33999999999999</v>
+        <v>80.4</v>
       </c>
       <c r="D15" t="n">
-        <v>72.91000000000001</v>
+        <v>63.38000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>3682.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7015877673814106</v>
+        <v>0.8263591419684316</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>93.33999999999999</v>
+        <v>78.88</v>
       </c>
       <c r="D16" t="n">
-        <v>72.91000000000001</v>
+        <v>76.31</v>
       </c>
       <c r="E16" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>3905.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7015877673814106</v>
+        <v>0.8230837673196166</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>93.33999999999999</v>
+        <v>79.57</v>
       </c>
       <c r="D17" t="n">
-        <v>72.91000000000001</v>
+        <v>59.14</v>
       </c>
       <c r="E17" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -452,2859 +1022,2859 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7015877673814106</v>
+        <v>0.8233131790562284</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>93.33999999999999</v>
+        <v>79.58000000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>72.91000000000001</v>
+        <v>65.30000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>2054.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7015877673814106</v>
+        <v>0.8219381677266208</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>93.33999999999999</v>
+        <v>80.06</v>
       </c>
       <c r="D19" t="n">
-        <v>72.91000000000001</v>
+        <v>48.46</v>
       </c>
       <c r="E19" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>3639.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8269519468113229</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>94.40999999999998</v>
+        <v>78.62999999999998</v>
       </c>
       <c r="D20" t="n">
-        <v>41.589999999999996</v>
+        <v>106.11999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F20" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8183730134205343</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>94.40999999999998</v>
+        <v>80.99000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>41.589999999999996</v>
+        <v>71.9</v>
       </c>
       <c r="E21" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F21" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.823776576161879</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>94.40999999999998</v>
+        <v>79.37999999999998</v>
       </c>
       <c r="D22" t="n">
-        <v>41.589999999999996</v>
+        <v>63.28000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F22" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8288362387890472</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>94.40999999999998</v>
+        <v>77.92</v>
       </c>
       <c r="D23" t="n">
-        <v>41.589999999999996</v>
+        <v>68.11999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F23" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8259128096186469</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>94.40999999999998</v>
+        <v>78.99</v>
       </c>
       <c r="D24" t="n">
-        <v>41.589999999999996</v>
+        <v>77.56999999999998</v>
       </c>
       <c r="E24" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F24" t="n">
-        <v>7479.900000000001</v>
+        <v>3663.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8226617925508467</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>94.40999999999998</v>
+        <v>79.86</v>
       </c>
       <c r="D25" t="n">
-        <v>41.589999999999996</v>
+        <v>46.059999999999995</v>
       </c>
       <c r="E25" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F25" t="n">
-        <v>7479.900000000001</v>
+        <v>3807.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.825452857971391</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>94.40999999999998</v>
+        <v>78.89</v>
       </c>
       <c r="D26" t="n">
-        <v>41.589999999999996</v>
+        <v>63.07000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F26" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8243663459064826</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>94.40999999999998</v>
+        <v>79.22000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>41.589999999999996</v>
+        <v>67.12</v>
       </c>
       <c r="E27" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F27" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8243051986986836</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>94.40999999999998</v>
+        <v>79.28</v>
       </c>
       <c r="D28" t="n">
-        <v>41.589999999999996</v>
+        <v>64.21</v>
       </c>
       <c r="E28" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F28" t="n">
-        <v>7479.900000000001</v>
+        <v>1933.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8229569136664159</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>94.40999999999998</v>
+        <v>79.58000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>41.589999999999996</v>
+        <v>48.91</v>
       </c>
       <c r="E29" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F29" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8229622450364529</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>94.40999999999998</v>
+        <v>79.61</v>
       </c>
       <c r="D30" t="n">
-        <v>41.589999999999996</v>
+        <v>60.669999999999995</v>
       </c>
       <c r="E30" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F30" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8254341793353454</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>94.40999999999998</v>
+        <v>78.84999999999998</v>
       </c>
       <c r="D31" t="n">
-        <v>41.589999999999996</v>
+        <v>45.970000000000006</v>
       </c>
       <c r="E31" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F31" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8233333975200707</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>94.40999999999998</v>
+        <v>79.46</v>
       </c>
       <c r="D32" t="n">
-        <v>41.589999999999996</v>
+        <v>44.53000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F32" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8276996789779059</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>94.40999999999998</v>
+        <v>78.24000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>41.589999999999996</v>
+        <v>64.69999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F33" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.824413992331943</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>94.40999999999998</v>
+        <v>79.19000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>41.589999999999996</v>
+        <v>62.019999999999996</v>
       </c>
       <c r="E34" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F34" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8197431712746909</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>94.40999999999998</v>
+        <v>80.56</v>
       </c>
       <c r="D35" t="n">
-        <v>41.589999999999996</v>
+        <v>63.37</v>
       </c>
       <c r="E35" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F35" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8228385462520686</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>94.40999999999998</v>
+        <v>79.61999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>41.589999999999996</v>
+        <v>51.120000000000005</v>
       </c>
       <c r="E36" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F36" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8248480120390739</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>94.40999999999998</v>
+        <v>79.08</v>
       </c>
       <c r="D37" t="n">
-        <v>41.589999999999996</v>
+        <v>67.30999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F37" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.826780538188922</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>94.40999999999998</v>
+        <v>78.51</v>
       </c>
       <c r="D38" t="n">
-        <v>41.589999999999996</v>
+        <v>47.01</v>
       </c>
       <c r="E38" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F38" t="n">
-        <v>7479.900000000001</v>
+        <v>1913.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7003459792498739</v>
+        <v>0.8242565438939852</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>94.40999999999998</v>
+        <v>79.31000000000002</v>
       </c>
       <c r="D39" t="n">
-        <v>41.589999999999996</v>
+        <v>82.92</v>
       </c>
       <c r="E39" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F39" t="n">
-        <v>7479.900000000001</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7000440256900001</v>
+        <v>0.8241504199996359</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>94.12</v>
+        <v>79.29999999999998</v>
       </c>
       <c r="D40" t="n">
-        <v>51.849999999999994</v>
+        <v>72.10000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F40" t="n">
-        <v>5418.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7000440256900001</v>
+        <v>0.8230448459370087</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>94.12</v>
+        <v>79.74</v>
       </c>
       <c r="D41" t="n">
-        <v>51.849999999999994</v>
+        <v>45.58</v>
       </c>
       <c r="E41" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F41" t="n">
-        <v>5418.9</v>
+        <v>3742.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7000440256900001</v>
+        <v>0.8260235459771769</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>94.12</v>
+        <v>78.78999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>51.849999999999994</v>
+        <v>68.04</v>
       </c>
       <c r="E42" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F42" t="n">
-        <v>5418.9</v>
+        <v>1919.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8259806948912047</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>94.30999999999999</v>
+        <v>78.78</v>
       </c>
       <c r="D43" t="n">
-        <v>67.66</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F43" t="n">
-        <v>1843.2</v>
+        <v>2185.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8231006774216686</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>94.30999999999999</v>
+        <v>79.81</v>
       </c>
       <c r="D44" t="n">
-        <v>67.66</v>
+        <v>72.96</v>
       </c>
       <c r="E44" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F44" t="n">
-        <v>1843.2</v>
+        <v>3807.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8254493302559381</v>
       </c>
       <c r="B45" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>94.30999999999999</v>
+        <v>78.86999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>67.66</v>
+        <v>35.46000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1843.2</v>
+        <v>1815.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8251932869390758</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>94.30999999999999</v>
+        <v>79.18999999999998</v>
       </c>
       <c r="D46" t="n">
-        <v>67.66</v>
+        <v>72.89</v>
       </c>
       <c r="E46" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F46" t="n">
-        <v>1843.2</v>
+        <v>3732.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.826745194483435</v>
       </c>
       <c r="B47" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>94.30999999999999</v>
+        <v>78.51000000000002</v>
       </c>
       <c r="D47" t="n">
-        <v>67.66</v>
+        <v>62.050000000000004</v>
       </c>
       <c r="E47" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8230540872782208</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>94.30999999999999</v>
+        <v>79.64</v>
       </c>
       <c r="D48" t="n">
-        <v>67.66</v>
+        <v>77.46999999999998</v>
       </c>
       <c r="E48" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.824097022828729</v>
       </c>
       <c r="B49" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>94.30999999999999</v>
+        <v>79.29</v>
       </c>
       <c r="D49" t="n">
-        <v>67.66</v>
+        <v>64.43</v>
       </c>
       <c r="E49" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8256683655441829</v>
       </c>
       <c r="B50" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>94.30999999999999</v>
+        <v>78.94000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>67.66</v>
+        <v>92.78</v>
       </c>
       <c r="E50" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F50" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8251839860393643</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>94.30999999999999</v>
+        <v>79.14</v>
       </c>
       <c r="D51" t="n">
-        <v>67.66</v>
+        <v>53.72999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1843.2</v>
+        <v>3795.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8194081940303815</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>94.30999999999999</v>
+        <v>80.61000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>67.66</v>
+        <v>45.42999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F52" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8241046115848528</v>
       </c>
       <c r="B53" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C53" t="n">
-        <v>94.30999999999999</v>
+        <v>79.25</v>
       </c>
       <c r="D53" t="n">
-        <v>67.66</v>
+        <v>51.04</v>
       </c>
       <c r="E53" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F53" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8253533114284544</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="C54" t="n">
-        <v>94.30999999999999</v>
+        <v>79.32000000000002</v>
       </c>
       <c r="D54" t="n">
-        <v>67.66</v>
+        <v>54.56999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F54" t="n">
-        <v>1843.2</v>
+        <v>5559.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8256181903771543</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C55" t="n">
-        <v>94.30999999999999</v>
+        <v>78.79999999999998</v>
       </c>
       <c r="D55" t="n">
-        <v>67.66</v>
+        <v>47.58</v>
       </c>
       <c r="E55" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8248338073979028</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C56" t="n">
-        <v>94.30999999999999</v>
+        <v>79.05</v>
       </c>
       <c r="D56" t="n">
-        <v>67.66</v>
+        <v>55.959999999999994</v>
       </c>
       <c r="E56" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F56" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8257848975601674</v>
       </c>
       <c r="B57" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="C57" t="n">
-        <v>94.30999999999999</v>
+        <v>78.75000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>67.66</v>
+        <v>46.980000000000004</v>
       </c>
       <c r="E57" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F57" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8224823784516377</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="C58" t="n">
-        <v>94.30999999999999</v>
+        <v>79.78</v>
       </c>
       <c r="D58" t="n">
-        <v>67.66</v>
+        <v>54.32</v>
       </c>
       <c r="E58" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1843.2</v>
+        <v>1856.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8267104458303094</v>
       </c>
       <c r="B59" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C59" t="n">
-        <v>94.30999999999999</v>
+        <v>78.49000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>67.66</v>
+        <v>51.1</v>
       </c>
       <c r="E59" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8232408188051054</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="C60" t="n">
-        <v>94.30999999999999</v>
+        <v>79.53</v>
       </c>
       <c r="D60" t="n">
-        <v>67.66</v>
+        <v>61.14</v>
       </c>
       <c r="E60" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F60" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8232193326725722</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="C61" t="n">
-        <v>94.30999999999999</v>
+        <v>79.63</v>
       </c>
       <c r="D61" t="n">
-        <v>67.66</v>
+        <v>86.97999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F61" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8242966799624827</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C62" t="n">
-        <v>94.30999999999999</v>
+        <v>79.19</v>
       </c>
       <c r="D62" t="n">
-        <v>67.66</v>
+        <v>49.44</v>
       </c>
       <c r="E62" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F62" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8248518947311728</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C63" t="n">
-        <v>94.30999999999999</v>
+        <v>79.08</v>
       </c>
       <c r="D63" t="n">
-        <v>67.66</v>
+        <v>48.61000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F63" t="n">
-        <v>1843.2</v>
+        <v>1981.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8254771448711054</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="C64" t="n">
-        <v>94.30999999999999</v>
+        <v>78.86999999999999</v>
       </c>
       <c r="D64" t="n">
-        <v>67.66</v>
+        <v>58.72</v>
       </c>
       <c r="E64" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8255351308237291</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="C65" t="n">
-        <v>94.30999999999999</v>
+        <v>79.36999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>67.66</v>
+        <v>84.88000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F65" t="n">
-        <v>1843.2</v>
+        <v>5558.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.825213768623311</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C66" t="n">
-        <v>94.30999999999999</v>
+        <v>78.94000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>67.66</v>
+        <v>56.28</v>
       </c>
       <c r="E66" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F66" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8262358661515466</v>
       </c>
       <c r="B67" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="C67" t="n">
-        <v>94.30999999999999</v>
+        <v>78.68</v>
       </c>
       <c r="D67" t="n">
-        <v>67.66</v>
+        <v>68.8</v>
       </c>
       <c r="E67" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F67" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8236582873418298</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="C68" t="n">
-        <v>94.30999999999999</v>
+        <v>79.4</v>
       </c>
       <c r="D68" t="n">
-        <v>67.66</v>
+        <v>58.38999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8238587266376356</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="C69" t="n">
-        <v>94.30999999999999</v>
+        <v>79.39999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>67.66</v>
+        <v>76.17999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F69" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.824037909099005</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="C70" t="n">
-        <v>94.30999999999999</v>
+        <v>79.27</v>
       </c>
       <c r="D70" t="n">
-        <v>67.66</v>
+        <v>51.25</v>
       </c>
       <c r="E70" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F70" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8244807416742753</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="C71" t="n">
-        <v>94.30999999999999</v>
+        <v>79.19999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>67.66</v>
+        <v>71.09</v>
       </c>
       <c r="E71" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F71" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8254900635758333</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C72" t="n">
-        <v>94.30999999999999</v>
+        <v>78.93</v>
       </c>
       <c r="D72" t="n">
-        <v>67.66</v>
+        <v>77.87</v>
       </c>
       <c r="E72" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F72" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8233096986515949</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="C73" t="n">
-        <v>94.30999999999999</v>
+        <v>79.55000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>67.66</v>
+        <v>73.33000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F73" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8270617531001945</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="C74" t="n">
-        <v>94.30999999999999</v>
+        <v>79.26000000000002</v>
       </c>
       <c r="D74" t="n">
-        <v>67.66</v>
+        <v>72.45</v>
       </c>
       <c r="E74" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F74" t="n">
-        <v>1843.2</v>
+        <v>7669.8</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8237528469022273</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C75" t="n">
-        <v>94.30999999999999</v>
+        <v>79.4</v>
       </c>
       <c r="D75" t="n">
-        <v>67.66</v>
+        <v>67.37000000000003</v>
       </c>
       <c r="E75" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F75" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8259167859209331</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="C76" t="n">
-        <v>94.30999999999999</v>
+        <v>78.93999999999997</v>
       </c>
       <c r="D76" t="n">
-        <v>67.66</v>
+        <v>62.83000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F76" t="n">
-        <v>1843.2</v>
+        <v>3680.1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8227324791810238</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="C77" t="n">
-        <v>94.30999999999999</v>
+        <v>80.19000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>67.66</v>
+        <v>81.08</v>
       </c>
       <c r="E77" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F77" t="n">
-        <v>1843.2</v>
+        <v>5651.1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8269157855449901</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="C78" t="n">
-        <v>94.30999999999999</v>
+        <v>78.44</v>
       </c>
       <c r="D78" t="n">
-        <v>67.66</v>
+        <v>54.92</v>
       </c>
       <c r="E78" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F78" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8228556100131166</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="C79" t="n">
-        <v>94.30999999999999</v>
+        <v>79.63</v>
       </c>
       <c r="D79" t="n">
-        <v>67.66</v>
+        <v>56.790000000000006</v>
       </c>
       <c r="E79" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8249890306680677</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C80" t="n">
-        <v>94.30999999999999</v>
+        <v>79.14</v>
       </c>
       <c r="D80" t="n">
-        <v>67.66</v>
+        <v>93.14</v>
       </c>
       <c r="E80" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F80" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8241006992112886</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C81" t="n">
-        <v>94.30999999999999</v>
+        <v>79.29000000000002</v>
       </c>
       <c r="D81" t="n">
-        <v>67.66</v>
+        <v>64.77000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F81" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8249004688837123</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C82" t="n">
-        <v>94.30999999999999</v>
+        <v>79.05</v>
       </c>
       <c r="D82" t="n">
-        <v>67.66</v>
+        <v>62.680000000000014</v>
       </c>
       <c r="E82" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F82" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8216233977811075</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>87</v>
       </c>
       <c r="C83" t="n">
-        <v>94.30999999999999</v>
+        <v>80.00999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>67.66</v>
+        <v>63.480000000000004</v>
       </c>
       <c r="E83" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F83" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8223069494532341</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C84" t="n">
-        <v>94.30999999999999</v>
+        <v>79.85</v>
       </c>
       <c r="D84" t="n">
-        <v>67.66</v>
+        <v>47.02</v>
       </c>
       <c r="E84" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F84" t="n">
-        <v>1843.2</v>
+        <v>2472.3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6980875041186637</v>
+        <v>0.8243380600652936</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="C85" t="n">
-        <v>94.30999999999999</v>
+        <v>79.25</v>
       </c>
       <c r="D85" t="n">
-        <v>67.66</v>
+        <v>73.44999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F85" t="n">
-        <v>1843.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8224975600045108</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="C86" t="n">
-        <v>95.52000000000001</v>
+        <v>79.78</v>
       </c>
       <c r="D86" t="n">
-        <v>74.85000000000002</v>
+        <v>71.24</v>
       </c>
       <c r="E86" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F86" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.82140530043308</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>91</v>
       </c>
       <c r="C87" t="n">
-        <v>95.52000000000001</v>
+        <v>80.13000000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>74.85000000000002</v>
+        <v>79.48</v>
       </c>
       <c r="E87" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F87" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8282895987537516</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C88" t="n">
-        <v>95.52000000000001</v>
+        <v>78.01999999999997</v>
       </c>
       <c r="D88" t="n">
-        <v>74.85000000000002</v>
+        <v>46.9</v>
       </c>
       <c r="E88" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F88" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8240845659553079</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="C89" t="n">
-        <v>95.52000000000001</v>
+        <v>79.23999999999998</v>
       </c>
       <c r="D89" t="n">
-        <v>74.85000000000002</v>
+        <v>44.23</v>
       </c>
       <c r="E89" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F89" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8252554110345675</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="C90" t="n">
-        <v>95.52000000000001</v>
+        <v>78.97</v>
       </c>
       <c r="D90" t="n">
-        <v>74.85000000000002</v>
+        <v>69.97</v>
       </c>
       <c r="E90" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F90" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8228506156305694</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C91" t="n">
-        <v>95.52000000000001</v>
+        <v>79.67000000000002</v>
       </c>
       <c r="D91" t="n">
-        <v>74.85000000000002</v>
+        <v>69.27</v>
       </c>
       <c r="E91" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F91" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8214201919929955</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C92" t="n">
-        <v>95.52000000000001</v>
+        <v>80.08999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>74.85000000000002</v>
+        <v>69.75999999999998</v>
       </c>
       <c r="E92" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F92" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8264070562063781</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="C93" t="n">
-        <v>95.52000000000001</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>74.85000000000002</v>
+        <v>59.13999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F93" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8251651469227045</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="C94" t="n">
-        <v>95.52000000000001</v>
+        <v>79.14</v>
       </c>
       <c r="D94" t="n">
-        <v>74.85000000000002</v>
+        <v>92.96</v>
       </c>
       <c r="E94" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F94" t="n">
-        <v>1808.1</v>
+        <v>1948.5</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.824986131584919</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="C95" t="n">
-        <v>95.52000000000001</v>
+        <v>79.03000000000002</v>
       </c>
       <c r="D95" t="n">
-        <v>74.85000000000002</v>
+        <v>45.74999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F95" t="n">
-        <v>1808.1</v>
+        <v>1902.6</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8285367766721681</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C96" t="n">
-        <v>95.52000000000001</v>
+        <v>78.05999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>74.85000000000002</v>
+        <v>68.41</v>
       </c>
       <c r="E96" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F96" t="n">
-        <v>1808.1</v>
+        <v>1947.6</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8252636647267295</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="C97" t="n">
-        <v>95.52000000000001</v>
+        <v>78.91</v>
       </c>
       <c r="D97" t="n">
-        <v>74.85000000000002</v>
+        <v>50.339999999999996</v>
       </c>
       <c r="E97" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F97" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8241746554357917</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C98" t="n">
-        <v>95.52000000000001</v>
+        <v>79.22999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>74.85000000000002</v>
+        <v>51.220000000000006</v>
       </c>
       <c r="E98" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F98" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8261363856638451</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C99" t="n">
-        <v>95.52000000000001</v>
+        <v>79.15</v>
       </c>
       <c r="D99" t="n">
-        <v>74.85000000000002</v>
+        <v>61.71999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F99" t="n">
-        <v>1808.1</v>
+        <v>5806.8</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8268191205106379</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="C100" t="n">
-        <v>95.52000000000001</v>
+        <v>78.47</v>
       </c>
       <c r="D100" t="n">
-        <v>74.85000000000002</v>
+        <v>55.6</v>
       </c>
       <c r="E100" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F100" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8229788030551058</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="C101" t="n">
-        <v>95.52000000000001</v>
+        <v>79.63000000000002</v>
       </c>
       <c r="D101" t="n">
-        <v>74.85000000000002</v>
+        <v>68.52</v>
       </c>
       <c r="E101" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F101" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8212081667801477</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="C102" t="n">
-        <v>95.52000000000001</v>
+        <v>80.09</v>
       </c>
       <c r="D102" t="n">
-        <v>74.85000000000002</v>
+        <v>48.39000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8251927454131707</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="C103" t="n">
-        <v>95.52000000000001</v>
+        <v>79.07000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>74.85000000000002</v>
+        <v>90.79999999999998</v>
       </c>
       <c r="E103" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F103" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8222499872820351</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="C104" t="n">
-        <v>95.52000000000001</v>
+        <v>79.81</v>
       </c>
       <c r="D104" t="n">
-        <v>74.85000000000002</v>
+        <v>57.849999999999994</v>
       </c>
       <c r="E104" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F104" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.822537989540345</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="C105" t="n">
-        <v>95.52000000000001</v>
+        <v>79.75000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>74.85000000000002</v>
+        <v>65.83</v>
       </c>
       <c r="E105" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F105" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8266440721730345</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="C106" t="n">
-        <v>95.52000000000001</v>
+        <v>78.5</v>
       </c>
       <c r="D106" t="n">
-        <v>74.85000000000002</v>
+        <v>47.19</v>
       </c>
       <c r="E106" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F106" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8267078225097088</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="C107" t="n">
-        <v>95.52000000000001</v>
+        <v>78.58</v>
       </c>
       <c r="D107" t="n">
-        <v>74.85000000000002</v>
+        <v>64.59999999999998</v>
       </c>
       <c r="E107" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F107" t="n">
-        <v>1808.1</v>
+        <v>1933.2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8226820055253262</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>112</v>
       </c>
       <c r="C108" t="n">
-        <v>95.52000000000001</v>
+        <v>79.75000000000003</v>
       </c>
       <c r="D108" t="n">
-        <v>74.85000000000002</v>
+        <v>77.79</v>
       </c>
       <c r="E108" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F108" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8237577027109456</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="C109" t="n">
-        <v>95.52000000000001</v>
+        <v>79.40999999999998</v>
       </c>
       <c r="D109" t="n">
-        <v>74.85000000000002</v>
+        <v>70.74999999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F109" t="n">
-        <v>1808.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.826030049550074</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="C110" t="n">
-        <v>95.52000000000001</v>
+        <v>78.89</v>
       </c>
       <c r="D110" t="n">
-        <v>74.85000000000002</v>
+        <v>55.23</v>
       </c>
       <c r="E110" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F110" t="n">
-        <v>1808.1</v>
+        <v>3728.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8215068648523846</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C111" t="n">
-        <v>95.52000000000001</v>
+        <v>80.04999999999998</v>
       </c>
       <c r="D111" t="n">
-        <v>74.85000000000002</v>
+        <v>46.88999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F111" t="n">
-        <v>1808.1</v>
+        <v>1917.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.822863801299836</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="C112" t="n">
-        <v>95.52000000000001</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>74.85000000000002</v>
+        <v>51.88</v>
       </c>
       <c r="E112" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F112" t="n">
-        <v>1808.1</v>
+        <v>3663.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.6936923772863797</v>
+        <v>0.8215246158406723</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="C113" t="n">
-        <v>95.52000000000001</v>
+        <v>80.51</v>
       </c>
       <c r="D113" t="n">
-        <v>74.85000000000002</v>
+        <v>55.500000000000014</v>
       </c>
       <c r="E113" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F113" t="n">
-        <v>1808.1</v>
+        <v>5971.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8252896106504323</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="C114" t="n">
-        <v>95.75</v>
+        <v>78.95000000000002</v>
       </c>
       <c r="D114" t="n">
-        <v>63.12000000000001</v>
+        <v>66.97000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F114" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8224216941444745</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="C115" t="n">
-        <v>95.75</v>
+        <v>79.82000000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>63.12000000000001</v>
+        <v>61.839999999999996</v>
       </c>
       <c r="E115" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F115" t="n">
-        <v>1914.3</v>
+        <v>1872.9</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8229353990331618</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="C116" t="n">
-        <v>95.75</v>
+        <v>80.08</v>
       </c>
       <c r="D116" t="n">
-        <v>63.12000000000001</v>
+        <v>74.33000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F116" t="n">
-        <v>1914.3</v>
+        <v>5490.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8260023296370503</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
       <c r="C117" t="n">
-        <v>95.75</v>
+        <v>78.75</v>
       </c>
       <c r="D117" t="n">
-        <v>63.12000000000001</v>
+        <v>69.35999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F117" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8227708334507836</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="C118" t="n">
-        <v>95.75</v>
+        <v>79.70000000000002</v>
       </c>
       <c r="D118" t="n">
-        <v>63.12000000000001</v>
+        <v>71.21000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F118" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8241910673949961</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="C119" t="n">
-        <v>95.75</v>
+        <v>79.23</v>
       </c>
       <c r="D119" t="n">
-        <v>63.12000000000001</v>
+        <v>53.099999999999994</v>
       </c>
       <c r="E119" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F119" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8248542951961803</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="C120" t="n">
-        <v>95.75</v>
+        <v>79.09000000000002</v>
       </c>
       <c r="D120" t="n">
-        <v>63.12000000000001</v>
+        <v>70.82000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F120" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.826003985090431</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="C121" t="n">
-        <v>95.75</v>
+        <v>78.78999999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>63.12000000000001</v>
+        <v>66.89</v>
       </c>
       <c r="E121" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F121" t="n">
-        <v>1914.3</v>
+        <v>1882.8</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.823336639169833</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="C122" t="n">
-        <v>95.75</v>
+        <v>79.69000000000003</v>
       </c>
       <c r="D122" t="n">
-        <v>63.12000000000001</v>
+        <v>60.89999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F122" t="n">
-        <v>1914.3</v>
+        <v>3697.2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.828407806342526</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C123" t="n">
-        <v>95.75</v>
+        <v>78.04999999999998</v>
       </c>
       <c r="D123" t="n">
-        <v>63.12000000000001</v>
+        <v>69.69000000000003</v>
       </c>
       <c r="E123" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F123" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8254146538423871</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="C124" t="n">
-        <v>95.75</v>
+        <v>79.02000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>63.12000000000001</v>
+        <v>94.08</v>
       </c>
       <c r="E124" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F124" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8223677702540643</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="C125" t="n">
-        <v>95.75</v>
+        <v>79.82</v>
       </c>
       <c r="D125" t="n">
-        <v>63.12000000000001</v>
+        <v>54.53999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F125" t="n">
-        <v>1914.3</v>
+        <v>1968.3</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8244911875423264</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="C126" t="n">
-        <v>95.75</v>
+        <v>79.12</v>
       </c>
       <c r="D126" t="n">
-        <v>63.12000000000001</v>
+        <v>43.61999999999998</v>
       </c>
       <c r="E126" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F126" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8214858065418658</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="C127" t="n">
-        <v>95.75</v>
+        <v>80.05000000000003</v>
       </c>
       <c r="D127" t="n">
-        <v>63.12000000000001</v>
+        <v>63.40000000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F127" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8236291285199064</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>132</v>
       </c>
       <c r="C128" t="n">
-        <v>95.75</v>
+        <v>79.6</v>
       </c>
       <c r="D128" t="n">
-        <v>63.12000000000001</v>
+        <v>57.91</v>
       </c>
       <c r="E128" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F128" t="n">
-        <v>1914.3</v>
+        <v>3738.6</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.822077486474954</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="C129" t="n">
-        <v>95.75</v>
+        <v>80.03999999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>63.12000000000001</v>
+        <v>54.06</v>
       </c>
       <c r="E129" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F129" t="n">
-        <v>1914.3</v>
+        <v>3705.3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8236800809810942</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="C130" t="n">
-        <v>95.75</v>
+        <v>79.69</v>
       </c>
       <c r="D130" t="n">
-        <v>63.12000000000001</v>
+        <v>88.71000000000002</v>
       </c>
       <c r="E130" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F130" t="n">
-        <v>1914.3</v>
+        <v>3682.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8217859561388142</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C131" t="n">
-        <v>95.75</v>
+        <v>79.95</v>
       </c>
       <c r="D131" t="n">
-        <v>63.12000000000001</v>
+        <v>59.35</v>
       </c>
       <c r="E131" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F131" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.826402053977831</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="C132" t="n">
-        <v>95.75</v>
+        <v>78.81000000000002</v>
       </c>
       <c r="D132" t="n">
-        <v>63.12000000000001</v>
+        <v>64.78999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F132" t="n">
-        <v>1914.3</v>
+        <v>3735.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8215747661029607</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="C133" t="n">
-        <v>95.75</v>
+        <v>80.01000000000002</v>
       </c>
       <c r="D133" t="n">
-        <v>63.12000000000001</v>
+        <v>58.74000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F133" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8252058169264516</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="C134" t="n">
-        <v>95.75</v>
+        <v>79.45000000000002</v>
       </c>
       <c r="D134" t="n">
-        <v>63.12000000000001</v>
+        <v>78.45000000000002</v>
       </c>
       <c r="E134" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F134" t="n">
-        <v>1914.3</v>
+        <v>5618.7</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.823758472575299</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="C135" t="n">
-        <v>95.75</v>
+        <v>79.43</v>
       </c>
       <c r="D135" t="n">
-        <v>63.12000000000001</v>
+        <v>76.37</v>
       </c>
       <c r="E135" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F135" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8258975168980909</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="C136" t="n">
-        <v>95.75</v>
+        <v>78.95000000000002</v>
       </c>
       <c r="D136" t="n">
-        <v>63.12000000000001</v>
+        <v>60.440000000000005</v>
       </c>
       <c r="E136" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F136" t="n">
-        <v>1914.3</v>
+        <v>3792.6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8229649699533191</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="C137" t="n">
-        <v>95.75</v>
+        <v>79.67</v>
       </c>
       <c r="D137" t="n">
-        <v>63.12000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E137" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F137" t="n">
-        <v>1914.3</v>
+        <v>1822.5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8246548090935466</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="C138" t="n">
-        <v>95.75</v>
+        <v>79.12</v>
       </c>
       <c r="D138" t="n">
-        <v>63.12000000000001</v>
+        <v>62.120000000000005</v>
       </c>
       <c r="E138" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F138" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8240074796043109</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="C139" t="n">
-        <v>95.75</v>
+        <v>79.28999999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>63.12000000000001</v>
+        <v>55.510000000000005</v>
       </c>
       <c r="E139" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F139" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8225506836483844</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="C140" t="n">
-        <v>95.75</v>
+        <v>79.75000000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>63.12000000000001</v>
+        <v>66.97</v>
       </c>
       <c r="E140" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F140" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8261389102297974</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="C141" t="n">
-        <v>95.75</v>
+        <v>78.63000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>63.12000000000001</v>
+        <v>38.96000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F141" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8240497777788752</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="C142" t="n">
-        <v>95.75</v>
+        <v>79.31000000000002</v>
       </c>
       <c r="D142" t="n">
-        <v>63.12000000000001</v>
+        <v>66.36999999999999</v>
       </c>
       <c r="E142" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F142" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8239223522907692</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>147</v>
       </c>
       <c r="C143" t="n">
-        <v>95.75</v>
+        <v>79.30999999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>63.12000000000001</v>
+        <v>53.69</v>
       </c>
       <c r="E143" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F143" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8219508083272608</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C144" t="n">
-        <v>95.75</v>
+        <v>80.08000000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>63.12000000000001</v>
+        <v>56.09000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F144" t="n">
-        <v>1914.3</v>
+        <v>3680.1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8222819175137321</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="C145" t="n">
-        <v>95.75</v>
+        <v>79.79</v>
       </c>
       <c r="D145" t="n">
-        <v>63.12000000000001</v>
+        <v>53.959999999999994</v>
       </c>
       <c r="E145" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F145" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8235865899805874</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="C146" t="n">
-        <v>95.75</v>
+        <v>79.56000000000002</v>
       </c>
       <c r="D146" t="n">
-        <v>63.12000000000001</v>
+        <v>95.34999999999998</v>
       </c>
       <c r="E146" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F146" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8238234759566088</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="C147" t="n">
-        <v>95.75</v>
+        <v>79.36</v>
       </c>
       <c r="D147" t="n">
-        <v>63.12000000000001</v>
+        <v>61.21</v>
       </c>
       <c r="E147" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F147" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8147449892481561</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
       <c r="C148" t="n">
-        <v>95.75</v>
+        <v>82.02000000000002</v>
       </c>
       <c r="D148" t="n">
-        <v>63.12000000000001</v>
+        <v>61.3</v>
       </c>
       <c r="E148" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F148" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8255532866396362</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="C149" t="n">
-        <v>95.75</v>
+        <v>78.91000000000003</v>
       </c>
       <c r="D149" t="n">
-        <v>63.12000000000001</v>
+        <v>63.38000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F149" t="n">
-        <v>1914.3</v>
+        <v>1875.6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8211349494476474</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="C150" t="n">
-        <v>95.75</v>
+        <v>80.11</v>
       </c>
       <c r="D150" t="n">
-        <v>63.12000000000001</v>
+        <v>47.79000000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F150" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8246441689216474</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="C151" t="n">
-        <v>95.75</v>
+        <v>79.08000000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>63.12000000000001</v>
+        <v>45.74999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F151" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.822887119944927</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="C152" t="n">
-        <v>95.75</v>
+        <v>79.58999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>63.12000000000001</v>
+        <v>44.36000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F152" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8262152920262176</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="C153" t="n">
-        <v>95.75</v>
+        <v>78.75</v>
       </c>
       <c r="D153" t="n">
-        <v>63.12000000000001</v>
+        <v>85.80000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F153" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8232955765667728</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="C154" t="n">
-        <v>95.75</v>
+        <v>79.92</v>
       </c>
       <c r="D154" t="n">
-        <v>63.12000000000001</v>
+        <v>54.29999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F154" t="n">
-        <v>1914.3</v>
+        <v>5548.5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8256893787790316</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="C155" t="n">
-        <v>95.75</v>
+        <v>79.05000000000001</v>
       </c>
       <c r="D155" t="n">
-        <v>63.12000000000001</v>
+        <v>72.17999999999999</v>
       </c>
       <c r="E155" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F155" t="n">
-        <v>1914.3</v>
+        <v>3804.3</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8252038394177048</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="C156" t="n">
-        <v>95.75</v>
+        <v>79.0</v>
       </c>
       <c r="D156" t="n">
-        <v>63.12000000000001</v>
+        <v>74.21999999999998</v>
       </c>
       <c r="E156" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F156" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.8258090609781913</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="C157" t="n">
-        <v>95.75</v>
+        <v>78.84</v>
       </c>
       <c r="D157" t="n">
-        <v>63.12000000000001</v>
+        <v>78.67999999999999</v>
       </c>
       <c r="E157" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F157" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.6926943263357669</v>
+        <v>0.821964548244388</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="C158" t="n">
-        <v>95.75</v>
+        <v>79.89999999999998</v>
       </c>
       <c r="D158" t="n">
-        <v>63.12000000000001</v>
+        <v>60.11</v>
       </c>
       <c r="E158" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F158" t="n">
-        <v>1914.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.692599830643162</v>
+        <v>0.824499257097905</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>163</v>
       </c>
       <c r="C159" t="n">
-        <v>95.83</v>
+        <v>79.28000000000002</v>
       </c>
       <c r="D159" t="n">
-        <v>88.97</v>
+        <v>78.13000000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>2082.6</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8220037660713345</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>164</v>
       </c>
       <c r="C160" t="n">
-        <v>95.83</v>
+        <v>79.96</v>
       </c>
       <c r="D160" t="n">
-        <v>88.97</v>
+        <v>80.77999999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F160" t="n">
         <v>0.0</v>
@@ -3312,19 +3882,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8224975394643415</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="C161" t="n">
-        <v>95.83</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>88.97</v>
+        <v>76.75</v>
       </c>
       <c r="E161" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F161" t="n">
         <v>0.0</v>
@@ -3332,19 +3902,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8245450490477209</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>166</v>
       </c>
       <c r="C162" t="n">
-        <v>95.83</v>
+        <v>79.16000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>88.97</v>
+        <v>64.69</v>
       </c>
       <c r="E162" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F162" t="n">
         <v>0.0</v>
@@ -3352,19 +3922,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8208337263972451</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c r="C163" t="n">
-        <v>95.83</v>
+        <v>80.35000000000002</v>
       </c>
       <c r="D163" t="n">
-        <v>88.97</v>
+        <v>91.96999999999998</v>
       </c>
       <c r="E163" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F163" t="n">
         <v>0.0</v>
@@ -3372,39 +3942,39 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8243220309279062</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="C164" t="n">
-        <v>95.83</v>
+        <v>79.25999999999999</v>
       </c>
       <c r="D164" t="n">
-        <v>88.97</v>
+        <v>59.989999999999995</v>
       </c>
       <c r="E164" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>1890.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.692599830643162</v>
+        <v>0.817380801436537</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="C165" t="n">
-        <v>95.83</v>
+        <v>81.21999999999998</v>
       </c>
       <c r="D165" t="n">
-        <v>88.97</v>
+        <v>52.0</v>
       </c>
       <c r="E165" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F165" t="n">
         <v>0.0</v>
@@ -3412,39 +3982,39 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8249825407710449</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="C166" t="n">
-        <v>95.83</v>
+        <v>79.04999999999998</v>
       </c>
       <c r="D166" t="n">
-        <v>88.97</v>
+        <v>52.31</v>
       </c>
       <c r="E166" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>1963.8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8241743703668903</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>171</v>
       </c>
       <c r="C167" t="n">
-        <v>95.83</v>
+        <v>79.25</v>
       </c>
       <c r="D167" t="n">
-        <v>88.97</v>
+        <v>58.64</v>
       </c>
       <c r="E167" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F167" t="n">
         <v>0.0</v>
@@ -3452,39 +4022,39 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8230679661440189</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="C168" t="n">
-        <v>95.83</v>
+        <v>79.64</v>
       </c>
       <c r="D168" t="n">
-        <v>88.97</v>
+        <v>65.25000000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>1840.5</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8188346741957382</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>173</v>
       </c>
       <c r="C169" t="n">
-        <v>95.83</v>
+        <v>80.86000000000001</v>
       </c>
       <c r="D169" t="n">
-        <v>88.97</v>
+        <v>73.39000000000003</v>
       </c>
       <c r="E169" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F169" t="n">
         <v>0.0</v>
@@ -3492,39 +4062,39 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8235523970428568</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="C170" t="n">
-        <v>95.83</v>
+        <v>79.6</v>
       </c>
       <c r="D170" t="n">
-        <v>88.97</v>
+        <v>50.28</v>
       </c>
       <c r="E170" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>3717.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8228165786417342</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C171" t="n">
-        <v>95.83</v>
+        <v>79.69000000000001</v>
       </c>
       <c r="D171" t="n">
-        <v>88.97</v>
+        <v>72.17</v>
       </c>
       <c r="E171" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F171" t="n">
         <v>0.0</v>
@@ -3532,19 +4102,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8239969773928354</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="C172" t="n">
-        <v>95.83</v>
+        <v>79.34000000000002</v>
       </c>
       <c r="D172" t="n">
-        <v>88.97</v>
+        <v>70.71999999999998</v>
       </c>
       <c r="E172" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F172" t="n">
         <v>0.0</v>
@@ -3552,59 +4122,59 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8236276398075308</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="C173" t="n">
-        <v>95.83</v>
+        <v>79.58999999999999</v>
       </c>
       <c r="D173" t="n">
-        <v>88.97</v>
+        <v>55.45</v>
       </c>
       <c r="E173" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>3703.5</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8218479536845343</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>178</v>
       </c>
       <c r="C174" t="n">
-        <v>95.83</v>
+        <v>80.15</v>
       </c>
       <c r="D174" t="n">
-        <v>88.97</v>
+        <v>68.87</v>
       </c>
       <c r="E174" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>3686.4</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8279334421214366</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="C175" t="n">
-        <v>95.83</v>
+        <v>78.17999999999998</v>
       </c>
       <c r="D175" t="n">
-        <v>88.97</v>
+        <v>67.23</v>
       </c>
       <c r="E175" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F175" t="n">
         <v>0.0</v>
@@ -3612,19 +4182,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.692599830643162</v>
+        <v>0.822962951090217</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="C176" t="n">
-        <v>95.83</v>
+        <v>79.66000000000001</v>
       </c>
       <c r="D176" t="n">
-        <v>88.97</v>
+        <v>75.69999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F176" t="n">
         <v>0.0</v>
@@ -3632,19 +4202,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8257225762663275</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="C177" t="n">
-        <v>95.83</v>
+        <v>78.78000000000002</v>
       </c>
       <c r="D177" t="n">
-        <v>88.97</v>
+        <v>51.88999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F177" t="n">
         <v>0.0</v>
@@ -3652,19 +4222,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8234343170102778</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="C178" t="n">
-        <v>95.83</v>
+        <v>79.46000000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>88.97</v>
+        <v>56.459999999999994</v>
       </c>
       <c r="E178" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F178" t="n">
         <v>0.0</v>
@@ -3672,39 +4242,39 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8280524353185013</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c r="C179" t="n">
-        <v>95.83</v>
+        <v>78.18</v>
       </c>
       <c r="D179" t="n">
-        <v>88.97</v>
+        <v>60.660000000000004</v>
       </c>
       <c r="E179" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0</v>
+        <v>2006.1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8244328961493085</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="C180" t="n">
-        <v>95.83</v>
+        <v>79.17000000000002</v>
       </c>
       <c r="D180" t="n">
-        <v>88.97</v>
+        <v>57.040000000000006</v>
       </c>
       <c r="E180" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F180" t="n">
         <v>0.0</v>
@@ -3712,19 +4282,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8266000342006696</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="C181" t="n">
-        <v>95.83</v>
+        <v>78.5</v>
       </c>
       <c r="D181" t="n">
-        <v>88.97</v>
+        <v>41.22</v>
       </c>
       <c r="E181" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F181" t="n">
         <v>0.0</v>
@@ -3732,19 +4302,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8228743909219205</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="C182" t="n">
-        <v>95.83</v>
+        <v>79.69</v>
       </c>
       <c r="D182" t="n">
-        <v>88.97</v>
+        <v>76.8</v>
       </c>
       <c r="E182" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F182" t="n">
         <v>0.0</v>
@@ -3752,19 +4322,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8205145731949014</v>
       </c>
       <c r="B183" t="s">
-        <v>15</v>
+        <v>187</v>
       </c>
       <c r="C183" t="n">
-        <v>95.83</v>
+        <v>80.38000000000001</v>
       </c>
       <c r="D183" t="n">
-        <v>88.97</v>
+        <v>76.67999999999999</v>
       </c>
       <c r="E183" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F183" t="n">
         <v>0.0</v>
@@ -3772,19 +4342,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8194805141109635</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="C184" t="n">
-        <v>95.83</v>
+        <v>80.63000000000001</v>
       </c>
       <c r="D184" t="n">
-        <v>88.97</v>
+        <v>61.11</v>
       </c>
       <c r="E184" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F184" t="n">
         <v>0.0</v>
@@ -3792,139 +4362,139 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.692599830643162</v>
+        <v>0.818864295670459</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c r="C185" t="n">
-        <v>95.83</v>
+        <v>81.19999999999999</v>
       </c>
       <c r="D185" t="n">
-        <v>88.97</v>
+        <v>51.71</v>
       </c>
       <c r="E185" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0</v>
+        <v>5462.1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8238994701877395</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="C186" t="n">
-        <v>95.83</v>
+        <v>79.58</v>
       </c>
       <c r="D186" t="n">
-        <v>88.97</v>
+        <v>76.38000000000001</v>
       </c>
       <c r="E186" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0</v>
+        <v>3722.4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8241188914105625</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>191</v>
       </c>
       <c r="C187" t="n">
-        <v>95.83</v>
+        <v>79.33000000000001</v>
       </c>
       <c r="D187" t="n">
-        <v>88.97</v>
+        <v>64.03</v>
       </c>
       <c r="E187" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0</v>
+        <v>1859.4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.692599830643162</v>
+        <v>0.826806496462051</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="C188" t="n">
-        <v>95.83</v>
+        <v>78.69999999999997</v>
       </c>
       <c r="D188" t="n">
-        <v>88.97</v>
+        <v>59.470000000000006</v>
       </c>
       <c r="E188" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0</v>
+        <v>3963.6</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8205006024623108</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>193</v>
       </c>
       <c r="C189" t="n">
-        <v>95.83</v>
+        <v>80.5</v>
       </c>
       <c r="D189" t="n">
-        <v>88.97</v>
+        <v>53.43</v>
       </c>
       <c r="E189" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0</v>
+        <v>3703.5</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.692599830643162</v>
+        <v>0.82747030463788</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>194</v>
       </c>
       <c r="C190" t="n">
-        <v>95.83</v>
+        <v>78.34000000000002</v>
       </c>
       <c r="D190" t="n">
-        <v>88.97</v>
+        <v>59.48</v>
       </c>
       <c r="E190" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0</v>
+        <v>1890.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8237393442430774</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c r="C191" t="n">
-        <v>95.83</v>
+        <v>79.48</v>
       </c>
       <c r="D191" t="n">
-        <v>88.97</v>
+        <v>87.44999999999999</v>
       </c>
       <c r="E191" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F191" t="n">
         <v>0.0</v>
@@ -3932,79 +4502,79 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8259738911350336</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="C192" t="n">
-        <v>95.83</v>
+        <v>78.86</v>
       </c>
       <c r="D192" t="n">
-        <v>88.97</v>
+        <v>83.38999999999999</v>
       </c>
       <c r="E192" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0</v>
+        <v>1898.1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8228724146813189</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>197</v>
       </c>
       <c r="C193" t="n">
-        <v>95.83</v>
+        <v>79.85000000000001</v>
       </c>
       <c r="D193" t="n">
-        <v>88.97</v>
+        <v>68.70999999999998</v>
       </c>
       <c r="E193" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0</v>
+        <v>3690.9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8218202282020607</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>198</v>
       </c>
       <c r="C194" t="n">
-        <v>95.83</v>
+        <v>80.13999999999999</v>
       </c>
       <c r="D194" t="n">
-        <v>88.97</v>
+        <v>58.669999999999995</v>
       </c>
       <c r="E194" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0</v>
+        <v>3819.6</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8249507302932543</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="C195" t="n">
-        <v>95.83</v>
+        <v>79.07000000000004</v>
       </c>
       <c r="D195" t="n">
-        <v>88.97</v>
+        <v>73.14</v>
       </c>
       <c r="E195" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F195" t="n">
         <v>0.0</v>
@@ -4012,19 +4582,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8267908822164354</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c r="C196" t="n">
-        <v>95.83</v>
+        <v>78.50000000000001</v>
       </c>
       <c r="D196" t="n">
-        <v>88.97</v>
+        <v>63.13999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F196" t="n">
         <v>0.0</v>
@@ -4032,19 +4602,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8217923855381131</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>201</v>
       </c>
       <c r="C197" t="n">
-        <v>95.83</v>
+        <v>80.07</v>
       </c>
       <c r="D197" t="n">
-        <v>88.97</v>
+        <v>92.12</v>
       </c>
       <c r="E197" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F197" t="n">
         <v>0.0</v>
@@ -4052,19 +4622,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8228746894734768</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c r="C198" t="n">
-        <v>95.83</v>
+        <v>79.63000000000002</v>
       </c>
       <c r="D198" t="n">
-        <v>88.97</v>
+        <v>58.760000000000005</v>
       </c>
       <c r="E198" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F198" t="n">
         <v>0.0</v>
@@ -4072,39 +4642,39 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8231318907905041</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c r="C199" t="n">
-        <v>95.83</v>
+        <v>79.61</v>
       </c>
       <c r="D199" t="n">
-        <v>88.97</v>
+        <v>61.17999999999999</v>
       </c>
       <c r="E199" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0</v>
+        <v>1865.7</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8235305158999403</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>204</v>
       </c>
       <c r="C200" t="n">
-        <v>95.83</v>
+        <v>79.44</v>
       </c>
       <c r="D200" t="n">
-        <v>88.97</v>
+        <v>59.319999999999986</v>
       </c>
       <c r="E200" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F200" t="n">
         <v>0.0</v>
@@ -4112,19 +4682,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.692599830643162</v>
+        <v>0.8239634618570055</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c r="C201" t="n">
-        <v>95.83</v>
+        <v>79.33999999999997</v>
       </c>
       <c r="D201" t="n">
-        <v>88.97</v>
+        <v>67.83</v>
       </c>
       <c r="E201" t="n">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="F201" t="n">
         <v>0.0</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="14th" r:id="rId3" sheetId="1"/>
+    <sheet name="Add normal" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="35">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,82 +32,91 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 168, 134, 171, 100, 74, 28, 8, 156], [139, 130, 73, 105, 135, 114, 140, 95, 16, 102, 115], [188, 161, 26, 45, 160, 183, 184, 182, 57, 21]]</t>
+    <t>[[52, 151, 137, 78], [102, 135, 74, 34, 88], [164, 55, 30, 93], [131, 162, 171, 80], [31, 8, 87, 65, 176]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 168, 134, 171, 100, 74, 28, 8, 156], [139, 130, 73, 105, 135, 114, 140, 95, 23, 71, 56], [85, 121, 126, 117, 49, 169, 24, 9, 142, 50]]</t>
+    <t>[[87, 54, 83, 141, 80], [76, 178, 20, 109], [130, 103, 119, 8, 33], [133, 149, 124, 40], [162, 53, 73, 79]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 168, 134, 171, 100, 74, 28, 8, 156], [139, 130, 73, 105, 135, 114, 140, 95, 23, 71, 56], [34, 146, 164, 38, 138, 72, 3, 9, 101, 123]]</t>
+    <t>[[61, 93, 17, 121, 66], [60, 81, 35, 126, 57], [97, 161, 150, 158, 142], [51, 113, 11, 37], [167, 88, 103, 18]]</t>
   </si>
   <si>
-    <t>[[76, 23, 188, 42, 9, 105, 97, 157, 118, 88], [38, 66, 135, 176, 67, 151, 138, 51, 41, 102, 49, 40, 59, 65], [92, 184, 64, 129, 69, 14, 95, 152, 163, 180, 82], [98, 153, 60, 160, 12, 80, 159, 1, 113, 25], [130, 87, 20, 28, 75, 8, 131, 55, 126, 181, 103, 112]]</t>
+    <t>[[71, 167, 109, 49], [62, 183, 161, 20], [88, 51, 92, 23, 113], [138, 86, 9, 187, 133], [57, 52, 28, 18, 93]]</t>
   </si>
   <si>
-    <t>[[76, 23, 188, 42, 9, 105, 97, 157, 118, 88], [38, 66, 135, 176, 67, 151, 138, 51, 41, 102, 49, 40, 59, 65], [92, 184, 64, 129, 69, 14, 95, 152, 163, 180, 82], [98, 153, 60, 160, 12, 80, 159, 1, 113, 25], [130, 87, 20, 28, 75, 8, 131, 55, 126, 181, 165, 57]]</t>
+    <t>[[115, 33, 29, 111], [158, 184, 14, 75, 52], [56, 126, 104, 114], [146, 141, 150, 118, 145], [40, 187, 54, 135, 86]]</t>
   </si>
   <si>
-    <t>[[76, 23, 188, 42, 9, 105, 97, 157, 118, 88], [38, 66, 135, 176, 67, 151, 138, 51, 41, 102, 49, 40, 59, 65], [92, 184, 64, 129, 69, 14, 95, 152, 163, 180, 82], [98, 153, 60, 160, 12, 80, 159, 1, 113, 25], [130, 87, 20, 28, 75, 8, 131, 55, 126, 181, 165, 93]]</t>
+    <t>[[135, 62, 69, 180, 81], [35, 155, 14, 121, 91], [134, 44, 70, 178], [159, 146, 58, 82], [162, 79, 111, 8, 184]]</t>
   </si>
   <si>
-    <t>[[159, 138, 79, 114, 154, 1, 105, 151], [153, 141, 32, 142, 74, 85, 40, 43, 135, 58, 181, 155, 51, 140], [145, 59, 2, 38, 62, 71, 50, 14, 57, 176, 139], [130, 48, 17, 186, 27, 33, 123, 102, 91, 173], [52, 165, 4, 179, 11, 23, 118, 41, 44, 185, 3, 161, 80]]</t>
+    <t>[[87, 54, 83, 141, 80], [125, 121, 52, 14], [44, 135, 27, 8, 41], [95, 116, 76, 21, 162], [180, 42, 58, 12, 9]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 168, 134, 171, 100, 74, 28, 8, 156], [139, 130, 73, 105, 135, 114, 140, 95, 23, 71, 56], [34, 167, 18, 14, 145, 57, 169, 118, 2, 97, 9, 79]]</t>
+    <t>[[101, 155, 76, 104, 97], [79, 127, 67, 14], [140, 44, 157, 143, 103], [180, 6, 5, 118, 28], [68, 181, 1, 188, 161]]</t>
   </si>
   <si>
-    <t>[[113, 22, 61, 38, 112, 121, 82, 155, 77, 186, 163, 8, 85], [153, 56, 144, 104, 75, 42, 130, 16, 81, 67, 59, 161], [103, 43, 47, 50, 131, 11, 179, 14, 132, 68, 142], [148, 72, 185, 135, 183, 54, 165, 88, 90, 129], [27, 102, 124, 6, 3, 125, 69, 65, 44, 118, 184]]</t>
+    <t>[[56, 81, 80, 103, 12], [93, 37, 41, 51, 140], [4, 22, 115, 49], [116, 60, 32, 82, 9], [188, 59, 143, 57, 40]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 168, 134, 171, 100, 74, 28, 8, 156], [139, 130, 73, 105, 135, 114, 140, 95, 23, 71, 56], [34, 167, 18, 14, 145, 57, 169, 118, 2, 97, 9, 79, 113]]</t>
+    <t>[[5, 95, 14, 181, 141], [149, 154, 106, 20], [52, 178, 155, 8, 16], [100, 138, 69, 82, 135], [46, 70, 28, 91, 101]]</t>
   </si>
   <si>
-    <t>[[113, 22, 61, 38, 112, 121, 82, 155, 77, 186, 163, 8, 85], [153, 56, 144, 104, 75, 42, 130, 16, 81, 67, 59, 161], [103, 43, 47, 50, 131, 11, 179, 14, 132, 68, 142], [148, 72, 185, 135, 183, 54, 165, 88, 90, 129], [27, 102, 124, 6, 34, 167, 30, 80, 100, 49, 111, 52]]</t>
+    <t>[[5, 95, 14, 181, 141], [149, 154, 106, 20], [52, 178, 155, 8, 16], [100, 138, 69, 82, 135], [46, 70, 28, 91, 118]]</t>
   </si>
   <si>
-    <t>[[113, 22, 61, 38, 112, 121, 82, 155, 77, 186, 163, 8, 85], [153, 56, 144, 104, 75, 42, 130, 16, 81, 67, 59, 161], [103, 43, 47, 50, 131, 11, 179, 14, 132, 68, 142], [148, 72, 143, 108, 94, 156, 69, 119, 23, 167, 3, 25], [105, 41, 125, 118, 169, 35, 141, 78, 135, 17, 165]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 24, 85, 188], [34, 28, 46, 70, 81], [141, 167, 9, 103, 178, 112]]</t>
   </si>
   <si>
-    <t>[[113, 22, 61, 38, 112, 121, 82, 155, 77, 186, 163, 8, 85], [153, 56, 144, 104, 75, 42, 130, 16, 81, 67, 59, 161], [103, 43, 47, 50, 131, 11, 179, 14, 132, 68, 142], [148, 72, 185, 97, 62, 145, 53, 160, 58, 116], [98, 57, 136, 170, 141, 165, 184, 126, 133, 180, 102, 40, 51]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 158, 68, 67], [116, 53, 73, 66, 86]]</t>
   </si>
   <si>
-    <t>[[113, 22, 61, 38, 112, 121, 82, 155, 77, 186, 163, 8, 85], [153, 56, 144, 104, 75, 42, 130, 16, 81, 67, 59, 161], [118, 101, 12, 145, 188, 158, 68, 142, 96, 26, 182, 53], [150, 57, 160, 40, 180, 91, 134, 65, 50, 7, 103, 176], [117, 143, 133, 28, 108, 141, 24, 18, 114, 135, 165]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 158, 54, 21], [123, 35, 155, 86, 57]]</t>
   </si>
   <si>
-    <t>[[113, 22, 61, 38, 112, 121, 82, 155, 77, 186, 163, 8, 85], [153, 56, 144, 104, 75, 42, 130, 16, 81, 67, 59, 161], [103, 43, 47, 50, 131, 11, 179, 14, 132, 68, 142], [148, 72, 185, 135, 58, 79, 40, 34, 7, 6, 69, 180, 141], [98, 174, 159, 57, 66, 189, 118, 150, 28, 182, 173]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 141, 132, 110], [81, 103, 87, 134, 34]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 188, 25, 141, 77, 97, 98, 138]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 28, 106, 142], [65, 25, 141, 16, 80]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 168, 134, 188, 144, 28, 101, 3, 132, 32, 18], [11, 102, 131, 2, 112, 55, 155, 48, 161, 138, 81, 75, 178], [79, 186, 83, 141, 182, 117, 41, 97, 4, 91, 61]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 135, 90, 72], [141, 146, 45, 34, 81]]</t>
   </si>
   <si>
-    <t>[[113, 22, 61, 38, 112, 121, 82, 155, 77, 186, 163, 8, 85], [153, 56, 144, 104, 75, 42, 130, 16, 81, 67, 59, 161], [118, 101, 12, 145, 188, 52, 174, 165, 80, 103, 34, 41, 23], [119, 4, 148, 142, 3, 95, 66, 140, 83, 108, 158, 182, 141], [170, 180, 49, 89, 111, 44, 6, 94, 11, 54]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 158, 149, 82], [141, 63, 58, 125, 81]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 49, 133, 99, 77, 4, 18, 75, 143]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 28, 106, 142], [139, 76, 125, 141, 58]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 188, 25, 141, 86, 186, 118, 112, 75, 34]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 28, 106, 142], [139, 76, 125, 141, 118]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 188, 25, 88, 138, 86, 118, 145, 155, 121, 3]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 141, 132, 109], [130, 38, 113, 34, 90]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 188, 25, 88, 138, 86, 118, 145, 155, 121, 49, 59]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 49], [28, 135, 114, 38, 138]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 188, 25, 88, 138, 86, 118, 145, 155, 121, 49, 14]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 80, 152, 125], [20, 97, 108, 66, 155]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 188, 25, 88, 138, 86, 118, 145, 155, 54, 8, 102]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 49], [28, 135, 139, 81, 90]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 184, 98, 141, 8, 4, 86, 132, 23, 116, 18, 113]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 76], [57, 68, 79, 16, 34]]</t>
   </si>
   <si>
-    <t>[[68, 180, 94, 69, 80, 66, 87, 181, 176, 129, 46, 119, 157], [43, 60, 40, 42, 179, 170, 111, 108, 44, 58, 163, 65], [165, 134, 135, 30, 92, 52, 152, 29, 41, 144, 85, 81], [71, 151, 167, 125, 124, 103, 131, 105, 78, 95, 9, 82], [12, 38, 178, 28, 184, 98, 141, 8, 4, 86, 132, 3, 76, 155, 182]]</t>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 49], [28, 135, 93, 75, 90]]</t>
+  </si>
+  <si>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 184], [66, 1, 104, 9, 90]]</t>
+  </si>
+  <si>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 184], [66, 1, 9, 65, 125]]</t>
+  </si>
+  <si>
+    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 143], [130, 28, 93, 145, 80, 58]]</t>
   </si>
 </sst>
 </file>
@@ -180,19 +189,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8563753037620588</v>
+        <v>0.8358912839717922</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>151.67000000000002</v>
+        <v>78.12599999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>120.39999999999999</v>
+        <v>48.92999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>55.0</v>
+        <v>22.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -200,19 +209,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8563753037620588</v>
+        <v>0.8358912839717922</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>151.67000000000002</v>
+        <v>78.12599999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>120.39999999999999</v>
+        <v>48.92999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>55.0</v>
+        <v>22.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -220,19 +229,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8563753037620588</v>
+        <v>0.8322287663813717</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>151.67000000000002</v>
+        <v>79.25200000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>120.39999999999999</v>
+        <v>52.41</v>
       </c>
       <c r="E4" t="n">
-        <v>55.0</v>
+        <v>22.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -240,19 +249,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8563753037620588</v>
+        <v>0.8306077612426158</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>151.67000000000002</v>
+        <v>75.728</v>
       </c>
       <c r="D5" t="n">
-        <v>120.39999999999999</v>
+        <v>49.06000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>55.0</v>
+        <v>23.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -260,39 +269,39 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8536032750873551</v>
+        <v>0.8275429706221024</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>153.76999999999998</v>
+        <v>76.66</v>
       </c>
       <c r="D6" t="n">
-        <v>134.54999999999998</v>
+        <v>40.99</v>
       </c>
       <c r="E6" t="n">
-        <v>55.0</v>
+        <v>23.0</v>
       </c>
       <c r="F6" t="n">
-        <v>3599.999999999999</v>
+        <v>1824.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8525767281388521</v>
+        <v>0.8235429739476844</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>154.06999999999996</v>
+        <v>77.83399999999997</v>
       </c>
       <c r="D7" t="n">
-        <v>145.55999999999997</v>
+        <v>49.32</v>
       </c>
       <c r="E7" t="n">
-        <v>55.0</v>
+        <v>23.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -300,819 +309,819 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8382328636244822</v>
+        <v>0.8167635208884261</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>156.92000000000004</v>
+        <v>79.84399999999998</v>
       </c>
       <c r="D8" t="n">
-        <v>176.07999999999996</v>
+        <v>44.379999999999995</v>
       </c>
       <c r="E8" t="n">
-        <v>57.0</v>
+        <v>23.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3915.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8382328636244822</v>
+        <v>0.8167635208884261</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" t="n">
-        <v>156.92000000000004</v>
+        <v>79.84399999999998</v>
       </c>
       <c r="D9" t="n">
-        <v>176.07999999999996</v>
+        <v>44.379999999999995</v>
       </c>
       <c r="E9" t="n">
-        <v>57.0</v>
+        <v>23.0</v>
       </c>
       <c r="F9" t="n">
-        <v>3915.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8374730379007198</v>
+        <v>0.8167635208884261</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>157.37000000000006</v>
+        <v>79.84399999999998</v>
       </c>
       <c r="D10" t="n">
-        <v>172.59999999999997</v>
+        <v>44.379999999999995</v>
       </c>
       <c r="E10" t="n">
-        <v>57.0</v>
+        <v>23.0</v>
       </c>
       <c r="F10" t="n">
-        <v>3915.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8370658813714016</v>
+        <v>0.8061348029356388</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>157.60000000000005</v>
+        <v>79.51400000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>167.56999999999996</v>
+        <v>106.54000000000002</v>
       </c>
       <c r="E11" t="n">
-        <v>57.0</v>
+        <v>24.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3915.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8370658813714016</v>
+        <v>0.8061348029356388</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>157.60000000000005</v>
+        <v>79.51400000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>167.56999999999996</v>
+        <v>106.54000000000002</v>
       </c>
       <c r="E12" t="n">
-        <v>57.0</v>
+        <v>24.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3915.9</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.834864035350198</v>
+        <v>0.8035867908324198</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" t="n">
-        <v>162.26</v>
+        <v>79.97399999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>189.32999999999998</v>
+        <v>59.93000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
       <c r="F13" t="n">
-        <v>3859.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.834864035350198</v>
+        <v>0.8035867908324198</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>162.26</v>
+        <v>79.97399999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>189.32999999999998</v>
+        <v>59.93000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>56.0</v>
+        <v>24.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3859.2</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8312475973566748</v>
+        <v>0.8035867908324198</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>160.74999999999997</v>
+        <v>79.97399999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>136.06999999999996</v>
+        <v>59.93000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>57.0</v>
+        <v>24.0</v>
       </c>
       <c r="F15" t="n">
-        <v>2204.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8311152999453509</v>
+        <v>0.8035867908324198</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>161.22000000000003</v>
+        <v>79.97399999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>175.87</v>
+        <v>59.93000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>57.0</v>
+        <v>24.0</v>
       </c>
       <c r="F16" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8311152999453509</v>
+        <v>0.8032240770683657</v>
       </c>
       <c r="B17" t="s">
         <v>14</v>
       </c>
       <c r="C17" t="n">
-        <v>161.22000000000003</v>
+        <v>80.05800000000002</v>
       </c>
       <c r="D17" t="n">
-        <v>175.87</v>
+        <v>54.599999999999994</v>
       </c>
       <c r="E17" t="n">
-        <v>57.0</v>
+        <v>24.0</v>
       </c>
       <c r="F17" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8311152999453509</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>161.22000000000003</v>
+        <v>85.862</v>
       </c>
       <c r="D18" t="n">
-        <v>175.87</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E18" t="n">
-        <v>57.0</v>
+        <v>24.0</v>
       </c>
       <c r="F18" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8311152999453509</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>161.22000000000003</v>
+        <v>85.862</v>
       </c>
       <c r="D19" t="n">
-        <v>175.87</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E19" t="n">
-        <v>57.0</v>
+        <v>24.0</v>
       </c>
       <c r="F19" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8213965622377571</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>163.55999999999997</v>
+        <v>85.862</v>
       </c>
       <c r="D20" t="n">
-        <v>137.86999999999998</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E20" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F20" t="n">
-        <v>2204.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8213965622377571</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>163.55999999999997</v>
+        <v>85.862</v>
       </c>
       <c r="D21" t="n">
-        <v>137.86999999999998</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E21" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F21" t="n">
-        <v>2204.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8213965622377571</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>163.55999999999997</v>
+        <v>85.862</v>
       </c>
       <c r="D22" t="n">
-        <v>137.86999999999998</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E22" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8213965622377571</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>163.55999999999997</v>
+        <v>85.862</v>
       </c>
       <c r="D23" t="n">
-        <v>137.86999999999998</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E23" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F23" t="n">
-        <v>2204.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8213965622377571</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>163.55999999999997</v>
+        <v>85.862</v>
       </c>
       <c r="D24" t="n">
-        <v>137.86999999999998</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E24" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F24" t="n">
-        <v>2204.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8213965622377571</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>163.55999999999997</v>
+        <v>85.862</v>
       </c>
       <c r="D25" t="n">
-        <v>137.86999999999998</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E25" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.1</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>164.94999999999996</v>
+        <v>85.862</v>
       </c>
       <c r="D26" t="n">
-        <v>188.63000000000002</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E26" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F26" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7837269319670364</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>164.94999999999996</v>
+        <v>85.862</v>
       </c>
       <c r="D27" t="n">
-        <v>188.63000000000002</v>
+        <v>59.959999999999994</v>
       </c>
       <c r="E27" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F27" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7810434574030386</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="n">
-        <v>164.94999999999996</v>
+        <v>86.678</v>
       </c>
       <c r="D28" t="n">
-        <v>188.63000000000002</v>
+        <v>63.19999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F28" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7810434574030386</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>164.94999999999996</v>
+        <v>86.678</v>
       </c>
       <c r="D29" t="n">
-        <v>188.63000000000002</v>
+        <v>63.19999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F29" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7810434574030386</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>164.94999999999996</v>
+        <v>86.678</v>
       </c>
       <c r="D30" t="n">
-        <v>188.63000000000002</v>
+        <v>63.19999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F30" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7810434574030386</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>164.94999999999996</v>
+        <v>86.678</v>
       </c>
       <c r="D31" t="n">
-        <v>188.63000000000002</v>
+        <v>63.19999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F31" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7810434574030386</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>164.94999999999996</v>
+        <v>86.678</v>
       </c>
       <c r="D32" t="n">
-        <v>188.63000000000002</v>
+        <v>63.19999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F32" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7810434574030386</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>164.94999999999996</v>
+        <v>86.678</v>
       </c>
       <c r="D33" t="n">
-        <v>188.63000000000002</v>
+        <v>63.19999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>58.0</v>
+        <v>24.0</v>
       </c>
       <c r="F33" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8198337344957528</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
-        <v>164.94999999999996</v>
+        <v>88.056</v>
       </c>
       <c r="D34" t="n">
-        <v>188.63000000000002</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>58.0</v>
+        <v>25.0</v>
       </c>
       <c r="F34" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.8191323016926987</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B35" t="s">
         <v>17</v>
       </c>
       <c r="C35" t="n">
-        <v>162.20000000000002</v>
+        <v>88.056</v>
       </c>
       <c r="D35" t="n">
-        <v>183.08000000000004</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F35" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D36" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F36" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D37" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E37" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F37" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D38" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F38" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D39" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F39" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D40" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F40" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D41" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F41" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D42" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F42" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D43" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F43" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D44" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F44" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D45" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F45" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D46" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F46" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8151178075125802</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" t="n">
-        <v>164.58</v>
+        <v>88.056</v>
       </c>
       <c r="D47" t="n">
-        <v>170.09000000000003</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>59.0</v>
+        <v>25.0</v>
       </c>
       <c r="F47" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8092688601598597</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C48" t="n">
-        <v>164.71999999999997</v>
+        <v>88.056</v>
       </c>
       <c r="D48" t="n">
-        <v>198.04999999999995</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1120,19 +1129,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8092688601598597</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49" t="n">
-        <v>164.71999999999997</v>
+        <v>88.056</v>
       </c>
       <c r="D49" t="n">
-        <v>198.04999999999995</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -1140,19 +1149,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8092688601598597</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>164.71999999999997</v>
+        <v>88.056</v>
       </c>
       <c r="D50" t="n">
-        <v>198.04999999999995</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -1160,19 +1169,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8092688601598597</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>164.71999999999997</v>
+        <v>88.056</v>
       </c>
       <c r="D51" t="n">
-        <v>198.04999999999995</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -1180,19 +1189,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8092688601598597</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C52" t="n">
-        <v>164.71999999999997</v>
+        <v>88.056</v>
       </c>
       <c r="D52" t="n">
-        <v>198.04999999999995</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -1200,159 +1209,159 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8032401275637211</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C53" t="n">
-        <v>168.73</v>
+        <v>88.056</v>
       </c>
       <c r="D53" t="n">
-        <v>191.33000000000004</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F53" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8032401275637211</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C54" t="n">
-        <v>168.73</v>
+        <v>88.056</v>
       </c>
       <c r="D54" t="n">
-        <v>191.33000000000004</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F54" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8032401275637211</v>
+        <v>0.7635790885727322</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C55" t="n">
-        <v>168.73</v>
+        <v>88.056</v>
       </c>
       <c r="D55" t="n">
-        <v>191.33000000000004</v>
+        <v>64.94999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F55" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8032401275637211</v>
+        <v>0.7622940114605864</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C56" t="n">
-        <v>168.73</v>
+        <v>88.39000000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>191.33000000000004</v>
+        <v>55.67</v>
       </c>
       <c r="E56" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F56" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8032401275637211</v>
+        <v>0.7622940114605864</v>
       </c>
       <c r="B57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
-        <v>168.73</v>
+        <v>88.39000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>191.33000000000004</v>
+        <v>55.67</v>
       </c>
       <c r="E57" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F57" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8032401275637211</v>
+        <v>0.7622940114605864</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C58" t="n">
-        <v>168.73</v>
+        <v>88.39000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>191.33000000000004</v>
+        <v>55.67</v>
       </c>
       <c r="E58" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F58" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8032401275637211</v>
+        <v>0.7622940114605864</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C59" t="n">
-        <v>168.73</v>
+        <v>88.39000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>191.33000000000004</v>
+        <v>55.67</v>
       </c>
       <c r="E59" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F59" t="n">
-        <v>3719.7</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8029253222092868</v>
+        <v>0.7622940114605864</v>
       </c>
       <c r="B60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C60" t="n">
-        <v>168.39999999999998</v>
+        <v>88.39000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>161.33</v>
+        <v>55.67</v>
       </c>
       <c r="E60" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -1360,19 +1369,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8029253222092868</v>
+        <v>0.7622940114605864</v>
       </c>
       <c r="B61" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C61" t="n">
-        <v>168.39999999999998</v>
+        <v>88.39000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>161.33</v>
+        <v>55.67</v>
       </c>
       <c r="E61" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
@@ -1380,19 +1389,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8029253222092868</v>
+        <v>0.7622940114605864</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C62" t="n">
-        <v>168.39999999999998</v>
+        <v>88.39000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>161.33</v>
+        <v>55.67</v>
       </c>
       <c r="E62" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -1400,19 +1409,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8029253222092868</v>
+        <v>0.7622940114605864</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>168.39999999999998</v>
+        <v>88.39000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>161.33</v>
+        <v>55.67</v>
       </c>
       <c r="E63" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -1420,19 +1429,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8000671003214104</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>170.17999999999998</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D64" t="n">
-        <v>175.69000000000003</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -1440,19 +1449,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8000671003214104</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>170.17999999999998</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D65" t="n">
-        <v>175.69000000000003</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -1460,19 +1469,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8000671003214104</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C66" t="n">
-        <v>170.17999999999998</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D66" t="n">
-        <v>175.69000000000003</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -1480,19 +1489,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8000671003214104</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C67" t="n">
-        <v>170.17999999999998</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D67" t="n">
-        <v>175.69000000000003</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>60.0</v>
+        <v>25.0</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -1500,39 +1509,39 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.7999246142621381</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>167.45999999999998</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D68" t="n">
-        <v>216.51</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1838.6999999999994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>170.75</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D69" t="n">
-        <v>144.77999999999997</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -1540,19 +1549,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C70" t="n">
-        <v>170.75</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D70" t="n">
-        <v>144.77999999999997</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -1560,19 +1569,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C71" t="n">
-        <v>170.75</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D71" t="n">
-        <v>144.77999999999997</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -1580,19 +1589,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C72" t="n">
-        <v>170.75</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D72" t="n">
-        <v>144.77999999999997</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -1600,19 +1609,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7555078032736579</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C73" t="n">
-        <v>170.75</v>
+        <v>90.47800000000002</v>
       </c>
       <c r="D73" t="n">
-        <v>144.77999999999997</v>
+        <v>72.46000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -1620,19 +1629,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7544171022452862</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C74" t="n">
-        <v>170.75</v>
+        <v>90.838</v>
       </c>
       <c r="D74" t="n">
-        <v>144.77999999999997</v>
+        <v>78.62</v>
       </c>
       <c r="E74" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -1640,19 +1649,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7544171022452862</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C75" t="n">
-        <v>170.75</v>
+        <v>90.838</v>
       </c>
       <c r="D75" t="n">
-        <v>144.77999999999997</v>
+        <v>78.62</v>
       </c>
       <c r="E75" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1660,19 +1669,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7488848834119413</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C76" t="n">
-        <v>170.75</v>
+        <v>92.55000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>144.77999999999997</v>
+        <v>89.25</v>
       </c>
       <c r="E76" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1680,19 +1689,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7488848834119413</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C77" t="n">
-        <v>170.75</v>
+        <v>92.55000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>144.77999999999997</v>
+        <v>89.25</v>
       </c>
       <c r="E77" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1700,19 +1709,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7488848834119413</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C78" t="n">
-        <v>170.75</v>
+        <v>92.55000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>144.77999999999997</v>
+        <v>89.25</v>
       </c>
       <c r="E78" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1720,19 +1729,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.7938080945851503</v>
+        <v>0.7488848834119413</v>
       </c>
       <c r="B79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>170.75</v>
+        <v>92.55000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>144.77999999999997</v>
+        <v>89.25</v>
       </c>
       <c r="E79" t="n">
-        <v>61.0</v>
+        <v>25.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1740,19 +1749,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.782784715644046</v>
+        <v>0.7488848834119413</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C80" t="n">
-        <v>174.45999999999998</v>
+        <v>92.55000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>184.53</v>
+        <v>89.25</v>
       </c>
       <c r="E80" t="n">
-        <v>62.0</v>
+        <v>25.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1760,19 +1769,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.782784715644046</v>
+        <v>0.7488848834119413</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C81" t="n">
-        <v>174.45999999999998</v>
+        <v>92.55000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>184.53</v>
+        <v>89.25</v>
       </c>
       <c r="E81" t="n">
-        <v>62.0</v>
+        <v>25.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1780,19 +1789,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.782784715644046</v>
+        <v>0.7488848834119413</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C82" t="n">
-        <v>174.45999999999998</v>
+        <v>92.55000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>184.53</v>
+        <v>89.25</v>
       </c>
       <c r="E82" t="n">
-        <v>62.0</v>
+        <v>25.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -1800,19 +1809,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.782784715644046</v>
+        <v>0.7488169877401236</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C83" t="n">
-        <v>174.45999999999998</v>
+        <v>92.492</v>
       </c>
       <c r="D83" t="n">
-        <v>184.53</v>
+        <v>77.74000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>62.0</v>
+        <v>25.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -1820,19 +1829,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.782784715644046</v>
+        <v>0.7488169877401236</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C84" t="n">
-        <v>174.45999999999998</v>
+        <v>92.492</v>
       </c>
       <c r="D84" t="n">
-        <v>184.53</v>
+        <v>77.74000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>62.0</v>
+        <v>25.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -1840,19 +1849,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B85" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D85" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E85" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -1860,19 +1869,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C86" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D86" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E86" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -1880,19 +1889,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B87" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D87" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E87" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -1900,19 +1909,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C88" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D88" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E88" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -1920,19 +1929,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B89" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D89" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E89" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1940,19 +1949,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C90" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D90" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E90" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -1960,19 +1969,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B91" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C91" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D91" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E91" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1980,19 +1989,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B92" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D92" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E92" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -2000,19 +2009,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.746522930943694</v>
       </c>
       <c r="B93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C93" t="n">
-        <v>176.46999999999997</v>
+        <v>93.08</v>
       </c>
       <c r="D93" t="n">
-        <v>164.09000000000003</v>
+        <v>61.300000000000004</v>
       </c>
       <c r="E93" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -2020,19 +2029,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C94" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D94" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E94" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -2040,19 +2049,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C95" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D95" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E95" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -2060,19 +2069,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C96" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D96" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E96" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -2080,19 +2089,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C97" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D97" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E97" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2100,19 +2109,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B98" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C98" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D98" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E98" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -2120,19 +2129,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C99" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D99" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E99" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -2140,19 +2149,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C100" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D100" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E100" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -2160,19 +2169,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C101" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D101" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E101" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -2180,19 +2189,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C102" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D102" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E102" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -2200,19 +2209,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C103" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D103" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E103" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -2220,19 +2229,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7742492565517829</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C104" t="n">
-        <v>176.46999999999997</v>
+        <v>93.286</v>
       </c>
       <c r="D104" t="n">
-        <v>164.09000000000003</v>
+        <v>74.65</v>
       </c>
       <c r="E104" t="n">
-        <v>63.0</v>
+        <v>25.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2240,19 +2249,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B105" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C105" t="n">
-        <v>178.95999999999998</v>
+        <v>93.286</v>
       </c>
       <c r="D105" t="n">
-        <v>165.77</v>
+        <v>74.65</v>
       </c>
       <c r="E105" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -2260,19 +2269,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B106" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C106" t="n">
-        <v>178.95999999999998</v>
+        <v>93.286</v>
       </c>
       <c r="D106" t="n">
-        <v>165.77</v>
+        <v>74.65</v>
       </c>
       <c r="E106" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -2280,19 +2289,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7460790307526045</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C107" t="n">
-        <v>178.95999999999998</v>
+        <v>93.286</v>
       </c>
       <c r="D107" t="n">
-        <v>165.77</v>
+        <v>74.65</v>
       </c>
       <c r="E107" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -2300,19 +2309,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7444181811649169</v>
       </c>
       <c r="B108" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C108" t="n">
-        <v>178.95999999999998</v>
+        <v>93.76</v>
       </c>
       <c r="D108" t="n">
-        <v>165.77</v>
+        <v>71.33000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -2320,19 +2329,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7444181811649169</v>
       </c>
       <c r="B109" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C109" t="n">
-        <v>178.95999999999998</v>
+        <v>93.76</v>
       </c>
       <c r="D109" t="n">
-        <v>165.77</v>
+        <v>71.33000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -2340,19 +2349,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7444181811649169</v>
       </c>
       <c r="B110" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C110" t="n">
-        <v>178.95999999999998</v>
+        <v>93.76</v>
       </c>
       <c r="D110" t="n">
-        <v>165.77</v>
+        <v>71.33000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -2360,19 +2369,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7444181811649169</v>
       </c>
       <c r="B111" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C111" t="n">
-        <v>178.95999999999998</v>
+        <v>93.76</v>
       </c>
       <c r="D111" t="n">
-        <v>165.77</v>
+        <v>71.33000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2380,19 +2389,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7444181811649169</v>
       </c>
       <c r="B112" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C112" t="n">
-        <v>178.95999999999998</v>
+        <v>93.76</v>
       </c>
       <c r="D112" t="n">
-        <v>165.77</v>
+        <v>71.33000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -2400,19 +2409,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7444181811649169</v>
       </c>
       <c r="B113" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C113" t="n">
-        <v>178.95999999999998</v>
+        <v>93.76</v>
       </c>
       <c r="D113" t="n">
-        <v>165.77</v>
+        <v>71.33000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -2420,19 +2429,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7444181811649169</v>
       </c>
       <c r="B114" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C114" t="n">
-        <v>178.95999999999998</v>
+        <v>93.76</v>
       </c>
       <c r="D114" t="n">
-        <v>165.77</v>
+        <v>71.33000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -2440,19 +2449,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7444181811649169</v>
       </c>
       <c r="B115" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C115" t="n">
-        <v>178.95999999999998</v>
+        <v>93.76</v>
       </c>
       <c r="D115" t="n">
-        <v>165.77</v>
+        <v>71.33000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -2460,19 +2469,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B116" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C116" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D116" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E116" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -2480,19 +2489,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B117" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C117" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D117" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E117" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -2500,19 +2509,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C118" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D118" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E118" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2520,19 +2529,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B119" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C119" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D119" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E119" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -2540,19 +2549,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C120" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D120" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E120" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -2560,19 +2569,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C121" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D121" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E121" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -2580,19 +2589,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C122" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D122" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E122" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -2600,19 +2609,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D123" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E123" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -2620,19 +2629,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7436896092452593</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C124" t="n">
-        <v>178.95999999999998</v>
+        <v>93.986</v>
       </c>
       <c r="D124" t="n">
-        <v>165.77</v>
+        <v>72.89</v>
       </c>
       <c r="E124" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -2640,19 +2649,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B125" t="s">
         <v>27</v>
       </c>
       <c r="C125" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D125" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -2660,19 +2669,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B126" t="s">
         <v>27</v>
       </c>
       <c r="C126" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D126" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E126" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F126" t="n">
         <v>0.0</v>
@@ -2680,19 +2689,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B127" t="s">
         <v>27</v>
       </c>
       <c r="C127" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D127" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F127" t="n">
         <v>0.0</v>
@@ -2700,19 +2709,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B128" t="s">
         <v>27</v>
       </c>
       <c r="C128" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D128" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F128" t="n">
         <v>0.0</v>
@@ -2720,19 +2729,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B129" t="s">
         <v>27</v>
       </c>
       <c r="C129" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D129" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F129" t="n">
         <v>0.0</v>
@@ -2740,19 +2749,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B130" t="s">
         <v>27</v>
       </c>
       <c r="C130" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D130" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -2760,19 +2769,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B131" t="s">
         <v>27</v>
       </c>
       <c r="C131" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D131" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F131" t="n">
         <v>0.0</v>
@@ -2780,19 +2789,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B132" t="s">
         <v>27</v>
       </c>
       <c r="C132" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D132" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2800,19 +2809,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B133" t="s">
         <v>27</v>
       </c>
       <c r="C133" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D133" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F133" t="n">
         <v>0.0</v>
@@ -2820,19 +2829,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7376701858381082</v>
       </c>
       <c r="B134" t="s">
         <v>27</v>
       </c>
       <c r="C134" t="n">
-        <v>178.95999999999998</v>
+        <v>92.016</v>
       </c>
       <c r="D134" t="n">
-        <v>165.77</v>
+        <v>68.83999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F134" t="n">
         <v>0.0</v>
@@ -2840,19 +2849,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C135" t="n">
-        <v>178.95999999999998</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>165.77</v>
+        <v>59.03</v>
       </c>
       <c r="E135" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -2860,19 +2869,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C136" t="n">
-        <v>178.95999999999998</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>165.77</v>
+        <v>59.03</v>
       </c>
       <c r="E136" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F136" t="n">
         <v>0.0</v>
@@ -2880,19 +2889,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C137" t="n">
-        <v>178.95999999999998</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>165.77</v>
+        <v>59.03</v>
       </c>
       <c r="E137" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F137" t="n">
         <v>0.0</v>
@@ -2900,19 +2909,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C138" t="n">
-        <v>178.95999999999998</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>165.77</v>
+        <v>59.03</v>
       </c>
       <c r="E138" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F138" t="n">
         <v>0.0</v>
@@ -2920,19 +2929,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C139" t="n">
-        <v>178.95999999999998</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>165.77</v>
+        <v>59.03</v>
       </c>
       <c r="E139" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -2940,19 +2949,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C140" t="n">
-        <v>178.95999999999998</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D140" t="n">
-        <v>165.77</v>
+        <v>59.03</v>
       </c>
       <c r="E140" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F140" t="n">
         <v>0.0</v>
@@ -2960,19 +2969,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C141" t="n">
-        <v>178.95999999999998</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>165.77</v>
+        <v>59.03</v>
       </c>
       <c r="E141" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F141" t="n">
         <v>0.0</v>
@@ -2980,19 +2989,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.7650856310202239</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C142" t="n">
-        <v>178.95999999999998</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>165.77</v>
+        <v>59.03</v>
       </c>
       <c r="E142" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F142" t="n">
         <v>0.0</v>
@@ -3000,19 +3009,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B143" t="s">
         <v>28</v>
       </c>
       <c r="C143" t="n">
-        <v>178.97999999999996</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>165.67000000000002</v>
+        <v>59.03</v>
       </c>
       <c r="E143" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F143" t="n">
         <v>0.0</v>
@@ -3020,19 +3029,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7371697245715728</v>
       </c>
       <c r="B144" t="s">
         <v>28</v>
       </c>
       <c r="C144" t="n">
-        <v>178.97999999999996</v>
+        <v>95.85400000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>165.67000000000002</v>
+        <v>59.03</v>
       </c>
       <c r="E144" t="n">
-        <v>64.0</v>
+        <v>25.0</v>
       </c>
       <c r="F144" t="n">
         <v>0.0</v>
@@ -3040,19 +3049,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D145" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E145" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F145" t="n">
         <v>0.0</v>
@@ -3060,19 +3069,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C146" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D146" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E146" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F146" t="n">
         <v>0.0</v>
@@ -3080,19 +3089,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B147" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D147" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E147" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F147" t="n">
         <v>0.0</v>
@@ -3100,19 +3109,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C148" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D148" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E148" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F148" t="n">
         <v>0.0</v>
@@ -3120,19 +3129,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C149" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D149" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E149" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F149" t="n">
         <v>0.0</v>
@@ -3140,19 +3149,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C150" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D150" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E150" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F150" t="n">
         <v>0.0</v>
@@ -3160,19 +3169,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B151" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C151" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D151" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E151" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F151" t="n">
         <v>0.0</v>
@@ -3180,19 +3189,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B152" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C152" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D152" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E152" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F152" t="n">
         <v>0.0</v>
@@ -3200,19 +3209,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C153" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D153" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E153" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F153" t="n">
         <v>0.0</v>
@@ -3220,19 +3229,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C154" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D154" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E154" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F154" t="n">
         <v>0.0</v>
@@ -3240,19 +3249,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B155" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C155" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D155" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E155" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F155" t="n">
         <v>0.0</v>
@@ -3260,19 +3269,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C156" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D156" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E156" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F156" t="n">
         <v>0.0</v>
@@ -3280,19 +3289,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C157" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D157" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E157" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
@@ -3300,19 +3309,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C158" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D158" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E158" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F158" t="n">
         <v>0.0</v>
@@ -3320,19 +3329,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C159" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D159" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E159" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F159" t="n">
         <v>0.0</v>
@@ -3340,19 +3349,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.7650513504903698</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C160" t="n">
-        <v>178.97999999999996</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D160" t="n">
-        <v>165.67000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E160" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F160" t="n">
         <v>0.0</v>
@@ -3360,19 +3369,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B161" t="s">
         <v>29</v>
       </c>
       <c r="C161" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D161" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E161" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F161" t="n">
         <v>0.0</v>
@@ -3380,19 +3389,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B162" t="s">
         <v>29</v>
       </c>
       <c r="C162" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D162" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E162" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F162" t="n">
         <v>0.0</v>
@@ -3400,19 +3409,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B163" t="s">
         <v>29</v>
       </c>
       <c r="C163" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D163" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E163" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F163" t="n">
         <v>0.0</v>
@@ -3420,19 +3429,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B164" t="s">
         <v>29</v>
       </c>
       <c r="C164" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D164" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E164" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F164" t="n">
         <v>0.0</v>
@@ -3440,19 +3449,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B165" t="s">
         <v>29</v>
       </c>
       <c r="C165" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D165" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E165" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F165" t="n">
         <v>0.0</v>
@@ -3460,19 +3469,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B166" t="s">
         <v>29</v>
       </c>
       <c r="C166" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D166" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E166" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F166" t="n">
         <v>0.0</v>
@@ -3480,19 +3489,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B167" t="s">
         <v>29</v>
       </c>
       <c r="C167" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D167" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E167" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F167" t="n">
         <v>0.0</v>
@@ -3500,19 +3509,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B168" t="s">
         <v>29</v>
       </c>
       <c r="C168" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D168" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E168" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F168" t="n">
         <v>0.0</v>
@@ -3520,19 +3529,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B169" t="s">
         <v>29</v>
       </c>
       <c r="C169" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D169" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E169" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F169" t="n">
         <v>0.0</v>
@@ -3540,19 +3549,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B170" t="s">
         <v>29</v>
       </c>
       <c r="C170" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D170" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E170" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F170" t="n">
         <v>0.0</v>
@@ -3560,19 +3569,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B171" t="s">
         <v>29</v>
       </c>
       <c r="C171" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D171" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E171" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F171" t="n">
         <v>0.0</v>
@@ -3580,19 +3589,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B172" t="s">
         <v>29</v>
       </c>
       <c r="C172" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D172" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E172" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F172" t="n">
         <v>0.0</v>
@@ -3600,19 +3609,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B173" t="s">
         <v>29</v>
       </c>
       <c r="C173" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D173" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E173" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F173" t="n">
         <v>0.0</v>
@@ -3620,19 +3629,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B174" t="s">
         <v>29</v>
       </c>
       <c r="C174" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D174" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E174" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F174" t="n">
         <v>0.0</v>
@@ -3640,19 +3649,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.7640133797099096</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B175" t="s">
         <v>29</v>
       </c>
       <c r="C175" t="n">
-        <v>179.6</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D175" t="n">
-        <v>166.45000000000002</v>
+        <v>70.24</v>
       </c>
       <c r="E175" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F175" t="n">
         <v>0.0</v>
@@ -3660,19 +3669,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B176" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C176" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D176" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E176" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F176" t="n">
         <v>0.0</v>
@@ -3680,19 +3689,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B177" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C177" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D177" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E177" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F177" t="n">
         <v>0.0</v>
@@ -3700,19 +3709,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C178" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D178" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E178" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F178" t="n">
         <v>0.0</v>
@@ -3720,19 +3729,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C179" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D179" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E179" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F179" t="n">
         <v>0.0</v>
@@ -3740,19 +3749,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B180" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C180" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D180" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E180" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F180" t="n">
         <v>0.0</v>
@@ -3760,19 +3769,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B181" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C181" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D181" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E181" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F181" t="n">
         <v>0.0</v>
@@ -3780,19 +3789,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C182" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D182" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E182" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F182" t="n">
         <v>0.0</v>
@@ -3800,19 +3809,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B183" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C183" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D183" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E183" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F183" t="n">
         <v>0.0</v>
@@ -3820,19 +3829,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B184" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C184" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D184" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E184" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F184" t="n">
         <v>0.0</v>
@@ -3840,19 +3849,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B185" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C185" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D185" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E185" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F185" t="n">
         <v>0.0</v>
@@ -3860,19 +3869,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C186" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D186" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E186" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F186" t="n">
         <v>0.0</v>
@@ -3880,19 +3889,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C187" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D187" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E187" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F187" t="n">
         <v>0.0</v>
@@ -3900,19 +3909,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C188" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D188" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E188" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F188" t="n">
         <v>0.0</v>
@@ -3920,19 +3929,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C189" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D189" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E189" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F189" t="n">
         <v>0.0</v>
@@ -3940,19 +3949,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B190" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C190" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D190" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E190" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F190" t="n">
         <v>0.0</v>
@@ -3960,19 +3969,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B191" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C191" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D191" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E191" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F191" t="n">
         <v>0.0</v>
@@ -3980,19 +3989,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C192" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D192" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E192" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F192" t="n">
         <v>0.0</v>
@@ -4000,19 +4009,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C193" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D193" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E193" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F193" t="n">
         <v>0.0</v>
@@ -4020,19 +4029,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B194" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C194" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D194" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E194" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F194" t="n">
         <v>0.0</v>
@@ -4040,19 +4049,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C195" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D195" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E195" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F195" t="n">
         <v>0.0</v>
@@ -4060,19 +4069,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C196" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D196" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E196" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F196" t="n">
         <v>0.0</v>
@@ -4080,19 +4089,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C197" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D197" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E197" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F197" t="n">
         <v>0.0</v>
@@ -4100,19 +4109,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C198" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D198" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E198" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F198" t="n">
         <v>0.0</v>
@@ -4120,19 +4129,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C199" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D199" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E199" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F199" t="n">
         <v>0.0</v>
@@ -4140,19 +4149,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C200" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D200" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E200" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F200" t="n">
         <v>0.0</v>
@@ -4160,19 +4169,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C201" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D201" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E201" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F201" t="n">
         <v>0.0</v>
@@ -4180,19 +4189,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C202" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D202" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E202" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F202" t="n">
         <v>0.0</v>
@@ -4200,19 +4209,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C203" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D203" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E203" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F203" t="n">
         <v>0.0</v>
@@ -4220,19 +4229,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C204" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D204" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E204" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F204" t="n">
         <v>0.0</v>
@@ -4240,19 +4249,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C205" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D205" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E205" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F205" t="n">
         <v>0.0</v>
@@ -4260,19 +4269,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C206" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D206" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E206" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F206" t="n">
         <v>0.0</v>
@@ -4280,19 +4289,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C207" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D207" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E207" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F207" t="n">
         <v>0.0</v>
@@ -4300,19 +4309,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C208" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D208" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E208" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F208" t="n">
         <v>0.0</v>
@@ -4320,19 +4329,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C209" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D209" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E209" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F209" t="n">
         <v>0.0</v>
@@ -4340,19 +4349,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C210" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D210" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E210" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F210" t="n">
         <v>0.0</v>
@@ -4360,19 +4369,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C211" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D211" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E211" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F211" t="n">
         <v>0.0</v>
@@ -4380,19 +4389,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C212" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D212" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E212" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F212" t="n">
         <v>0.0</v>
@@ -4400,19 +4409,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C213" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D213" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E213" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F213" t="n">
         <v>0.0</v>
@@ -4420,19 +4429,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C214" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D214" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E214" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F214" t="n">
         <v>0.0</v>
@@ -4440,19 +4449,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C215" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D215" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E215" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F215" t="n">
         <v>0.0</v>
@@ -4460,19 +4469,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C216" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D216" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E216" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F216" t="n">
         <v>0.0</v>
@@ -4480,19 +4489,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C217" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D217" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E217" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F217" t="n">
         <v>0.0</v>
@@ -4500,19 +4509,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C218" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D218" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E218" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F218" t="n">
         <v>0.0</v>
@@ -4520,19 +4529,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C219" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D219" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E219" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F219" t="n">
         <v>0.0</v>
@@ -4540,19 +4549,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C220" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D220" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E220" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F220" t="n">
         <v>0.0</v>
@@ -4560,19 +4569,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C221" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D221" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E221" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F221" t="n">
         <v>0.0</v>
@@ -4580,19 +4589,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7297135116584745</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C222" t="n">
-        <v>180.40000000000003</v>
+        <v>94.34799999999998</v>
       </c>
       <c r="D222" t="n">
-        <v>146.90000000000003</v>
+        <v>70.24</v>
       </c>
       <c r="E222" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F222" t="n">
         <v>0.0</v>
@@ -4600,19 +4609,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7293645641908759</v>
       </c>
       <c r="B223" t="s">
         <v>30</v>
       </c>
       <c r="C223" t="n">
-        <v>180.40000000000003</v>
+        <v>94.44600000000001</v>
       </c>
       <c r="D223" t="n">
-        <v>146.90000000000003</v>
+        <v>69.52</v>
       </c>
       <c r="E223" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F223" t="n">
         <v>0.0</v>
@@ -4620,19 +4629,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7293645641908759</v>
       </c>
       <c r="B224" t="s">
         <v>30</v>
       </c>
       <c r="C224" t="n">
-        <v>180.40000000000003</v>
+        <v>94.44600000000001</v>
       </c>
       <c r="D224" t="n">
-        <v>146.90000000000003</v>
+        <v>69.52</v>
       </c>
       <c r="E224" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F224" t="n">
         <v>0.0</v>
@@ -4640,19 +4649,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7293645641908759</v>
       </c>
       <c r="B225" t="s">
         <v>30</v>
       </c>
       <c r="C225" t="n">
-        <v>180.40000000000003</v>
+        <v>94.44600000000001</v>
       </c>
       <c r="D225" t="n">
-        <v>146.90000000000003</v>
+        <v>69.52</v>
       </c>
       <c r="E225" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F225" t="n">
         <v>0.0</v>
@@ -4660,19 +4669,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7293645641908759</v>
       </c>
       <c r="B226" t="s">
         <v>30</v>
       </c>
       <c r="C226" t="n">
-        <v>180.40000000000003</v>
+        <v>94.44600000000001</v>
       </c>
       <c r="D226" t="n">
-        <v>146.90000000000003</v>
+        <v>69.52</v>
       </c>
       <c r="E226" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F226" t="n">
         <v>0.0</v>
@@ -4680,19 +4689,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C227" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D227" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F227" t="n">
         <v>0.0</v>
@@ -4700,19 +4709,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B228" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C228" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D228" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F228" t="n">
         <v>0.0</v>
@@ -4720,19 +4729,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B229" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C229" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D229" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E229" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F229" t="n">
         <v>0.0</v>
@@ -4740,19 +4749,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B230" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C230" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D230" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E230" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F230" t="n">
         <v>0.0</v>
@@ -4760,19 +4769,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C231" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D231" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E231" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F231" t="n">
         <v>0.0</v>
@@ -4780,19 +4789,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C232" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D232" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E232" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F232" t="n">
         <v>0.0</v>
@@ -4800,19 +4809,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C233" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D233" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E233" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F233" t="n">
         <v>0.0</v>
@@ -4820,19 +4829,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C234" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F234" t="n">
         <v>0.0</v>
@@ -4840,19 +4849,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B235" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C235" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D235" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F235" t="n">
         <v>0.0</v>
@@ -4860,19 +4869,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C236" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D236" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E236" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F236" t="n">
         <v>0.0</v>
@@ -4880,19 +4889,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B237" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C237" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E237" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F237" t="n">
         <v>0.0</v>
@@ -4900,19 +4909,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B238" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C238" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D238" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E238" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F238" t="n">
         <v>0.0</v>
@@ -4920,19 +4929,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B239" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C239" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D239" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E239" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F239" t="n">
         <v>0.0</v>
@@ -4940,19 +4949,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C240" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D240" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E240" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F240" t="n">
         <v>0.0</v>
@@ -4960,19 +4969,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B241" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C241" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D241" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E241" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F241" t="n">
         <v>0.0</v>
@@ -4980,19 +4989,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B242" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C242" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D242" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E242" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F242" t="n">
         <v>0.0</v>
@@ -5000,19 +5009,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B243" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C243" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D243" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E243" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F243" t="n">
         <v>0.0</v>
@@ -5020,19 +5029,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B244" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C244" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D244" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E244" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F244" t="n">
         <v>0.0</v>
@@ -5040,19 +5049,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B245" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C245" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D245" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E245" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F245" t="n">
         <v>0.0</v>
@@ -5060,19 +5069,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B246" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C246" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D246" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E246" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F246" t="n">
         <v>0.0</v>
@@ -5080,19 +5089,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B247" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C247" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D247" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E247" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F247" t="n">
         <v>0.0</v>
@@ -5100,19 +5109,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B248" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C248" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D248" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E248" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F248" t="n">
         <v>0.0</v>
@@ -5120,19 +5129,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B249" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C249" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D249" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E249" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F249" t="n">
         <v>0.0</v>
@@ -5140,19 +5149,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C250" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D250" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E250" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F250" t="n">
         <v>0.0</v>
@@ -5160,19 +5169,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B251" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C251" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D251" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E251" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F251" t="n">
         <v>0.0</v>
@@ -5180,19 +5189,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B252" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C252" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F252" t="n">
         <v>0.0</v>
@@ -5200,19 +5209,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7258225058362497</v>
       </c>
       <c r="B253" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C253" t="n">
-        <v>180.40000000000003</v>
+        <v>95.47399999999999</v>
       </c>
       <c r="D253" t="n">
-        <v>146.90000000000003</v>
+        <v>67.78999999999999</v>
       </c>
       <c r="E253" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F253" t="n">
         <v>0.0</v>
@@ -5220,19 +5229,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B254" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C254" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D254" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E254" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F254" t="n">
         <v>0.0</v>
@@ -5240,19 +5249,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B255" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C255" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D255" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E255" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F255" t="n">
         <v>0.0</v>
@@ -5260,19 +5269,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B256" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C256" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D256" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E256" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F256" t="n">
         <v>0.0</v>
@@ -5280,19 +5289,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B257" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C257" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D257" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E257" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F257" t="n">
         <v>0.0</v>
@@ -5300,19 +5309,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B258" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C258" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D258" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E258" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F258" t="n">
         <v>0.0</v>
@@ -5320,19 +5329,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B259" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C259" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D259" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E259" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F259" t="n">
         <v>0.0</v>
@@ -5340,19 +5349,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B260" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C260" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D260" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E260" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F260" t="n">
         <v>0.0</v>
@@ -5360,19 +5369,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B261" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C261" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D261" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E261" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F261" t="n">
         <v>0.0</v>
@@ -5380,19 +5389,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B262" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C262" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D262" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E262" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F262" t="n">
         <v>0.0</v>
@@ -5400,19 +5409,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B263" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C263" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D263" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E263" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F263" t="n">
         <v>0.0</v>
@@ -5420,19 +5429,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C264" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D264" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E264" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F264" t="n">
         <v>0.0</v>
@@ -5440,19 +5449,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B265" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C265" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D265" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E265" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F265" t="n">
         <v>0.0</v>
@@ -5460,19 +5469,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B266" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C266" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D266" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E266" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F266" t="n">
         <v>0.0</v>
@@ -5480,19 +5489,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B267" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C267" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D267" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E267" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F267" t="n">
         <v>0.0</v>
@@ -5500,19 +5509,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7254974058115472</v>
       </c>
       <c r="B268" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C268" t="n">
-        <v>180.40000000000003</v>
+        <v>95.588</v>
       </c>
       <c r="D268" t="n">
-        <v>146.90000000000003</v>
+        <v>71.03</v>
       </c>
       <c r="E268" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F268" t="n">
         <v>0.0</v>
@@ -5520,19 +5529,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B269" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C269" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D269" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E269" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F269" t="n">
         <v>0.0</v>
@@ -5540,19 +5549,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B270" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C270" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D270" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E270" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F270" t="n">
         <v>0.0</v>
@@ -5560,19 +5569,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B271" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C271" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D271" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E271" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F271" t="n">
         <v>0.0</v>
@@ -5580,19 +5589,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B272" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C272" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D272" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E272" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F272" t="n">
         <v>0.0</v>
@@ -5600,19 +5609,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B273" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C273" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D273" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E273" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F273" t="n">
         <v>0.0</v>
@@ -5620,19 +5629,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B274" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C274" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D274" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E274" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F274" t="n">
         <v>0.0</v>
@@ -5640,19 +5649,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B275" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C275" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D275" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E275" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F275" t="n">
         <v>0.0</v>
@@ -5660,19 +5669,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B276" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C276" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D276" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E276" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F276" t="n">
         <v>0.0</v>
@@ -5680,19 +5689,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B277" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C277" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D277" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E277" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F277" t="n">
         <v>0.0</v>
@@ -5700,19 +5709,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B278" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C278" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D278" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E278" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F278" t="n">
         <v>0.0</v>
@@ -5720,19 +5729,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B279" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C279" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D279" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E279" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F279" t="n">
         <v>0.0</v>
@@ -5740,19 +5749,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B280" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C280" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D280" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E280" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F280" t="n">
         <v>0.0</v>
@@ -5760,19 +5769,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B281" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C281" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D281" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E281" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F281" t="n">
         <v>0.0</v>
@@ -5780,19 +5789,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B282" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C282" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D282" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E282" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F282" t="n">
         <v>0.0</v>
@@ -5800,19 +5809,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B283" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C283" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D283" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E283" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F283" t="n">
         <v>0.0</v>
@@ -5820,19 +5829,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B284" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C284" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D284" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E284" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F284" t="n">
         <v>0.0</v>
@@ -5840,19 +5849,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C285" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D285" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E285" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F285" t="n">
         <v>0.0</v>
@@ -5860,19 +5869,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B286" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C286" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D286" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E286" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F286" t="n">
         <v>0.0</v>
@@ -5880,19 +5889,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B287" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C287" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D287" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E287" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F287" t="n">
         <v>0.0</v>
@@ -5900,19 +5909,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B288" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C288" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D288" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E288" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F288" t="n">
         <v>0.0</v>
@@ -5920,19 +5929,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.7625520485485496</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B289" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C289" t="n">
-        <v>180.40000000000003</v>
+        <v>96.36</v>
       </c>
       <c r="D289" t="n">
-        <v>146.90000000000003</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E289" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F289" t="n">
         <v>0.0</v>
@@ -5940,19 +5949,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B290" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C290" t="n">
-        <v>181.04999999999998</v>
+        <v>96.36</v>
       </c>
       <c r="D290" t="n">
-        <v>146.28</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E290" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F290" t="n">
         <v>0.0</v>
@@ -5960,19 +5969,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7229096713464374</v>
       </c>
       <c r="B291" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C291" t="n">
-        <v>181.04999999999998</v>
+        <v>96.36</v>
       </c>
       <c r="D291" t="n">
-        <v>146.28</v>
+        <v>73.08999999999999</v>
       </c>
       <c r="E291" t="n">
-        <v>64.0</v>
+        <v>26.0</v>
       </c>
       <c r="F291" t="n">
         <v>0.0</v>
@@ -5980,19 +5989,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B292" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C292" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D292" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E292" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F292" t="n">
         <v>0.0</v>
@@ -6000,19 +6009,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B293" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C293" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D293" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E293" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -6020,19 +6029,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B294" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C294" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D294" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E294" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F294" t="n">
         <v>0.0</v>
@@ -6040,19 +6049,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B295" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C295" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D295" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E295" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F295" t="n">
         <v>0.0</v>
@@ -6060,19 +6069,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B296" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C296" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D296" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E296" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F296" t="n">
         <v>0.0</v>
@@ -6080,19 +6089,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B297" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C297" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D297" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E297" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F297" t="n">
         <v>0.0</v>
@@ -6100,19 +6109,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B298" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C298" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D298" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E298" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F298" t="n">
         <v>0.0</v>
@@ -6120,19 +6129,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B299" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C299" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D299" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E299" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F299" t="n">
         <v>0.0</v>
@@ -6140,19 +6149,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B300" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C300" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D300" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E300" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
@@ -6160,19 +6169,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.7614565603442338</v>
+        <v>0.7138249944837679</v>
       </c>
       <c r="B301" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C301" t="n">
-        <v>181.04999999999998</v>
+        <v>95.458</v>
       </c>
       <c r="D301" t="n">
-        <v>146.28</v>
+        <v>75.35999999999999</v>
       </c>
       <c r="E301" t="n">
-        <v>64.0</v>
+        <v>27.0</v>
       </c>
       <c r="F301" t="n">
         <v>0.0</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="25">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,91 +32,61 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[52, 151, 137, 78], [102, 135, 74, 34, 88], [164, 55, 30, 93], [131, 162, 171, 80], [31, 8, 87, 65, 176]]</t>
+    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 173], [145, 35, 21, 43], [91, 149, 1, 125]]</t>
   </si>
   <si>
-    <t>[[87, 54, 83, 141, 80], [76, 178, 20, 109], [130, 103, 119, 8, 33], [133, 149, 124, 40], [162, 53, 73, 79]]</t>
+    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 139], [67, 25, 104, 134], [69, 181, 93, 189, 83]]</t>
   </si>
   <si>
-    <t>[[61, 93, 17, 121, 66], [60, 81, 35, 126, 57], [97, 161, 150, 158, 142], [51, 113, 11, 37], [167, 88, 103, 18]]</t>
+    <t>[[9, 5, 181, 65, 80], [131, 147, 91, 93, 111], [97, 125, 35], [188, 109, 28, 132, 81], [150, 95, 84, 163, 96]]</t>
   </si>
   <si>
-    <t>[[71, 167, 109, 49], [62, 183, 161, 20], [88, 51, 92, 23, 113], [138, 86, 9, 187, 133], [57, 52, 28, 18, 93]]</t>
+    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 139], [67, 25, 104, 134], [69, 181, 93, 189, 184]]</t>
   </si>
   <si>
-    <t>[[115, 33, 29, 111], [158, 184, 14, 75, 52], [56, 126, 104, 114], [146, 141, 150, 118, 145], [40, 187, 54, 135, 86]]</t>
+    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 173], [103, 43, 72, 27, 95], [142, 90, 38, 69]]</t>
   </si>
   <si>
-    <t>[[135, 62, 69, 180, 81], [35, 155, 14, 121, 91], [134, 44, 70, 178], [159, 146, 58, 82], [162, 79, 111, 8, 184]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [12, 121, 14, 20]]</t>
   </si>
   <si>
-    <t>[[87, 54, 83, 141, 80], [125, 121, 52, 14], [44, 135, 27, 8, 41], [95, 116, 76, 21, 162], [180, 42, 58, 12, 9]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 69, 106, 180], [85, 164, 46, 103, 58]]</t>
   </si>
   <si>
-    <t>[[101, 155, 76, 104, 97], [79, 127, 67, 14], [140, 44, 157, 143, 103], [180, 6, 5, 118, 28], [68, 181, 1, 188, 161]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [12, 121, 14, 20, 86]]</t>
   </si>
   <si>
-    <t>[[56, 81, 80, 103, 12], [93, 37, 41, 51, 140], [4, 22, 115, 49], [116, 60, 32, 82, 9], [188, 59, 143, 57, 40]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 126, 61, 111, 67]]</t>
   </si>
   <si>
-    <t>[[5, 95, 14, 181, 141], [149, 154, 106, 20], [52, 178, 155, 8, 16], [100, 138, 69, 82, 135], [46, 70, 28, 91, 101]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [12, 121, 5, 90, 103]]</t>
   </si>
   <si>
-    <t>[[5, 95, 14, 181, 141], [149, 154, 106, 20], [52, 178, 155, 8, 16], [100, 138, 69, 82, 135], [46, 70, 28, 91, 118]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 40, 68, 29, 79]]</t>
   </si>
   <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 24, 85, 188], [34, 28, 46, 70, 81], [141, 167, 9, 103, 178, 112]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [75, 35, 141, 40, 88]]</t>
   </si>
   <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 158, 68, 67], [116, 53, 73, 66, 86]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 111, 40, 75, 2]]</t>
   </si>
   <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 158, 54, 21], [123, 35, 155, 86, 57]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 111, 40, 75, 173]]</t>
   </si>
   <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 141, 132, 110], [81, 103, 87, 134, 34]]</t>
+    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 173], [145, 58, 55, 40, 28], [181, 111, 16, 66, 184]]</t>
   </si>
   <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 28, 106, 142], [65, 25, 141, 16, 80]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 141, 180, 34, 138, 80]]</t>
   </si>
   <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 135, 90, 72], [141, 146, 45, 34, 81]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 111, 40, 58, 138, 61]]</t>
   </si>
   <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 158, 149, 82], [141, 63, 58, 125, 81]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 40, 75, 111, 131, 180]]</t>
   </si>
   <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 28, 106, 142], [139, 76, 125, 141, 58]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 28, 106, 142], [139, 76, 125, 141, 118]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 141, 132, 109], [130, 38, 113, 34, 90]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 49], [28, 135, 114, 38, 138]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [52, 184, 80, 152, 125], [20, 97, 108, 66, 155]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 49], [28, 135, 139, 81, 90]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 76], [57, 68, 79, 16, 34]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 49], [28, 135, 93, 75, 90]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 184], [66, 1, 104, 9, 90]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 184], [66, 1, 9, 65, 125]]</t>
-  </si>
-  <si>
-    <t>[[95, 17, 74, 180, 99], [162, 111, 11, 163, 51], [181, 144, 8, 55, 40], [140, 150, 155, 85, 118, 143], [130, 28, 93, 145, 80, 58]]</t>
+    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 111, 40, 75, 155, 180]]</t>
   </si>
 </sst>
 </file>
@@ -189,19 +159,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8358912839717922</v>
+        <v>0.8156960804593029</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>78.12599999999999</v>
+        <v>80.26199999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>48.92999999999999</v>
+        <v>67.61999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -209,19 +179,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8358912839717922</v>
+        <v>0.8156960804593029</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>78.12599999999999</v>
+        <v>80.26199999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>48.92999999999999</v>
+        <v>67.61999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -229,19 +199,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8322287663813717</v>
+        <v>0.8156960804593029</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>79.25200000000001</v>
+        <v>80.26199999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>52.41</v>
+        <v>67.61999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>22.0</v>
+        <v>23.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -249,16 +219,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8306077612426158</v>
+        <v>0.8156960804593029</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>75.728</v>
+        <v>80.26199999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>49.06000000000001</v>
+        <v>67.61999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>23.0</v>
@@ -269,39 +239,39 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8275429706221024</v>
+        <v>0.8114874897868625</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>76.66</v>
+        <v>77.784</v>
       </c>
       <c r="D6" t="n">
-        <v>40.99</v>
+        <v>85.13999999999997</v>
       </c>
       <c r="E6" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1824.3</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8235429739476844</v>
+        <v>0.8114874897868625</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>77.83399999999997</v>
+        <v>77.784</v>
       </c>
       <c r="D7" t="n">
-        <v>49.32</v>
+        <v>85.13999999999997</v>
       </c>
       <c r="E7" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -309,19 +279,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8167635208884261</v>
+        <v>0.8114874897868625</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>79.84399999999998</v>
+        <v>77.784</v>
       </c>
       <c r="D8" t="n">
-        <v>44.379999999999995</v>
+        <v>85.13999999999997</v>
       </c>
       <c r="E8" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -329,16 +299,16 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8167635208884261</v>
+        <v>0.8099966607853982</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>79.84399999999998</v>
+        <v>81.95</v>
       </c>
       <c r="D9" t="n">
-        <v>44.379999999999995</v>
+        <v>62.78</v>
       </c>
       <c r="E9" t="n">
         <v>23.0</v>
@@ -349,16 +319,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8167635208884261</v>
+        <v>0.8099966607853982</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>79.84399999999998</v>
+        <v>81.95</v>
       </c>
       <c r="D10" t="n">
-        <v>44.379999999999995</v>
+        <v>62.78</v>
       </c>
       <c r="E10" t="n">
         <v>23.0</v>
@@ -369,16 +339,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8061348029356388</v>
+        <v>0.8073715343190817</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>79.51400000000002</v>
+        <v>78.952</v>
       </c>
       <c r="D11" t="n">
-        <v>106.54000000000002</v>
+        <v>78.00999999999998</v>
       </c>
       <c r="E11" t="n">
         <v>24.0</v>
@@ -389,16 +359,16 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8061348029356388</v>
+        <v>0.8073715343190817</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>79.51400000000002</v>
+        <v>78.952</v>
       </c>
       <c r="D12" t="n">
-        <v>106.54000000000002</v>
+        <v>78.00999999999998</v>
       </c>
       <c r="E12" t="n">
         <v>24.0</v>
@@ -409,16 +379,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8035867908324198</v>
+        <v>0.8073715343190817</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>79.97399999999999</v>
+        <v>78.952</v>
       </c>
       <c r="D13" t="n">
-        <v>59.93000000000001</v>
+        <v>78.00999999999998</v>
       </c>
       <c r="E13" t="n">
         <v>24.0</v>
@@ -429,16 +399,16 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8035867908324198</v>
+        <v>0.8073715343190817</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>79.97399999999999</v>
+        <v>78.952</v>
       </c>
       <c r="D14" t="n">
-        <v>59.93000000000001</v>
+        <v>78.00999999999998</v>
       </c>
       <c r="E14" t="n">
         <v>24.0</v>
@@ -449,16 +419,16 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8035867908324198</v>
+        <v>0.8073715343190817</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C15" t="n">
-        <v>79.97399999999999</v>
+        <v>78.952</v>
       </c>
       <c r="D15" t="n">
-        <v>59.93000000000001</v>
+        <v>78.00999999999998</v>
       </c>
       <c r="E15" t="n">
         <v>24.0</v>
@@ -469,36 +439,36 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8035867908324198</v>
+        <v>0.8023115327311121</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>79.97399999999999</v>
+        <v>80.816</v>
       </c>
       <c r="D16" t="n">
-        <v>59.93000000000001</v>
+        <v>98.42999999999999</v>
       </c>
       <c r="E16" t="n">
         <v>24.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>4053.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8032240770683657</v>
+        <v>0.8018126118591974</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" t="n">
-        <v>80.05800000000002</v>
+        <v>80.57800000000002</v>
       </c>
       <c r="D17" t="n">
-        <v>54.599999999999994</v>
+        <v>75.64</v>
       </c>
       <c r="E17" t="n">
         <v>24.0</v>
@@ -509,16 +479,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7989436779845529</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>85.862</v>
+        <v>81.44000000000003</v>
       </c>
       <c r="D18" t="n">
-        <v>59.959999999999994</v>
+        <v>78.03999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>24.0</v>
@@ -529,19 +499,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D19" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E19" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -549,19 +519,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D20" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E20" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -569,19 +539,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D21" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E21" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -589,19 +559,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D22" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E22" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -609,19 +579,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D23" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E23" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -629,19 +599,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D24" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E24" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -649,19 +619,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D25" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E25" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -669,19 +639,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D26" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E26" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -689,19 +659,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7837269319670364</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" t="n">
-        <v>85.862</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D27" t="n">
-        <v>59.959999999999994</v>
+        <v>79.0</v>
       </c>
       <c r="E27" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -709,19 +679,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7810434574030386</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C28" t="n">
-        <v>86.678</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D28" t="n">
-        <v>63.19999999999999</v>
+        <v>79.0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
@@ -729,19 +699,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7810434574030386</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>86.678</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D29" t="n">
-        <v>63.19999999999999</v>
+        <v>79.0</v>
       </c>
       <c r="E29" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -749,19 +719,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7810434574030386</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C30" t="n">
-        <v>86.678</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D30" t="n">
-        <v>63.19999999999999</v>
+        <v>79.0</v>
       </c>
       <c r="E30" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -769,19 +739,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7810434574030386</v>
+        <v>0.7780099318685795</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C31" t="n">
-        <v>86.678</v>
+        <v>83.90200000000002</v>
       </c>
       <c r="D31" t="n">
-        <v>63.19999999999999</v>
+        <v>79.0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -789,19 +759,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7810434574030386</v>
+        <v>0.7745275142843777</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>86.678</v>
+        <v>84.89400000000002</v>
       </c>
       <c r="D32" t="n">
-        <v>63.19999999999999</v>
+        <v>74.47</v>
       </c>
       <c r="E32" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -809,19 +779,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7810434574030386</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>86.678</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D33" t="n">
-        <v>63.19999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -829,16 +799,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D34" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E34" t="n">
         <v>25.0</v>
@@ -849,16 +819,16 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C35" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D35" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>25.0</v>
@@ -869,16 +839,16 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B36" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C36" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D36" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E36" t="n">
         <v>25.0</v>
@@ -889,16 +859,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D37" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E37" t="n">
         <v>25.0</v>
@@ -909,16 +879,16 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D38" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E38" t="n">
         <v>25.0</v>
@@ -929,16 +899,16 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D39" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E39" t="n">
         <v>25.0</v>
@@ -949,16 +919,16 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D40" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E40" t="n">
         <v>25.0</v>
@@ -969,16 +939,16 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B41" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D41" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E41" t="n">
         <v>25.0</v>
@@ -989,16 +959,16 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D42" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>25.0</v>
@@ -1009,16 +979,16 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B43" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D43" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E43" t="n">
         <v>25.0</v>
@@ -1029,16 +999,16 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D44" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E44" t="n">
         <v>25.0</v>
@@ -1049,16 +1019,16 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D45" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E45" t="n">
         <v>25.0</v>
@@ -1069,16 +1039,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7711637469887946</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>88.056</v>
+        <v>85.89800000000002</v>
       </c>
       <c r="D46" t="n">
-        <v>64.94999999999999</v>
+        <v>77.55000000000001</v>
       </c>
       <c r="E46" t="n">
         <v>25.0</v>
@@ -1089,16 +1059,16 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7642774120090721</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C47" t="n">
-        <v>88.056</v>
+        <v>87.89</v>
       </c>
       <c r="D47" t="n">
-        <v>64.94999999999999</v>
+        <v>72.24000000000001</v>
       </c>
       <c r="E47" t="n">
         <v>25.0</v>
@@ -1109,16 +1079,16 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7610076668138742</v>
       </c>
       <c r="B48" t="s">
         <v>17</v>
       </c>
       <c r="C48" t="n">
-        <v>88.056</v>
+        <v>88.876</v>
       </c>
       <c r="D48" t="n">
-        <v>64.94999999999999</v>
+        <v>76.13000000000001</v>
       </c>
       <c r="E48" t="n">
         <v>25.0</v>
@@ -1129,16 +1099,16 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7601011302457116</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49" t="n">
-        <v>88.056</v>
+        <v>89.09599999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>64.94999999999999</v>
+        <v>67.87000000000002</v>
       </c>
       <c r="E49" t="n">
         <v>25.0</v>
@@ -1149,16 +1119,16 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C50" t="n">
-        <v>88.056</v>
+        <v>89.122</v>
       </c>
       <c r="D50" t="n">
-        <v>64.94999999999999</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E50" t="n">
         <v>25.0</v>
@@ -1169,16 +1139,16 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C51" t="n">
-        <v>88.056</v>
+        <v>89.122</v>
       </c>
       <c r="D51" t="n">
-        <v>64.94999999999999</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E51" t="n">
         <v>25.0</v>
@@ -1189,16 +1159,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C52" t="n">
-        <v>88.056</v>
+        <v>89.122</v>
       </c>
       <c r="D52" t="n">
-        <v>64.94999999999999</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E52" t="n">
         <v>25.0</v>
@@ -1209,16 +1179,16 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B53" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C53" t="n">
-        <v>88.056</v>
+        <v>89.122</v>
       </c>
       <c r="D53" t="n">
-        <v>64.94999999999999</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E53" t="n">
         <v>25.0</v>
@@ -1229,16 +1199,16 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C54" t="n">
-        <v>88.056</v>
+        <v>89.122</v>
       </c>
       <c r="D54" t="n">
-        <v>64.94999999999999</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E54" t="n">
         <v>25.0</v>
@@ -1249,16 +1219,16 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.7635790885727322</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>88.056</v>
+        <v>89.122</v>
       </c>
       <c r="D55" t="n">
-        <v>64.94999999999999</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E55" t="n">
         <v>25.0</v>
@@ -1269,16 +1239,16 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.7622940114605864</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" t="n">
-        <v>88.39000000000001</v>
+        <v>89.122</v>
       </c>
       <c r="D56" t="n">
-        <v>55.67</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E56" t="n">
         <v>25.0</v>
@@ -1289,16 +1259,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.7622940114605864</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" t="n">
-        <v>88.39000000000001</v>
+        <v>89.122</v>
       </c>
       <c r="D57" t="n">
-        <v>55.67</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E57" t="n">
         <v>25.0</v>
@@ -1309,16 +1279,16 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.7622940114605864</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B58" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>88.39000000000001</v>
+        <v>89.122</v>
       </c>
       <c r="D58" t="n">
-        <v>55.67</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E58" t="n">
         <v>25.0</v>
@@ -1329,16 +1299,16 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.7622940114605864</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59" t="n">
-        <v>88.39000000000001</v>
+        <v>89.122</v>
       </c>
       <c r="D59" t="n">
-        <v>55.67</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E59" t="n">
         <v>25.0</v>
@@ -1349,16 +1319,16 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7622940114605864</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" t="n">
-        <v>88.39000000000001</v>
+        <v>89.122</v>
       </c>
       <c r="D60" t="n">
-        <v>55.67</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E60" t="n">
         <v>25.0</v>
@@ -1369,16 +1339,16 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.7622940114605864</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" t="n">
-        <v>88.39000000000001</v>
+        <v>89.122</v>
       </c>
       <c r="D61" t="n">
-        <v>55.67</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E61" t="n">
         <v>25.0</v>
@@ -1389,16 +1359,16 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.7622940114605864</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" t="n">
-        <v>88.39000000000001</v>
+        <v>89.122</v>
       </c>
       <c r="D62" t="n">
-        <v>55.67</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E62" t="n">
         <v>25.0</v>
@@ -1409,16 +1379,16 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.7622940114605864</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>88.39000000000001</v>
+        <v>89.122</v>
       </c>
       <c r="D63" t="n">
-        <v>55.67</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E63" t="n">
         <v>25.0</v>
@@ -1429,16 +1399,16 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>90.47800000000002</v>
+        <v>89.122</v>
       </c>
       <c r="D64" t="n">
-        <v>72.46000000000001</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E64" t="n">
         <v>25.0</v>
@@ -1449,16 +1419,16 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>90.47800000000002</v>
+        <v>89.122</v>
       </c>
       <c r="D65" t="n">
-        <v>72.46000000000001</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E65" t="n">
         <v>25.0</v>
@@ -1469,16 +1439,16 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
       </c>
       <c r="C66" t="n">
-        <v>90.47800000000002</v>
+        <v>89.122</v>
       </c>
       <c r="D66" t="n">
-        <v>72.46000000000001</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E66" t="n">
         <v>25.0</v>
@@ -1489,16 +1459,16 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B67" t="s">
         <v>19</v>
       </c>
       <c r="C67" t="n">
-        <v>90.47800000000002</v>
+        <v>89.122</v>
       </c>
       <c r="D67" t="n">
-        <v>72.46000000000001</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E67" t="n">
         <v>25.0</v>
@@ -1509,16 +1479,16 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B68" t="s">
         <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>90.47800000000002</v>
+        <v>89.122</v>
       </c>
       <c r="D68" t="n">
-        <v>72.46000000000001</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E68" t="n">
         <v>25.0</v>
@@ -1529,16 +1499,16 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7600278894916157</v>
       </c>
       <c r="B69" t="s">
         <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>90.47800000000002</v>
+        <v>89.122</v>
       </c>
       <c r="D69" t="n">
-        <v>72.46000000000001</v>
+        <v>68.68000000000002</v>
       </c>
       <c r="E69" t="n">
         <v>25.0</v>
@@ -1549,16 +1519,16 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7579106256822109</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" t="n">
-        <v>90.47800000000002</v>
+        <v>89.714</v>
       </c>
       <c r="D70" t="n">
-        <v>72.46000000000001</v>
+        <v>62.42999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>25.0</v>
@@ -1569,16 +1539,16 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7579106256822109</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C71" t="n">
-        <v>90.47800000000002</v>
+        <v>89.714</v>
       </c>
       <c r="D71" t="n">
-        <v>72.46000000000001</v>
+        <v>62.42999999999999</v>
       </c>
       <c r="E71" t="n">
         <v>25.0</v>
@@ -1589,19 +1559,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C72" t="n">
-        <v>90.47800000000002</v>
+        <v>88.988</v>
       </c>
       <c r="D72" t="n">
-        <v>72.46000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E72" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -1609,19 +1579,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.7555078032736579</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C73" t="n">
-        <v>90.47800000000002</v>
+        <v>88.988</v>
       </c>
       <c r="D73" t="n">
-        <v>72.46000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E73" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -1629,19 +1599,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.7544171022452862</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C74" t="n">
-        <v>90.838</v>
+        <v>88.988</v>
       </c>
       <c r="D74" t="n">
-        <v>78.62</v>
+        <v>86.05</v>
       </c>
       <c r="E74" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -1649,19 +1619,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.7544171022452862</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C75" t="n">
-        <v>90.838</v>
+        <v>88.988</v>
       </c>
       <c r="D75" t="n">
-        <v>78.62</v>
+        <v>86.05</v>
       </c>
       <c r="E75" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1669,19 +1639,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.7488848834119413</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
       </c>
       <c r="C76" t="n">
-        <v>92.55000000000001</v>
+        <v>88.988</v>
       </c>
       <c r="D76" t="n">
-        <v>89.25</v>
+        <v>86.05</v>
       </c>
       <c r="E76" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1689,19 +1659,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7488848834119413</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
       </c>
       <c r="C77" t="n">
-        <v>92.55000000000001</v>
+        <v>88.988</v>
       </c>
       <c r="D77" t="n">
-        <v>89.25</v>
+        <v>86.05</v>
       </c>
       <c r="E77" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1709,19 +1679,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7488848834119413</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
       </c>
       <c r="C78" t="n">
-        <v>92.55000000000001</v>
+        <v>88.988</v>
       </c>
       <c r="D78" t="n">
-        <v>89.25</v>
+        <v>86.05</v>
       </c>
       <c r="E78" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1729,19 +1699,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.7488848834119413</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B79" t="s">
         <v>21</v>
       </c>
       <c r="C79" t="n">
-        <v>92.55000000000001</v>
+        <v>88.988</v>
       </c>
       <c r="D79" t="n">
-        <v>89.25</v>
+        <v>86.05</v>
       </c>
       <c r="E79" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1749,19 +1719,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.7488848834119413</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B80" t="s">
         <v>21</v>
       </c>
       <c r="C80" t="n">
-        <v>92.55000000000001</v>
+        <v>88.988</v>
       </c>
       <c r="D80" t="n">
-        <v>89.25</v>
+        <v>86.05</v>
       </c>
       <c r="E80" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1769,19 +1739,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.7488848834119413</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B81" t="s">
         <v>21</v>
       </c>
       <c r="C81" t="n">
-        <v>92.55000000000001</v>
+        <v>88.988</v>
       </c>
       <c r="D81" t="n">
-        <v>89.25</v>
+        <v>86.05</v>
       </c>
       <c r="E81" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1789,19 +1759,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.7488848834119413</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B82" t="s">
         <v>21</v>
       </c>
       <c r="C82" t="n">
-        <v>92.55000000000001</v>
+        <v>88.988</v>
       </c>
       <c r="D82" t="n">
-        <v>89.25</v>
+        <v>86.05</v>
       </c>
       <c r="E82" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -1809,19 +1779,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7488169877401236</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C83" t="n">
-        <v>92.492</v>
+        <v>88.988</v>
       </c>
       <c r="D83" t="n">
-        <v>77.74000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E83" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -1829,19 +1799,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.7488169877401236</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C84" t="n">
-        <v>92.492</v>
+        <v>88.988</v>
       </c>
       <c r="D84" t="n">
-        <v>77.74000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E84" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -1849,19 +1819,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C85" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D85" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E85" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -1869,19 +1839,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C86" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D86" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E86" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -1889,19 +1859,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C87" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D87" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E87" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -1909,19 +1879,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C88" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D88" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E88" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -1929,19 +1899,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C89" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D89" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E89" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1949,19 +1919,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C90" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D90" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E90" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -1969,19 +1939,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C91" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D91" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E91" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1989,19 +1959,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C92" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D92" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E92" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -2009,19 +1979,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.746522930943694</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C93" t="n">
-        <v>93.08</v>
+        <v>88.988</v>
       </c>
       <c r="D93" t="n">
-        <v>61.300000000000004</v>
+        <v>86.05</v>
       </c>
       <c r="E93" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -2029,19 +1999,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C94" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D94" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E94" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -2049,19 +2019,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C95" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D95" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E95" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -2069,19 +2039,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C96" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D96" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E96" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -2089,19 +2059,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C97" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D97" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E97" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2109,19 +2079,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C98" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D98" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E98" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -2129,19 +2099,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C99" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D99" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E99" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -2149,19 +2119,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C100" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D100" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E100" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -2169,19 +2139,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C101" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D101" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E101" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -2189,19 +2159,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C102" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D102" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E102" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -2209,19 +2179,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C103" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D103" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E103" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -2229,19 +2199,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C104" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D104" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E104" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2249,19 +2219,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C105" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D105" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E105" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -2269,19 +2239,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C106" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D106" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E106" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -2289,19 +2259,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.7460790307526045</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C107" t="n">
-        <v>93.286</v>
+        <v>88.988</v>
       </c>
       <c r="D107" t="n">
-        <v>74.65</v>
+        <v>86.05</v>
       </c>
       <c r="E107" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -2309,19 +2279,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.7444181811649169</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B108" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C108" t="n">
-        <v>93.76</v>
+        <v>88.988</v>
       </c>
       <c r="D108" t="n">
-        <v>71.33000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E108" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -2329,19 +2299,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.7444181811649169</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C109" t="n">
-        <v>93.76</v>
+        <v>88.988</v>
       </c>
       <c r="D109" t="n">
-        <v>71.33000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E109" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -2349,19 +2319,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.7444181811649169</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B110" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C110" t="n">
-        <v>93.76</v>
+        <v>88.988</v>
       </c>
       <c r="D110" t="n">
-        <v>71.33000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E110" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -2369,19 +2339,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.7444181811649169</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C111" t="n">
-        <v>93.76</v>
+        <v>88.988</v>
       </c>
       <c r="D111" t="n">
-        <v>71.33000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E111" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2389,19 +2359,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.7444181811649169</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B112" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C112" t="n">
-        <v>93.76</v>
+        <v>88.988</v>
       </c>
       <c r="D112" t="n">
-        <v>71.33000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E112" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -2409,19 +2379,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7444181811649169</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C113" t="n">
-        <v>93.76</v>
+        <v>88.988</v>
       </c>
       <c r="D113" t="n">
-        <v>71.33000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E113" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -2429,19 +2399,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.7444181811649169</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B114" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C114" t="n">
-        <v>93.76</v>
+        <v>88.988</v>
       </c>
       <c r="D114" t="n">
-        <v>71.33000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E114" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -2449,19 +2419,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.7444181811649169</v>
+        <v>0.7484498979203</v>
       </c>
       <c r="B115" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C115" t="n">
-        <v>93.76</v>
+        <v>88.988</v>
       </c>
       <c r="D115" t="n">
-        <v>71.33000000000001</v>
+        <v>86.05</v>
       </c>
       <c r="E115" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -2469,19 +2439,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7425206936082719</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C116" t="n">
-        <v>93.986</v>
+        <v>90.65</v>
       </c>
       <c r="D116" t="n">
-        <v>72.89</v>
+        <v>76.74000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -2489,19 +2459,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7425206936082719</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C117" t="n">
-        <v>93.986</v>
+        <v>90.65</v>
       </c>
       <c r="D117" t="n">
-        <v>72.89</v>
+        <v>76.74000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -2509,19 +2479,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7425206936082719</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C118" t="n">
-        <v>93.986</v>
+        <v>90.65</v>
       </c>
       <c r="D118" t="n">
-        <v>72.89</v>
+        <v>76.74000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2529,19 +2499,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7425206936082719</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C119" t="n">
-        <v>93.986</v>
+        <v>90.65</v>
       </c>
       <c r="D119" t="n">
-        <v>72.89</v>
+        <v>76.74000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -2549,19 +2519,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7425206936082719</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C120" t="n">
-        <v>93.986</v>
+        <v>90.65</v>
       </c>
       <c r="D120" t="n">
-        <v>72.89</v>
+        <v>76.74000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -2569,19 +2539,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C121" t="n">
-        <v>93.986</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>72.89</v>
+        <v>69.09</v>
       </c>
       <c r="E121" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -2589,19 +2559,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C122" t="n">
-        <v>93.986</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>72.89</v>
+        <v>69.09</v>
       </c>
       <c r="E122" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -2609,19 +2579,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C123" t="n">
-        <v>93.986</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>72.89</v>
+        <v>69.09</v>
       </c>
       <c r="E123" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -2629,19 +2599,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.7436896092452593</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C124" t="n">
-        <v>93.986</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>72.89</v>
+        <v>69.09</v>
       </c>
       <c r="E124" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -2649,16 +2619,16 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C125" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E125" t="n">
         <v>26.0</v>
@@ -2669,16 +2639,16 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C126" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E126" t="n">
         <v>26.0</v>
@@ -2689,16 +2659,16 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C127" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E127" t="n">
         <v>26.0</v>
@@ -2709,16 +2679,16 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C128" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E128" t="n">
         <v>26.0</v>
@@ -2729,16 +2699,16 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C129" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D129" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E129" t="n">
         <v>26.0</v>
@@ -2749,16 +2719,16 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C130" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E130" t="n">
         <v>26.0</v>
@@ -2769,16 +2739,16 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E131" t="n">
         <v>26.0</v>
@@ -2789,16 +2759,16 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E132" t="n">
         <v>26.0</v>
@@ -2809,16 +2779,16 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7360015613664058</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C133" t="n">
-        <v>92.016</v>
+        <v>92.50399999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>68.83999999999999</v>
+        <v>69.09</v>
       </c>
       <c r="E133" t="n">
         <v>26.0</v>
@@ -2829,16 +2799,16 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.7376701858381082</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C134" t="n">
-        <v>92.016</v>
+        <v>93.044</v>
       </c>
       <c r="D134" t="n">
-        <v>68.83999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E134" t="n">
         <v>26.0</v>
@@ -2849,19 +2819,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B135" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D135" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -2869,19 +2839,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C136" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D136" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F136" t="n">
         <v>0.0</v>
@@ -2889,19 +2859,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C137" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D137" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F137" t="n">
         <v>0.0</v>
@@ -2909,19 +2879,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C138" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D138" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F138" t="n">
         <v>0.0</v>
@@ -2929,19 +2899,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C139" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D139" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -2949,19 +2919,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B140" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C140" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D140" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E140" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F140" t="n">
         <v>0.0</v>
@@ -2969,19 +2939,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C141" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D141" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F141" t="n">
         <v>0.0</v>
@@ -2989,19 +2959,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C142" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D142" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F142" t="n">
         <v>0.0</v>
@@ -3009,19 +2979,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C143" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D143" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F143" t="n">
         <v>0.0</v>
@@ -3029,19 +2999,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.7371697245715728</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C144" t="n">
-        <v>95.85400000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D144" t="n">
-        <v>59.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>25.0</v>
+        <v>26.0</v>
       </c>
       <c r="F144" t="n">
         <v>0.0</v>
@@ -3049,16 +3019,16 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B145" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C145" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D145" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E145" t="n">
         <v>26.0</v>
@@ -3069,16 +3039,16 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C146" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D146" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E146" t="n">
         <v>26.0</v>
@@ -3089,16 +3059,16 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C147" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D147" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E147" t="n">
         <v>26.0</v>
@@ -3109,16 +3079,16 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B148" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C148" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D148" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E148" t="n">
         <v>26.0</v>
@@ -3129,16 +3099,16 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B149" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C149" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D149" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E149" t="n">
         <v>26.0</v>
@@ -3149,16 +3119,16 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B150" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C150" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D150" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E150" t="n">
         <v>26.0</v>
@@ -3169,16 +3139,16 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B151" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C151" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D151" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E151" t="n">
         <v>26.0</v>
@@ -3189,16 +3159,16 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B152" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C152" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D152" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E152" t="n">
         <v>26.0</v>
@@ -3209,16 +3179,16 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B153" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C153" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D153" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E153" t="n">
         <v>26.0</v>
@@ -3229,16 +3199,16 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B154" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C154" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D154" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E154" t="n">
         <v>26.0</v>
@@ -3249,16 +3219,16 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C155" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D155" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E155" t="n">
         <v>26.0</v>
@@ -3269,16 +3239,16 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B156" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C156" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D156" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E156" t="n">
         <v>26.0</v>
@@ -3289,16 +3259,16 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B157" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C157" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D157" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E157" t="n">
         <v>26.0</v>
@@ -3309,16 +3279,16 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B158" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C158" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D158" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E158" t="n">
         <v>26.0</v>
@@ -3329,16 +3299,16 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B159" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C159" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D159" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E159" t="n">
         <v>26.0</v>
@@ -3349,16 +3319,16 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B160" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C160" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D160" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E160" t="n">
         <v>26.0</v>
@@ -3369,16 +3339,16 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B161" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C161" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D161" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E161" t="n">
         <v>26.0</v>
@@ -3389,16 +3359,16 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B162" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C162" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D162" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E162" t="n">
         <v>26.0</v>
@@ -3409,16 +3379,16 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B163" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C163" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D163" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E163" t="n">
         <v>26.0</v>
@@ -3429,16 +3399,16 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B164" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C164" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D164" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E164" t="n">
         <v>26.0</v>
@@ -3449,16 +3419,16 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B165" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C165" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D165" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E165" t="n">
         <v>26.0</v>
@@ -3469,16 +3439,16 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C166" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D166" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E166" t="n">
         <v>26.0</v>
@@ -3489,16 +3459,16 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B167" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C167" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D167" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E167" t="n">
         <v>26.0</v>
@@ -3509,16 +3479,16 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B168" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C168" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D168" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E168" t="n">
         <v>26.0</v>
@@ -3529,16 +3499,16 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B169" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C169" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D169" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E169" t="n">
         <v>26.0</v>
@@ -3549,16 +3519,16 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B170" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C170" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D170" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E170" t="n">
         <v>26.0</v>
@@ -3569,16 +3539,16 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B171" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C171" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D171" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E171" t="n">
         <v>26.0</v>
@@ -3589,16 +3559,16 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B172" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C172" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D172" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E172" t="n">
         <v>26.0</v>
@@ -3609,16 +3579,16 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B173" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C173" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D173" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E173" t="n">
         <v>26.0</v>
@@ -3629,16 +3599,16 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B174" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C174" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D174" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E174" t="n">
         <v>26.0</v>
@@ -3649,16 +3619,16 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B175" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C175" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D175" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E175" t="n">
         <v>26.0</v>
@@ -3669,16 +3639,16 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B176" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C176" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D176" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E176" t="n">
         <v>26.0</v>
@@ -3689,16 +3659,16 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B177" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C177" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D177" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E177" t="n">
         <v>26.0</v>
@@ -3709,16 +3679,16 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C178" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D178" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E178" t="n">
         <v>26.0</v>
@@ -3729,16 +3699,16 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C179" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D179" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E179" t="n">
         <v>26.0</v>
@@ -3749,16 +3719,16 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C180" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D180" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E180" t="n">
         <v>26.0</v>
@@ -3769,16 +3739,16 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C181" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D181" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E181" t="n">
         <v>26.0</v>
@@ -3789,16 +3759,16 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B182" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C182" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D182" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E182" t="n">
         <v>26.0</v>
@@ -3809,16 +3779,16 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C183" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D183" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E183" t="n">
         <v>26.0</v>
@@ -3829,16 +3799,16 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C184" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D184" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E184" t="n">
         <v>26.0</v>
@@ -3849,16 +3819,16 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B185" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C185" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D185" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E185" t="n">
         <v>26.0</v>
@@ -3869,16 +3839,16 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C186" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D186" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E186" t="n">
         <v>26.0</v>
@@ -3889,16 +3859,16 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C187" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D187" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E187" t="n">
         <v>26.0</v>
@@ -3909,16 +3879,16 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C188" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D188" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E188" t="n">
         <v>26.0</v>
@@ -3929,16 +3899,16 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B189" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C189" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D189" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E189" t="n">
         <v>26.0</v>
@@ -3949,16 +3919,16 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C190" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D190" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E190" t="n">
         <v>26.0</v>
@@ -3969,16 +3939,16 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B191" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C191" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D191" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E191" t="n">
         <v>26.0</v>
@@ -3989,16 +3959,16 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C192" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D192" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E192" t="n">
         <v>26.0</v>
@@ -4009,16 +3979,16 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B193" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C193" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D193" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E193" t="n">
         <v>26.0</v>
@@ -4029,16 +3999,16 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C194" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D194" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E194" t="n">
         <v>26.0</v>
@@ -4049,16 +4019,16 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B195" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C195" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D195" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E195" t="n">
         <v>26.0</v>
@@ -4069,16 +4039,16 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B196" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C196" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D196" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E196" t="n">
         <v>26.0</v>
@@ -4089,16 +4059,16 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B197" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C197" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D197" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E197" t="n">
         <v>26.0</v>
@@ -4109,16 +4079,16 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C198" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D198" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E198" t="n">
         <v>26.0</v>
@@ -4129,16 +4099,16 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B199" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C199" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D199" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E199" t="n">
         <v>26.0</v>
@@ -4149,16 +4119,16 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B200" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C200" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D200" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E200" t="n">
         <v>26.0</v>
@@ -4169,16 +4139,16 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B201" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C201" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D201" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E201" t="n">
         <v>26.0</v>
@@ -4189,16 +4159,16 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C202" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D202" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E202" t="n">
         <v>26.0</v>
@@ -4209,16 +4179,16 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C203" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D203" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E203" t="n">
         <v>26.0</v>
@@ -4229,16 +4199,16 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B204" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C204" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D204" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E204" t="n">
         <v>26.0</v>
@@ -4249,16 +4219,16 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B205" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C205" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D205" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E205" t="n">
         <v>26.0</v>
@@ -4269,16 +4239,16 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B206" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C206" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D206" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E206" t="n">
         <v>26.0</v>
@@ -4289,16 +4259,16 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C207" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D207" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E207" t="n">
         <v>26.0</v>
@@ -4309,16 +4279,16 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C208" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D208" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E208" t="n">
         <v>26.0</v>
@@ -4329,16 +4299,16 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B209" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C209" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D209" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E209" t="n">
         <v>26.0</v>
@@ -4349,16 +4319,16 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B210" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C210" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D210" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E210" t="n">
         <v>26.0</v>
@@ -4369,16 +4339,16 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B211" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C211" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D211" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E211" t="n">
         <v>26.0</v>
@@ -4389,16 +4359,16 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B212" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C212" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D212" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E212" t="n">
         <v>26.0</v>
@@ -4409,16 +4379,16 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B213" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C213" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D213" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E213" t="n">
         <v>26.0</v>
@@ -4429,16 +4399,16 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B214" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C214" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D214" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E214" t="n">
         <v>26.0</v>
@@ -4449,16 +4419,16 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B215" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C215" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D215" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E215" t="n">
         <v>26.0</v>
@@ -4469,16 +4439,16 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B216" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C216" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D216" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E216" t="n">
         <v>26.0</v>
@@ -4489,16 +4459,16 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B217" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C217" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D217" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E217" t="n">
         <v>26.0</v>
@@ -4509,16 +4479,16 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C218" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D218" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E218" t="n">
         <v>26.0</v>
@@ -4529,16 +4499,16 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B219" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C219" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D219" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E219" t="n">
         <v>26.0</v>
@@ -4549,16 +4519,16 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C220" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D220" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E220" t="n">
         <v>26.0</v>
@@ -4569,16 +4539,16 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B221" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C221" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D221" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E221" t="n">
         <v>26.0</v>
@@ -4589,16 +4559,16 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.7297135116584745</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B222" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C222" t="n">
-        <v>94.34799999999998</v>
+        <v>93.044</v>
       </c>
       <c r="D222" t="n">
-        <v>70.24</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E222" t="n">
         <v>26.0</v>
@@ -4609,16 +4579,16 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.7293645641908759</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C223" t="n">
-        <v>94.44600000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D223" t="n">
-        <v>69.52</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E223" t="n">
         <v>26.0</v>
@@ -4629,16 +4599,16 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.7293645641908759</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C224" t="n">
-        <v>94.44600000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D224" t="n">
-        <v>69.52</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E224" t="n">
         <v>26.0</v>
@@ -4649,16 +4619,16 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.7293645641908759</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B225" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C225" t="n">
-        <v>94.44600000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D225" t="n">
-        <v>69.52</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E225" t="n">
         <v>26.0</v>
@@ -4669,16 +4639,16 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.7293645641908759</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B226" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C226" t="n">
-        <v>94.44600000000001</v>
+        <v>93.044</v>
       </c>
       <c r="D226" t="n">
-        <v>69.52</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E226" t="n">
         <v>26.0</v>
@@ -4689,16 +4659,16 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B227" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C227" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D227" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E227" t="n">
         <v>26.0</v>
@@ -4709,16 +4679,16 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B228" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C228" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D228" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E228" t="n">
         <v>26.0</v>
@@ -4729,16 +4699,16 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B229" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C229" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D229" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E229" t="n">
         <v>26.0</v>
@@ -4749,16 +4719,16 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B230" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C230" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D230" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E230" t="n">
         <v>26.0</v>
@@ -4769,16 +4739,16 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B231" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C231" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D231" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E231" t="n">
         <v>26.0</v>
@@ -4789,16 +4759,16 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B232" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C232" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D232" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E232" t="n">
         <v>26.0</v>
@@ -4809,16 +4779,16 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B233" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C233" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D233" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E233" t="n">
         <v>26.0</v>
@@ -4829,16 +4799,16 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B234" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C234" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D234" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E234" t="n">
         <v>26.0</v>
@@ -4849,16 +4819,16 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B235" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C235" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D235" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E235" t="n">
         <v>26.0</v>
@@ -4869,16 +4839,16 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B236" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C236" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D236" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E236" t="n">
         <v>26.0</v>
@@ -4889,16 +4859,16 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B237" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C237" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D237" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E237" t="n">
         <v>26.0</v>
@@ -4909,16 +4879,16 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B238" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C238" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D238" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E238" t="n">
         <v>26.0</v>
@@ -4929,16 +4899,16 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B239" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C239" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D239" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E239" t="n">
         <v>26.0</v>
@@ -4949,16 +4919,16 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B240" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C240" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D240" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E240" t="n">
         <v>26.0</v>
@@ -4969,16 +4939,16 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B241" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C241" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D241" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E241" t="n">
         <v>26.0</v>
@@ -4989,16 +4959,16 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B242" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C242" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D242" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E242" t="n">
         <v>26.0</v>
@@ -5009,16 +4979,16 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B243" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C243" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D243" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E243" t="n">
         <v>26.0</v>
@@ -5029,16 +4999,16 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B244" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C244" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D244" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E244" t="n">
         <v>26.0</v>
@@ -5049,16 +5019,16 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B245" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C245" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D245" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E245" t="n">
         <v>26.0</v>
@@ -5069,16 +5039,16 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B246" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C246" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D246" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E246" t="n">
         <v>26.0</v>
@@ -5089,16 +5059,16 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B247" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C247" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D247" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E247" t="n">
         <v>26.0</v>
@@ -5109,16 +5079,16 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B248" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C248" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D248" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E248" t="n">
         <v>26.0</v>
@@ -5129,16 +5099,16 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B249" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C249" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D249" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E249" t="n">
         <v>26.0</v>
@@ -5149,16 +5119,16 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B250" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C250" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D250" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E250" t="n">
         <v>26.0</v>
@@ -5169,16 +5139,16 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C251" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D251" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E251" t="n">
         <v>26.0</v>
@@ -5189,16 +5159,16 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B252" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C252" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D252" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E252" t="n">
         <v>26.0</v>
@@ -5209,16 +5179,16 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.7258225058362497</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B253" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C253" t="n">
-        <v>95.47399999999999</v>
+        <v>93.044</v>
       </c>
       <c r="D253" t="n">
-        <v>67.78999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E253" t="n">
         <v>26.0</v>
@@ -5229,16 +5199,16 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B254" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C254" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D254" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E254" t="n">
         <v>26.0</v>
@@ -5249,16 +5219,16 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B255" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C255" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D255" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E255" t="n">
         <v>26.0</v>
@@ -5269,16 +5239,16 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C256" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D256" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E256" t="n">
         <v>26.0</v>
@@ -5289,16 +5259,16 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B257" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C257" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D257" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E257" t="n">
         <v>26.0</v>
@@ -5309,16 +5279,16 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B258" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C258" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D258" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E258" t="n">
         <v>26.0</v>
@@ -5329,16 +5299,16 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B259" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C259" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D259" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E259" t="n">
         <v>26.0</v>
@@ -5349,16 +5319,16 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B260" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C260" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D260" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E260" t="n">
         <v>26.0</v>
@@ -5369,16 +5339,16 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C261" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D261" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E261" t="n">
         <v>26.0</v>
@@ -5389,16 +5359,16 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B262" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C262" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D262" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E262" t="n">
         <v>26.0</v>
@@ -5409,16 +5379,16 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C263" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D263" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E263" t="n">
         <v>26.0</v>
@@ -5429,16 +5399,16 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B264" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C264" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D264" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E264" t="n">
         <v>26.0</v>
@@ -5449,16 +5419,16 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C265" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D265" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E265" t="n">
         <v>26.0</v>
@@ -5469,16 +5439,16 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B266" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C266" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D266" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E266" t="n">
         <v>26.0</v>
@@ -5489,16 +5459,16 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B267" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C267" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D267" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E267" t="n">
         <v>26.0</v>
@@ -5509,16 +5479,16 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.7254974058115472</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B268" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C268" t="n">
-        <v>95.588</v>
+        <v>93.044</v>
       </c>
       <c r="D268" t="n">
-        <v>71.03</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E268" t="n">
         <v>26.0</v>
@@ -5529,16 +5499,16 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B269" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C269" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D269" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E269" t="n">
         <v>26.0</v>
@@ -5549,16 +5519,16 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B270" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C270" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D270" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E270" t="n">
         <v>26.0</v>
@@ -5569,16 +5539,16 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B271" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C271" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D271" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E271" t="n">
         <v>26.0</v>
@@ -5589,16 +5559,16 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B272" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C272" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D272" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E272" t="n">
         <v>26.0</v>
@@ -5609,16 +5579,16 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B273" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C273" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D273" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E273" t="n">
         <v>26.0</v>
@@ -5629,16 +5599,16 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B274" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C274" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D274" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E274" t="n">
         <v>26.0</v>
@@ -5649,16 +5619,16 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B275" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C275" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D275" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E275" t="n">
         <v>26.0</v>
@@ -5669,16 +5639,16 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B276" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C276" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D276" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E276" t="n">
         <v>26.0</v>
@@ -5689,16 +5659,16 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B277" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C277" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D277" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E277" t="n">
         <v>26.0</v>
@@ -5709,16 +5679,16 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B278" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C278" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D278" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E278" t="n">
         <v>26.0</v>
@@ -5729,16 +5699,16 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B279" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C279" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D279" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E279" t="n">
         <v>26.0</v>
@@ -5749,16 +5719,16 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B280" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C280" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D280" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E280" t="n">
         <v>26.0</v>
@@ -5769,16 +5739,16 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B281" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C281" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D281" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E281" t="n">
         <v>26.0</v>
@@ -5789,16 +5759,16 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B282" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C282" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D282" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E282" t="n">
         <v>26.0</v>
@@ -5809,16 +5779,16 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B283" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C283" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D283" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E283" t="n">
         <v>26.0</v>
@@ -5829,16 +5799,16 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B284" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C284" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D284" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E284" t="n">
         <v>26.0</v>
@@ -5849,16 +5819,16 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B285" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C285" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D285" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E285" t="n">
         <v>26.0</v>
@@ -5869,16 +5839,16 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B286" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C286" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D286" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E286" t="n">
         <v>26.0</v>
@@ -5889,16 +5859,16 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B287" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C287" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D287" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E287" t="n">
         <v>26.0</v>
@@ -5909,16 +5879,16 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B288" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C288" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D288" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E288" t="n">
         <v>26.0</v>
@@ -5929,16 +5899,16 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B289" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C289" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D289" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E289" t="n">
         <v>26.0</v>
@@ -5949,16 +5919,16 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B290" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C290" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D290" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E290" t="n">
         <v>26.0</v>
@@ -5969,16 +5939,16 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.7229096713464374</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B291" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C291" t="n">
-        <v>96.36</v>
+        <v>93.044</v>
       </c>
       <c r="D291" t="n">
-        <v>73.08999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E291" t="n">
         <v>26.0</v>
@@ -5989,19 +5959,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B292" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C292" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D292" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E292" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F292" t="n">
         <v>0.0</v>
@@ -6009,19 +5979,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B293" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C293" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D293" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E293" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -6029,19 +5999,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B294" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C294" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D294" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E294" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F294" t="n">
         <v>0.0</v>
@@ -6049,19 +6019,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B295" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C295" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D295" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E295" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F295" t="n">
         <v>0.0</v>
@@ -6069,19 +6039,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B296" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C296" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D296" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E296" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F296" t="n">
         <v>0.0</v>
@@ -6089,19 +6059,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B297" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C297" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D297" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E297" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F297" t="n">
         <v>0.0</v>
@@ -6109,19 +6079,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B298" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C298" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D298" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E298" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F298" t="n">
         <v>0.0</v>
@@ -6129,19 +6099,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B299" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C299" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D299" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E299" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F299" t="n">
         <v>0.0</v>
@@ -6149,19 +6119,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B300" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C300" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D300" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E300" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
@@ -6169,19 +6139,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.7138249944837679</v>
+        <v>0.7341495346153134</v>
       </c>
       <c r="B301" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C301" t="n">
-        <v>95.458</v>
+        <v>93.044</v>
       </c>
       <c r="D301" t="n">
-        <v>75.35999999999999</v>
+        <v>68.99000000000001</v>
       </c>
       <c r="E301" t="n">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="F301" t="n">
         <v>0.0</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="29">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,61 +32,73 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 173], [145, 35, 21, 43], [91, 149, 1, 125]]</t>
+    <t>[[66, 113, 4, 74, 138], [144, 148, 50, 18, 44, 125, 13], [70, 48, 12, 134, 89, 8]]</t>
   </si>
   <si>
-    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 139], [67, 25, 104, 134], [69, 181, 93, 189, 83]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 153, 134, 81, 33], [5, 6, 44, 129, 154, 34]]</t>
   </si>
   <si>
-    <t>[[9, 5, 181, 65, 80], [131, 147, 91, 93, 111], [97, 125, 35], [188, 109, 28, 132, 81], [150, 95, 84, 163, 96]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [87, 118, 141, 129, 30]]</t>
   </si>
   <si>
-    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 139], [67, 25, 104, 134], [69, 181, 93, 189, 184]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [144, 125, 9, 73, 151]]</t>
   </si>
   <si>
-    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 173], [103, 43, 72, 27, 95], [142, 90, 38, 69]]</t>
+    <t>[[46, 146, 54, 149, 53, 134, 125], [28, 120, 135, 148, 100, 79, 138], [13, 78, 87, 115, 3, 69]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [12, 121, 14, 20]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 86, 127, 132, 59], [8, 70, 140, 2, 92, 9, 149]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 69, 106, 180], [85, 164, 46, 103, 58]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 50, 41, 16, 79], [146, 8, 69, 137, 108, 59, 115]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [12, 121, 14, 20, 86]]</t>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 80, 133, 7, 66, 86], [71, 70, 122, 84, 139, 125]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 126, 61, 111, 67]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [144, 125, 9, 115, 90, 43, 153]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [12, 121, 5, 90, 103]]</t>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [121, 90, 140, 156, 92]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 40, 68, 29, 79]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [44, 109, 50, 20, 96, 120, 54]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [75, 35, 141, 40, 88]]</t>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [121, 12, 66, 10, 22, 69]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 111, 40, 75, 2]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [57, 114, 70, 23, 96, 138, 85, 28]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 111, 40, 75, 173]]</t>
+    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [44, 109, 50, 20, 96, 172, 129, 74]]</t>
   </si>
   <si>
-    <t>[[138, 113, 49, 155, 78], [75, 150, 57, 20, 132], [4, 88, 5, 86, 173], [145, 58, 55, 40, 28], [181, 111, 16, 66, 184]]</t>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [134, 129, 120, 99, 86, 125, 22]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 141, 180, 34, 138, 80]]</t>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [86, 154, 6, 49, 144, 129, 59]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 111, 40, 58, 138, 61]]</t>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [125, 23, 63, 66, 22, 162, 54]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 40, 75, 111, 131, 180]]</t>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17], [87, 54, 144, 138, 161, 96, 16, 59]]</t>
   </si>
   <si>
-    <t>[[135, 76, 17, 91, 97], [89, 184, 87, 23, 28], [71, 42, 163, 57, 187], [147, 9, 8, 22, 81], [88, 111, 40, 75, 155, 180]]</t>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [125, 23, 63, 137, 138, 106, 129]]</t>
+  </si>
+  <si>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [134, 129, 70, 66, 131, 109, 138]]</t>
+  </si>
+  <si>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [125, 23, 63, 66, 139, 119, 129]]</t>
+  </si>
+  <si>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [134, 129, 70, 66, 131, 96, 158, 59]]</t>
+  </si>
+  <si>
+    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [134, 129, 70, 66, 131, 139, 57, 137]]</t>
   </si>
 </sst>
 </file>
@@ -159,19 +171,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8156960804593029</v>
+        <v>0.825887606147506</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>80.26199999999999</v>
+        <v>88.4</v>
       </c>
       <c r="D2" t="n">
-        <v>67.61999999999999</v>
+        <v>49.82000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0</v>
@@ -179,19 +191,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8156960804593029</v>
+        <v>0.825887606147506</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>80.26199999999999</v>
+        <v>88.4</v>
       </c>
       <c r="D3" t="n">
-        <v>67.61999999999999</v>
+        <v>49.82000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -199,19 +211,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8156960804593029</v>
+        <v>0.8034718656417971</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>80.26199999999999</v>
+        <v>90.17499999999998</v>
       </c>
       <c r="D4" t="n">
-        <v>67.61999999999999</v>
+        <v>39.70000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -219,19 +231,19 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8156960804593029</v>
+        <v>0.8034718656417971</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>80.26199999999999</v>
+        <v>90.17499999999998</v>
       </c>
       <c r="D5" t="n">
-        <v>67.61999999999999</v>
+        <v>39.70000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -239,19 +251,19 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8114874897868625</v>
+        <v>0.8001342902824504</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>77.784</v>
+        <v>91.23750000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>85.13999999999997</v>
+        <v>51.47</v>
       </c>
       <c r="E6" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
@@ -259,19 +271,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8114874897868625</v>
+        <v>0.7981599951970886</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>77.784</v>
+        <v>91.81249999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>85.13999999999997</v>
+        <v>44.82000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -279,19 +291,19 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8114874897868625</v>
+        <v>0.7981599951970886</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>77.784</v>
+        <v>91.81249999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>85.13999999999997</v>
+        <v>44.82000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -299,19 +311,19 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8099966607853982</v>
+        <v>0.7981599951970886</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>81.95</v>
+        <v>91.81249999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>62.78</v>
+        <v>44.82000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -319,19 +331,19 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8099966607853982</v>
+        <v>0.7981599951970886</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>81.95</v>
+        <v>91.81249999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>62.78</v>
+        <v>44.82000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>23.0</v>
+        <v>19.0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -339,139 +351,139 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8073715343190817</v>
+        <v>0.7705028569781125</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>78.952</v>
+        <v>95.55000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>78.00999999999998</v>
+        <v>83.25999999999998</v>
       </c>
       <c r="E11" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0</v>
+        <v>2123.099999999997</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8073715343190817</v>
+        <v>0.7647859836335846</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>78.952</v>
+        <v>97.05000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>78.00999999999998</v>
+        <v>45.93</v>
       </c>
       <c r="E12" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0</v>
+        <v>1823.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8073715343190817</v>
+        <v>0.7647859836335846</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>78.952</v>
+        <v>97.05000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>78.00999999999998</v>
+        <v>45.93</v>
       </c>
       <c r="E13" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0</v>
+        <v>1823.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8073715343190817</v>
+        <v>0.7647859836335846</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>78.952</v>
+        <v>97.05000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>78.00999999999998</v>
+        <v>45.93</v>
       </c>
       <c r="E14" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0</v>
+        <v>1823.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8073715343190817</v>
+        <v>0.7647859836335846</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>78.952</v>
+        <v>97.05000000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>78.00999999999998</v>
+        <v>45.93</v>
       </c>
       <c r="E15" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>1823.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8023115327311121</v>
+        <v>0.7606982607978147</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>80.816</v>
+        <v>98.32499999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>98.42999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="E16" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="F16" t="n">
-        <v>4053.6</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8018126118591974</v>
+        <v>0.7606982607978147</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>80.57800000000002</v>
+        <v>98.32499999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>75.64</v>
+        <v>63.2</v>
       </c>
       <c r="E17" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -479,19 +491,19 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7989436779845529</v>
+        <v>0.7606982607978147</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>81.44000000000003</v>
+        <v>98.32499999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>78.03999999999999</v>
+        <v>63.2</v>
       </c>
       <c r="E18" t="n">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -499,19 +511,19 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7569507200308271</v>
       </c>
       <c r="B19" t="s">
         <v>13</v>
       </c>
       <c r="C19" t="n">
-        <v>83.90200000000002</v>
+        <v>99.4</v>
       </c>
       <c r="D19" t="n">
-        <v>79.0</v>
+        <v>49.160000000000004</v>
       </c>
       <c r="E19" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -519,19 +531,19 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7569507200308271</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="n">
-        <v>83.90200000000002</v>
+        <v>99.4</v>
       </c>
       <c r="D20" t="n">
-        <v>79.0</v>
+        <v>49.160000000000004</v>
       </c>
       <c r="E20" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -539,19 +551,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7569507200308271</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>83.90200000000002</v>
+        <v>99.4</v>
       </c>
       <c r="D21" t="n">
-        <v>79.0</v>
+        <v>49.160000000000004</v>
       </c>
       <c r="E21" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -559,19 +571,19 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7569507200308271</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>83.90200000000002</v>
+        <v>99.4</v>
       </c>
       <c r="D22" t="n">
-        <v>79.0</v>
+        <v>49.160000000000004</v>
       </c>
       <c r="E22" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -579,19 +591,19 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7569507200308271</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>83.90200000000002</v>
+        <v>99.4</v>
       </c>
       <c r="D23" t="n">
-        <v>79.0</v>
+        <v>49.160000000000004</v>
       </c>
       <c r="E23" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -599,19 +611,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7569507200308271</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>83.90200000000002</v>
+        <v>99.4</v>
       </c>
       <c r="D24" t="n">
-        <v>79.0</v>
+        <v>49.160000000000004</v>
       </c>
       <c r="E24" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -619,19 +631,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7351776526180125</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C25" t="n">
-        <v>83.90200000000002</v>
+        <v>101.0375</v>
       </c>
       <c r="D25" t="n">
-        <v>79.0</v>
+        <v>45.500000000000014</v>
       </c>
       <c r="E25" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -639,19 +651,19 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7351776526180125</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C26" t="n">
-        <v>83.90200000000002</v>
+        <v>101.0375</v>
       </c>
       <c r="D26" t="n">
-        <v>79.0</v>
+        <v>45.500000000000014</v>
       </c>
       <c r="E26" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -659,19 +671,19 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7351776526180125</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>83.90200000000002</v>
+        <v>101.0375</v>
       </c>
       <c r="D27" t="n">
-        <v>79.0</v>
+        <v>45.500000000000014</v>
       </c>
       <c r="E27" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -679,19 +691,19 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7351776526180125</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>83.90200000000002</v>
+        <v>101.0375</v>
       </c>
       <c r="D28" t="n">
-        <v>79.0</v>
+        <v>45.500000000000014</v>
       </c>
       <c r="E28" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
@@ -699,19 +711,19 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7331678447477017</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
-        <v>83.90200000000002</v>
+        <v>101.7125</v>
       </c>
       <c r="D29" t="n">
-        <v>79.0</v>
+        <v>59.42999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -719,19 +731,19 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7331678447477017</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>83.90200000000002</v>
+        <v>101.7125</v>
       </c>
       <c r="D30" t="n">
-        <v>79.0</v>
+        <v>59.42999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -739,19 +751,19 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7780099318685795</v>
+        <v>0.7298077689591486</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C31" t="n">
-        <v>83.90200000000002</v>
+        <v>102.71249999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>79.0</v>
+        <v>56.21</v>
       </c>
       <c r="E31" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -759,19 +771,19 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7745275142843777</v>
+        <v>0.7298077689591486</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C32" t="n">
-        <v>84.89400000000002</v>
+        <v>102.71249999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>74.47</v>
+        <v>56.21</v>
       </c>
       <c r="E32" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -779,19 +791,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.7298077689591486</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" t="n">
-        <v>85.89800000000002</v>
+        <v>102.71249999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>77.55000000000001</v>
+        <v>56.21</v>
       </c>
       <c r="E33" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -799,19 +811,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.7298077689591486</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" t="n">
-        <v>85.89800000000002</v>
+        <v>102.71249999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>77.55000000000001</v>
+        <v>56.21</v>
       </c>
       <c r="E34" t="n">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -819,19 +831,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.7025093718543183</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" t="n">
-        <v>85.89800000000002</v>
+        <v>106.175</v>
       </c>
       <c r="D35" t="n">
-        <v>77.55000000000001</v>
+        <v>72.06999999999998</v>
       </c>
       <c r="E35" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -839,19 +851,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C36" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -859,19 +871,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -879,19 +891,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -899,19 +911,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -919,19 +931,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -939,19 +951,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -959,19 +971,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -979,19 +991,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C43" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E43" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -999,19 +1011,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C44" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -1019,19 +1031,19 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C45" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -1039,19 +1051,19 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.7711637469887946</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C46" t="n">
-        <v>85.89800000000002</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>77.55000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -1059,19 +1071,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.7642774120090721</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C47" t="n">
-        <v>87.89</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>72.24000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E47" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -1079,19 +1091,19 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.7610076668138742</v>
+        <v>0.6948850462859689</v>
       </c>
       <c r="B48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48" t="n">
-        <v>88.876</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>76.13000000000001</v>
+        <v>61.09000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -1099,19 +1111,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.7601011302457116</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" t="n">
-        <v>89.09599999999999</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>67.87000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E49" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F49" t="n">
         <v>0.0</v>
@@ -1119,19 +1131,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
       </c>
       <c r="C50" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E50" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -1139,19 +1151,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
       </c>
       <c r="C51" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D51" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E51" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -1159,19 +1171,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
       </c>
       <c r="C52" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E52" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -1179,19 +1191,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B53" t="s">
         <v>19</v>
       </c>
       <c r="C53" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E53" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -1199,19 +1211,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E54" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
@@ -1219,19 +1231,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B55" t="s">
         <v>19</v>
       </c>
       <c r="C55" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E55" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -1239,19 +1251,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
       </c>
       <c r="C56" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E56" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -1259,19 +1271,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B57" t="s">
         <v>19</v>
       </c>
       <c r="C57" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E57" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -1279,19 +1291,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B58" t="s">
         <v>19</v>
       </c>
       <c r="C58" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E58" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -1299,19 +1311,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
       <c r="C59" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E59" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -1319,19 +1331,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6923677464078274</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" t="n">
-        <v>89.122</v>
+        <v>109.08749999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>68.68000000000002</v>
+        <v>47.23</v>
       </c>
       <c r="E60" t="n">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -1339,99 +1351,99 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6721981811501406</v>
       </c>
       <c r="B61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C61" t="n">
-        <v>89.122</v>
+        <v>110.53750000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>68.68000000000002</v>
+        <v>73.05</v>
       </c>
       <c r="E61" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0</v>
+        <v>1662.3000000000015</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6721981811501406</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" t="n">
-        <v>89.122</v>
+        <v>110.53750000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>68.68000000000002</v>
+        <v>73.05</v>
       </c>
       <c r="E62" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0</v>
+        <v>1662.3000000000015</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6721981811501406</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63" t="n">
-        <v>89.122</v>
+        <v>110.53750000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>68.68000000000002</v>
+        <v>73.05</v>
       </c>
       <c r="E63" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0</v>
+        <v>1662.3000000000015</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6721981811501406</v>
       </c>
       <c r="B64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C64" t="n">
-        <v>89.122</v>
+        <v>110.53750000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>68.68000000000002</v>
+        <v>73.05</v>
       </c>
       <c r="E64" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>1662.3000000000015</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6710367981450049</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C65" t="n">
-        <v>89.122</v>
+        <v>110.8625</v>
       </c>
       <c r="D65" t="n">
-        <v>68.68000000000002</v>
+        <v>77.24</v>
       </c>
       <c r="E65" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -1439,19 +1451,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6675638031770629</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C66" t="n">
-        <v>89.122</v>
+        <v>111.77499999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>68.68000000000002</v>
+        <v>59.33</v>
       </c>
       <c r="E66" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -1459,19 +1471,19 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
-        <v>89.122</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>68.68000000000002</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -1479,19 +1491,19 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C68" t="n">
-        <v>89.122</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>68.68000000000002</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -1499,19 +1511,19 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.7600278894916157</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>89.122</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>68.68000000000002</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -1519,19 +1531,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.7579106256822109</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C70" t="n">
-        <v>89.714</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>62.42999999999999</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -1539,19 +1551,19 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.7579106256822109</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
-        <v>89.714</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>62.42999999999999</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>25.0</v>
+        <v>23.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -1559,19 +1571,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C72" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -1579,19 +1591,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C73" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -1599,19 +1611,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -1619,19 +1631,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1639,19 +1651,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C76" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1659,19 +1671,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C77" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1679,19 +1691,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C78" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1699,19 +1711,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C79" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1719,19 +1731,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C80" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1739,19 +1751,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1759,19 +1771,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C82" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -1779,19 +1791,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C83" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -1799,19 +1811,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C84" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -1819,19 +1831,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B85" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -1839,19 +1851,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C86" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -1859,19 +1871,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -1879,19 +1891,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C88" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -1899,19 +1911,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6632827209539538</v>
       </c>
       <c r="B89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
-        <v>88.988</v>
+        <v>113.24999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>86.05</v>
+        <v>85.36999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1919,19 +1931,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B90" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C90" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D90" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -1939,19 +1951,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B91" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C91" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D91" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1959,19 +1971,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C92" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -1979,19 +1991,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B93" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -1999,19 +2011,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C94" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -2019,19 +2031,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C95" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -2039,19 +2051,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C96" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -2059,19 +2071,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B97" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C97" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2079,19 +2091,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B98" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C98" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -2099,19 +2111,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C99" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -2119,19 +2131,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C100" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -2139,19 +2151,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B101" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C101" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -2159,19 +2171,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B102" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C102" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -2179,19 +2191,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B103" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C103" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D103" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B104" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C104" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2219,19 +2231,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B105" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C105" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -2239,19 +2251,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B106" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C106" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -2259,19 +2271,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B107" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C107" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -2279,19 +2291,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B108" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C108" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -2299,19 +2311,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B109" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C109" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -2319,19 +2331,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B110" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C110" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -2339,19 +2351,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B111" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C111" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2359,19 +2371,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B112" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C112" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D112" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B113" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C113" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -2399,19 +2411,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C114" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -2419,19 +2431,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.7484498979203</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C115" t="n">
-        <v>88.988</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>86.05</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -2439,19 +2451,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.7425206936082719</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C116" t="n">
-        <v>90.65</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>76.74000000000001</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -2459,19 +2471,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.7425206936082719</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C117" t="n">
-        <v>90.65</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>76.74000000000001</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E117" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -2479,19 +2491,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.7425206936082719</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C118" t="n">
-        <v>90.65</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>76.74000000000001</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2499,19 +2511,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.7425206936082719</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B119" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C119" t="n">
-        <v>90.65</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D119" t="n">
-        <v>76.74000000000001</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -2519,19 +2531,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.7425206936082719</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C120" t="n">
-        <v>90.65</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>76.74000000000001</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -2539,19 +2551,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6605629922720646</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C121" t="n">
-        <v>92.50399999999999</v>
+        <v>113.93749999999999</v>
       </c>
       <c r="D121" t="n">
-        <v>69.09</v>
+        <v>68.94000000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -2559,19 +2571,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B122" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C122" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D122" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E122" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -2579,19 +2591,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B123" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C123" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D123" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E123" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -2599,19 +2611,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B124" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C124" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D124" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E124" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -2619,19 +2631,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C125" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D125" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E125" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -2639,19 +2651,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C126" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D126" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E126" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F126" t="n">
         <v>0.0</v>
@@ -2659,19 +2671,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B127" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C127" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D127" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E127" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F127" t="n">
         <v>0.0</v>
@@ -2679,19 +2691,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B128" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C128" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D128" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E128" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F128" t="n">
         <v>0.0</v>
@@ -2699,19 +2711,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C129" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D129" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E129" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F129" t="n">
         <v>0.0</v>
@@ -2719,19 +2731,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B130" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C130" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D130" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E130" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -2739,19 +2751,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B131" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C131" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D131" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E131" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F131" t="n">
         <v>0.0</v>
@@ -2759,19 +2771,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B132" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C132" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D132" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E132" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2779,19 +2791,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.7360015613664058</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B133" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C133" t="n">
-        <v>92.50399999999999</v>
+        <v>114.35</v>
       </c>
       <c r="D133" t="n">
-        <v>69.09</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E133" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F133" t="n">
         <v>0.0</v>
@@ -2799,19 +2811,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B134" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C134" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D134" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E134" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F134" t="n">
         <v>0.0</v>
@@ -2819,19 +2831,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B135" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C135" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D135" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E135" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -2839,19 +2851,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B136" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C136" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D136" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E136" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F136" t="n">
         <v>0.0</v>
@@ -2859,19 +2871,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C137" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D137" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E137" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F137" t="n">
         <v>0.0</v>
@@ -2879,19 +2891,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B138" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C138" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D138" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E138" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F138" t="n">
         <v>0.0</v>
@@ -2899,19 +2911,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D139" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E139" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -2919,19 +2931,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B140" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C140" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D140" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E140" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F140" t="n">
         <v>0.0</v>
@@ -2939,19 +2951,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C141" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D141" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E141" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F141" t="n">
         <v>0.0</v>
@@ -2959,19 +2971,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C142" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D142" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E142" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F142" t="n">
         <v>0.0</v>
@@ -2979,19 +2991,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B143" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C143" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D143" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E143" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F143" t="n">
         <v>0.0</v>
@@ -2999,19 +3011,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B144" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C144" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D144" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E144" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F144" t="n">
         <v>0.0</v>
@@ -3019,19 +3031,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B145" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C145" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D145" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E145" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F145" t="n">
         <v>0.0</v>
@@ -3039,19 +3051,19 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B146" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C146" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D146" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E146" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F146" t="n">
         <v>0.0</v>
@@ -3059,19 +3071,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B147" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C147" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D147" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E147" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F147" t="n">
         <v>0.0</v>
@@ -3079,19 +3091,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B148" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C148" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D148" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E148" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F148" t="n">
         <v>0.0</v>
@@ -3099,19 +3111,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B149" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C149" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D149" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E149" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F149" t="n">
         <v>0.0</v>
@@ -3119,19 +3131,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B150" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C150" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D150" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E150" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F150" t="n">
         <v>0.0</v>
@@ -3139,19 +3151,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B151" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C151" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D151" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E151" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F151" t="n">
         <v>0.0</v>
@@ -3159,19 +3171,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B152" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C152" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D152" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E152" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F152" t="n">
         <v>0.0</v>
@@ -3179,19 +3191,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B153" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C153" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D153" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E153" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F153" t="n">
         <v>0.0</v>
@@ -3199,19 +3211,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B154" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C154" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D154" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E154" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F154" t="n">
         <v>0.0</v>
@@ -3219,19 +3231,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B155" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C155" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D155" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E155" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F155" t="n">
         <v>0.0</v>
@@ -3239,19 +3251,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B156" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C156" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D156" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E156" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F156" t="n">
         <v>0.0</v>
@@ -3259,19 +3271,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B157" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C157" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D157" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E157" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F157" t="n">
         <v>0.0</v>
@@ -3279,19 +3291,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B158" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C158" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D158" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E158" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F158" t="n">
         <v>0.0</v>
@@ -3299,19 +3311,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B159" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C159" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D159" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E159" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F159" t="n">
         <v>0.0</v>
@@ -3319,19 +3331,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B160" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C160" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D160" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E160" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F160" t="n">
         <v>0.0</v>
@@ -3339,19 +3351,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6589835433783436</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C161" t="n">
-        <v>93.044</v>
+        <v>114.35</v>
       </c>
       <c r="D161" t="n">
-        <v>68.99000000000001</v>
+        <v>59.410000000000004</v>
       </c>
       <c r="E161" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F161" t="n">
         <v>0.0</v>
@@ -3359,19 +3371,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B162" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C162" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D162" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E162" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F162" t="n">
         <v>0.0</v>
@@ -3379,19 +3391,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C163" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D163" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E163" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F163" t="n">
         <v>0.0</v>
@@ -3399,19 +3411,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C164" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D164" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E164" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F164" t="n">
         <v>0.0</v>
@@ -3419,19 +3431,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B165" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C165" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D165" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E165" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F165" t="n">
         <v>0.0</v>
@@ -3439,19 +3451,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B166" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C166" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D166" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E166" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F166" t="n">
         <v>0.0</v>
@@ -3459,19 +3471,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B167" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C167" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D167" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E167" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F167" t="n">
         <v>0.0</v>
@@ -3479,19 +3491,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B168" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C168" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D168" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E168" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F168" t="n">
         <v>0.0</v>
@@ -3499,19 +3511,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B169" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C169" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D169" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E169" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F169" t="n">
         <v>0.0</v>
@@ -3519,19 +3531,19 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B170" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C170" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D170" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E170" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F170" t="n">
         <v>0.0</v>
@@ -3539,19 +3551,19 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C171" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D171" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E171" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F171" t="n">
         <v>0.0</v>
@@ -3559,19 +3571,19 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B172" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C172" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D172" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E172" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F172" t="n">
         <v>0.0</v>
@@ -3579,19 +3591,19 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C173" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D173" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E173" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F173" t="n">
         <v>0.0</v>
@@ -3599,19 +3611,19 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B174" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C174" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D174" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E174" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F174" t="n">
         <v>0.0</v>
@@ -3619,19 +3631,19 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B175" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C175" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D175" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E175" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F175" t="n">
         <v>0.0</v>
@@ -3639,19 +3651,19 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C176" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D176" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E176" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F176" t="n">
         <v>0.0</v>
@@ -3659,19 +3671,19 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B177" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C177" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D177" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E177" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F177" t="n">
         <v>0.0</v>
@@ -3679,19 +3691,19 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B178" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C178" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D178" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E178" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F178" t="n">
         <v>0.0</v>
@@ -3699,19 +3711,19 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B179" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C179" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D179" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E179" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F179" t="n">
         <v>0.0</v>
@@ -3719,19 +3731,19 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B180" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C180" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D180" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E180" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F180" t="n">
         <v>0.0</v>
@@ -3739,19 +3751,19 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B181" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C181" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D181" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E181" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F181" t="n">
         <v>0.0</v>
@@ -3759,19 +3771,19 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B182" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C182" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D182" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E182" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F182" t="n">
         <v>0.0</v>
@@ -3779,19 +3791,19 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B183" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C183" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D183" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E183" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F183" t="n">
         <v>0.0</v>
@@ -3799,19 +3811,19 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B184" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C184" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D184" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E184" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F184" t="n">
         <v>0.0</v>
@@ -3819,19 +3831,19 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B185" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C185" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D185" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E185" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F185" t="n">
         <v>0.0</v>
@@ -3839,19 +3851,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B186" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C186" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D186" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E186" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F186" t="n">
         <v>0.0</v>
@@ -3859,19 +3871,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B187" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C187" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D187" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E187" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F187" t="n">
         <v>0.0</v>
@@ -3879,19 +3891,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B188" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C188" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D188" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E188" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F188" t="n">
         <v>0.0</v>
@@ -3899,19 +3911,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B189" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C189" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D189" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E189" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F189" t="n">
         <v>0.0</v>
@@ -3919,19 +3931,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B190" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C190" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D190" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E190" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F190" t="n">
         <v>0.0</v>
@@ -3939,19 +3951,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B191" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C191" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D191" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E191" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F191" t="n">
         <v>0.0</v>
@@ -3959,19 +3971,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B192" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C192" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D192" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E192" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F192" t="n">
         <v>0.0</v>
@@ -3979,19 +3991,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B193" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C193" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D193" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E193" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F193" t="n">
         <v>0.0</v>
@@ -3999,19 +4011,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B194" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C194" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D194" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E194" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F194" t="n">
         <v>0.0</v>
@@ -4019,19 +4031,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B195" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C195" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D195" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E195" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F195" t="n">
         <v>0.0</v>
@@ -4039,19 +4051,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B196" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C196" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D196" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E196" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F196" t="n">
         <v>0.0</v>
@@ -4059,19 +4071,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B197" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C197" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D197" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E197" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F197" t="n">
         <v>0.0</v>
@@ -4079,19 +4091,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B198" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C198" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D198" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E198" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F198" t="n">
         <v>0.0</v>
@@ -4099,19 +4111,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B199" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C199" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D199" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E199" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F199" t="n">
         <v>0.0</v>
@@ -4119,19 +4131,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B200" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C200" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D200" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E200" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F200" t="n">
         <v>0.0</v>
@@ -4139,19 +4151,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B201" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C201" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D201" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E201" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F201" t="n">
         <v>0.0</v>
@@ -4159,19 +4171,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B202" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C202" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D202" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E202" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F202" t="n">
         <v>0.0</v>
@@ -4179,19 +4191,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B203" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C203" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D203" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E203" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F203" t="n">
         <v>0.0</v>
@@ -4199,19 +4211,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B204" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C204" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D204" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E204" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F204" t="n">
         <v>0.0</v>
@@ -4219,19 +4231,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C205" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D205" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E205" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F205" t="n">
         <v>0.0</v>
@@ -4239,19 +4251,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C206" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D206" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E206" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F206" t="n">
         <v>0.0</v>
@@ -4259,19 +4271,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B207" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C207" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D207" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E207" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F207" t="n">
         <v>0.0</v>
@@ -4279,19 +4291,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B208" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C208" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D208" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E208" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F208" t="n">
         <v>0.0</v>
@@ -4299,19 +4311,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B209" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C209" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D209" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E209" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F209" t="n">
         <v>0.0</v>
@@ -4319,19 +4331,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B210" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C210" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D210" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E210" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F210" t="n">
         <v>0.0</v>
@@ -4339,19 +4351,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B211" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C211" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D211" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E211" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F211" t="n">
         <v>0.0</v>
@@ -4359,19 +4371,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C212" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D212" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E212" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F212" t="n">
         <v>0.0</v>
@@ -4379,19 +4391,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B213" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C213" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D213" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E213" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F213" t="n">
         <v>0.0</v>
@@ -4399,19 +4411,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B214" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C214" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D214" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E214" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F214" t="n">
         <v>0.0</v>
@@ -4419,19 +4431,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B215" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C215" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D215" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E215" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F215" t="n">
         <v>0.0</v>
@@ -4439,19 +4451,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B216" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C216" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D216" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E216" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F216" t="n">
         <v>0.0</v>
@@ -4459,19 +4471,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B217" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C217" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D217" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E217" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F217" t="n">
         <v>0.0</v>
@@ -4479,19 +4491,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B218" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C218" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D218" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E218" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F218" t="n">
         <v>0.0</v>
@@ -4499,19 +4511,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6588348816473067</v>
       </c>
       <c r="B219" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C219" t="n">
-        <v>93.044</v>
+        <v>114.42499999999998</v>
       </c>
       <c r="D219" t="n">
-        <v>68.99000000000001</v>
+        <v>64.12</v>
       </c>
       <c r="E219" t="n">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="F219" t="n">
         <v>0.0</v>
@@ -4519,19 +4531,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B220" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C220" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D220" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E220" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F220" t="n">
         <v>0.0</v>
@@ -4539,19 +4551,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B221" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C221" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D221" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E221" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F221" t="n">
         <v>0.0</v>
@@ -4559,19 +4571,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B222" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C222" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D222" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E222" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F222" t="n">
         <v>0.0</v>
@@ -4579,19 +4591,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B223" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C223" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D223" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E223" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F223" t="n">
         <v>0.0</v>
@@ -4599,19 +4611,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B224" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C224" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D224" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E224" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F224" t="n">
         <v>0.0</v>
@@ -4619,19 +4631,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B225" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C225" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D225" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E225" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F225" t="n">
         <v>0.0</v>
@@ -4639,19 +4651,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B226" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C226" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D226" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E226" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F226" t="n">
         <v>0.0</v>
@@ -4659,19 +4671,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B227" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C227" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D227" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E227" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F227" t="n">
         <v>0.0</v>
@@ -4679,19 +4691,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B228" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C228" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D228" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E228" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F228" t="n">
         <v>0.0</v>
@@ -4699,19 +4711,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B229" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C229" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D229" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E229" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F229" t="n">
         <v>0.0</v>
@@ -4719,19 +4731,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B230" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C230" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D230" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E230" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F230" t="n">
         <v>0.0</v>
@@ -4739,19 +4751,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B231" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C231" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D231" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E231" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F231" t="n">
         <v>0.0</v>
@@ -4759,19 +4771,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B232" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C232" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D232" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E232" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F232" t="n">
         <v>0.0</v>
@@ -4779,19 +4791,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B233" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C233" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D233" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E233" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F233" t="n">
         <v>0.0</v>
@@ -4799,19 +4811,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B234" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C234" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D234" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E234" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F234" t="n">
         <v>0.0</v>
@@ -4819,19 +4831,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B235" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C235" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D235" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E235" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F235" t="n">
         <v>0.0</v>
@@ -4839,19 +4851,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B236" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C236" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D236" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E236" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F236" t="n">
         <v>0.0</v>
@@ -4859,19 +4871,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B237" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C237" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D237" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E237" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F237" t="n">
         <v>0.0</v>
@@ -4879,19 +4891,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B238" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C238" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D238" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E238" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F238" t="n">
         <v>0.0</v>
@@ -4899,19 +4911,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B239" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C239" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D239" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E239" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F239" t="n">
         <v>0.0</v>
@@ -4919,19 +4931,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B240" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C240" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D240" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E240" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F240" t="n">
         <v>0.0</v>
@@ -4939,19 +4951,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B241" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C241" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D241" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E241" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F241" t="n">
         <v>0.0</v>
@@ -4959,19 +4971,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B242" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C242" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D242" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E242" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F242" t="n">
         <v>0.0</v>
@@ -4979,19 +4991,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B243" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C243" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D243" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E243" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F243" t="n">
         <v>0.0</v>
@@ -4999,19 +5011,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B244" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C244" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D244" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E244" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F244" t="n">
         <v>0.0</v>
@@ -5019,19 +5031,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B245" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C245" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D245" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E245" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F245" t="n">
         <v>0.0</v>
@@ -5039,19 +5051,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B246" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C246" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D246" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E246" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F246" t="n">
         <v>0.0</v>
@@ -5059,19 +5071,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B247" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C247" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D247" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E247" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F247" t="n">
         <v>0.0</v>
@@ -5079,19 +5091,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B248" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C248" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D248" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E248" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F248" t="n">
         <v>0.0</v>
@@ -5099,19 +5111,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B249" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C249" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D249" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E249" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F249" t="n">
         <v>0.0</v>
@@ -5119,19 +5131,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B250" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C250" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D250" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E250" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F250" t="n">
         <v>0.0</v>
@@ -5139,19 +5151,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B251" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C251" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D251" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E251" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F251" t="n">
         <v>0.0</v>
@@ -5159,19 +5171,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B252" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C252" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D252" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E252" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F252" t="n">
         <v>0.0</v>
@@ -5179,19 +5191,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B253" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C253" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D253" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E253" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F253" t="n">
         <v>0.0</v>
@@ -5199,19 +5211,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B254" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C254" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D254" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E254" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F254" t="n">
         <v>0.0</v>
@@ -5219,19 +5231,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B255" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C255" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D255" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E255" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F255" t="n">
         <v>0.0</v>
@@ -5239,19 +5251,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B256" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C256" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D256" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E256" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F256" t="n">
         <v>0.0</v>
@@ -5259,19 +5271,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B257" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C257" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D257" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E257" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F257" t="n">
         <v>0.0</v>
@@ -5279,19 +5291,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B258" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C258" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D258" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E258" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F258" t="n">
         <v>0.0</v>
@@ -5299,19 +5311,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B259" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C259" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D259" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E259" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F259" t="n">
         <v>0.0</v>
@@ -5319,19 +5331,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B260" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C260" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D260" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E260" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F260" t="n">
         <v>0.0</v>
@@ -5339,19 +5351,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B261" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C261" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D261" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E261" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F261" t="n">
         <v>0.0</v>
@@ -5359,19 +5371,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B262" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C262" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D262" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E262" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F262" t="n">
         <v>0.0</v>
@@ -5379,19 +5391,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B263" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C263" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D263" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E263" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F263" t="n">
         <v>0.0</v>
@@ -5399,19 +5411,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B264" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C264" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D264" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E264" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F264" t="n">
         <v>0.0</v>
@@ -5419,19 +5431,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B265" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C265" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D265" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E265" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F265" t="n">
         <v>0.0</v>
@@ -5439,19 +5451,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B266" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C266" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D266" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E266" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F266" t="n">
         <v>0.0</v>
@@ -5459,19 +5471,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B267" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C267" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D267" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E267" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F267" t="n">
         <v>0.0</v>
@@ -5479,19 +5491,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B268" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C268" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D268" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E268" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F268" t="n">
         <v>0.0</v>
@@ -5499,19 +5511,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B269" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C269" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D269" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E269" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F269" t="n">
         <v>0.0</v>
@@ -5519,19 +5531,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B270" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C270" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D270" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E270" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F270" t="n">
         <v>0.0</v>
@@ -5539,19 +5551,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B271" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C271" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D271" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E271" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F271" t="n">
         <v>0.0</v>
@@ -5559,19 +5571,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B272" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C272" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D272" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E272" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F272" t="n">
         <v>0.0</v>
@@ -5579,19 +5591,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6299344427579007</v>
       </c>
       <c r="B273" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C273" t="n">
-        <v>93.044</v>
+        <v>118.23749999999998</v>
       </c>
       <c r="D273" t="n">
-        <v>68.99000000000001</v>
+        <v>55.38</v>
       </c>
       <c r="E273" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F273" t="n">
         <v>0.0</v>
@@ -5599,19 +5611,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B274" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C274" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D274" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E274" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F274" t="n">
         <v>0.0</v>
@@ -5619,19 +5631,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B275" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C275" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D275" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E275" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F275" t="n">
         <v>0.0</v>
@@ -5639,19 +5651,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B276" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C276" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D276" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E276" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F276" t="n">
         <v>0.0</v>
@@ -5659,19 +5671,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B277" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C277" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D277" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E277" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F277" t="n">
         <v>0.0</v>
@@ -5679,19 +5691,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B278" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C278" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D278" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E278" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F278" t="n">
         <v>0.0</v>
@@ -5699,19 +5711,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B279" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C279" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D279" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E279" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F279" t="n">
         <v>0.0</v>
@@ -5719,19 +5731,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B280" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C280" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D280" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E280" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F280" t="n">
         <v>0.0</v>
@@ -5739,19 +5751,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B281" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C281" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D281" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E281" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F281" t="n">
         <v>0.0</v>
@@ -5759,19 +5771,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B282" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C282" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D282" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E282" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F282" t="n">
         <v>0.0</v>
@@ -5779,19 +5791,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B283" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C283" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D283" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E283" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F283" t="n">
         <v>0.0</v>
@@ -5799,19 +5811,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B284" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C284" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D284" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E284" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F284" t="n">
         <v>0.0</v>
@@ -5819,19 +5831,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B285" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C285" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D285" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E285" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F285" t="n">
         <v>0.0</v>
@@ -5839,19 +5851,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B286" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C286" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D286" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E286" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F286" t="n">
         <v>0.0</v>
@@ -5859,19 +5871,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B287" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C287" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D287" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E287" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F287" t="n">
         <v>0.0</v>
@@ -5879,19 +5891,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B288" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C288" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D288" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E288" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F288" t="n">
         <v>0.0</v>
@@ -5899,19 +5911,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B289" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C289" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D289" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E289" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F289" t="n">
         <v>0.0</v>
@@ -5919,19 +5931,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B290" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C290" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D290" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E290" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F290" t="n">
         <v>0.0</v>
@@ -5939,19 +5951,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B291" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C291" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D291" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E291" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F291" t="n">
         <v>0.0</v>
@@ -5959,19 +5971,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B292" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C292" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D292" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E292" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F292" t="n">
         <v>0.0</v>
@@ -5979,19 +5991,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B293" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C293" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D293" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E293" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -5999,19 +6011,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B294" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C294" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D294" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E294" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F294" t="n">
         <v>0.0</v>
@@ -6019,19 +6031,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B295" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C295" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D295" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E295" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F295" t="n">
         <v>0.0</v>
@@ -6039,19 +6051,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B296" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C296" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D296" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E296" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F296" t="n">
         <v>0.0</v>
@@ -6059,19 +6071,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B297" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C297" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D297" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E297" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F297" t="n">
         <v>0.0</v>
@@ -6079,19 +6091,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B298" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C298" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D298" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E298" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F298" t="n">
         <v>0.0</v>
@@ -6099,19 +6111,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B299" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C299" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D299" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E299" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F299" t="n">
         <v>0.0</v>
@@ -6119,19 +6131,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B300" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C300" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D300" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E300" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
@@ -6139,19 +6151,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.7341495346153134</v>
+        <v>0.6272941405388096</v>
       </c>
       <c r="B301" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C301" t="n">
-        <v>93.044</v>
+        <v>119.1</v>
       </c>
       <c r="D301" t="n">
-        <v>68.99000000000001</v>
+        <v>66.61999999999999</v>
       </c>
       <c r="E301" t="n">
-        <v>26.0</v>
+        <v>24.0</v>
       </c>
       <c r="F301" t="n">
         <v>0.0</v>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="35">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,73 +32,91 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[66, 113, 4, 74, 138], [144, 148, 50, 18, 44, 125, 13], [70, 48, 12, 134, 89, 8]]</t>
+    <t>[[80, 4, 59, 136, 122], [3, 115, 100, 131, 52, 50], [66, 78, 148, 121, 49, 149, 132]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 153, 134, 81, 33], [5, 6, 44, 129, 154, 34]]</t>
+    <t>[[105, 125, 44, 76, 137, 28], [30, 33, 135, 85, 111, 79, 161], [5, 139, 96, 82, 62, 53]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [87, 118, 141, 129, 30]]</t>
+    <t>[[20, 106, 71, 149, 120, 83, 40], [139, 91, 90, 53, 161, 92], [153, 118, 125, 5, 144, 43]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [144, 125, 9, 73, 151]]</t>
+    <t>[[20, 106, 71, 149, 120, 83], [173, 7, 8, 92, 161, 22], [44, 174, 77, 110, 148, 169, 48]]</t>
   </si>
   <si>
-    <t>[[46, 146, 54, 149, 53, 134, 125], [28, 120, 135, 148, 100, 79, 138], [13, 78, 87, 115, 3, 69]]</t>
+    <t>[[161, 83, 51, 121, 66, 78, 36], [85, 133, 42, 86, 57, 134, 100], [30, 10, 62, 98, 11, 149]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 86, 127, 132, 59], [8, 70, 140, 2, 92, 9, 149]]</t>
+    <t>[[161, 83, 51, 121, 66, 78, 36], [85, 133, 42, 86, 57, 134, 100], [30, 35, 15, 10, 144, 132]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 50, 41, 16, 79], [146, 8, 69, 137, 108, 59, 115]]</t>
+    <t>[[36, 111, 71, 109, 43, 149, 125], [96, 62, 54, 29, 13, 70], [144, 90, 76, 115, 35, 86, 148]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 80, 133, 7, 66, 86], [71, 70, 122, 84, 139, 125]]</t>
+    <t>[[161, 83, 51, 121, 66, 78, 36], [85, 133, 42, 86, 57, 134, 100], [30, 158, 37, 148, 173, 79, 70]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [144, 125, 9, 115, 90, 43, 153]]</t>
+    <t>[[161, 83, 51, 121, 66, 78, 36], [85, 133, 42, 86, 57, 134, 77, 149], [127, 14, 70, 119, 96, 109]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [121, 90, 140, 156, 92]]</t>
+    <t>[[20, 106, 71, 149, 120, 83, 40], [139, 91, 90, 53, 161, 92], [134, 125, 115, 148, 30, 22, 132, 8]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [44, 109, 50, 20, 96, 120, 54]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 7, 115], [22, 113, 106, 100, 15, 57]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [121, 12, 66, 10, 22, 69]]</t>
+    <t>[[161, 83, 51, 121, 66, 78, 36], [85, 133, 42, 86, 57, 134, 77, 149], [127, 110, 148, 61, 8, 22, 136]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [57, 114, 70, 23, 96, 138, 85, 28]]</t>
+    <t>[[161, 83, 51, 121, 66, 78, 36], [85, 133, 42, 86, 57, 134, 77, 149], [127, 148, 73, 38, 96, 48, 144]]</t>
   </si>
   <si>
-    <t>[[148, 52, 42, 110, 40, 78, 161], [3, 68, 149, 158, 71, 106, 14], [44, 109, 50, 20, 96, 172, 129, 74]]</t>
+    <t>[[161, 83, 51, 121, 66, 78, 36], [85, 133, 42, 86, 57, 134, 77, 149], [127, 70, 45, 144, 172, 146, 23]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [134, 129, 120, 99, 86, 125, 22]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 69, 103], [96, 15, 44, 20, 149, 70, 57, 158]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [86, 154, 6, 49, 144, 129, 59]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 7, 115], [22, 57, 98, 149, 100, 125, 139]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [125, 23, 63, 66, 22, 162, 54]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 7, 115], [22, 109, 100, 8, 87, 137, 144]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17], [87, 54, 144, 138, 161, 96, 16, 59]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 23, 111]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [125, 23, 63, 137, 138, 106, 129]]</t>
+    <t>[[161, 83, 51, 121, 66, 78, 36], [85, 133, 42, 86, 57, 134, 77, 149], [148, 17, 3, 30, 38, 50, 111, 8]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [134, 129, 70, 66, 131, 109, 138]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 127, 8, 134, 154]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [125, 23, 63, 66, 139, 119, 129]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 15, 82, 57]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [134, 129, 70, 66, 131, 96, 158, 59]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 15, 96, 132]]</t>
   </si>
   <si>
-    <t>[[149, 123, 108, 79, 127, 38, 51, 44], [95, 20, 36, 30, 5, 148, 17, 161], [134, 129, 70, 66, 131, 139, 57, 137]]</t>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 23, 107, 50]]</t>
+  </si>
+  <si>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 23, 99, 44]]</t>
+  </si>
+  <si>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 23, 137, 38]]</t>
+  </si>
+  <si>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 95, 57, 144]]</t>
+  </si>
+  <si>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 23, 109, 146]]</t>
+  </si>
+  <si>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 23, 109, 66]]</t>
+  </si>
+  <si>
+    <t>[[161, 79, 120, 148, 78, 110, 83, 30], [28, 45, 129, 10, 138, 149, 139, 158], [115, 92, 42, 54, 95, 109, 38]]</t>
   </si>
 </sst>
 </file>
@@ -171,16 +189,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.825887606147506</v>
+        <v>0.8276972090195954</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>88.4</v>
+        <v>87.7375</v>
       </c>
       <c r="D2" t="n">
-        <v>49.82000000000001</v>
+        <v>9.347222222222223</v>
       </c>
       <c r="E2" t="n">
         <v>18.0</v>
@@ -191,16 +209,16 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.825887606147506</v>
+        <v>0.8276972090195954</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>88.4</v>
+        <v>87.7375</v>
       </c>
       <c r="D3" t="n">
-        <v>49.82000000000001</v>
+        <v>9.347222222222223</v>
       </c>
       <c r="E3" t="n">
         <v>18.0</v>
@@ -211,19 +229,19 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8034718656417971</v>
+        <v>0.8276972090195954</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>90.17499999999998</v>
+        <v>87.7375</v>
       </c>
       <c r="D4" t="n">
-        <v>39.70000000000001</v>
+        <v>9.347222222222223</v>
       </c>
       <c r="E4" t="n">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -231,16 +249,16 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8034718656417971</v>
+        <v>0.8058027313831813</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>90.17499999999998</v>
+        <v>89.39999999999998</v>
       </c>
       <c r="D5" t="n">
-        <v>39.70000000000001</v>
+        <v>6.221052631578947</v>
       </c>
       <c r="E5" t="n">
         <v>19.0</v>
@@ -251,16 +269,16 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8001342902824504</v>
+        <v>0.8058027313831813</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>91.23750000000001</v>
+        <v>89.39999999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>51.47</v>
+        <v>6.221052631578947</v>
       </c>
       <c r="E6" t="n">
         <v>19.0</v>
@@ -271,5902 +289,5902 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.7981599951970886</v>
+        <v>0.7991142816721911</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>91.81249999999999</v>
+        <v>91.78750000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>44.82000000000001</v>
+        <v>9.578947368421053</v>
       </c>
       <c r="E7" t="n">
         <v>19.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.7981599951970886</v>
+        <v>0.7946598197458906</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>91.81249999999999</v>
+        <v>92.91250000000002</v>
       </c>
       <c r="D8" t="n">
-        <v>44.82000000000001</v>
+        <v>4.410526315789474</v>
       </c>
       <c r="E8" t="n">
         <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>2655.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.7981599951970886</v>
+        <v>0.7946598197458906</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>91.81249999999999</v>
+        <v>92.91250000000002</v>
       </c>
       <c r="D9" t="n">
-        <v>44.82000000000001</v>
+        <v>4.410526315789474</v>
       </c>
       <c r="E9" t="n">
         <v>19.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>2655.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.7981599951970886</v>
+        <v>0.7732115745456379</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>91.81249999999999</v>
+        <v>94.41250000000002</v>
       </c>
       <c r="D10" t="n">
-        <v>44.82000000000001</v>
+        <v>3.4550000000000005</v>
       </c>
       <c r="E10" t="n">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.7705028569781125</v>
+        <v>0.7732115745456379</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>95.55000000000001</v>
+        <v>94.41250000000002</v>
       </c>
       <c r="D11" t="n">
-        <v>83.25999999999998</v>
+        <v>3.4550000000000005</v>
       </c>
       <c r="E11" t="n">
         <v>20.0</v>
       </c>
       <c r="F11" t="n">
-        <v>2123.099999999997</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7647859836335846</v>
+        <v>0.7732115745456379</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>97.05000000000001</v>
+        <v>94.41250000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>45.93</v>
+        <v>3.4550000000000005</v>
       </c>
       <c r="E12" t="n">
         <v>20.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1823.4</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7647859836335846</v>
+        <v>0.7732115745456379</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>97.05000000000001</v>
+        <v>94.41250000000002</v>
       </c>
       <c r="D13" t="n">
-        <v>45.93</v>
+        <v>3.4550000000000005</v>
       </c>
       <c r="E13" t="n">
         <v>20.0</v>
       </c>
       <c r="F13" t="n">
-        <v>1823.4</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.7647859836335846</v>
+        <v>0.7692411485223953</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>97.05000000000001</v>
+        <v>95.61250000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>45.93</v>
+        <v>3.775</v>
       </c>
       <c r="E14" t="n">
         <v>20.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1823.4</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.7647859836335846</v>
+        <v>0.7692411485223953</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>97.05000000000001</v>
+        <v>95.61250000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>45.93</v>
+        <v>3.775</v>
       </c>
       <c r="E15" t="n">
         <v>20.0</v>
       </c>
       <c r="F15" t="n">
-        <v>1823.4</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.7606982607978147</v>
+        <v>0.7692411485223953</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>98.32499999999999</v>
+        <v>95.61250000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>63.2</v>
+        <v>3.775</v>
       </c>
       <c r="E16" t="n">
         <v>20.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.7606982607978147</v>
+        <v>0.7615410452635852</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>98.32499999999999</v>
+        <v>98.1375</v>
       </c>
       <c r="D17" t="n">
-        <v>63.2</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="E17" t="n">
         <v>20.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.7606982607978147</v>
+        <v>0.7615410452635852</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>98.32499999999999</v>
+        <v>98.1375</v>
       </c>
       <c r="D18" t="n">
-        <v>63.2</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="E18" t="n">
         <v>20.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.7569507200308271</v>
+        <v>0.7615410452635852</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>99.4</v>
+        <v>98.1375</v>
       </c>
       <c r="D19" t="n">
-        <v>49.160000000000004</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>20.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.7569507200308271</v>
+        <v>0.7615410452635852</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>99.4</v>
+        <v>98.1375</v>
       </c>
       <c r="D20" t="n">
-        <v>49.160000000000004</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="E20" t="n">
         <v>20.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.7569507200308271</v>
+        <v>0.7615410452635852</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>99.4</v>
+        <v>98.1375</v>
       </c>
       <c r="D21" t="n">
-        <v>49.160000000000004</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>20.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7569507200308271</v>
+        <v>0.7615410452635852</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>99.4</v>
+        <v>98.1375</v>
       </c>
       <c r="D22" t="n">
-        <v>49.160000000000004</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>20.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7569507200308271</v>
+        <v>0.7615410452635852</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>99.4</v>
+        <v>98.1375</v>
       </c>
       <c r="D23" t="n">
-        <v>49.160000000000004</v>
+        <v>9.520000000000001</v>
       </c>
       <c r="E23" t="n">
         <v>20.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>3825.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7569507200308271</v>
+        <v>0.7412385843590281</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
       </c>
       <c r="C24" t="n">
-        <v>99.4</v>
+        <v>99.18750000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>49.160000000000004</v>
+        <v>3.8590476190476193</v>
       </c>
       <c r="E24" t="n">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7351776526180125</v>
+        <v>0.7412385843590281</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="n">
-        <v>101.0375</v>
+        <v>99.18750000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>45.500000000000014</v>
+        <v>3.8590476190476193</v>
       </c>
       <c r="E25" t="n">
         <v>21.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7351776526180125</v>
+        <v>0.7412385843590281</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>101.0375</v>
+        <v>99.18750000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>45.500000000000014</v>
+        <v>3.8590476190476193</v>
       </c>
       <c r="E26" t="n">
         <v>21.0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7351776526180125</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>101.0375</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>45.500000000000014</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E27" t="n">
         <v>21.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7351776526180125</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
       </c>
       <c r="C28" t="n">
-        <v>101.0375</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>45.500000000000014</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E28" t="n">
         <v>21.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7331678447477017</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" t="n">
-        <v>101.7125</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>59.42999999999999</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E29" t="n">
         <v>21.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7331678447477017</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" t="n">
-        <v>101.7125</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>59.42999999999999</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E30" t="n">
         <v>21.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7298077689591486</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" t="n">
-        <v>102.71249999999999</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>56.21</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E31" t="n">
         <v>21.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7298077689591486</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" t="n">
-        <v>102.71249999999999</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>56.21</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E32" t="n">
         <v>21.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7298077689591486</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" t="n">
-        <v>102.71249999999999</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>56.21</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E33" t="n">
         <v>21.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7298077689591486</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" t="n">
-        <v>102.71249999999999</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>56.21</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E34" t="n">
         <v>21.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7025093718543183</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C35" t="n">
-        <v>106.175</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>72.06999999999998</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E35" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7348776900756824</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C36" t="n">
-        <v>108.39999999999999</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>61.09000000000001</v>
+        <v>3.4761904761904763</v>
       </c>
       <c r="E36" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D37" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E37" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D38" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E38" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D39" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E39" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C40" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D40" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E40" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C41" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D41" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E41" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D42" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E42" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D43" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E43" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D44" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E44" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D45" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E45" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C46" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D46" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E46" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7321490648151888</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
-        <v>108.39999999999999</v>
+        <v>102.2375</v>
       </c>
       <c r="D47" t="n">
-        <v>61.09000000000001</v>
+        <v>9.19047619047619</v>
       </c>
       <c r="E47" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>4644.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.6948850462859689</v>
+        <v>0.7291700332881037</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C48" t="n">
-        <v>108.39999999999999</v>
+        <v>102.825</v>
       </c>
       <c r="D48" t="n">
-        <v>61.09000000000001</v>
+        <v>7.780952380952381</v>
       </c>
       <c r="E48" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7291700332881037</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C49" t="n">
-        <v>109.08749999999999</v>
+        <v>102.825</v>
       </c>
       <c r="D49" t="n">
-        <v>47.23</v>
+        <v>7.780952380952381</v>
       </c>
       <c r="E49" t="n">
-        <v>22.0</v>
+        <v>21.0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7077607998653573</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>109.08749999999999</v>
+        <v>104.42500000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>47.23</v>
+        <v>5.2681818181818185</v>
       </c>
       <c r="E50" t="n">
         <v>22.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7077607998653573</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C51" t="n">
-        <v>109.08749999999999</v>
+        <v>104.42500000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>47.23</v>
+        <v>5.2681818181818185</v>
       </c>
       <c r="E51" t="n">
         <v>22.0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7077607998653573</v>
       </c>
       <c r="B52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C52" t="n">
-        <v>109.08749999999999</v>
+        <v>104.42500000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>47.23</v>
+        <v>5.2681818181818185</v>
       </c>
       <c r="E52" t="n">
         <v>22.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7070902105143769</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C53" t="n">
-        <v>109.08749999999999</v>
+        <v>104.62500000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>47.23</v>
+        <v>3.7590909090909093</v>
       </c>
       <c r="E53" t="n">
         <v>22.0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7070902105143769</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C54" t="n">
-        <v>109.08749999999999</v>
+        <v>104.62500000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>47.23</v>
+        <v>3.7590909090909093</v>
       </c>
       <c r="E54" t="n">
         <v>22.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7070902105143769</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C55" t="n">
-        <v>109.08749999999999</v>
+        <v>104.62500000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>47.23</v>
+        <v>3.7590909090909093</v>
       </c>
       <c r="E55" t="n">
         <v>22.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7070902105143769</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C56" t="n">
-        <v>109.08749999999999</v>
+        <v>104.62500000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>47.23</v>
+        <v>3.7590909090909093</v>
       </c>
       <c r="E56" t="n">
         <v>22.0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7070902105143769</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C57" t="n">
-        <v>109.08749999999999</v>
+        <v>104.62500000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>47.23</v>
+        <v>3.7590909090909093</v>
       </c>
       <c r="E57" t="n">
         <v>22.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7070902105143769</v>
       </c>
       <c r="B58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C58" t="n">
-        <v>109.08749999999999</v>
+        <v>104.62500000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>47.23</v>
+        <v>3.7590909090909093</v>
       </c>
       <c r="E58" t="n">
         <v>22.0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B59" t="s">
         <v>19</v>
       </c>
       <c r="C59" t="n">
-        <v>109.08749999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>47.23</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E59" t="n">
         <v>22.0</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.6923677464078274</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B60" t="s">
         <v>19</v>
       </c>
       <c r="C60" t="n">
-        <v>109.08749999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>47.23</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E60" t="n">
         <v>22.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.6721981811501406</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C61" t="n">
-        <v>110.53750000000001</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>73.05</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E61" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F61" t="n">
-        <v>1662.3000000000015</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.6721981811501406</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C62" t="n">
-        <v>110.53750000000001</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>73.05</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E62" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F62" t="n">
-        <v>1662.3000000000015</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.6721981811501406</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C63" t="n">
-        <v>110.53750000000001</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>73.05</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E63" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F63" t="n">
-        <v>1662.3000000000015</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.6721981811501406</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>110.53750000000001</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>73.05</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E64" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1662.3000000000015</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.6710367981450049</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C65" t="n">
-        <v>110.8625</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>77.24</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E65" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.6675638031770629</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C66" t="n">
-        <v>111.77499999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>59.33</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E66" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C67" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E67" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C68" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E68" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C69" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E69" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C70" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E70" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C71" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E71" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C72" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E72" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C73" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E73" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E74" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E75" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E76" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C77" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E77" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E78" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.7004917252260345</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C79" t="n">
-        <v>113.24999999999999</v>
+        <v>106.60000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>85.36999999999999</v>
+        <v>4.3909090909090915</v>
       </c>
       <c r="E79" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6997800195888314</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
-        <v>113.24999999999999</v>
+        <v>106.81249999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>85.36999999999999</v>
+        <v>6.334090909090909</v>
       </c>
       <c r="E80" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6955463033948243</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C81" t="n">
-        <v>113.24999999999999</v>
+        <v>108.0875</v>
       </c>
       <c r="D81" t="n">
-        <v>85.36999999999999</v>
+        <v>6.663636363636365</v>
       </c>
       <c r="E81" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" t="n">
-        <v>113.24999999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>85.36999999999999</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E82" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" t="n">
-        <v>113.24999999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>85.36999999999999</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E83" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" t="n">
-        <v>113.24999999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>85.36999999999999</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E84" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" t="n">
-        <v>113.24999999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>85.36999999999999</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E85" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" t="n">
-        <v>113.24999999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>85.36999999999999</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E86" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" t="n">
-        <v>113.24999999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>85.36999999999999</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E87" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" t="n">
-        <v>113.24999999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>85.36999999999999</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E88" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.6632827209539538</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" t="n">
-        <v>113.24999999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D89" t="n">
-        <v>85.36999999999999</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E89" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C90" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E90" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C91" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E91" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B92" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C92" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E92" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C93" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E93" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C94" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E94" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C95" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E95" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C96" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E96" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C97" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E97" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C98" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E98" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C99" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E99" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B100" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C100" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E100" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B101" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C101" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E101" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B102" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C102" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E102" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B103" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C103" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E103" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B104" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C104" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E104" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B105" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C105" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E105" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B106" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C106" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E106" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C107" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E107" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B108" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C108" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E108" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B109" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C109" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E109" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B110" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C110" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E110" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C111" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E111" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B112" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C112" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E112" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B113" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C113" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E113" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B114" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C114" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E114" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B115" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C115" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E115" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B116" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C116" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E116" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6936016940976938</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C117" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67500000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>68.94000000000001</v>
+        <v>7.531818181818181</v>
       </c>
       <c r="E117" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.69360168681084</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C118" t="n">
-        <v>113.93749999999999</v>
+        <v>108.67499999999998</v>
       </c>
       <c r="D118" t="n">
-        <v>68.94000000000001</v>
+        <v>6.777272727272728</v>
       </c>
       <c r="E118" t="n">
-        <v>23.0</v>
+        <v>22.0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B119" t="s">
         <v>24</v>
       </c>
       <c r="C119" t="n">
-        <v>113.93749999999999</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D119" t="n">
-        <v>68.94000000000001</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E119" t="n">
         <v>23.0</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B120" t="s">
         <v>24</v>
       </c>
       <c r="C120" t="n">
-        <v>113.93749999999999</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D120" t="n">
-        <v>68.94000000000001</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E120" t="n">
         <v>23.0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.6605629922720646</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B121" t="s">
         <v>24</v>
       </c>
       <c r="C121" t="n">
-        <v>113.93749999999999</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D121" t="n">
-        <v>68.94000000000001</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E121" t="n">
         <v>23.0</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B122" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C122" t="n">
-        <v>114.35</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D122" t="n">
-        <v>59.410000000000004</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E122" t="n">
         <v>23.0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C123" t="n">
-        <v>114.35</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D123" t="n">
-        <v>59.410000000000004</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E123" t="n">
         <v>23.0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B124" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C124" t="n">
-        <v>114.35</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D124" t="n">
-        <v>59.410000000000004</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E124" t="n">
         <v>23.0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B125" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C125" t="n">
-        <v>114.35</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D125" t="n">
-        <v>59.410000000000004</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E125" t="n">
         <v>23.0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B126" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C126" t="n">
-        <v>114.35</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D126" t="n">
-        <v>59.410000000000004</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E126" t="n">
         <v>23.0</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B127" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C127" t="n">
-        <v>114.35</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D127" t="n">
-        <v>59.410000000000004</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E127" t="n">
         <v>23.0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B128" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C128" t="n">
-        <v>114.35</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D128" t="n">
-        <v>59.410000000000004</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E128" t="n">
         <v>23.0</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6766809777317334</v>
       </c>
       <c r="B129" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C129" t="n">
-        <v>114.35</v>
+        <v>108.96250000000002</v>
       </c>
       <c r="D129" t="n">
-        <v>59.410000000000004</v>
+        <v>4.693478260869566</v>
       </c>
       <c r="E129" t="n">
         <v>23.0</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0</v>
+        <v>1971.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B130" t="s">
         <v>25</v>
       </c>
       <c r="C130" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D130" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E130" t="n">
         <v>23.0</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B131" t="s">
         <v>25</v>
       </c>
       <c r="C131" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D131" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E131" t="n">
         <v>23.0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B132" t="s">
         <v>25</v>
       </c>
       <c r="C132" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D132" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E132" t="n">
         <v>23.0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B133" t="s">
         <v>25</v>
       </c>
       <c r="C133" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D133" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E133" t="n">
         <v>23.0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B134" t="s">
         <v>25</v>
       </c>
       <c r="C134" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D134" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E134" t="n">
         <v>23.0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B135" t="s">
         <v>25</v>
       </c>
       <c r="C135" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D135" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E135" t="n">
         <v>23.0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B136" t="s">
         <v>25</v>
       </c>
       <c r="C136" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D136" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E136" t="n">
         <v>23.0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B137" t="s">
         <v>25</v>
       </c>
       <c r="C137" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D137" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E137" t="n">
         <v>23.0</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B138" t="s">
         <v>25</v>
       </c>
       <c r="C138" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D138" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E138" t="n">
         <v>23.0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B139" t="s">
         <v>25</v>
       </c>
       <c r="C139" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D139" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E139" t="n">
         <v>23.0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B140" t="s">
         <v>25</v>
       </c>
       <c r="C140" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D140" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E140" t="n">
         <v>23.0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B141" t="s">
         <v>25</v>
       </c>
       <c r="C141" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D141" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E141" t="n">
         <v>23.0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B142" t="s">
         <v>25</v>
       </c>
       <c r="C142" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D142" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E142" t="n">
         <v>23.0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6635750815695431</v>
       </c>
       <c r="B143" t="s">
         <v>25</v>
       </c>
       <c r="C143" t="n">
-        <v>114.35</v>
+        <v>112.8625</v>
       </c>
       <c r="D143" t="n">
-        <v>59.410000000000004</v>
+        <v>6.108695652173913</v>
       </c>
       <c r="E143" t="n">
         <v>23.0</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.660244007070761</v>
       </c>
       <c r="B144" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C144" t="n">
-        <v>114.35</v>
+        <v>113.86249999999998</v>
       </c>
       <c r="D144" t="n">
-        <v>59.410000000000004</v>
+        <v>5.686956521739131</v>
       </c>
       <c r="E144" t="n">
         <v>23.0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.660244007070761</v>
       </c>
       <c r="B145" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C145" t="n">
-        <v>114.35</v>
+        <v>113.86249999999998</v>
       </c>
       <c r="D145" t="n">
-        <v>59.410000000000004</v>
+        <v>5.686956521739131</v>
       </c>
       <c r="E145" t="n">
         <v>23.0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.660244007070761</v>
       </c>
       <c r="B146" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C146" t="n">
-        <v>114.35</v>
+        <v>113.86249999999998</v>
       </c>
       <c r="D146" t="n">
-        <v>59.410000000000004</v>
+        <v>5.686956521739131</v>
       </c>
       <c r="E146" t="n">
         <v>23.0</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.660244007070761</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C147" t="n">
-        <v>114.35</v>
+        <v>113.86249999999998</v>
       </c>
       <c r="D147" t="n">
-        <v>59.410000000000004</v>
+        <v>5.686956521739131</v>
       </c>
       <c r="E147" t="n">
         <v>23.0</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6593715644763318</v>
       </c>
       <c r="B148" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C148" t="n">
-        <v>114.35</v>
+        <v>114.12499999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>59.410000000000004</v>
+        <v>5.865217391304348</v>
       </c>
       <c r="E148" t="n">
         <v>23.0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6593715644763318</v>
       </c>
       <c r="B149" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C149" t="n">
-        <v>114.35</v>
+        <v>114.12499999999999</v>
       </c>
       <c r="D149" t="n">
-        <v>59.410000000000004</v>
+        <v>5.865217391304348</v>
       </c>
       <c r="E149" t="n">
         <v>23.0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6593715644763318</v>
       </c>
       <c r="B150" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C150" t="n">
-        <v>114.35</v>
+        <v>114.12499999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>59.410000000000004</v>
+        <v>5.865217391304348</v>
       </c>
       <c r="E150" t="n">
         <v>23.0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6577535107408206</v>
       </c>
       <c r="B151" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C151" t="n">
-        <v>114.35</v>
+        <v>114.61249999999998</v>
       </c>
       <c r="D151" t="n">
-        <v>59.410000000000004</v>
+        <v>7.51304347826087</v>
       </c>
       <c r="E151" t="n">
         <v>23.0</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6577535107408206</v>
       </c>
       <c r="B152" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C152" t="n">
-        <v>114.35</v>
+        <v>114.61249999999998</v>
       </c>
       <c r="D152" t="n">
-        <v>59.410000000000004</v>
+        <v>7.51304347826087</v>
       </c>
       <c r="E152" t="n">
         <v>23.0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6575877070243811</v>
       </c>
       <c r="B153" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C153" t="n">
-        <v>114.35</v>
+        <v>114.66249999999998</v>
       </c>
       <c r="D153" t="n">
-        <v>59.410000000000004</v>
+        <v>6.61304347826087</v>
       </c>
       <c r="E153" t="n">
         <v>23.0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6575877070243811</v>
       </c>
       <c r="B154" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C154" t="n">
-        <v>114.35</v>
+        <v>114.66249999999998</v>
       </c>
       <c r="D154" t="n">
-        <v>59.410000000000004</v>
+        <v>6.61304347826087</v>
       </c>
       <c r="E154" t="n">
         <v>23.0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6575877070243811</v>
       </c>
       <c r="B155" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C155" t="n">
-        <v>114.35</v>
+        <v>114.66249999999998</v>
       </c>
       <c r="D155" t="n">
-        <v>59.410000000000004</v>
+        <v>6.61304347826087</v>
       </c>
       <c r="E155" t="n">
         <v>23.0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B156" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C156" t="n">
-        <v>114.35</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D156" t="n">
-        <v>59.410000000000004</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E156" t="n">
         <v>23.0</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B157" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C157" t="n">
-        <v>114.35</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D157" t="n">
-        <v>59.410000000000004</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E157" t="n">
         <v>23.0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B158" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C158" t="n">
-        <v>114.35</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D158" t="n">
-        <v>59.410000000000004</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E158" t="n">
         <v>23.0</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B159" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C159" t="n">
-        <v>114.35</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>59.410000000000004</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E159" t="n">
         <v>23.0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B160" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C160" t="n">
-        <v>114.35</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D160" t="n">
-        <v>59.410000000000004</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E160" t="n">
         <v>23.0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.6589835433783436</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B161" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C161" t="n">
-        <v>114.35</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D161" t="n">
-        <v>59.410000000000004</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E161" t="n">
         <v>23.0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B162" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C162" t="n">
-        <v>114.42499999999998</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D162" t="n">
-        <v>64.12</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E162" t="n">
         <v>23.0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B163" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C163" t="n">
-        <v>114.42499999999998</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D163" t="n">
-        <v>64.12</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E163" t="n">
         <v>23.0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B164" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C164" t="n">
-        <v>114.42499999999998</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D164" t="n">
-        <v>64.12</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E164" t="n">
         <v>23.0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C165" t="n">
-        <v>114.42499999999998</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D165" t="n">
-        <v>64.12</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E165" t="n">
         <v>23.0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B166" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C166" t="n">
-        <v>114.42499999999998</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>64.12</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E166" t="n">
         <v>23.0</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6568834153047385</v>
       </c>
       <c r="B167" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C167" t="n">
-        <v>114.42499999999998</v>
+        <v>114.87499999999999</v>
       </c>
       <c r="D167" t="n">
-        <v>64.12</v>
+        <v>6.595652173913044</v>
       </c>
       <c r="E167" t="n">
         <v>23.0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6568419951431705</v>
       </c>
       <c r="B168" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C168" t="n">
-        <v>114.42499999999998</v>
+        <v>114.88749999999999</v>
       </c>
       <c r="D168" t="n">
-        <v>64.12</v>
+        <v>5.656521739130436</v>
       </c>
       <c r="E168" t="n">
         <v>23.0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B169" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C169" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D169" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E169" t="n">
         <v>23.0</v>
       </c>
       <c r="F169" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B170" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C170" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D170" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E170" t="n">
         <v>23.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B171" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C171" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D171" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E171" t="n">
         <v>23.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B172" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C172" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D172" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E172" t="n">
         <v>23.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B173" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C173" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D173" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E173" t="n">
         <v>23.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B174" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C174" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D174" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E174" t="n">
         <v>23.0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B175" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C175" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D175" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E175" t="n">
         <v>23.0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B176" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C176" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D176" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E176" t="n">
         <v>23.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B177" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C177" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D177" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E177" t="n">
         <v>23.0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B178" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C178" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D178" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E178" t="n">
         <v>23.0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B179" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C179" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D179" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E179" t="n">
         <v>23.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B180" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C180" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D180" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E180" t="n">
         <v>23.0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B181" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C181" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D181" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E181" t="n">
         <v>23.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B182" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C182" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D182" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E182" t="n">
         <v>23.0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B183" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C183" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D183" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E183" t="n">
         <v>23.0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B184" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C184" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D184" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E184" t="n">
         <v>23.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B185" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C185" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D185" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E185" t="n">
         <v>23.0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B186" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C186" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D186" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E186" t="n">
         <v>23.0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B187" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C187" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D187" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E187" t="n">
         <v>23.0</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B188" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C188" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D188" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E188" t="n">
         <v>23.0</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B189" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C189" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D189" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E189" t="n">
         <v>23.0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B190" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C190" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D190" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E190" t="n">
         <v>23.0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B191" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C191" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D191" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E191" t="n">
         <v>23.0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B192" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C192" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D192" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E192" t="n">
         <v>23.0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B193" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C193" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D193" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E193" t="n">
         <v>23.0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B194" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C194" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D194" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E194" t="n">
         <v>23.0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B195" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C195" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D195" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E195" t="n">
         <v>23.0</v>
       </c>
       <c r="F195" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B196" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C196" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D196" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E196" t="n">
         <v>23.0</v>
       </c>
       <c r="F196" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B197" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C197" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D197" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E197" t="n">
         <v>23.0</v>
       </c>
       <c r="F197" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B198" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C198" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D198" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E198" t="n">
         <v>23.0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B199" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C199" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D199" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E199" t="n">
         <v>23.0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B200" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C200" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D200" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E200" t="n">
         <v>23.0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B201" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C201" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D201" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E201" t="n">
         <v>23.0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B202" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C202" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D202" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E202" t="n">
         <v>23.0</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B203" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C203" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D203" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E203" t="n">
         <v>23.0</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B204" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C204" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D204" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E204" t="n">
         <v>23.0</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B205" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C205" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D205" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E205" t="n">
         <v>23.0</v>
       </c>
       <c r="F205" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B206" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C206" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D206" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E206" t="n">
         <v>23.0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B207" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C207" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D207" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E207" t="n">
         <v>23.0</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6554764675982945</v>
       </c>
       <c r="B208" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C208" t="n">
-        <v>114.42499999999998</v>
+        <v>115.29999999999998</v>
       </c>
       <c r="D208" t="n">
-        <v>64.12</v>
+        <v>6.465217391304349</v>
       </c>
       <c r="E208" t="n">
         <v>23.0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B209" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C209" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D209" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E209" t="n">
         <v>23.0</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B210" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C210" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D210" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E210" t="n">
         <v>23.0</v>
       </c>
       <c r="F210" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B211" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C211" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D211" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E211" t="n">
         <v>23.0</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B212" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C212" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D212" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E212" t="n">
         <v>23.0</v>
       </c>
       <c r="F212" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B213" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C213" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D213" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E213" t="n">
         <v>23.0</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B214" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C214" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D214" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E214" t="n">
         <v>23.0</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B215" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C215" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D215" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E215" t="n">
         <v>23.0</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B216" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C216" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D216" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E216" t="n">
         <v>23.0</v>
       </c>
       <c r="F216" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B217" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C217" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D217" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E217" t="n">
         <v>23.0</v>
       </c>
       <c r="F217" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B218" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C218" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D218" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E218" t="n">
         <v>23.0</v>
       </c>
       <c r="F218" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.6588348816473067</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B219" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C219" t="n">
-        <v>114.42499999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D219" t="n">
-        <v>64.12</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E219" t="n">
         <v>23.0</v>
       </c>
       <c r="F219" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B220" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C220" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D220" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E220" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F220" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B221" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C221" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D221" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E221" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B222" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C222" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D222" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E222" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B223" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C223" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D223" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E223" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F223" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B224" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C224" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D224" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E224" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F224" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B225" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C225" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D225" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E225" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F225" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B226" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C226" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D226" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E226" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F226" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B227" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C227" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D227" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E227" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F227" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B228" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C228" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D228" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E228" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F228" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B229" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C229" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D229" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E229" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F229" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B230" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C230" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D230" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E230" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B231" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C231" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D231" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E231" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F231" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6551044076805573</v>
       </c>
       <c r="B232" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C232" t="n">
-        <v>118.23749999999998</v>
+        <v>115.41249999999998</v>
       </c>
       <c r="D232" t="n">
-        <v>55.38</v>
+        <v>6.51304347826087</v>
       </c>
       <c r="E232" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F232" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B233" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C233" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D233" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E233" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F233" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B234" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C234" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D234" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E234" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F234" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B235" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C235" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D235" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E235" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F235" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B236" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C236" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D236" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E236" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F236" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B237" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C237" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E237" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F237" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B238" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C238" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D238" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E238" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B239" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C239" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D239" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E239" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F239" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B240" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C240" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D240" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E240" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B241" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C241" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D241" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E241" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F241" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B242" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C242" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D242" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E242" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B243" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C243" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D243" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E243" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F243" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B244" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C244" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D244" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E244" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F244" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B245" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C245" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D245" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E245" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F245" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B246" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C246" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D246" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E246" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F246" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C247" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D247" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E247" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B248" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C248" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D248" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E248" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B249" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C249" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D249" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E249" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F249" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B250" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C250" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D250" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E250" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F250" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B251" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C251" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D251" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E251" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F251" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B252" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C252" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E252" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F252" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B253" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C253" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D253" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E253" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F253" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B254" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C254" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E254" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F254" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B255" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C255" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D255" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E255" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F255" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B256" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C256" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D256" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E256" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B257" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C257" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D257" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E257" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F257" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B258" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C258" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D258" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E258" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B259" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C259" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D259" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E259" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F259" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B260" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C260" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D260" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E260" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F260" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B261" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C261" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D261" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E261" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F261" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B262" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C262" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D262" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E262" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F262" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B263" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C263" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D263" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E263" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F263" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B264" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C264" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D264" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E264" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F264" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B265" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C265" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D265" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E265" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B266" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C266" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D266" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E266" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F266" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B267" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C267" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D267" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E267" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F267" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B268" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C268" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D268" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E268" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B269" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C269" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D269" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E269" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F269" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B270" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C270" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D270" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E270" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F270" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B271" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C271" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D271" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E271" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F271" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B272" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C272" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D272" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E272" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F272" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.6299344427579007</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B273" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C273" t="n">
-        <v>118.23749999999998</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D273" t="n">
-        <v>55.38</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E273" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F273" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B274" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C274" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D274" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E274" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B275" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C275" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D275" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E275" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F275" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B276" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C276" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D276" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E276" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F276" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B277" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C277" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D277" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E277" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F277" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B278" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C278" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D278" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E278" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F278" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B279" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C279" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D279" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E279" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F279" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B280" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C280" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D280" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E280" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F280" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B281" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C281" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D281" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E281" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F281" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B282" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C282" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D282" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E282" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F282" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B283" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C283" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D283" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E283" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F283" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B284" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C284" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D284" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E284" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F284" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B285" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C285" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D285" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E285" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F285" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B286" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C286" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D286" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E286" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F286" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B287" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C287" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D287" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E287" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F287" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B288" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C288" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D288" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E288" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F288" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B289" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C289" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D289" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E289" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F289" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B290" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C290" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D290" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E290" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F290" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B291" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C291" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D291" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E291" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F291" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B292" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C292" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D292" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E292" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B293" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C293" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D293" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E293" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F293" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B294" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C294" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D294" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E294" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F294" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B295" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C295" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D295" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E295" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F295" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B296" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C296" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D296" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E296" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B297" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C297" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D297" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E297" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F297" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B298" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C298" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D298" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E298" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F298" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B299" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C299" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D299" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E299" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F299" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B300" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C300" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D300" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E300" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F300" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.6272941405388096</v>
+        <v>0.6545672525131546</v>
       </c>
       <c r="B301" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C301" t="n">
-        <v>119.1</v>
+        <v>115.57499999999999</v>
       </c>
       <c r="D301" t="n">
-        <v>66.61999999999999</v>
+        <v>5.765217391304349</v>
       </c>
       <c r="E301" t="n">
-        <v>24.0</v>
+        <v>23.0</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0</v>
+        <v>1953.0</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="31">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,304 +32,79 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[115, 158, 85, 89, 70, 30, 140], [138, 69, 149, 96, 125, 38, 92, 57], [77, 79, 161, 44, 50, 86, 74, 148]]</t>
+    <t>[[17, 76, 101, 161, 41, 133], [173, 24, 171, 25, 132], [120, 71, 63, 18, 43, 140]]</t>
   </si>
   <si>
-    <t>[[86, 79, 149, 96, 22, 92, 38, 148], [57, 138, 125, 66, 161, 44, 50, 42], [28, 144, 158, 85, 70, 5, 69]]</t>
+    <t>[[110, 68, 87, 139, 34, 29], [109, 159, 71, 60, 123], [91, 173, 132, 8, 11, 39]]</t>
   </si>
   <si>
-    <t>[[125, 57, 92, 38, 138, 30, 74, 148], [53, 161, 70, 77, 149, 79, 140, 69], [66, 28, 50, 44, 158, 85, 86]]</t>
+    <t>[[175, 113, 48, 44, 71, 15], [81, 140, 45, 149, 43, 27], [110, 40, 148, 173, 157, 134]]</t>
   </si>
   <si>
-    <t>[[148, 38, 125, 92, 57, 70, 85, 161], [110, 50, 79, 86, 74, 138, 149, 5], [44, 158, 96, 69, 140, 109, 30]]</t>
+    <t>[[70, 68, 146, 174, 173], [64, 165, 29, 175, 12, 17], [86, 72, 114]]</t>
   </si>
   <si>
-    <t>[[66, 138, 92, 38, 125, 70, 85, 149], [146, 158, 86, 79, 140, 57, 69], [139, 28, 96, 161, 44, 50, 148, 74]]</t>
+    <t>[[16, 72, 64, 139, 175, 44], [159, 124, 115], [22, 48, 97, 174, 140]]</t>
   </si>
   <si>
-    <t>[[110, 50, 86, 69, 79, 140, 5], [96, 161, 44, 158, 85, 70, 89, 149, 148], [57, 138, 109, 125, 38, 92, 66]]</t>
+    <t>[[25, 110, 71, 93, 139, 32], [125, 108, 39, 70, 159, 34], [152, 140, 72, 64, 29, 45]]</t>
   </si>
   <si>
-    <t>[[74, 57, 92, 161, 96, 125, 138, 30], [133, 149, 89, 70, 5, 69, 148, 140], [110, 50, 44, 158, 85, 38, 86]]</t>
+    <t>[[1, 103, 162, 149], [96, 93, 139, 175, 161], [166, 110, 109, 173, 36]]</t>
   </si>
   <si>
-    <t>[[57, 92, 38, 138, 70, 85, 161, 44], [59, 66, 28, 96, 125, 30, 74], [148, 158, 149, 89, 5, 69, 140, 79]]</t>
+    <t>[[122, 91, 157, 64, 29, 175], [60, 173, 36, 93, 139, 94], [97, 149, 77, 108, 39, 17]]</t>
   </si>
   <si>
-    <t>[[38, 138, 66, 70, 89, 5, 74], [30, 125, 96, 158, 85, 161, 44, 50], [86, 22, 79, 69, 92, 148, 57, 149]]</t>
+    <t>[[28, 132, 110, 71, 55, 149], [133, 82, 114, 58, 139], [26, 72, 64, 29, 157, 175]]</t>
   </si>
   <si>
-    <t>[[28, 139, 161, 44, 158, 96, 125, 148], [50, 110, 69, 149, 66, 57, 138, 30], [85, 89, 70, 38, 92, 86, 79]]</t>
+    <t>[[120, 132, 110, 71, 93, 139], [115, 175, 161, 153, 17, 152], [174, 98, 25, 138, 149]]</t>
   </si>
   <si>
-    <t>[[44, 66, 125, 138, 38, 92, 57, 148], [158, 139, 161, 70, 85, 149, 109, 96], [30, 79, 89, 140, 5, 74, 110]]</t>
+    <t>[[149, 28, 15, 120, 140, 5], [72, 64, 175, 109, 55], [73, 71, 93]]</t>
   </si>
   <si>
-    <t>[[86, 69, 5, 149, 96, 161, 44, 57, 148], [79, 89, 70, 30, 125, 109, 140], [139, 28, 66, 138, 38, 92, 74]]</t>
+    <t>[[173, 36, 93, 139, 175, 110], [69, 82, 114, 58, 132], [149, 15, 120, 140, 5, 73]]</t>
   </si>
   <si>
-    <t>[[161, 44, 158, 85, 89, 70, 109, 149], [96, 138, 125, 148, 38, 92, 57, 74], [110, 45, 42, 50, 86, 69, 79]]</t>
+    <t>[[65, 51, 162, 149, 28], [116, 132, 110, 71, 93, 45], [36, 139, 175, 64, 173, 77]]</t>
   </si>
   <si>
-    <t>[[133, 109, 140, 138, 38, 148, 57, 149], [89, 79, 69, 86, 74, 5, 70], [110, 158, 85, 66, 125, 96, 161, 44]]</t>
+    <t>[[115, 120, 132, 110, 71, 149], [36, 93, 45, 77, 139, 175], [147, 24, 98, 70, 173]]</t>
   </si>
   <si>
-    <t>[[86, 69, 79, 158, 85, 70, 149, 96], [125, 38, 148, 57, 92, 30, 138, 74], [102, 66, 28, 50, 44, 161, 139]]</t>
+    <t>[[26, 72, 173, 36, 139, 175], [138, 149, 120, 140, 97], [110, 71, 70, 159, 25, 152]]</t>
   </si>
   <si>
-    <t>[[129, 158, 85, 149, 96, 125, 38, 92], [110, 22, 79, 69, 86, 74, 5], [89, 30, 70, 138, 57, 148, 161, 44]]</t>
+    <t>[[174, 140, 93, 139, 175], [132, 110, 71, 55, 149, 120], [130, 173, 161, 171, 15]]</t>
   </si>
   <si>
-    <t>[[96, 161, 44, 158, 85, 70, 109, 148], [30, 138, 149, 5, 69, 79, 86, 74], [133, 125, 38, 92, 57, 89, 140]]</t>
+    <t>[[16, 113, 110, 71, 70, 173], [45, 132, 73, 139, 175, 64], [138, 149, 120, 140, 97]]</t>
   </si>
   <si>
-    <t>[[77, 149, 96, 138, 148, 57, 92, 161, 44], [139, 28, 50, 110, 69, 86, 74], [146, 158, 70, 30, 125, 66, 85]]</t>
+    <t>[[173, 36, 139, 175, 64, 29], [97, 149, 120, 132, 110, 71], [76, 138, 17, 140, 93]]</t>
   </si>
   <si>
-    <t>[[148, 57, 70, 161, 44, 158, 85, 89, 149], [109, 125, 133, 96, 138, 38, 74], [92, 30, 140, 79, 5, 86, 69]]</t>
+    <t>[[149, 120, 132, 110, 71, 70], [72, 173, 36, 139, 175, 161], [76, 138, 77]]</t>
   </si>
   <si>
-    <t>[[86, 79, 161, 92, 38, 74, 148, 57], [96, 138, 125, 70, 89, 77, 149, 85], [69, 5, 66, 44, 50, 110, 22]]</t>
+    <t>[[73, 139, 175, 64, 29, 157], [17, 140, 93, 72, 173, 36], [149, 120, 132, 110, 71, 70]]</t>
   </si>
   <si>
-    <t>[[66, 28, 139, 161, 44, 50, 148, 57], [69, 158, 96, 125, 38, 138, 149, 79], [74, 30, 85, 86, 5, 70, 89]]</t>
+    <t>[[17, 140, 93, 72, 173, 36], [76, 138, 77], [149, 120, 132, 110, 71, 70]]</t>
   </si>
   <si>
-    <t>[[66, 138, 30, 125, 149, 5, 74, 38], [140, 148, 57, 70, 89, 161, 44, 50], [120, 139, 28, 144, 158, 85, 96]]</t>
+    <t>[[147, 120, 132, 110, 71, 70], [101, 97, 149, 139, 175, 64], [114, 17, 140, 93, 72]]</t>
   </si>
   <si>
-    <t>[[79, 69, 86, 30, 138, 57, 89, 149], [102, 144, 158, 85, 5, 74, 70], [125, 92, 38, 96, 161, 44, 50, 148]]</t>
+    <t>[[17, 140, 93, 72, 173, 36], [60, 97, 149, 139, 175, 64], [55, 120, 132, 110, 71, 70]]</t>
   </si>
   <si>
-    <t>[[79, 69, 86, 148, 57, 92, 38, 149], [74, 70, 138, 96, 161, 44, 50, 110], [109, 5, 66, 125, 30, 89, 85]]</t>
+    <t>[[132, 110, 71, 70, 147, 120], [17, 140, 93, 72, 173, 36], [101, 97, 149, 139, 175, 64]]</t>
   </si>
   <si>
-    <t>[[69, 86, 79, 161, 44, 50, 5, 148], [158, 85, 70, 38, 125, 66, 89], [22, 149, 96, 138, 30, 74, 16, 57]]</t>
-  </si>
-  <si>
-    <t>[[129, 158, 44, 50, 28, 66, 125], [38, 148, 149, 96, 161, 57, 92, 138, 30], [85, 89, 5, 86, 69, 79, 22]]</t>
-  </si>
-  <si>
-    <t>[[109, 149, 148, 57, 92, 38, 125, 133], [28, 66, 44, 158, 85, 70, 89], [79, 69, 161, 96, 138, 30, 74, 5]]</t>
-  </si>
-  <si>
-    <t>[[158, 85, 96, 138, 38, 125, 66, 149], [139, 161, 44, 57, 148, 92, 86, 74], [109, 79, 69, 140, 5, 70, 30]]</t>
-  </si>
-  <si>
-    <t>[[148, 57, 69, 5, 149, 139, 28, 50], [66, 85, 89, 70, 38, 125, 92], [74, 30, 138, 96, 161, 44, 158, 79]]</t>
-  </si>
-  <si>
-    <t>[[139, 28, 50, 44, 158, 85, 161, 149], [125, 96, 138, 30, 74, 70, 148, 57], [83, 140, 79, 86, 69, 5, 22]]</t>
-  </si>
-  <si>
-    <t>[[44, 158, 69, 161, 96, 138, 57, 74], [139, 28, 50, 110, 22, 86, 149, 148], [30, 125, 92, 38, 85, 89, 70]]</t>
-  </si>
-  <si>
-    <t>[[30, 148, 57, 92, 38, 86, 69, 161], [149, 96, 138, 70, 5, 109, 79, 22], [140, 139, 28, 158, 85, 66, 125]]</t>
-  </si>
-  <si>
-    <t>[[149, 109, 79, 86, 69, 148, 57, 92], [45, 42, 50, 44, 161, 96, 138, 30], [139, 28, 66, 85, 70, 125, 38]]</t>
-  </si>
-  <si>
-    <t>[[161, 44, 57, 138, 92, 74, 148, 38], [129, 158, 85, 70, 96, 125, 66, 149], [133, 86, 69, 79, 22, 110, 50]]</t>
-  </si>
-  <si>
-    <t>[[38, 92, 74, 148, 57, 89, 70, 161], [138, 125, 149, 96, 66, 5, 79, 30], [36, 102, 20, 144, 28, 50, 44]]</t>
-  </si>
-  <si>
-    <t>[[50, 28, 139, 161, 44, 158, 85, 149], [125, 38, 92, 57, 148, 140, 79, 96], [87, 69, 5, 74, 138, 30, 70]]</t>
-  </si>
-  <si>
-    <t>[[96, 148, 57, 92, 161, 70, 85, 149, 138], [28, 139, 133, 125, 30, 74, 140], [66, 44, 158, 69, 86, 79, 22]]</t>
-  </si>
-  <si>
-    <t>[[69, 86, 148, 57, 92, 109, 5], [30, 138, 66, 125, 96, 161, 70, 89], [110, 50, 44, 158, 85, 149, 140, 79]]</t>
-  </si>
-  <si>
-    <t>[[57, 92, 38, 148, 138, 69, 161, 96, 149], [158, 44, 50, 86, 5, 74, 125], [110, 22, 79, 85, 109, 30, 140]]</t>
-  </si>
-  <si>
-    <t>[[129, 158, 44, 50, 148, 57, 92, 149], [79, 161, 96, 138, 30, 74, 5, 69], [139, 28, 66, 85, 70, 125, 38]]</t>
-  </si>
-  <si>
-    <t>[[129, 158, 85, 86, 69, 5, 70], [139, 149, 148, 57, 92, 74, 38, 125], [110, 50, 44, 161, 96, 138, 30, 140]]</t>
-  </si>
-  <si>
-    <t>[[115, 161, 70, 85, 149, 96, 138, 30, 148], [139, 158, 44, 50, 28, 66, 125], [74, 5, 69, 92, 57, 79, 133]]</t>
-  </si>
-  <si>
-    <t>[[74, 138, 96, 161, 44, 158, 85, 70], [8, 50, 79, 69, 86, 125, 30], [148, 92, 38, 28, 66, 5, 57, 149]]</t>
-  </si>
-  <si>
-    <t>[[79, 86, 69, 161, 44, 66, 5, 148], [89, 109, 140, 138, 38, 92, 57], [129, 158, 85, 70, 30, 74, 149, 96]]</t>
-  </si>
-  <si>
-    <t>[[127, 161, 44, 57, 92, 38, 125, 148], [22, 133, 79, 69, 86, 74, 5], [138, 149, 96, 158, 85, 89, 70, 30]]</t>
-  </si>
-  <si>
-    <t>[[30, 138, 38, 92, 125, 70, 89, 149], [42, 50, 28, 66, 161, 44, 57, 148], [96, 158, 85, 109, 5, 69, 22]]</t>
-  </si>
-  <si>
-    <t>[[133, 85, 38, 149, 70, 89, 30, 148], [22, 110, 50, 44, 158, 69, 86], [74, 5, 161, 92, 57, 125, 96, 138]]</t>
-  </si>
-  <si>
-    <t>[[139, 158, 85, 70, 5, 74, 110], [92, 57, 138, 30, 125, 38, 69, 149], [44, 50, 28, 66, 148, 96, 161, 79]]</t>
-  </si>
-  <si>
-    <t>[[137, 148, 57, 92, 38, 125, 66, 149], [28, 50, 44, 158, 69, 86, 79], [85, 70, 5, 161, 96, 138, 30, 74]]</t>
-  </si>
-  <si>
-    <t>[[74, 5, 148, 57, 138, 70, 161, 96, 149], [53, 66, 28, 50, 44, 158, 85], [38, 92, 69, 86, 79, 125, 30]]</t>
-  </si>
-  <si>
-    <t>[[74, 148, 57, 92, 38, 138, 30, 125], [77, 158, 44, 50, 86, 22, 79], [139, 161, 96, 149, 85, 109, 16, 70]]</t>
-  </si>
-  <si>
-    <t>[[148, 57, 92, 161, 44, 50, 28, 139], [69, 86, 149, 96, 158, 85, 70, 138], [79, 22, 110, 74, 133, 66, 125]]</t>
-  </si>
-  <si>
-    <t>[[71, 158, 44, 50, 110, 161, 96, 149], [102, 144, 28, 66, 85, 70, 5], [74, 57, 138, 30, 125, 38, 92, 148]]</t>
-  </si>
-  <si>
-    <t>[[22, 86, 69, 79, 161, 96, 125, 57], [139, 28, 50, 44, 158, 85, 38], [63, 70, 66, 138, 30, 89, 149, 148]]</t>
-  </si>
-  <si>
-    <t>[[158, 85, 109, 149, 96, 161, 44, 57, 148], [50, 42, 45, 110, 22, 138, 38], [66, 69, 86, 79, 89, 30, 70]]</t>
-  </si>
-  <si>
-    <t>[[42, 50, 44, 158, 85, 109, 140], [28, 161, 139, 149, 69, 79, 86, 74], [96, 125, 138, 30, 70, 38, 148, 57]]</t>
-  </si>
-  <si>
-    <t>[[149, 96, 125, 70, 89, 5, 74, 38], [46, 148, 57, 138, 30, 140, 139, 161], [28, 66, 44, 158, 85, 86, 69]]</t>
-  </si>
-  <si>
-    <t>[[125, 70, 89, 5, 74, 30, 138, 149], [148, 57, 92, 161, 96, 86, 110, 69], [139, 28, 50, 44, 158, 85, 66]]</t>
-  </si>
-  <si>
-    <t>[[50, 44, 158, 85, 70, 89, 149, 96], [74, 79, 148, 57, 92, 38, 138, 30], [36, 139, 161, 86, 69, 5, 125]]</t>
-  </si>
-  <si>
-    <t>[[8, 50, 44, 158, 85, 109, 149, 148], [79, 86, 74, 30, 138, 70, 96, 161], [28, 66, 5, 69, 57, 92, 125]]</t>
-  </si>
-  <si>
-    <t>[[20, 144, 158, 85, 70, 161, 92, 148], [57, 44, 50, 110, 149, 96, 125, 66], [89, 30, 69, 140, 5, 138, 38]]</t>
-  </si>
-  <si>
-    <t>[[129, 158, 85, 30, 138, 70, 66, 149], [96, 161, 44, 50, 110, 22, 79, 125], [76, 86, 74, 57, 92, 38, 148]]</t>
-  </si>
-  <si>
-    <t>[[86, 69, 138, 125, 30, 74, 79, 149], [50, 110, 22, 96, 158, 85, 70], [28, 66, 5, 161, 44, 57, 92, 148]]</t>
-  </si>
-  <si>
-    <t>[[139, 28, 50, 44, 161, 69, 86, 149], [92, 57, 138, 30, 148, 140, 79, 22], [59, 158, 96, 66, 5, 70, 85]]</t>
-  </si>
-  <si>
-    <t>[[139, 28, 50, 44, 158, 85, 86], [74, 30, 138, 125, 38, 92, 57, 149], [140, 79, 148, 69, 161, 96, 70, 5]]</t>
-  </si>
-  <si>
-    <t>[[5, 70, 149, 96, 161, 44, 50, 148, 57], [133, 22, 79, 69, 86, 74, 125], [92, 38, 85, 109, 30, 138, 140]]</t>
-  </si>
-  <si>
-    <t>[[77, 70, 138, 92, 38, 125, 30], [22, 149, 96, 161, 44, 50, 110, 148, 57], [146, 158, 69, 86, 74, 5, 79]]</t>
-  </si>
-  <si>
-    <t>[[53, 66, 125, 38, 148, 57, 92, 161], [28, 96, 138, 30, 70, 89, 85, 149], [144, 158, 44, 50, 110, 86, 74]]</t>
-  </si>
-  <si>
-    <t>[[139, 161, 69, 5, 133, 149, 85, 70], [148, 57, 138, 38, 92, 74, 79, 22], [44, 158, 96, 125, 30, 86, 50]]</t>
-  </si>
-  <si>
-    <t>[[38, 125, 66, 138, 149, 148, 57, 70, 161], [158, 85, 109, 79, 69, 140, 30], [139, 28, 96, 22, 110, 50, 44]]</t>
-  </si>
-  <si>
-    <t>[[139, 161, 70, 89, 85, 5, 74, 148], [109, 149, 96, 158, 44, 66, 138, 30], [140, 69, 86, 125, 38, 92, 57]]</t>
-  </si>
-  <si>
-    <t>[[66, 138, 125, 38, 92, 161, 79, 22], [109, 85, 149, 30, 74, 148, 57, 70], [45, 42, 50, 44, 158, 86, 96]]</t>
-  </si>
-  <si>
-    <t>[[66, 28, 139, 161, 44, 50, 149, 79], [146, 158, 85, 109, 5, 70, 96], [133, 125, 148, 57, 138, 30, 74, 140]]</t>
-  </si>
-  <si>
-    <t>[[86, 79, 69, 148, 92, 125, 38, 149], [8, 50, 110, 161, 96, 138, 57, 74], [66, 44, 158, 85, 70, 30, 5]]</t>
-  </si>
-  <si>
-    <t>[[149, 96, 125, 38, 92, 57, 70, 85], [139, 161, 44, 50, 86, 5, 74, 148], [137, 158, 69, 140, 30, 138, 66]]</t>
-  </si>
-  <si>
-    <t>[[44, 161, 92, 38, 70, 89, 85, 149], [22, 96, 138, 57, 74, 30, 125, 148], [102, 36, 144, 158, 69, 86, 79]]</t>
-  </si>
-  <si>
-    <t>[[74, 5, 138, 96, 161, 44, 158, 85], [45, 42, 50, 110, 69, 86, 79], [92, 57, 89, 149, 148, 38, 125, 70]]</t>
-  </si>
-  <si>
-    <t>[[139, 28, 66, 138, 149, 96, 125, 38], [42, 50, 148, 57, 86, 69, 79, 161], [115, 158, 85, 70, 30, 74, 5]]</t>
-  </si>
-  <si>
-    <t>[[110, 22, 86, 74, 148, 57, 138, 30], [109, 5, 133, 96, 125, 149, 85, 161], [146, 158, 69, 140, 79, 50, 44]]</t>
-  </si>
-  <si>
-    <t>[[148, 57, 92, 38, 110, 50, 44, 161], [133, 96, 125, 138, 69, 86, 79, 149], [66, 158, 85, 109, 5, 70, 30]]</t>
-  </si>
-  <si>
-    <t>[[109, 161, 96, 138, 125, 38, 92, 148], [22, 110, 50, 44, 57, 74, 5, 149], [158, 85, 70, 89, 79, 86, 69]]</t>
-  </si>
-  <si>
-    <t>[[146, 158, 85, 66, 138, 70, 161, 96], [86, 149, 109, 133, 125, 148, 57, 44], [74, 30, 89, 79, 69, 92, 38]]</t>
-  </si>
-  <si>
-    <t>[[42, 50, 110, 161, 96, 125, 57, 148, 149], [22, 86, 69, 5, 74, 16, 138], [70, 85, 66, 44, 158, 92, 38]]</t>
-  </si>
-  <si>
-    <t>[[86, 148, 57, 92, 38, 125, 66, 149], [102, 144, 28, 50, 44, 158, 85], [70, 161, 96, 138, 30, 69, 5, 74]]</t>
-  </si>
-  <si>
-    <t>[[129, 158, 85, 70, 89, 149, 109, 161], [44, 50, 148, 57, 138, 96, 125, 38], [110, 22, 79, 86, 69, 16, 74]]</t>
-  </si>
-  <si>
-    <t>[[95, 30, 125, 38, 92, 57, 138, 149], [44, 158, 85, 89, 70, 96, 161, 148], [8, 50, 110, 22, 79, 69, 86]]</t>
-  </si>
-  <si>
-    <t>[[5, 70, 161, 92, 57, 69, 79, 148], [50, 44, 158, 85, 66, 16, 22], [149, 96, 125, 30, 138, 38, 89, 74]]</t>
-  </si>
-  <si>
-    <t>[[66, 138, 38, 70, 161, 96, 125, 30], [139, 28, 50, 110, 158, 85, 149, 148], [74, 5, 109, 79, 69, 86, 57]]</t>
-  </si>
-  <si>
-    <t>[[109, 149, 79, 5, 66, 57, 92, 161], [74, 148, 38, 125, 138, 30, 70, 85], [139, 28, 50, 44, 158, 96, 133]]</t>
-  </si>
-  <si>
-    <t>[[74, 5, 125, 149, 30, 70, 138, 96], [69, 79, 22, 86, 158, 85, 89], [139, 161, 44, 50, 148, 57, 92, 38]]</t>
-  </si>
-  <si>
-    <t>[[66, 138, 57, 92, 38, 125, 96, 148], [139, 161, 70, 69, 79, 86, 109], [22, 110, 50, 44, 158, 85, 149, 30]]</t>
-  </si>
-  <si>
-    <t>[[102, 144, 28, 50, 5, 74, 79], [89, 70, 149, 96, 66, 161, 44, 158], [148, 57, 92, 38, 125, 138, 30, 86]]</t>
-  </si>
-  <si>
-    <t>[[69, 86, 79, 89, 70, 5, 161, 149], [8, 50, 44, 158, 85, 66, 28], [148, 57, 138, 30, 92, 38, 125, 96]]</t>
-  </si>
-  <si>
-    <t>[[92, 38, 125, 96, 138, 70, 57, 148], [5, 50, 110, 22, 79, 86, 69], [140, 83, 149, 85, 161, 44, 158, 139]]</t>
-  </si>
-  <si>
-    <t>[[96, 161, 70, 57, 138, 92, 38, 149, 148], [44, 158, 85, 109, 5, 69, 79], [50, 110, 86, 87, 74, 30, 125]]</t>
-  </si>
-  <si>
-    <t>[[28, 50, 44, 158, 85, 70, 138, 149], [86, 79, 140, 139, 161, 92, 57, 148], [133, 66, 96, 125, 38, 69, 30]]</t>
-  </si>
-  <si>
-    <t>[[148, 57, 92, 38, 138, 125, 66, 28], [146, 158, 85, 70, 89, 30, 74], [87, 79, 161, 44, 50, 86, 69, 149]]</t>
-  </si>
-  <si>
-    <t>[[28, 158, 85, 70, 30, 125, 66, 149], [44, 50, 92, 38, 138, 96, 161, 148], [74, 110, 22, 79, 89, 5, 57]]</t>
-  </si>
-  <si>
-    <t>[[86, 69, 38, 92, 57, 74, 5], [79, 133, 96, 125, 138, 30, 109, 149], [28, 139, 161, 44, 158, 85, 70, 148]]</t>
-  </si>
-  <si>
-    <t>[[110, 50, 44, 158, 86, 69, 5], [79, 22, 138, 70, 89, 85, 96, 149], [129, 161, 92, 38, 125, 148, 57, 74]]</t>
+    <t>[[147, 120, 132, 110, 71, 70], [60, 97, 149, 139, 175, 64], [174, 140, 93, 72, 173]]</t>
   </si>
 </sst>
 </file>
@@ -374,7 +149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G301"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -402,39 +177,39 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.427865725452142</v>
+        <v>0.4847106447093254</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>118.33749999999999</v>
+        <v>5.152941176470589</v>
       </c>
       <c r="D2" t="n">
-        <v>20.8244</v>
+        <v>93.74999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F2" t="n">
-        <v>3780.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.425722032920052</v>
+        <v>0.4847106447093254</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>117.975</v>
+        <v>5.152941176470589</v>
       </c>
       <c r="D3" t="n">
-        <v>28.2344</v>
+        <v>93.74999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F3" t="n">
         <v>0.0</v>
@@ -442,239 +217,239 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.428778617289158</v>
+        <v>0.4817832558668329</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>117.4625</v>
+        <v>5.186029411764706</v>
       </c>
       <c r="D4" t="n">
-        <v>80.19439999999999</v>
+        <v>64.05</v>
       </c>
       <c r="E4" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.4238417170105657</v>
+        <v>0.4817832558668329</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>118.42500000000001</v>
+        <v>5.186029411764706</v>
       </c>
       <c r="D5" t="n">
-        <v>29.259999999999994</v>
+        <v>64.05</v>
       </c>
       <c r="E5" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1620.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.4180244195226228</v>
+        <v>0.4814990078550835</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>119.27499999999999</v>
+        <v>5.188888888888888</v>
       </c>
       <c r="D6" t="n">
-        <v>47.74</v>
+        <v>82.44999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.421273373317245</v>
+        <v>0.47769498233639685</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>118.725</v>
+        <v>5.258035714285714</v>
       </c>
       <c r="D7" t="n">
-        <v>18.734399999999997</v>
+        <v>59.199999999999996</v>
       </c>
       <c r="E7" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.4247478799706828</v>
+        <v>0.47769498233639685</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>118.3</v>
+        <v>5.258035714285714</v>
       </c>
       <c r="D8" t="n">
-        <v>21.634399999999996</v>
+        <v>59.199999999999996</v>
       </c>
       <c r="E8" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F8" t="n">
-        <v>1782.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.4259699430369495</v>
+        <v>0.47769498233639685</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>118.1</v>
+        <v>5.258035714285714</v>
       </c>
       <c r="D9" t="n">
-        <v>32.55</v>
+        <v>59.199999999999996</v>
       </c>
       <c r="E9" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F9" t="n">
-        <v>1814.4</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.4246079148223663</v>
+        <v>0.47769498233639685</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>118.1625</v>
+        <v>5.258035714285714</v>
       </c>
       <c r="D10" t="n">
-        <v>19.0444</v>
+        <v>59.199999999999996</v>
       </c>
       <c r="E10" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.4230496670456623</v>
+        <v>0.47769498233639685</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>118.60000000000001</v>
+        <v>5.258035714285714</v>
       </c>
       <c r="D11" t="n">
-        <v>23.069999999999997</v>
+        <v>59.199999999999996</v>
       </c>
       <c r="E11" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F11" t="n">
-        <v>1854.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.4263275861827183</v>
+        <v>0.47769498233639685</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C12" t="n">
-        <v>118.0625</v>
+        <v>5.258035714285714</v>
       </c>
       <c r="D12" t="n">
-        <v>22.3</v>
+        <v>59.199999999999996</v>
       </c>
       <c r="E12" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F12" t="n">
-        <v>1935.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.4292618195661515</v>
+        <v>0.47769498233639685</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>118.9</v>
+        <v>5.258035714285714</v>
       </c>
       <c r="D13" t="n">
-        <v>22.23</v>
+        <v>59.199999999999996</v>
       </c>
       <c r="E13" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5476.5</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.4170164362638618</v>
+        <v>0.47769498233639685</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C14" t="n">
-        <v>119.63749999999999</v>
+        <v>5.258035714285714</v>
       </c>
       <c r="D14" t="n">
-        <v>19.244400000000002</v>
+        <v>59.199999999999996</v>
       </c>
       <c r="E14" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F14" t="n">
-        <v>1935.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.4239402903835383</v>
+        <v>0.4756314169651557</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>118.27499999999999</v>
+        <v>5.2437499999999995</v>
       </c>
       <c r="D15" t="n">
-        <v>19.0444</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -682,19 +457,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.415368383343666</v>
+        <v>0.4756314169651557</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>119.725</v>
+        <v>5.2437499999999995</v>
       </c>
       <c r="D16" t="n">
-        <v>29.2044</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -702,39 +477,39 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.4242541512026514</v>
+        <v>0.4756314169651557</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>118.39999999999999</v>
+        <v>5.2437499999999995</v>
       </c>
       <c r="D17" t="n">
-        <v>20.9944</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1872.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1.4197203305957333</v>
+        <v>0.4756314169651557</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>118.9875</v>
+        <v>5.2437499999999995</v>
       </c>
       <c r="D18" t="n">
-        <v>18.394399999999997</v>
+        <v>107.80000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -742,99 +517,99 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.4197975894113477</v>
+        <v>0.4755990531692205</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>118.97499999999998</v>
+        <v>5.247916666666666</v>
       </c>
       <c r="D19" t="n">
-        <v>51.959999999999994</v>
+        <v>56.5</v>
       </c>
       <c r="E19" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.4207831326603786</v>
+        <v>0.4701273451764185</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>118.98750000000001</v>
+        <v>5.302678571428571</v>
       </c>
       <c r="D20" t="n">
-        <v>18.3044</v>
+        <v>55.400000000000006</v>
       </c>
       <c r="E20" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1876.5</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.426836051406353</v>
+        <v>0.4701273451764185</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
-        <v>117.78750000000001</v>
+        <v>5.302678571428571</v>
       </c>
       <c r="D21" t="n">
-        <v>21.39</v>
+        <v>55.400000000000006</v>
       </c>
       <c r="E21" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1.4203859404494688</v>
+        <v>0.46824379432601626</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C22" t="n">
-        <v>118.875</v>
+        <v>5.321527777777778</v>
       </c>
       <c r="D22" t="n">
-        <v>22.979999999999997</v>
+        <v>51.72</v>
       </c>
       <c r="E22" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1.4295896711984541</v>
+        <v>0.46411900021762426</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="C23" t="n">
-        <v>117.325</v>
+        <v>5.358823529411764</v>
       </c>
       <c r="D23" t="n">
-        <v>25.7344</v>
+        <v>48.9</v>
       </c>
       <c r="E23" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -842,179 +617,179 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1.4194500966780006</v>
+        <v>0.46411900021762426</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C24" t="n">
-        <v>119.74999999999999</v>
+        <v>5.358823529411764</v>
       </c>
       <c r="D24" t="n">
-        <v>23.9844</v>
+        <v>48.9</v>
       </c>
       <c r="E24" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F24" t="n">
-        <v>3739.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1.421644489529133</v>
+        <v>0.4638246786128817</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>118.83749999999999</v>
+        <v>5.361764705882353</v>
       </c>
       <c r="D25" t="n">
-        <v>20.62</v>
+        <v>45.04999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F25" t="n">
-        <v>1854.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.4269184816328084</v>
+        <v>0.46044942124168287</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>117.9375</v>
+        <v>5.411607142857143</v>
       </c>
       <c r="D26" t="n">
-        <v>21.3744</v>
+        <v>41.150000000000006</v>
       </c>
       <c r="E26" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F26" t="n">
-        <v>1800.396</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1.4280912181187713</v>
+        <v>0.46044942124168287</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
-        <v>117.75000000000001</v>
+        <v>5.411607142857143</v>
       </c>
       <c r="D27" t="n">
-        <v>21.350000000000005</v>
+        <v>41.150000000000006</v>
       </c>
       <c r="E27" t="n">
-        <v>23.0</v>
+        <v>14.0</v>
       </c>
       <c r="F27" t="n">
-        <v>1854.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1.420683998656605</v>
+        <v>0.45952102780956094</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>119.0</v>
+        <v>5.408823529411766</v>
       </c>
       <c r="D28" t="n">
-        <v>19.084399999999995</v>
+        <v>37.50000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1854.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1.4195177954348888</v>
+        <v>0.45952102780956094</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>119.1875</v>
+        <v>5.408823529411766</v>
       </c>
       <c r="D29" t="n">
-        <v>21.9944</v>
+        <v>37.50000000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F29" t="n">
-        <v>1800.396</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1.419056190562343</v>
+        <v>0.4569177670071802</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C30" t="n">
-        <v>119.1</v>
+        <v>5.447058823529412</v>
       </c>
       <c r="D30" t="n">
-        <v>30.47999999999999</v>
+        <v>58.89999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1.4623983044602258</v>
+        <v>0.4569177670071802</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C31" t="n">
-        <v>117.75</v>
+        <v>5.447058823529412</v>
       </c>
       <c r="D31" t="n">
-        <v>22.4444</v>
+        <v>58.89999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F31" t="n">
-        <v>10913.400000000001</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1.4191297698435157</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>119.08749999999999</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D32" t="n">
-        <v>26.93</v>
+        <v>87.1</v>
       </c>
       <c r="E32" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -1022,39 +797,39 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>1.426552328379884</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C33" t="n">
-        <v>118.01250000000002</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D33" t="n">
-        <v>23.334399999999995</v>
+        <v>87.1</v>
       </c>
       <c r="E33" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F33" t="n">
-        <v>1872.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1.4189818529052372</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C34" t="n">
-        <v>119.11250000000003</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D34" t="n">
-        <v>24.4</v>
+        <v>87.1</v>
       </c>
       <c r="E34" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -1062,99 +837,99 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.4274840591734923</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="C35" t="n">
-        <v>118.31250000000001</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D35" t="n">
-        <v>59.2044</v>
+        <v>87.1</v>
       </c>
       <c r="E35" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F35" t="n">
-        <v>3537.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.9143390211807985</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>116.7625</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D36" t="n">
-        <v>43.92</v>
+        <v>87.1</v>
       </c>
       <c r="E36" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F36" t="n">
-        <v>43353.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.431499656595447</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C37" t="n">
-        <v>118.46250000000002</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D37" t="n">
-        <v>19.2944</v>
+        <v>87.1</v>
       </c>
       <c r="E37" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F37" t="n">
-        <v>5373.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.4304061007310458</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C38" t="n">
-        <v>117.675</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D38" t="n">
-        <v>25.81</v>
+        <v>87.1</v>
       </c>
       <c r="E38" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F38" t="n">
-        <v>3109.5</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.4248305063343782</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="C39" t="n">
-        <v>118.125</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D39" t="n">
-        <v>18.4844</v>
+        <v>87.1</v>
       </c>
       <c r="E39" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -1162,79 +937,79 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.431321136462822</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C40" t="n">
-        <v>117.2</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D40" t="n">
-        <v>25.849999999999998</v>
+        <v>87.1</v>
       </c>
       <c r="E40" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F40" t="n">
-        <v>1814.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.418696638153262</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C41" t="n">
-        <v>119.3125</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D41" t="n">
-        <v>25.08</v>
+        <v>87.1</v>
       </c>
       <c r="E41" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F41" t="n">
-        <v>1721.7000000000044</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.418435873304702</v>
+        <v>0.45537202260040127</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C42" t="n">
-        <v>119.3</v>
+        <v>5.446323529411765</v>
       </c>
       <c r="D42" t="n">
-        <v>27.394399999999997</v>
+        <v>87.1</v>
       </c>
       <c r="E42" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F42" t="n">
-        <v>1362.5999999999985</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.4206820256333446</v>
+        <v>0.45507560017690574</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C43" t="n">
-        <v>118.82499999999999</v>
+        <v>5.449264705882352</v>
       </c>
       <c r="D43" t="n">
-        <v>26.7</v>
+        <v>59.9</v>
       </c>
       <c r="E43" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1242,59 +1017,59 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.4256394248817272</v>
+        <v>0.45235734150365203</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>118.17500000000001</v>
+        <v>5.4765625</v>
       </c>
       <c r="D44" t="n">
-        <v>23.874399999999998</v>
+        <v>153.0</v>
       </c>
       <c r="E44" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="F44" t="n">
-        <v>1917.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.4195055610151193</v>
+        <v>0.45235734150365203</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C45" t="n">
-        <v>119.62500000000001</v>
+        <v>5.4765625</v>
       </c>
       <c r="D45" t="n">
-        <v>53.4844</v>
+        <v>153.0</v>
       </c>
       <c r="E45" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="F45" t="n">
-        <v>3424.1039999999994</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.4244595473389103</v>
+        <v>0.45235734150365203</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="C46" t="n">
-        <v>118.1875</v>
+        <v>5.4765625</v>
       </c>
       <c r="D46" t="n">
-        <v>19.4944</v>
+        <v>153.0</v>
       </c>
       <c r="E46" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -1302,19 +1077,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.4222363229357045</v>
+        <v>0.45235734150365203</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C47" t="n">
-        <v>118.56250000000001</v>
+        <v>5.4765625</v>
       </c>
       <c r="D47" t="n">
-        <v>27.414399999999997</v>
+        <v>153.0</v>
       </c>
       <c r="E47" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -1322,1082 +1097,5082 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.4248774760843266</v>
+        <v>0.45235734150365203</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>118.29999999999998</v>
+        <v>5.4765625</v>
       </c>
       <c r="D48" t="n">
-        <v>22.0</v>
+        <v>153.0</v>
       </c>
       <c r="E48" t="n">
-        <v>23.0</v>
+        <v>16.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1899.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.4245270817325706</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C49" t="n">
-        <v>118.3125</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D49" t="n">
-        <v>34.2244</v>
+        <v>61.5</v>
       </c>
       <c r="E49" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1638.5040000000008</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4197943838854623</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="C50" t="n">
-        <v>118.97500000000001</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D50" t="n">
-        <v>20.979999999999997</v>
+        <v>61.5</v>
       </c>
       <c r="E50" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.4220638577820826</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>118.76249999999999</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D51" t="n">
-        <v>72.29440000000001</v>
+        <v>61.5</v>
       </c>
       <c r="E51" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1826.1</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.4201640073071764</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="C52" t="n">
-        <v>118.91250000000001</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D52" t="n">
-        <v>21.180999999999997</v>
+        <v>61.5</v>
       </c>
       <c r="E52" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.4469330496111592</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="C53" t="n">
-        <v>118.43750000000001</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D53" t="n">
-        <v>25.564399999999996</v>
+        <v>61.5</v>
       </c>
       <c r="E53" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F53" t="n">
-        <v>8955.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.4203860303242035</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="C54" t="n">
-        <v>118.875</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D54" t="n">
-        <v>24.32</v>
+        <v>61.5</v>
       </c>
       <c r="E54" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.4219407159085211</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C55" t="n">
-        <v>118.61250000000001</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D55" t="n">
-        <v>34.184400000000004</v>
+        <v>61.5</v>
       </c>
       <c r="E55" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.428850690402686</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C56" t="n">
-        <v>117.6125</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D56" t="n">
-        <v>31.504400000000004</v>
+        <v>61.5</v>
       </c>
       <c r="E56" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F56" t="n">
-        <v>1800.396</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.42105186710474</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="C57" t="n">
-        <v>118.76249999999999</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D57" t="n">
-        <v>26.194399999999998</v>
+        <v>61.5</v>
       </c>
       <c r="E57" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.4253665547521286</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="C58" t="n">
-        <v>118.2125</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D58" t="n">
-        <v>33.7344</v>
+        <v>61.5</v>
       </c>
       <c r="E58" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1872.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.4263437753229264</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="C59" t="n">
-        <v>119.3875</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D59" t="n">
-        <v>23.894399999999997</v>
+        <v>61.5</v>
       </c>
       <c r="E59" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F59" t="n">
-        <v>5459.4000000000015</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.4185399820512583</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="C60" t="n">
-        <v>119.1875</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D60" t="n">
-        <v>38.1344</v>
+        <v>61.5</v>
       </c>
       <c r="E60" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.4680292854306116</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="C61" t="n">
-        <v>118.925</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D61" t="n">
-        <v>19.4344</v>
+        <v>61.5</v>
       </c>
       <c r="E61" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F61" t="n">
-        <v>12708.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.43287498660478</v>
+        <v>0.45188217630478344</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="C62" t="n">
-        <v>116.95</v>
+        <v>5.485294117647059</v>
       </c>
       <c r="D62" t="n">
-        <v>21.154400000000003</v>
+        <v>61.5</v>
       </c>
       <c r="E62" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F62" t="n">
-        <v>1872.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.4513435259641205</v>
+        <v>0.45092640218448</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="C63" t="n">
-        <v>117.76249999999999</v>
+        <v>5.494852941176469</v>
       </c>
       <c r="D63" t="n">
-        <v>20.864400000000003</v>
+        <v>49.7</v>
       </c>
       <c r="E63" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F63" t="n">
-        <v>9043.199999999997</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.429291588552046</v>
+        <v>0.45092640218448</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C64" t="n">
-        <v>117.375</v>
+        <v>5.494852941176469</v>
       </c>
       <c r="D64" t="n">
-        <v>23.794400000000003</v>
+        <v>49.7</v>
       </c>
       <c r="E64" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.4245340959787844</v>
+        <v>0.45092640218448</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C65" t="n">
-        <v>118.17500000000001</v>
+        <v>5.494852941176469</v>
       </c>
       <c r="D65" t="n">
-        <v>25.119999999999997</v>
+        <v>49.7</v>
       </c>
       <c r="E65" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.4208295806262485</v>
+        <v>0.45092640218448</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C66" t="n">
-        <v>118.80000000000001</v>
+        <v>5.494852941176469</v>
       </c>
       <c r="D66" t="n">
-        <v>21.0344</v>
+        <v>49.7</v>
       </c>
       <c r="E66" t="n">
-        <v>23.0</v>
+        <v>17.0</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>1.4266447067877552</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="C67" t="n">
-        <v>117.9875</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D67" t="n">
-        <v>21.869999999999994</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E67" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F67" t="n">
-        <v>1821.6</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>1.4342562263303653</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>117.14999999999998</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D68" t="n">
-        <v>47.089999999999996</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E68" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F68" t="n">
-        <v>3478.5</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>1.4226806675305752</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B69" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>118.48749999999997</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D69" t="n">
-        <v>26.289999999999996</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E69" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>1.4226149585140468</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B70" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C70" t="n">
-        <v>118.63749999999999</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D70" t="n">
-        <v>26.389999999999997</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E70" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F70" t="n">
-        <v>1652.4000000000015</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>1.4321257684549809</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="C71" t="n">
-        <v>117.0625</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D71" t="n">
-        <v>27.8544</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E71" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F71" t="n">
-        <v>1800.396</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.4138957393636609</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C72" t="n">
-        <v>119.975</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D72" t="n">
-        <v>18.629999999999995</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E72" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.428026926568498</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B73" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="C73" t="n">
-        <v>117.72499999999998</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D73" t="n">
-        <v>24.27</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E73" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F73" t="n">
-        <v>1651.5</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.4271408798076273</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="C74" t="n">
-        <v>117.8375</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D74" t="n">
-        <v>39.22440000000001</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E74" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F74" t="n">
-        <v>1413.9000000000015</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.4275053506031212</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B75" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C75" t="n">
-        <v>117.67500000000001</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D75" t="n">
-        <v>23.3544</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E75" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.4177542567981969</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B76" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="C76" t="n">
-        <v>119.5</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D76" t="n">
-        <v>24.240000000000002</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E76" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F76" t="n">
-        <v>1872.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.4228356769023554</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="C77" t="n">
-        <v>118.58749999999999</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D77" t="n">
-        <v>26.189999999999998</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E77" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F77" t="n">
-        <v>1575.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.4203118972623971</v>
+        <v>0.44973180925588935</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C78" t="n">
-        <v>118.88749999999999</v>
+        <v>5.519166666666666</v>
       </c>
       <c r="D78" t="n">
-        <v>21.4144</v>
+        <v>37.449999999999996</v>
       </c>
       <c r="E78" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.4243867547549092</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="C79" t="n">
-        <v>118.19999999999999</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D79" t="n">
-        <v>36.9844</v>
+        <v>50.55</v>
       </c>
       <c r="E79" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.4414460944049252</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="C80" t="n">
-        <v>116.69999999999999</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D80" t="n">
-        <v>24.53</v>
+        <v>50.55</v>
       </c>
       <c r="E80" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F80" t="n">
-        <v>5220.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.425035917462119</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="C81" t="n">
-        <v>118.275</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D81" t="n">
-        <v>20.934399999999993</v>
+        <v>50.55</v>
       </c>
       <c r="E81" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F81" t="n">
-        <v>1908.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.4187801152671304</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>119.31249999999999</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D82" t="n">
-        <v>20.934400000000004</v>
+        <v>50.55</v>
       </c>
       <c r="E82" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F82" t="n">
-        <v>1800.396</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.416916121678268</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B83" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="C83" t="n">
-        <v>119.46249999999999</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D83" t="n">
-        <v>32.3444</v>
+        <v>50.55</v>
       </c>
       <c r="E83" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.4237306460069612</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="C84" t="n">
-        <v>118.4875</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D84" t="n">
-        <v>18.889999999999997</v>
+        <v>50.55</v>
       </c>
       <c r="E84" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F84" t="n">
-        <v>1867.5</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.4157361822461765</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B85" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="C85" t="n">
-        <v>119.66250000000001</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D85" t="n">
-        <v>22.9444</v>
+        <v>50.55</v>
       </c>
       <c r="E85" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.4161781374291957</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C86" t="n">
-        <v>119.58749999999998</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D86" t="n">
-        <v>21.1944</v>
+        <v>50.55</v>
       </c>
       <c r="E86" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.4292921054097094</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C87" t="n">
-        <v>117.375</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D87" t="n">
-        <v>30.544400000000003</v>
+        <v>50.55</v>
       </c>
       <c r="E87" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.4287072102933764</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="C88" t="n">
-        <v>118.1625</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D88" t="n">
-        <v>20.1944</v>
+        <v>50.55</v>
       </c>
       <c r="E88" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F88" t="n">
-        <v>3693.6</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.4223101008992658</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="C89" t="n">
-        <v>118.55</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D89" t="n">
-        <v>23.494400000000002</v>
+        <v>50.55</v>
       </c>
       <c r="E89" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.4209776845430002</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B90" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C90" t="n">
-        <v>118.77500000000002</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D90" t="n">
-        <v>23.379999999999995</v>
+        <v>50.55</v>
       </c>
       <c r="E90" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.4191295720412487</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B91" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C91" t="n">
-        <v>119.08749999999999</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D91" t="n">
-        <v>24.204399999999996</v>
+        <v>50.55</v>
       </c>
       <c r="E91" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.4228287637839045</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B92" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="C92" t="n">
-        <v>118.46249999999999</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D92" t="n">
-        <v>25.1544</v>
+        <v>50.55</v>
       </c>
       <c r="E92" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.42305076655303</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B93" t="s">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="C93" t="n">
-        <v>118.425</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D93" t="n">
-        <v>20.529999999999998</v>
+        <v>50.55</v>
       </c>
       <c r="E93" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.424533992237778</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C94" t="n">
-        <v>118.17500000000001</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D94" t="n">
-        <v>23.6144</v>
+        <v>50.55</v>
       </c>
       <c r="E94" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.4251274756465522</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="C95" t="n">
-        <v>118.07499999999999</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D95" t="n">
-        <v>19.939999999999998</v>
+        <v>50.55</v>
       </c>
       <c r="E95" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.4197950864281317</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B96" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C96" t="n">
-        <v>118.97499999999998</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D96" t="n">
-        <v>30.5844</v>
+        <v>50.55</v>
       </c>
       <c r="E96" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.4252762312178338</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="C97" t="n">
-        <v>118.05000000000001</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D97" t="n">
-        <v>24.4644</v>
+        <v>50.55</v>
       </c>
       <c r="E97" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.4226814406067017</v>
+        <v>0.449510266555504</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="C98" t="n">
-        <v>118.48749999999998</v>
+        <v>5.509027777777778</v>
       </c>
       <c r="D98" t="n">
-        <v>35.174400000000006</v>
+        <v>50.55</v>
       </c>
       <c r="E98" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.433021883755359</v>
+        <v>0.4485799645493125</v>
       </c>
       <c r="B99" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="C99" t="n">
-        <v>116.75000000000001</v>
+        <v>5.5183333333333335</v>
       </c>
       <c r="D99" t="n">
-        <v>34.9944</v>
+        <v>39.05</v>
       </c>
       <c r="E99" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.4141900803924026</v>
+        <v>0.4485799645493125</v>
       </c>
       <c r="B100" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="C100" t="n">
-        <v>119.925</v>
+        <v>5.5183333333333335</v>
       </c>
       <c r="D100" t="n">
-        <v>20.4444</v>
+        <v>39.05</v>
       </c>
       <c r="E100" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.419280549970497</v>
+        <v>0.4485799645493125</v>
       </c>
       <c r="B101" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="C101" t="n">
-        <v>119.0625</v>
+        <v>5.5183333333333335</v>
       </c>
       <c r="D101" t="n">
-        <v>53.480000000000004</v>
+        <v>39.05</v>
       </c>
       <c r="E101" t="n">
-        <v>23.0</v>
+        <v>15.0</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B102" t="s">
+        <v>26</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D102" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E102" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B103" t="s">
+        <v>26</v>
+      </c>
+      <c r="C103" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D103" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E103" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>26</v>
+      </c>
+      <c r="C104" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D104" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E104" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D105" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E105" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B106" t="s">
+        <v>26</v>
+      </c>
+      <c r="C106" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D106" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E106" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D107" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E107" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D108" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E108" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>26</v>
+      </c>
+      <c r="C109" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D109" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E109" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B110" t="s">
+        <v>26</v>
+      </c>
+      <c r="C110" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D110" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E110" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B111" t="s">
+        <v>26</v>
+      </c>
+      <c r="C111" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D111" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E111" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D112" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E112" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B113" t="s">
+        <v>26</v>
+      </c>
+      <c r="C113" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D113" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E113" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B114" t="s">
+        <v>26</v>
+      </c>
+      <c r="C114" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D114" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E114" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B115" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D115" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E115" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B116" t="s">
+        <v>26</v>
+      </c>
+      <c r="C116" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D116" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E116" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B117" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D117" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E117" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B118" t="s">
+        <v>26</v>
+      </c>
+      <c r="C118" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D118" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E118" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.4485799645493125</v>
+      </c>
+      <c r="B119" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" t="n">
+        <v>5.5183333333333335</v>
+      </c>
+      <c r="D119" t="n">
+        <v>39.05</v>
+      </c>
+      <c r="E119" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B120" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D120" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E120" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D121" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E121" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D122" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E122" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D123" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E123" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B124" t="s">
+        <v>27</v>
+      </c>
+      <c r="C124" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D124" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E124" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D125" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E125" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B126" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D126" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E126" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B127" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D127" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E127" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B128" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D128" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E128" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D129" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E129" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B130" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D130" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E130" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B131" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D131" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E131" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B132" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D132" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E132" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B133" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D133" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E133" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B134" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D134" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E134" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D135" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E135" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B136" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D136" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E136" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D137" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E137" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B138" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D138" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E138" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B139" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D139" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E139" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D140" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E140" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B141" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D141" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E141" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B142" t="s">
+        <v>27</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D142" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E142" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B143" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D143" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E143" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D144" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E144" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D145" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E145" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B146" t="s">
+        <v>27</v>
+      </c>
+      <c r="C146" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D146" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E146" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B147" t="s">
+        <v>27</v>
+      </c>
+      <c r="C147" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D147" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E147" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B148" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D148" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E148" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D149" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E149" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D150" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E150" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B151" t="s">
+        <v>27</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D151" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E151" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B152" t="s">
+        <v>27</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D152" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E152" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C153" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D153" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E153" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B154" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D154" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E154" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B155" t="s">
+        <v>27</v>
+      </c>
+      <c r="C155" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D155" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E155" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B156" t="s">
+        <v>27</v>
+      </c>
+      <c r="C156" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D156" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E156" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D157" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E157" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B158" t="s">
+        <v>27</v>
+      </c>
+      <c r="C158" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D158" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E158" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D159" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E159" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B160" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D160" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E160" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B161" t="s">
+        <v>27</v>
+      </c>
+      <c r="C161" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D161" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E161" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B162" t="s">
+        <v>27</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D162" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E162" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B163" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D163" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E163" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B164" t="s">
+        <v>27</v>
+      </c>
+      <c r="C164" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D164" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E164" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B165" t="s">
+        <v>27</v>
+      </c>
+      <c r="C165" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D165" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E165" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D166" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E166" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C167" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D167" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E167" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.4485753890696391</v>
+      </c>
+      <c r="B168" t="s">
+        <v>27</v>
+      </c>
+      <c r="C168" t="n">
+        <v>5.518382352941176</v>
+      </c>
+      <c r="D168" t="n">
+        <v>45.550000000000004</v>
+      </c>
+      <c r="E168" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B169" t="s">
+        <v>28</v>
+      </c>
+      <c r="C169" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D169" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E169" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B170" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D170" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B171" t="s">
+        <v>28</v>
+      </c>
+      <c r="C171" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D171" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E171" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D172" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E172" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D173" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E173" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D174" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B175" t="s">
+        <v>28</v>
+      </c>
+      <c r="C175" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D175" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E175" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D176" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E176" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.44854472950199503</v>
+      </c>
+      <c r="B177" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" t="n">
+        <v>5.51875</v>
+      </c>
+      <c r="D177" t="n">
+        <v>111.55000000000001</v>
+      </c>
+      <c r="E177" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B178" t="s">
+        <v>29</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D178" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E178" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B179" t="s">
+        <v>29</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D179" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E179" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D180" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E180" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B181" t="s">
+        <v>29</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D181" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E181" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B182" t="s">
+        <v>29</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D182" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E182" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B183" t="s">
+        <v>29</v>
+      </c>
+      <c r="C183" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E183" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B184" t="s">
+        <v>29</v>
+      </c>
+      <c r="C184" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D184" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E184" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B185" t="s">
+        <v>29</v>
+      </c>
+      <c r="C185" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E185" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B186" t="s">
+        <v>29</v>
+      </c>
+      <c r="C186" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D186" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E186" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B187" t="s">
+        <v>29</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D187" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E187" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B188" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D188" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E188" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B189" t="s">
+        <v>29</v>
+      </c>
+      <c r="C189" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D189" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E189" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B190" t="s">
+        <v>29</v>
+      </c>
+      <c r="C190" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D190" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E190" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B191" t="s">
+        <v>29</v>
+      </c>
+      <c r="C191" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E191" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B192" t="s">
+        <v>29</v>
+      </c>
+      <c r="C192" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D192" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E192" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D193" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E193" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B194" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D194" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E194" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B195" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D195" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E195" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.44791473188052455</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" t="n">
+        <v>5.525000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>54.05</v>
+      </c>
+      <c r="E196" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D197" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E197" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B198" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D198" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E198" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D199" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E199" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D200" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E200" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B201" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D201" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E201" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B202" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D202" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E202" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D203" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E203" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B204" t="s">
+        <v>30</v>
+      </c>
+      <c r="C204" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D204" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E204" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B205" t="s">
+        <v>30</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D205" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E205" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B206" t="s">
+        <v>30</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D206" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E206" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B207" t="s">
+        <v>30</v>
+      </c>
+      <c r="C207" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D207" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E207" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B208" t="s">
+        <v>30</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D208" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E208" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B209" t="s">
+        <v>30</v>
+      </c>
+      <c r="C209" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D209" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E209" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B210" t="s">
+        <v>30</v>
+      </c>
+      <c r="C210" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D210" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E210" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B211" t="s">
+        <v>30</v>
+      </c>
+      <c r="C211" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D211" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E211" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B212" t="s">
+        <v>30</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D212" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E212" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B213" t="s">
+        <v>30</v>
+      </c>
+      <c r="C213" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D213" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E213" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B214" t="s">
+        <v>30</v>
+      </c>
+      <c r="C214" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D214" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E214" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B215" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D215" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E215" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B216" t="s">
+        <v>30</v>
+      </c>
+      <c r="C216" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D216" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E216" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B217" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D217" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E217" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B218" t="s">
+        <v>30</v>
+      </c>
+      <c r="C218" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D218" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E218" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B219" t="s">
+        <v>30</v>
+      </c>
+      <c r="C219" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D219" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E219" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F219" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B220" t="s">
+        <v>30</v>
+      </c>
+      <c r="C220" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D220" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E220" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B221" t="s">
+        <v>30</v>
+      </c>
+      <c r="C221" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D221" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E221" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F221" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B222" t="s">
+        <v>30</v>
+      </c>
+      <c r="C222" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D222" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E222" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B223" t="s">
+        <v>30</v>
+      </c>
+      <c r="C223" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D223" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E223" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B224" t="s">
+        <v>30</v>
+      </c>
+      <c r="C224" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D224" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E224" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B225" t="s">
+        <v>30</v>
+      </c>
+      <c r="C225" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D225" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E225" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B226" t="s">
+        <v>30</v>
+      </c>
+      <c r="C226" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D226" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E226" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F226" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B227" t="s">
+        <v>30</v>
+      </c>
+      <c r="C227" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D227" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E227" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B228" t="s">
+        <v>30</v>
+      </c>
+      <c r="C228" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D228" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E228" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F228" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B229" t="s">
+        <v>30</v>
+      </c>
+      <c r="C229" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D229" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E229" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B230" t="s">
+        <v>30</v>
+      </c>
+      <c r="C230" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D230" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E230" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F230" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B231" t="s">
+        <v>30</v>
+      </c>
+      <c r="C231" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D231" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E231" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F231" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B232" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D232" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E232" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B233" t="s">
+        <v>30</v>
+      </c>
+      <c r="C233" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D233" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E233" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F233" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B234" t="s">
+        <v>30</v>
+      </c>
+      <c r="C234" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D234" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E234" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B235" t="s">
+        <v>30</v>
+      </c>
+      <c r="C235" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D235" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E235" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B236" t="s">
+        <v>30</v>
+      </c>
+      <c r="C236" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D236" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E236" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B237" t="s">
+        <v>30</v>
+      </c>
+      <c r="C237" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D237" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E237" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B238" t="s">
+        <v>30</v>
+      </c>
+      <c r="C238" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D238" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E238" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F238" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B239" t="s">
+        <v>30</v>
+      </c>
+      <c r="C239" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D239" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E239" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B240" t="s">
+        <v>30</v>
+      </c>
+      <c r="C240" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D240" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E240" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B241" t="s">
+        <v>30</v>
+      </c>
+      <c r="C241" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D241" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E241" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F241" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B242" t="s">
+        <v>30</v>
+      </c>
+      <c r="C242" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D242" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E242" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B243" t="s">
+        <v>30</v>
+      </c>
+      <c r="C243" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D243" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E243" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B244" t="s">
+        <v>30</v>
+      </c>
+      <c r="C244" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D244" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E244" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B245" t="s">
+        <v>30</v>
+      </c>
+      <c r="C245" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D245" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E245" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B246" t="s">
+        <v>30</v>
+      </c>
+      <c r="C246" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D246" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E246" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B247" t="s">
+        <v>30</v>
+      </c>
+      <c r="C247" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D247" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E247" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F247" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B248" t="s">
+        <v>30</v>
+      </c>
+      <c r="C248" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D248" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E248" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B249" t="s">
+        <v>30</v>
+      </c>
+      <c r="C249" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D249" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E249" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F249" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B250" t="s">
+        <v>30</v>
+      </c>
+      <c r="C250" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D250" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E250" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B251" t="s">
+        <v>30</v>
+      </c>
+      <c r="C251" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D251" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E251" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B252" t="s">
+        <v>30</v>
+      </c>
+      <c r="C252" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D252" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E252" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B253" t="s">
+        <v>30</v>
+      </c>
+      <c r="C253" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D253" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E253" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B254" t="s">
+        <v>30</v>
+      </c>
+      <c r="C254" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D254" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E254" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F254" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B255" t="s">
+        <v>30</v>
+      </c>
+      <c r="C255" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D255" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E255" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F255" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B256" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D256" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E256" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B257" t="s">
+        <v>30</v>
+      </c>
+      <c r="C257" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D257" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E257" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F257" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B258" t="s">
+        <v>30</v>
+      </c>
+      <c r="C258" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D258" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E258" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B259" t="s">
+        <v>30</v>
+      </c>
+      <c r="C259" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D259" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E259" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F259" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B260" t="s">
+        <v>30</v>
+      </c>
+      <c r="C260" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D260" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E260" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F260" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B261" t="s">
+        <v>30</v>
+      </c>
+      <c r="C261" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D261" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E261" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F261" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B262" t="s">
+        <v>30</v>
+      </c>
+      <c r="C262" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D262" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E262" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B263" t="s">
+        <v>30</v>
+      </c>
+      <c r="C263" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D263" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E263" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F263" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B264" t="s">
+        <v>30</v>
+      </c>
+      <c r="C264" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D264" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E264" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B265" t="s">
+        <v>30</v>
+      </c>
+      <c r="C265" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D265" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E265" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F265" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B266" t="s">
+        <v>30</v>
+      </c>
+      <c r="C266" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D266" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E266" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F266" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B267" t="s">
+        <v>30</v>
+      </c>
+      <c r="C267" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D267" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E267" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B268" t="s">
+        <v>30</v>
+      </c>
+      <c r="C268" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D268" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E268" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B269" t="s">
+        <v>30</v>
+      </c>
+      <c r="C269" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D269" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E269" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B270" t="s">
+        <v>30</v>
+      </c>
+      <c r="C270" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D270" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E270" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F270" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B271" t="s">
+        <v>30</v>
+      </c>
+      <c r="C271" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D271" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E271" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F271" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B272" t="s">
+        <v>30</v>
+      </c>
+      <c r="C272" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D272" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E272" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B273" t="s">
+        <v>30</v>
+      </c>
+      <c r="C273" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D273" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E273" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B274" t="s">
+        <v>30</v>
+      </c>
+      <c r="C274" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D274" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E274" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F274" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B275" t="s">
+        <v>30</v>
+      </c>
+      <c r="C275" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D275" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E275" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B276" t="s">
+        <v>30</v>
+      </c>
+      <c r="C276" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D276" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E276" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B277" t="s">
+        <v>30</v>
+      </c>
+      <c r="C277" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D277" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E277" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F277" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B278" t="s">
+        <v>30</v>
+      </c>
+      <c r="C278" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D278" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E278" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F278" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B279" t="s">
+        <v>30</v>
+      </c>
+      <c r="C279" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D279" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E279" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F279" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B280" t="s">
+        <v>30</v>
+      </c>
+      <c r="C280" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D280" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E280" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F280" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B281" t="s">
+        <v>30</v>
+      </c>
+      <c r="C281" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D281" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E281" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B282" t="s">
+        <v>30</v>
+      </c>
+      <c r="C282" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D282" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E282" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B283" t="s">
+        <v>30</v>
+      </c>
+      <c r="C283" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D283" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E283" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B284" t="s">
+        <v>30</v>
+      </c>
+      <c r="C284" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D284" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E284" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F284" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B285" t="s">
+        <v>30</v>
+      </c>
+      <c r="C285" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D285" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E285" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B286" t="s">
+        <v>30</v>
+      </c>
+      <c r="C286" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D286" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E286" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B287" t="s">
+        <v>30</v>
+      </c>
+      <c r="C287" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D287" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E287" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F287" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B288" t="s">
+        <v>30</v>
+      </c>
+      <c r="C288" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D288" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E288" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F288" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B289" t="s">
+        <v>30</v>
+      </c>
+      <c r="C289" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D289" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E289" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F289" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B290" t="s">
+        <v>30</v>
+      </c>
+      <c r="C290" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D290" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E290" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F290" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B291" t="s">
+        <v>30</v>
+      </c>
+      <c r="C291" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D291" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E291" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F291" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B292" t="s">
+        <v>30</v>
+      </c>
+      <c r="C292" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D292" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E292" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F292" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B293" t="s">
+        <v>30</v>
+      </c>
+      <c r="C293" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D293" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E293" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F293" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B294" t="s">
+        <v>30</v>
+      </c>
+      <c r="C294" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D294" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E294" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F294" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B295" t="s">
+        <v>30</v>
+      </c>
+      <c r="C295" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D295" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E295" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F295" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B296" t="s">
+        <v>30</v>
+      </c>
+      <c r="C296" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D296" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E296" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F296" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B297" t="s">
+        <v>30</v>
+      </c>
+      <c r="C297" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D297" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E297" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F297" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B298" t="s">
+        <v>30</v>
+      </c>
+      <c r="C298" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D298" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E298" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F298" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B299" t="s">
+        <v>30</v>
+      </c>
+      <c r="C299" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D299" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E299" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B300" t="s">
+        <v>30</v>
+      </c>
+      <c r="C300" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D300" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E300" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F300" t="n">
+        <v>1800.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>0.44784123085539773</v>
+      </c>
+      <c r="B301" t="s">
+        <v>30</v>
+      </c>
+      <c r="C301" t="n">
+        <v>5.525735294117647</v>
+      </c>
+      <c r="D301" t="n">
+        <v>53.420000000000016</v>
+      </c>
+      <c r="E301" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="F301" t="n">
+        <v>1800.0</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="30">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,79 +32,76 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[17, 76, 101, 161, 41, 133], [173, 24, 171, 25, 132], [120, 71, 63, 18, 43, 140]]</t>
+    <t>[[89, 149, 8, 4, 122, 104], [153, 16, 79, 18, 71, 133, 35], [113, 29, 25, 112, 81, 38, 34]]</t>
   </si>
   <si>
-    <t>[[110, 68, 87, 139, 34, 29], [109, 159, 71, 60, 123], [91, 173, 132, 8, 11, 39]]</t>
+    <t>[[168, 162, 133, 175, 82, 17], [10, 95, 73, 13, 74, 24], [107, 1, 149, 116, 92, 25, 34]]</t>
   </si>
   <si>
-    <t>[[175, 113, 48, 44, 71, 15], [81, 140, 45, 149, 43, 27], [110, 40, 148, 173, 157, 134]]</t>
+    <t>[[41, 128, 104, 136, 84, 79, 40], [23, 25, 94, 1, 133, 101, 34], [6, 26, 132, 35, 153, 16]]</t>
   </si>
   <si>
-    <t>[[70, 68, 146, 174, 173], [64, 165, 29, 175, 12, 17], [86, 72, 114]]</t>
+    <t>[[148, 133, 11, 163, 27, 89, 79], [19, 149, 86, 132, 113, 64], [120, 71, 50, 93, 173, 29]]</t>
   </si>
   <si>
-    <t>[[16, 72, 64, 139, 175, 44], [159, 124, 115], [22, 48, 97, 174, 140]]</t>
+    <t>[[15, 1, 12, 117, 88, 139, 79], [25, 29, 31, 68, 123, 52], [34, 134, 167, 133, 94, 17, 71]]</t>
   </si>
   <si>
-    <t>[[25, 110, 71, 93, 139, 32], [125, 108, 39, 70, 159, 34], [152, 140, 72, 64, 29, 45]]</t>
+    <t>[[68, 35, 93, 41, 79, 149, 161], [36, 1, 158, 82, 152, 83, 34], [71, 81, 120, 86, 2, 144]]</t>
   </si>
   <si>
-    <t>[[1, 103, 162, 149], [96, 93, 139, 175, 161], [166, 110, 109, 173, 36]]</t>
+    <t>[[169, 70, 16, 133, 110, 144, 79], [58, 86, 40, 87, 93, 102], [36, 148, 41, 145, 100, 13, 1]]</t>
   </si>
   <si>
-    <t>[[122, 91, 157, 64, 29, 175], [60, 173, 36, 93, 139, 94], [97, 149, 77, 108, 39, 17]]</t>
+    <t>[[57, 79, 36, 94, 40, 25, 116], [35, 81, 11, 152, 82, 93], [147, 17, 134, 15, 88, 70, 34]]</t>
   </si>
   <si>
-    <t>[[28, 132, 110, 71, 55, 149], [133, 82, 114, 58, 139], [26, 72, 64, 29, 157, 175]]</t>
+    <t>[[43, 148, 41, 82, 34, 145, 89], [70, 16, 40, 25, 132, 110, 18], [94, 11, 13, 1, 17, 79, 39]]</t>
   </si>
   <si>
-    <t>[[120, 132, 110, 71, 93, 139], [115, 175, 161, 153, 17, 152], [174, 98, 25, 138, 149]]</t>
+    <t>[[73, 34, 17, 40, 87, 15, 1, 79], [108, 152, 69, 90, 36, 148], [144, 88, 70, 16, 41, 29, 60]]</t>
   </si>
   <si>
-    <t>[[149, 28, 15, 120, 140, 5], [72, 64, 175, 109, 55], [73, 71, 93]]</t>
+    <t>[[79, 36, 87, 82, 148, 55, 25], [133, 110, 144, 120, 77, 16, 34], [60, 147, 17, 152, 41, 29, 35]]</t>
   </si>
   <si>
-    <t>[[173, 36, 93, 139, 175, 110], [69, 82, 114, 58, 132], [149, 15, 120, 140, 5, 73]]</t>
+    <t>[[22, 82, 100, 79, 44, 89, 34], [148, 41, 29, 36, 15, 1, 17, 25], [156, 19, 40, 87, 117, 88, 16]]</t>
   </si>
   <si>
-    <t>[[65, 51, 162, 149, 28], [116, 132, 110, 71, 93, 45], [36, 139, 175, 64, 173, 77]]</t>
+    <t>[[38, 17, 40, 93, 25, 148, 41, 34], [163, 167, 110, 16, 64, 29, 36], [60, 147, 5, 87, 15, 1, 79]]</t>
   </si>
   <si>
-    <t>[[115, 120, 132, 110, 71, 149], [36, 93, 45, 77, 139, 175], [147, 24, 98, 70, 173]]</t>
+    <t>[[7, 82, 86, 17, 110, 18, 79], [158, 44, 167, 41, 29, 36, 15, 34], [148, 94, 40, 87, 25, 116, 27]]</t>
   </si>
   <si>
-    <t>[[26, 72, 173, 36, 139, 175], [138, 149, 120, 140, 97], [110, 71, 70, 159, 25, 152]]</t>
+    <t>[[17, 25, 148, 41, 29, 36, 15, 1], [158, 44, 167, 110, 87, 34, 93], [62, 70, 16, 64, 19, 132, 79]]</t>
   </si>
   <si>
-    <t>[[174, 140, 93, 139, 175], [132, 110, 71, 55, 149, 120], [130, 173, 161, 171, 15]]</t>
+    <t>[[25, 148, 41, 29, 36, 15, 1, 17], [107, 139, 93, 79, 77, 16, 40], [123, 86, 70, 34, 110, 18, 167]]</t>
   </si>
   <si>
-    <t>[[16, 113, 110, 71, 70, 173], [45, 132, 73, 139, 175, 64], [138, 149, 120, 140, 97]]</t>
+    <t>[[107, 139, 36, 15, 1, 17, 64], [29, 34, 110, 16, 40, 41, 71, 79], [84, 19, 25, 148, 94, 27, 149]]</t>
   </si>
   <si>
-    <t>[[173, 36, 139, 175, 64, 29], [97, 149, 120, 132, 110, 71], [76, 138, 17, 140, 93]]</t>
+    <t>[[73, 41, 79, 25, 148, 94, 27, 34], [139, 93, 64, 29, 36, 15, 1], [16, 40, 133, 35, 132, 17, 110]]</t>
   </si>
   <si>
-    <t>[[149, 120, 132, 110, 71, 70], [72, 173, 36, 139, 175, 161], [76, 138, 77]]</t>
+    <t>[[29, 36, 15, 1, 17, 64, 19, 34], [77, 16, 41, 167, 44, 25, 148, 79], [35, 144, 120, 18, 45, 28, 40]]</t>
   </si>
   <si>
-    <t>[[73, 139, 175, 64, 29, 157], [17, 140, 93, 72, 173, 36], [149, 120, 132, 110, 71, 70]]</t>
+    <t>[[144, 120, 18, 167, 29, 36, 15, 34], [1, 17, 79, 77, 25, 148, 41, 35], [16, 64, 19, 27, 71, 161, 44]]</t>
   </si>
   <si>
-    <t>[[17, 140, 93, 72, 173, 36], [76, 138, 77], [149, 120, 132, 110, 71, 70]]</t>
+    <t>[[15, 1, 17, 64, 29, 36, 144, 79], [18, 167, 44, 25, 148, 41, 71, 34], [113, 110, 16, 40, 19, 27, 149]]</t>
   </si>
   <si>
-    <t>[[147, 120, 132, 110, 71, 70], [101, 97, 149, 139, 175, 64], [114, 17, 140, 93, 72]]</t>
+    <t>[[17, 25, 18, 167, 110, 16, 40, 34], [148, 41, 35, 29, 36, 15, 1, 144], [79, 77, 139, 93, 120, 27, 19]]</t>
   </si>
   <si>
-    <t>[[17, 140, 93, 72, 173, 36], [60, 97, 149, 139, 175, 64], [55, 120, 132, 110, 71, 70]]</t>
+    <t>[[120, 27, 34, 110, 87, 82, 40], [17, 25, 148, 18, 167, 44, 117, 41], [16, 64, 29, 36, 15, 1, 79, 35]]</t>
   </si>
   <si>
-    <t>[[132, 110, 71, 70, 147, 120], [17, 140, 93, 72, 173, 36], [101, 97, 149, 139, 175, 64]]</t>
-  </si>
-  <si>
-    <t>[[147, 120, 132, 110, 71, 70], [60, 97, 149, 139, 175, 64], [174, 140, 93, 72, 173]]</t>
+    <t>[[19, 34, 110, 16, 64, 79, 40, 117], [120, 139, 93, 1, 17, 25, 148], [144, 35, 29, 36, 15, 18, 167, 44]]</t>
   </si>
 </sst>
 </file>
@@ -177,99 +174,99 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4847106447093254</v>
+        <v>0.8244574953118444</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>5.152941176470589</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>93.74999999999999</v>
+        <v>62.95</v>
       </c>
       <c r="E2" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4847106447093254</v>
+        <v>0.8244574953118444</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>5.152941176470589</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>93.74999999999999</v>
+        <v>62.95</v>
       </c>
       <c r="E3" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4817832558668329</v>
+        <v>0.8244574953118444</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>5.186029411764706</v>
+        <v>4.789999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>64.05</v>
+        <v>62.95</v>
       </c>
       <c r="E4" t="n">
-        <v>17.0</v>
+        <v>20.0</v>
       </c>
       <c r="F4" t="n">
-        <v>1800.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4817832558668329</v>
+        <v>0.8240688379202947</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>5.186029411764706</v>
+        <v>4.993421052631578</v>
       </c>
       <c r="D5" t="n">
-        <v>64.05</v>
+        <v>51.07</v>
       </c>
       <c r="E5" t="n">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="F5" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4814990078550835</v>
+        <v>0.8234134147420761</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>5.188888888888888</v>
+        <v>4.778124999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>82.44999999999999</v>
+        <v>51.00000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F6" t="n">
         <v>1800.0</v>
@@ -277,399 +274,399 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.47769498233639685</v>
+        <v>0.8234134147420761</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>5.258035714285714</v>
+        <v>4.778124999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>59.199999999999996</v>
+        <v>51.00000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F7" t="n">
-        <v>5400.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.47769498233639685</v>
+        <v>0.8200493403584878</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>5.258035714285714</v>
+        <v>5.059868421052632</v>
       </c>
       <c r="D8" t="n">
-        <v>59.199999999999996</v>
+        <v>64.25000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F8" t="n">
-        <v>5400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.47769498233639685</v>
+        <v>0.8200493403584878</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>5.258035714285714</v>
+        <v>5.059868421052632</v>
       </c>
       <c r="D9" t="n">
-        <v>59.199999999999996</v>
+        <v>64.25000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F9" t="n">
-        <v>5400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.47769498233639685</v>
+        <v>0.8200493403584878</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>5.258035714285714</v>
+        <v>5.059868421052632</v>
       </c>
       <c r="D10" t="n">
-        <v>59.199999999999996</v>
+        <v>64.25000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>14.0</v>
+        <v>19.0</v>
       </c>
       <c r="F10" t="n">
-        <v>5400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.47769498233639685</v>
+        <v>0.818139982508181</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>5.258035714285714</v>
+        <v>4.8725</v>
       </c>
       <c r="D11" t="n">
-        <v>59.199999999999996</v>
+        <v>69.0</v>
       </c>
       <c r="E11" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F11" t="n">
-        <v>5400.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.47769498233639685</v>
+        <v>0.818139982508181</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>5.258035714285714</v>
+        <v>4.8725</v>
       </c>
       <c r="D12" t="n">
-        <v>59.199999999999996</v>
+        <v>69.0</v>
       </c>
       <c r="E12" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F12" t="n">
-        <v>5400.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.47769498233639685</v>
+        <v>0.818139982508181</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>5.258035714285714</v>
+        <v>4.8725</v>
       </c>
       <c r="D13" t="n">
-        <v>59.199999999999996</v>
+        <v>69.0</v>
       </c>
       <c r="E13" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F13" t="n">
-        <v>5400.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.47769498233639685</v>
+        <v>0.818139982508181</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>5.258035714285714</v>
+        <v>4.8725</v>
       </c>
       <c r="D14" t="n">
-        <v>59.199999999999996</v>
+        <v>69.0</v>
       </c>
       <c r="E14" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F14" t="n">
-        <v>5400.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4756314169651557</v>
+        <v>0.818139982508181</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>5.2437499999999995</v>
+        <v>4.8725</v>
       </c>
       <c r="D15" t="n">
-        <v>107.80000000000001</v>
+        <v>69.0</v>
       </c>
       <c r="E15" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4756314169651557</v>
+        <v>0.8148292144012733</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="n">
-        <v>5.2437499999999995</v>
+        <v>4.94375</v>
       </c>
       <c r="D16" t="n">
-        <v>107.80000000000001</v>
+        <v>74.66</v>
       </c>
       <c r="E16" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4756314169651557</v>
+        <v>0.8096697857549711</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C17" t="n">
-        <v>5.2437499999999995</v>
+        <v>4.9975000000000005</v>
       </c>
       <c r="D17" t="n">
-        <v>107.80000000000001</v>
+        <v>48.67</v>
       </c>
       <c r="E17" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0</v>
+        <v>1764.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4756314169651557</v>
+        <v>0.8096697857549711</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
-        <v>5.2437499999999995</v>
+        <v>4.9975000000000005</v>
       </c>
       <c r="D18" t="n">
-        <v>107.80000000000001</v>
+        <v>48.67</v>
       </c>
       <c r="E18" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0</v>
+        <v>1764.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4755990531692205</v>
+        <v>0.8096697857549711</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
-        <v>5.247916666666666</v>
+        <v>4.9975000000000005</v>
       </c>
       <c r="D19" t="n">
-        <v>56.5</v>
+        <v>48.67</v>
       </c>
       <c r="E19" t="n">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1800.0</v>
+        <v>1764.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4701273451764185</v>
+        <v>0.8096697857549711</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="n">
-        <v>5.302678571428571</v>
+        <v>4.9975000000000005</v>
       </c>
       <c r="D20" t="n">
-        <v>55.400000000000006</v>
+        <v>48.67</v>
       </c>
       <c r="E20" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1800.0</v>
+        <v>1764.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4701273451764185</v>
+        <v>0.8091033556789805</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" t="n">
-        <v>5.302678571428571</v>
+        <v>5.003125</v>
       </c>
       <c r="D21" t="n">
-        <v>55.400000000000006</v>
+        <v>61.160000000000004</v>
       </c>
       <c r="E21" t="n">
-        <v>14.0</v>
+        <v>20.0</v>
       </c>
       <c r="F21" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.46824379432601626</v>
+        <v>0.7973183474544756</v>
       </c>
       <c r="B22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C22" t="n">
-        <v>5.321527777777778</v>
+        <v>4.979166666666666</v>
       </c>
       <c r="D22" t="n">
-        <v>51.72</v>
+        <v>39.59</v>
       </c>
       <c r="E22" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="F22" t="n">
-        <v>1800.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.46411900021762426</v>
+        <v>0.7963978368775868</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>5.358823529411764</v>
+        <v>4.982738095238095</v>
       </c>
       <c r="D23" t="n">
-        <v>48.9</v>
+        <v>57.91</v>
       </c>
       <c r="E23" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.46411900021762426</v>
+        <v>0.7963978368775868</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>5.358823529411764</v>
+        <v>4.982738095238095</v>
       </c>
       <c r="D24" t="n">
-        <v>48.9</v>
+        <v>57.91</v>
       </c>
       <c r="E24" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4638246786128817</v>
+        <v>0.7963978368775868</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>5.361764705882353</v>
+        <v>4.982738095238095</v>
       </c>
       <c r="D25" t="n">
-        <v>45.04999999999999</v>
+        <v>57.91</v>
       </c>
       <c r="E25" t="n">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.46044942124168287</v>
+        <v>0.7927296563791004</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="n">
-        <v>5.411607142857143</v>
+        <v>5.05238095238095</v>
       </c>
       <c r="D26" t="n">
-        <v>41.150000000000006</v>
+        <v>74.5</v>
       </c>
       <c r="E26" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="F26" t="n">
         <v>3600.0</v>
@@ -677,119 +674,119 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.46044942124168287</v>
+        <v>0.7910467211615304</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C27" t="n">
-        <v>5.411607142857143</v>
+        <v>4.8448863636363635</v>
       </c>
       <c r="D27" t="n">
-        <v>41.150000000000006</v>
+        <v>74.928</v>
       </c>
       <c r="E27" t="n">
-        <v>14.0</v>
+        <v>22.0</v>
       </c>
       <c r="F27" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.45952102780956094</v>
+        <v>0.7910467211615304</v>
       </c>
       <c r="B28" t="s">
         <v>17</v>
       </c>
       <c r="C28" t="n">
-        <v>5.408823529411766</v>
+        <v>4.8448863636363635</v>
       </c>
       <c r="D28" t="n">
-        <v>37.50000000000001</v>
+        <v>74.928</v>
       </c>
       <c r="E28" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F28" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.45952102780956094</v>
+        <v>0.7910467211615304</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="n">
-        <v>5.408823529411766</v>
+        <v>4.8448863636363635</v>
       </c>
       <c r="D29" t="n">
-        <v>37.50000000000001</v>
+        <v>74.928</v>
       </c>
       <c r="E29" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F29" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4569177670071802</v>
+        <v>0.7865977060826959</v>
       </c>
       <c r="B30" t="s">
         <v>18</v>
       </c>
       <c r="C30" t="n">
-        <v>5.447058823529412</v>
+        <v>4.917045454545453</v>
       </c>
       <c r="D30" t="n">
-        <v>58.89999999999999</v>
+        <v>59.50000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F30" t="n">
-        <v>3600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4569177670071802</v>
+        <v>0.7864354364987007</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C31" t="n">
-        <v>5.447058823529412</v>
+        <v>4.91590909090909</v>
       </c>
       <c r="D31" t="n">
-        <v>58.89999999999999</v>
+        <v>41.21</v>
       </c>
       <c r="E31" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F31" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7864354364987007</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>5.446323529411765</v>
+        <v>4.91590909090909</v>
       </c>
       <c r="D32" t="n">
-        <v>87.1</v>
+        <v>41.21</v>
       </c>
       <c r="E32" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F32" t="n">
         <v>0.0</v>
@@ -797,19 +794,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7830666683599622</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>5.446323529411765</v>
+        <v>4.968181818181818</v>
       </c>
       <c r="D33" t="n">
-        <v>87.1</v>
+        <v>52.81</v>
       </c>
       <c r="E33" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -817,19 +814,19 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7830666683599622</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C34" t="n">
-        <v>5.446323529411765</v>
+        <v>4.968181818181818</v>
       </c>
       <c r="D34" t="n">
-        <v>87.1</v>
+        <v>52.81</v>
       </c>
       <c r="E34" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -837,19 +834,19 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7830666683599622</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C35" t="n">
-        <v>5.446323529411765</v>
+        <v>4.968181818181818</v>
       </c>
       <c r="D35" t="n">
-        <v>87.1</v>
+        <v>52.81</v>
       </c>
       <c r="E35" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -857,19 +854,19 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7830666683599622</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C36" t="n">
-        <v>5.446323529411765</v>
+        <v>4.968181818181818</v>
       </c>
       <c r="D36" t="n">
-        <v>87.1</v>
+        <v>52.81</v>
       </c>
       <c r="E36" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -877,19 +874,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7830666683599622</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C37" t="n">
-        <v>5.446323529411765</v>
+        <v>4.968181818181818</v>
       </c>
       <c r="D37" t="n">
-        <v>87.1</v>
+        <v>52.81</v>
       </c>
       <c r="E37" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -897,19 +894,19 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7830666683599622</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" t="n">
-        <v>5.446323529411765</v>
+        <v>4.968181818181818</v>
       </c>
       <c r="D38" t="n">
-        <v>87.1</v>
+        <v>52.81</v>
       </c>
       <c r="E38" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -917,19 +914,19 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7816078983411361</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C39" t="n">
-        <v>5.446323529411765</v>
+        <v>4.990909090909091</v>
       </c>
       <c r="D39" t="n">
-        <v>87.1</v>
+        <v>43.39999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -937,19 +934,19 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7816078983411361</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C40" t="n">
-        <v>5.446323529411765</v>
+        <v>4.990909090909091</v>
       </c>
       <c r="D40" t="n">
-        <v>87.1</v>
+        <v>43.39999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -957,19 +954,19 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7816078983411361</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C41" t="n">
-        <v>5.446323529411765</v>
+        <v>4.990909090909091</v>
       </c>
       <c r="D41" t="n">
-        <v>87.1</v>
+        <v>43.39999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -977,19 +974,19 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.45537202260040127</v>
+        <v>0.7816078983411361</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C42" t="n">
-        <v>5.446323529411765</v>
+        <v>4.990909090909091</v>
       </c>
       <c r="D42" t="n">
-        <v>87.1</v>
+        <v>43.39999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -997,19 +994,19 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.45507560017690574</v>
+        <v>0.7816078983411361</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>5.449264705882352</v>
+        <v>4.990909090909091</v>
       </c>
       <c r="D43" t="n">
-        <v>59.9</v>
+        <v>43.39999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1017,19 +1014,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.45235734150365203</v>
+        <v>0.7816078983411361</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44" t="n">
-        <v>5.4765625</v>
+        <v>4.990909090909091</v>
       </c>
       <c r="D44" t="n">
-        <v>153.0</v>
+        <v>43.39999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -1037,99 +1034,99 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.45235734150365203</v>
+        <v>0.7802817151235142</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C45" t="n">
-        <v>5.4765625</v>
+        <v>5.015340909090909</v>
       </c>
       <c r="D45" t="n">
-        <v>153.0</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="E45" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.45235734150365203</v>
+        <v>0.7802817151235142</v>
       </c>
       <c r="B46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>5.4765625</v>
+        <v>5.015340909090909</v>
       </c>
       <c r="D46" t="n">
-        <v>153.0</v>
+        <v>52.900000000000006</v>
       </c>
       <c r="E46" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.45235734150365203</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C47" t="n">
-        <v>5.4765625</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D47" t="n">
-        <v>153.0</v>
+        <v>51.15</v>
       </c>
       <c r="E47" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.45235734150365203</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C48" t="n">
-        <v>5.4765625</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D48" t="n">
-        <v>153.0</v>
+        <v>51.15</v>
       </c>
       <c r="E48" t="n">
-        <v>16.0</v>
+        <v>22.0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D49" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E49" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F49" t="n">
         <v>1800.0</v>
@@ -1137,19 +1134,19 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C50" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D50" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E50" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F50" t="n">
         <v>1800.0</v>
@@ -1157,19 +1154,19 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D51" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E51" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F51" t="n">
         <v>1800.0</v>
@@ -1177,19 +1174,19 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D52" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E52" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F52" t="n">
         <v>1800.0</v>
@@ -1197,19 +1194,19 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C53" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D53" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E53" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F53" t="n">
         <v>1800.0</v>
@@ -1217,19 +1214,19 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D54" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E54" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F54" t="n">
         <v>1800.0</v>
@@ -1237,19 +1234,19 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D55" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E55" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F55" t="n">
         <v>1800.0</v>
@@ -1257,19 +1254,19 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C56" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D56" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E56" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F56" t="n">
         <v>1800.0</v>
@@ -1277,19 +1274,19 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D57" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E57" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F57" t="n">
         <v>1800.0</v>
@@ -1297,19 +1294,19 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D58" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E58" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F58" t="n">
         <v>1800.0</v>
@@ -1317,19 +1314,19 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D59" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E59" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F59" t="n">
         <v>1800.0</v>
@@ -1337,19 +1334,19 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C60" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D60" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E60" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F60" t="n">
         <v>1800.0</v>
@@ -1357,19 +1354,19 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D61" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E61" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F61" t="n">
         <v>1800.0</v>
@@ -1377,19 +1374,19 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.45188217630478344</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
-        <v>5.485294117647059</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D62" t="n">
-        <v>61.5</v>
+        <v>51.15</v>
       </c>
       <c r="E62" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F62" t="n">
         <v>1800.0</v>
@@ -1397,19 +1394,19 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.45092640218448</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" t="n">
-        <v>5.494852941176469</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D63" t="n">
-        <v>49.7</v>
+        <v>51.15</v>
       </c>
       <c r="E63" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F63" t="n">
         <v>1800.0</v>
@@ -1417,19 +1414,19 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.45092640218448</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" t="n">
-        <v>5.494852941176469</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D64" t="n">
-        <v>49.7</v>
+        <v>51.15</v>
       </c>
       <c r="E64" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F64" t="n">
         <v>1800.0</v>
@@ -1437,19 +1434,19 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.45092640218448</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B65" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="n">
-        <v>5.494852941176469</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D65" t="n">
-        <v>49.7</v>
+        <v>51.15</v>
       </c>
       <c r="E65" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F65" t="n">
         <v>1800.0</v>
@@ -1457,19 +1454,19 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.45092640218448</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="n">
-        <v>5.494852941176469</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D66" t="n">
-        <v>49.7</v>
+        <v>51.15</v>
       </c>
       <c r="E66" t="n">
-        <v>17.0</v>
+        <v>22.0</v>
       </c>
       <c r="F66" t="n">
         <v>1800.0</v>
@@ -1477,59 +1474,59 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B67" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
-        <v>5.519166666666666</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D67" t="n">
-        <v>37.449999999999996</v>
+        <v>51.15</v>
       </c>
       <c r="E67" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="F67" t="n">
-        <v>3600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.7790127592782411</v>
       </c>
       <c r="B68" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C68" t="n">
-        <v>5.519166666666666</v>
+        <v>5.035227272727273</v>
       </c>
       <c r="D68" t="n">
-        <v>37.449999999999996</v>
+        <v>51.15</v>
       </c>
       <c r="E68" t="n">
-        <v>15.0</v>
+        <v>22.0</v>
       </c>
       <c r="F68" t="n">
-        <v>3600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.7767357862379847</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>5.519166666666666</v>
+        <v>4.868478260869565</v>
       </c>
       <c r="D69" t="n">
-        <v>37.449999999999996</v>
+        <v>55.900000000000006</v>
       </c>
       <c r="E69" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F69" t="n">
         <v>3600.0</v>
@@ -1537,19 +1534,19 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.7767357862379847</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
       </c>
       <c r="C70" t="n">
-        <v>5.519166666666666</v>
+        <v>4.868478260869565</v>
       </c>
       <c r="D70" t="n">
-        <v>37.449999999999996</v>
+        <v>55.900000000000006</v>
       </c>
       <c r="E70" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F70" t="n">
         <v>3600.0</v>
@@ -1557,1519 +1554,1519 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>5.519166666666666</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D71" t="n">
-        <v>37.449999999999996</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F71" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" t="n">
-        <v>5.519166666666666</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D72" t="n">
-        <v>37.449999999999996</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F72" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C73" t="n">
-        <v>5.519166666666666</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D73" t="n">
-        <v>37.449999999999996</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F73" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B74" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C74" t="n">
-        <v>5.519166666666666</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D74" t="n">
-        <v>37.449999999999996</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F74" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C75" t="n">
-        <v>5.519166666666666</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D75" t="n">
-        <v>37.449999999999996</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F75" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v>5.519166666666666</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D76" t="n">
-        <v>37.449999999999996</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F76" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C77" t="n">
-        <v>5.519166666666666</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D77" t="n">
-        <v>37.449999999999996</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F77" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.44973180925588935</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C78" t="n">
-        <v>5.519166666666666</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D78" t="n">
-        <v>37.449999999999996</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F78" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B79" t="s">
         <v>25</v>
       </c>
       <c r="C79" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D79" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F79" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B80" t="s">
         <v>25</v>
       </c>
       <c r="C80" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D80" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F80" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B81" t="s">
         <v>25</v>
       </c>
       <c r="C81" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D81" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F81" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B82" t="s">
         <v>25</v>
       </c>
       <c r="C82" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D82" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F82" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
       </c>
       <c r="C83" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D83" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F83" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B84" t="s">
         <v>25</v>
       </c>
       <c r="C84" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D84" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F84" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B85" t="s">
         <v>25</v>
       </c>
       <c r="C85" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D85" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F85" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B86" t="s">
         <v>25</v>
       </c>
       <c r="C86" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D86" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F86" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B87" t="s">
         <v>25</v>
       </c>
       <c r="C87" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D87" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F87" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B88" t="s">
         <v>25</v>
       </c>
       <c r="C88" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D88" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F88" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B89" t="s">
         <v>25</v>
       </c>
       <c r="C89" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D89" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F89" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B90" t="s">
         <v>25</v>
       </c>
       <c r="C90" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D90" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F90" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
       </c>
       <c r="C91" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D91" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F91" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
       </c>
       <c r="C92" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D92" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F92" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B93" t="s">
         <v>25</v>
       </c>
       <c r="C93" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D93" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F93" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B94" t="s">
         <v>25</v>
       </c>
       <c r="C94" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D94" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F94" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B95" t="s">
         <v>25</v>
       </c>
       <c r="C95" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D95" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F95" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B96" t="s">
         <v>25</v>
       </c>
       <c r="C96" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D96" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F96" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B97" t="s">
         <v>25</v>
       </c>
       <c r="C97" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D97" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F97" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.449510266555504</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
       </c>
       <c r="C98" t="n">
-        <v>5.509027777777778</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D98" t="n">
-        <v>50.55</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F98" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C99" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D99" t="n">
-        <v>39.05</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F99" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.775423316589079</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C100" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.873913043478261</v>
       </c>
       <c r="D100" t="n">
-        <v>39.05</v>
+        <v>48.75000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F100" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B101" t="s">
         <v>26</v>
       </c>
       <c r="C101" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D101" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E101" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F101" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B102" t="s">
         <v>26</v>
       </c>
       <c r="C102" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D102" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E102" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F102" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
       </c>
       <c r="C103" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D103" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E103" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F103" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B104" t="s">
         <v>26</v>
       </c>
       <c r="C104" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D104" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E104" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F104" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
       </c>
       <c r="C105" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D105" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E105" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F105" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B106" t="s">
         <v>26</v>
       </c>
       <c r="C106" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D106" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E106" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F106" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
       </c>
       <c r="C107" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D107" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E107" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F107" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
       </c>
       <c r="C108" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D108" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E108" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F108" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
       </c>
       <c r="C109" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D109" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E109" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F109" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B110" t="s">
         <v>26</v>
       </c>
       <c r="C110" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D110" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E110" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F110" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B111" t="s">
         <v>26</v>
       </c>
       <c r="C111" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D111" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E111" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F111" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
       </c>
       <c r="C112" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D112" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E112" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F112" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B113" t="s">
         <v>26</v>
       </c>
       <c r="C113" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D113" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E113" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F113" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B114" t="s">
         <v>26</v>
       </c>
       <c r="C114" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D114" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E114" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F114" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
       </c>
       <c r="C115" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D115" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E115" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F115" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B116" t="s">
         <v>26</v>
       </c>
       <c r="C116" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D116" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E116" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F116" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B117" t="s">
         <v>26</v>
       </c>
       <c r="C117" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D117" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E117" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F117" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B118" t="s">
         <v>26</v>
       </c>
       <c r="C118" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D118" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E118" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F118" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.4485799645493125</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
       </c>
       <c r="C119" t="n">
-        <v>5.5183333333333335</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D119" t="n">
-        <v>39.05</v>
+        <v>46.218</v>
       </c>
       <c r="E119" t="n">
-        <v>15.0</v>
+        <v>23.0</v>
       </c>
       <c r="F119" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C120" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D120" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E120" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F120" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C121" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D121" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E121" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F121" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C122" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D122" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E122" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F122" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C123" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D123" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E123" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F123" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B124" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C124" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D124" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E124" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F124" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C125" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D125" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E125" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F125" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C126" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D126" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E126" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F126" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B127" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C127" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D127" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E127" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F127" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B128" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C128" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D128" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E128" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F128" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B129" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C129" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D129" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E129" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F129" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B130" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C130" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D130" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E130" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F130" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B131" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C131" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D131" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E131" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F131" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B132" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C132" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D132" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E132" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F132" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B133" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C133" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D133" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E133" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F133" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B134" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C134" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D134" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E134" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F134" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B135" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C135" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D135" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E135" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F135" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B136" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C136" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D136" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E136" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F136" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C137" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D137" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E137" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F137" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B138" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C138" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D138" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E138" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F138" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B139" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C139" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D139" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E139" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F139" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C140" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D140" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E140" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F140" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B141" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C141" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D141" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E141" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F141" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C142" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D142" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E142" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F142" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B143" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C143" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D143" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E143" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F143" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C144" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D144" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E144" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F144" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7747051105723</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C145" t="n">
-        <v>5.518382352941176</v>
+        <v>4.8847826086956525</v>
       </c>
       <c r="D145" t="n">
-        <v>45.550000000000004</v>
+        <v>46.218</v>
       </c>
       <c r="E145" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F145" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B146" t="s">
         <v>27</v>
       </c>
       <c r="C146" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D146" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E146" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F146" t="n">
         <v>1800.0</v>
@@ -3077,19 +3074,19 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B147" t="s">
         <v>27</v>
       </c>
       <c r="C147" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D147" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E147" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F147" t="n">
         <v>1800.0</v>
@@ -3097,19 +3094,19 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B148" t="s">
         <v>27</v>
       </c>
       <c r="C148" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D148" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E148" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F148" t="n">
         <v>1800.0</v>
@@ -3117,19 +3114,19 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B149" t="s">
         <v>27</v>
       </c>
       <c r="C149" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D149" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E149" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F149" t="n">
         <v>1800.0</v>
@@ -3137,19 +3134,19 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B150" t="s">
         <v>27</v>
       </c>
       <c r="C150" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D150" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E150" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F150" t="n">
         <v>1800.0</v>
@@ -3157,19 +3154,19 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B151" t="s">
         <v>27</v>
       </c>
       <c r="C151" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D151" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E151" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F151" t="n">
         <v>1800.0</v>
@@ -3177,19 +3174,19 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B152" t="s">
         <v>27</v>
       </c>
       <c r="C152" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D152" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E152" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F152" t="n">
         <v>1800.0</v>
@@ -3197,19 +3194,19 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B153" t="s">
         <v>27</v>
       </c>
       <c r="C153" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D153" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E153" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F153" t="n">
         <v>1800.0</v>
@@ -3217,19 +3214,19 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B154" t="s">
         <v>27</v>
       </c>
       <c r="C154" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D154" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E154" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F154" t="n">
         <v>1800.0</v>
@@ -3237,19 +3234,19 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B155" t="s">
         <v>27</v>
       </c>
       <c r="C155" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D155" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E155" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F155" t="n">
         <v>1800.0</v>
@@ -3257,19 +3254,19 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B156" t="s">
         <v>27</v>
       </c>
       <c r="C156" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D156" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E156" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F156" t="n">
         <v>1800.0</v>
@@ -3277,19 +3274,19 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B157" t="s">
         <v>27</v>
       </c>
       <c r="C157" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D157" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E157" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F157" t="n">
         <v>1800.0</v>
@@ -3297,19 +3294,19 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B158" t="s">
         <v>27</v>
       </c>
       <c r="C158" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D158" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E158" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F158" t="n">
         <v>1800.0</v>
@@ -3317,19 +3314,19 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B159" t="s">
         <v>27</v>
       </c>
       <c r="C159" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D159" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E159" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F159" t="n">
         <v>1800.0</v>
@@ -3337,19 +3334,19 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B160" t="s">
         <v>27</v>
       </c>
       <c r="C160" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D160" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E160" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F160" t="n">
         <v>1800.0</v>
@@ -3357,19 +3354,19 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B161" t="s">
         <v>27</v>
       </c>
       <c r="C161" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D161" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E161" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F161" t="n">
         <v>1800.0</v>
@@ -3377,19 +3374,19 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B162" t="s">
         <v>27</v>
       </c>
       <c r="C162" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D162" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E162" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F162" t="n">
         <v>1800.0</v>
@@ -3397,19 +3394,19 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B163" t="s">
         <v>27</v>
       </c>
       <c r="C163" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D163" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E163" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F163" t="n">
         <v>1800.0</v>
@@ -3417,19 +3414,19 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B164" t="s">
         <v>27</v>
       </c>
       <c r="C164" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D164" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E164" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F164" t="n">
         <v>1800.0</v>
@@ -3437,19 +3434,19 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B165" t="s">
         <v>27</v>
       </c>
       <c r="C165" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D165" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E165" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F165" t="n">
         <v>1800.0</v>
@@ -3457,19 +3454,19 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B166" t="s">
         <v>27</v>
       </c>
       <c r="C166" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D166" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E166" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F166" t="n">
         <v>1800.0</v>
@@ -3477,19 +3474,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B167" t="s">
         <v>27</v>
       </c>
       <c r="C167" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D167" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E167" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F167" t="n">
         <v>1800.0</v>
@@ -3497,19 +3494,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.4485753890696391</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B168" t="s">
         <v>27</v>
       </c>
       <c r="C168" t="n">
-        <v>5.518382352941176</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D168" t="n">
-        <v>45.550000000000004</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E168" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F168" t="n">
         <v>1800.0</v>
@@ -3517,19 +3514,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.7746932092708836</v>
       </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C169" t="n">
-        <v>5.51875</v>
+        <v>4.888586956521739</v>
       </c>
       <c r="D169" t="n">
-        <v>111.55000000000001</v>
+        <v>60.400000000000006</v>
       </c>
       <c r="E169" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F169" t="n">
         <v>1800.0</v>
@@ -3537,2642 +3534,2642 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B170" t="s">
         <v>28</v>
       </c>
       <c r="C170" t="n">
-        <v>5.51875</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D170" t="n">
-        <v>111.55000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E170" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F170" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B171" t="s">
         <v>28</v>
       </c>
       <c r="C171" t="n">
-        <v>5.51875</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D171" t="n">
-        <v>111.55000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E171" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F171" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B172" t="s">
         <v>28</v>
       </c>
       <c r="C172" t="n">
-        <v>5.51875</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D172" t="n">
-        <v>111.55000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E172" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F172" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B173" t="s">
         <v>28</v>
       </c>
       <c r="C173" t="n">
-        <v>5.51875</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D173" t="n">
-        <v>111.55000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E173" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F173" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B174" t="s">
         <v>28</v>
       </c>
       <c r="C174" t="n">
-        <v>5.51875</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D174" t="n">
-        <v>111.55000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E174" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F174" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B175" t="s">
         <v>28</v>
       </c>
       <c r="C175" t="n">
-        <v>5.51875</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D175" t="n">
-        <v>111.55000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E175" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F175" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B176" t="s">
         <v>28</v>
       </c>
       <c r="C176" t="n">
-        <v>5.51875</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D176" t="n">
-        <v>111.55000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E176" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F176" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.44854472950199503</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B177" t="s">
         <v>28</v>
       </c>
       <c r="C177" t="n">
-        <v>5.51875</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D177" t="n">
-        <v>111.55000000000001</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E177" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F177" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B178" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C178" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D178" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E178" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F178" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B179" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C179" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D179" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E179" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F179" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B180" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C180" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D180" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E180" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F180" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B181" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C181" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D181" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F181" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B182" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C182" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D182" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E182" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F182" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B183" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C183" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D183" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E183" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F183" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B184" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C184" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D184" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E184" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F184" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B185" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C185" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D185" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F185" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B186" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C186" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D186" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E186" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F186" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B187" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C187" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D187" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E187" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F187" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C188" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D188" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E188" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F188" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B189" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C189" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D189" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E189" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F189" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C190" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D190" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E190" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F190" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B191" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C191" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D191" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F191" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B192" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C192" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D192" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E192" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F192" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B193" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C193" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D193" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F193" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.774131569366742</v>
       </c>
       <c r="B194" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C194" t="n">
-        <v>5.525000000000001</v>
+        <v>4.893478260869565</v>
       </c>
       <c r="D194" t="n">
-        <v>54.05</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F194" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B195" t="s">
         <v>29</v>
       </c>
       <c r="C195" t="n">
-        <v>5.525000000000001</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D195" t="n">
-        <v>54.05</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E195" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F195" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.44791473188052455</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B196" t="s">
         <v>29</v>
       </c>
       <c r="C196" t="n">
-        <v>5.525000000000001</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D196" t="n">
-        <v>54.05</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E196" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
       <c r="F196" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B197" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C197" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D197" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E197" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F197" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C198" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D198" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E198" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F198" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B199" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C199" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D199" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E199" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F199" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B200" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C200" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D200" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E200" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F200" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B201" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C201" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D201" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E201" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F201" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B202" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C202" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D202" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E202" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F202" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B203" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C203" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D203" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E203" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F203" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B204" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C204" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D204" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E204" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F204" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B205" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C205" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D205" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E205" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F205" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C206" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D206" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E206" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F206" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B207" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C207" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D207" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E207" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F207" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B208" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C208" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D208" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E208" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F208" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B209" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C209" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D209" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E209" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F209" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B210" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C210" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D210" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E210" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F210" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C211" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D211" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E211" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F211" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B212" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C212" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D212" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E212" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F212" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C213" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D213" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E213" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F213" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B214" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C214" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D214" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E214" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F214" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B215" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C215" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D215" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E215" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F215" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B216" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C216" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D216" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E216" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F216" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B217" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C217" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D217" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E217" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F217" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C218" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D218" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E218" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F218" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C219" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D219" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E219" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F219" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C220" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D220" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E220" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F220" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B221" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C221" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D221" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E221" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F221" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C222" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D222" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E222" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F222" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C223" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D223" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E223" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F223" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B224" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C224" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D224" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E224" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F224" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B225" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C225" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D225" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E225" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F225" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B226" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C226" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D226" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E226" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F226" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B227" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C227" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D227" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E227" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F227" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C228" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D228" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E228" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F228" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B229" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C229" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D229" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E229" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F229" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B230" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C230" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D230" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E230" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F230" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B231" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C231" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D231" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E231" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F231" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B232" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C232" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D232" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E232" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F232" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B233" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C233" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D233" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E233" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F233" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B234" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C234" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D234" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E234" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F234" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B235" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C235" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D235" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E235" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F235" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B236" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C236" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D236" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E236" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F236" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C237" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D237" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E237" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F237" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B238" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C238" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D238" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E238" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F238" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B239" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C239" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D239" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E239" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F239" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B240" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C240" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D240" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E240" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F240" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B241" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C241" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D241" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E241" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F241" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B242" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C242" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D242" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E242" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F242" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B243" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C243" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D243" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E243" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F243" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B244" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C244" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D244" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E244" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F244" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B245" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C245" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D245" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E245" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F245" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B246" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C246" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D246" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E246" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F246" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B247" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C247" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D247" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E247" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F247" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B248" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C248" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D248" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E248" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F248" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B249" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C249" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D249" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E249" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F249" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C250" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D250" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E250" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F250" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B251" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C251" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D251" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E251" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F251" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B252" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C252" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D252" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E252" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F252" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B253" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C253" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D253" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E253" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F253" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B254" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C254" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D254" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E254" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F254" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B255" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C255" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D255" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E255" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F255" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B256" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C256" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D256" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E256" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F256" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B257" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C257" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D257" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E257" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F257" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B258" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C258" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D258" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E258" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F258" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B259" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C259" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D259" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E259" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F259" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B260" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C260" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D260" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E260" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F260" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B261" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C261" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D261" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E261" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F261" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B262" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C262" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D262" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E262" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F262" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B263" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C263" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D263" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E263" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F263" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B264" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C264" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D264" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E264" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F264" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B265" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C265" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D265" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E265" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F265" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B266" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C266" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D266" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E266" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F266" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B267" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C267" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D267" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E267" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F267" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B268" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C268" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D268" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E268" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F268" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B269" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C269" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D269" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E269" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F269" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B270" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C270" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D270" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E270" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F270" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B271" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C271" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D271" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E271" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F271" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B272" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C272" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D272" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E272" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F272" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B273" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C273" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D273" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E273" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F273" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B274" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C274" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D274" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E274" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F274" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B275" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C275" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D275" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E275" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F275" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B276" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C276" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D276" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E276" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F276" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B277" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C277" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D277" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E277" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F277" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B278" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C278" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D278" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E278" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F278" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B279" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C279" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D279" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E279" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F279" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B280" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C280" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D280" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E280" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F280" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B281" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C281" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D281" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E281" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F281" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B282" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C282" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D282" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E282" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F282" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B283" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C283" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D283" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E283" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F283" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B284" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C284" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D284" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E284" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F284" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B285" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C285" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D285" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E285" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F285" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B286" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C286" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D286" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E286" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F286" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B287" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C287" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D287" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E287" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F287" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B288" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C288" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D288" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E288" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F288" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B289" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C289" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D289" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E289" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F289" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B290" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C290" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D290" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E290" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F290" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B291" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C291" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D291" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E291" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F291" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B292" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C292" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D292" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E292" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F292" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B293" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C293" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D293" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E293" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F293" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B294" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C294" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D294" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E294" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F294" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B295" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C295" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D295" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E295" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F295" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B296" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C296" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D296" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E296" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F296" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B297" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C297" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D297" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E297" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F297" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B298" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C298" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D298" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E298" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F298" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B299" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C299" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D299" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E299" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F299" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B300" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C300" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D300" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E300" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F300" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.44784123085539773</v>
+        <v>0.7740240820887928</v>
       </c>
       <c r="B301" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C301" t="n">
-        <v>5.525735294117647</v>
+        <v>4.8951086956521745</v>
       </c>
       <c r="D301" t="n">
-        <v>53.420000000000016</v>
+        <v>57.39999999999999</v>
       </c>
       <c r="E301" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
       <c r="F301" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="40">
   <si>
     <t>Fitness</t>
   </si>
@@ -32,76 +32,106 @@
     <t>Waiting time</t>
   </si>
   <si>
-    <t>[[89, 149, 8, 4, 122, 104], [153, 16, 79, 18, 71, 133, 35], [113, 29, 25, 112, 81, 38, 34]]</t>
+    <t>[[134, 40, 47, 146, 83], [16, 145, 139, 157, 91, 60], [113, 160, 163, 79, 41, 55], [31, 27, 117, 36, 35, 144, 171], [130, 148, 170, 70, 17, 149], [132, 97, 9, 3, 120, 121], [63, 54, 118, 26, 100]]</t>
   </si>
   <si>
-    <t>[[168, 162, 133, 175, 82, 17], [10, 95, 73, 13, 74, 24], [107, 1, 149, 116, 92, 25, 34]]</t>
+    <t>[[134, 40, 47, 146, 83], [16, 145, 139, 157, 91, 60], [113, 160, 163, 79, 41, 55], [31, 27, 117, 36, 35, 144, 171], [130, 148, 170, 70, 17, 149], [132, 97, 9, 3, 120, 66], [33, 7, 69, 116, 5, 71]]</t>
   </si>
   <si>
-    <t>[[41, 128, 104, 136, 84, 79, 40], [23, 25, 94, 1, 133, 101, 34], [6, 26, 132, 35, 153, 16]]</t>
+    <t>[[134, 40, 47, 146, 83], [16, 145, 139, 157, 91, 60], [113, 160, 163, 79, 41, 55], [31, 27, 117, 36, 35, 144, 171], [130, 148, 170, 70, 17, 149], [132, 120, 110, 135, 147, 121], [128, 158, 53, 138, 45]]</t>
   </si>
   <si>
-    <t>[[148, 133, 11, 163, 27, 89, 79], [19, 149, 86, 132, 113, 64], [120, 71, 50, 93, 173, 29]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167], [127, 68, 26, 25, 29, 152], [32, 19, 5, 28, 81, 105], [168, 1, 92, 144, 103, 52], [155, 148, 128, 33, 54, 176]]</t>
   </si>
   <si>
-    <t>[[15, 1, 12, 117, 88, 139, 79], [25, 29, 31, 68, 123, 52], [34, 134, 167, 133, 94, 17, 71]]</t>
+    <t>[[134, 40, 47, 146, 83], [16, 145, 139, 157, 91, 60], [113, 160, 163, 79, 41, 55], [31, 27, 117, 36, 35, 144, 171], [130, 148, 170, 70, 17, 149], [132, 97, 9, 3, 82, 104], [115, 142, 155, 8, 28, 133]]</t>
   </si>
   <si>
-    <t>[[68, 35, 93, 41, 79, 149, 161], [36, 1, 158, 82, 152, 83, 34], [71, 81, 120, 86, 2, 144]]</t>
+    <t>[[134, 40, 47, 146, 83], [16, 145, 139, 157, 91, 60], [113, 160, 163, 79, 41, 55], [31, 27, 117, 36, 35, 144, 171], [130, 148, 170, 70, 17, 149], [132, 97, 9, 110, 82, 25], [169, 44, 161, 6, 175, 80]]</t>
   </si>
   <si>
-    <t>[[169, 70, 16, 133, 110, 144, 79], [58, 86, 40, 87, 93, 102], [36, 148, 41, 145, 100, 13, 1]]</t>
+    <t>[[97, 68, 32, 152, 162, 26], [126, 160, 34, 98, 101, 60], [133, 91, 111, 139, 163, 69], [129, 115, 125, 28, 52, 156], [4, 25, 59, 18, 177, 175], [64, 77, 15, 150, 49, 110], [62, 93, 105, 71, 148, 171]]</t>
   </si>
   <si>
-    <t>[[57, 79, 36, 94, 40, 25, 116], [35, 81, 11, 152, 82, 93], [147, 17, 134, 15, 88, 70, 34]]</t>
+    <t>[[134, 58, 174, 161, 39, 34], [160, 29, 169, 175, 12, 7], [144, 145, 139, 92, 147, 52], [164, 1, 148, 87, 140, 49], [146, 28, 125, 112, 57, 137], [120, 103, 115, 166, 44, 123], [25, 38, 31, 13, 93, 16, 36]]</t>
   </si>
   <si>
-    <t>[[43, 148, 41, 82, 34, 145, 89], [70, 16, 40, 25, 132, 110, 18], [94, 11, 13, 1, 17, 79, 39]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 30, 124], [161, 98, 117, 146, 112, 25], [59, 7, 61, 28, 90, 63]]</t>
   </si>
   <si>
-    <t>[[73, 34, 17, 40, 87, 15, 1, 79], [108, 152, 69, 90, 36, 148], [144, 88, 70, 16, 41, 29, 60]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 30, 124], [161, 11, 159, 40, 29, 50], [35, 76, 12, 51, 15, 38]]</t>
   </si>
   <si>
-    <t>[[79, 36, 87, 82, 148, 55, 25], [133, 110, 144, 120, 77, 16, 34], [60, 147, 17, 152, 41, 29, 35]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167], [127, 68, 26, 25, 29, 152], [32, 19, 168, 157, 110, 117], [3, 5, 15, 38, 34, 113, 105], [149, 41, 135, 160, 171, 120]]</t>
   </si>
   <si>
-    <t>[[22, 82, 100, 79, 44, 89, 34], [148, 41, 29, 36, 15, 1, 17, 25], [156, 19, 40, 87, 117, 88, 16]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 30, 124], [161, 98, 117, 146, 112, 25], [59, 7, 61, 28, 90, 110]]</t>
   </si>
   <si>
-    <t>[[38, 17, 40, 93, 25, 148, 41, 34], [163, 167, 110, 16, 64, 29, 36], [60, 147, 5, 87, 15, 1, 79]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 30, 124], [125, 23, 100, 62, 91, 101], [170, 1, 63, 171, 110, 152]]</t>
   </si>
   <si>
-    <t>[[7, 82, 86, 17, 110, 18, 79], [158, 44, 167, 41, 29, 36, 15, 34], [148, 94, 40, 87, 25, 116, 27]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 30, 124], [161, 11, 159, 40, 29, 128], [97, 78, 126, 15, 7, 110]]</t>
   </si>
   <si>
-    <t>[[17, 25, 148, 41, 29, 36, 15, 1], [158, 44, 167, 110, 87, 34, 93], [62, 70, 16, 64, 19, 132, 79]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 30, 124], [161, 98, 38, 40, 51, 120], [163, 152, 132, 69, 70, 139]]</t>
   </si>
   <si>
-    <t>[[25, 148, 41, 29, 36, 15, 1, 17], [107, 139, 93, 79, 77, 16, 40], [123, 86, 70, 34, 110, 18, 167]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 30, 160, 59], [95, 29, 70, 173, 69, 5]]</t>
   </si>
   <si>
-    <t>[[107, 139, 36, 15, 1, 17, 64], [29, 34, 110, 16, 40, 41, 71, 79], [84, 19, 25, 148, 94, 27, 149]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 30, 124], [125, 161, 90, 64, 110, 35], [16, 152, 43, 120, 78, 25]]</t>
   </si>
   <si>
-    <t>[[73, 41, 79, 25, 148, 94, 27, 34], [139, 93, 64, 29, 36, 15, 1], [16, 40, 133, 35, 132, 17, 110]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 97], [123, 22, 11, 168, 44, 48]]</t>
   </si>
   <si>
-    <t>[[29, 36, 15, 1, 17, 64, 19, 34], [77, 16, 41, 167, 44, 25, 148, 79], [35, 144, 120, 18, 45, 28, 40]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 30, 13], [44, 104, 148, 145, 5, 96], [15, 78, 113, 28, 140], [110, 79, 18, 170, 144, 132, 147]]</t>
   </si>
   <si>
-    <t>[[144, 120, 18, 167, 29, 36, 15, 34], [1, 17, 79, 77, 25, 148, 41, 35], [16, 64, 19, 27, 71, 161, 44]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 30, 13], [44, 104, 148, 145, 5, 96], [15, 78, 113, 28, 140], [110, 79, 18, 170, 144, 132, 101]]</t>
   </si>
   <si>
-    <t>[[15, 1, 17, 64, 29, 36, 144, 79], [18, 167, 44, 25, 148, 41, 71, 34], [113, 110, 16, 40, 19, 27, 149]]</t>
+    <t>[[134, 58, 174, 161, 39, 34], [160, 29, 169, 175, 12, 7], [144, 145, 139, 92, 147, 52], [164, 1, 148, 87, 140, 49], [146, 28, 125, 93, 113, 110], [35, 25, 116, 152, 142, 103], [15, 149, 64, 123, 79, 27, 44]]</t>
   </si>
   <si>
-    <t>[[17, 25, 18, 167, 110, 16, 40, 34], [148, 41, 35, 29, 36, 15, 1, 144], [79, 77, 139, 93, 120, 27, 19]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 30, 124], [161, 11, 159, 40, 120, 7], [78, 171, 29, 16, 110, 70]]</t>
   </si>
   <si>
-    <t>[[120, 27, 34, 110, 87, 82, 40], [17, 25, 148, 18, 167, 44, 117, 41], [16, 64, 29, 36, 15, 1, 79, 35]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 22], [7, 26, 54, 44, 16, 132]]</t>
   </si>
   <si>
-    <t>[[19, 34, 110, 16, 64, 79, 40, 117], [120, 139, 93, 1, 17, 25, 148], [144, 35, 29, 36, 15, 18, 167, 44]]</t>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 30, 13], [44, 104, 148, 145, 5, 96], [15, 78, 113, 28, 23, 22], [152, 147, 68, 132, 162, 25]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 22], [44, 19, 71, 38, 148, 3, 59]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 22], [44, 43, 15, 41, 3, 51, 117]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 51], [19, 25, 23, 1, 161, 155, 44]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 22], [44, 43, 15, 41, 3, 51, 1]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 51], [19, 25, 23, 1, 161, 78, 29]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 30, 13], [44, 104, 148, 145, 5, 96], [15, 78, 113, 54, 1, 120], [59, 64, 147, 71, 79, 117, 41]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 22], [44, 19, 71, 73, 25, 41, 12]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 51], [19, 25, 120, 144, 40, 1, 147]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 51], [19, 25, 120, 152, 144, 41, 29]]</t>
+  </si>
+  <si>
+    <t>[[36, 134, 177, 77, 115, 21], [55, 45, 93, 24, 121, 94], [17, 2, 133, 175, 27, 167, 34], [169, 149, 60, 39, 103, 33], [127, 162, 32, 79, 84, 113], [62, 110, 145, 101, 139, 51], [19, 25, 120, 16, 15, 148, 90]]</t>
   </si>
 </sst>
 </file>
@@ -174,99 +204,99 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8244574953118444</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>4.789999999999999</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D2" t="n">
-        <v>62.95</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="F2" t="n">
-        <v>5400.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.8244574953118444</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>4.789999999999999</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D3" t="n">
-        <v>62.95</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="F3" t="n">
-        <v>5400.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8244574953118444</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>4.789999999999999</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D4" t="n">
-        <v>62.95</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="F4" t="n">
-        <v>5400.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8240688379202947</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>4.993421052631578</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D5" t="n">
-        <v>51.07</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>19.0</v>
+        <v>41.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8234134147420761</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>4.778124999999999</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D6" t="n">
-        <v>51.00000000000001</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="F6" t="n">
         <v>1800.0</v>
@@ -274,19 +304,19 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8234134147420761</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>4.778124999999999</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D7" t="n">
-        <v>51.00000000000001</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="F7" t="n">
         <v>1800.0</v>
@@ -294,279 +324,279 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8200493403584878</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>5.059868421052632</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D8" t="n">
-        <v>64.25000000000001</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>19.0</v>
+        <v>41.0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8200493403584878</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>5.059868421052632</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D9" t="n">
-        <v>64.25000000000001</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>19.0</v>
+        <v>41.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8200493403584878</v>
+        <v>0.5719628222966406</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>5.059868421052632</v>
+        <v>4.815548780487805</v>
       </c>
       <c r="D10" t="n">
-        <v>64.25000000000001</v>
+        <v>559.1000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>19.0</v>
+        <v>41.0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.818139982508181</v>
+        <v>0.5652032735689321</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
-        <v>4.8725</v>
+        <v>4.804166666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>69.0</v>
+        <v>439.2000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F11" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.818139982508181</v>
+        <v>0.5652032735689321</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>4.8725</v>
+        <v>4.804166666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>69.0</v>
+        <v>439.2000000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F12" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.818139982508181</v>
+        <v>0.5652032735689321</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
-        <v>4.8725</v>
+        <v>4.804166666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>69.0</v>
+        <v>439.2000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F13" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.818139982508181</v>
+        <v>0.5652032735689321</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>4.8725</v>
+        <v>4.804166666666667</v>
       </c>
       <c r="D14" t="n">
-        <v>69.0</v>
+        <v>439.2000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F14" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.818139982508181</v>
+        <v>0.5648560472764879</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" t="n">
-        <v>4.8725</v>
+        <v>4.89390243902439</v>
       </c>
       <c r="D15" t="n">
-        <v>69.0</v>
+        <v>532.0500000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>20.0</v>
+        <v>41.0</v>
       </c>
       <c r="F15" t="n">
-        <v>3600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8148292144012733</v>
+        <v>0.5639915048275385</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="n">
-        <v>4.94375</v>
+        <v>4.817261904761904</v>
       </c>
       <c r="D16" t="n">
-        <v>74.66</v>
+        <v>419.49999999999994</v>
       </c>
       <c r="E16" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F16" t="n">
-        <v>5400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8096697857549711</v>
+        <v>0.5639915048275385</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C17" t="n">
-        <v>4.9975000000000005</v>
+        <v>4.817261904761904</v>
       </c>
       <c r="D17" t="n">
-        <v>48.67</v>
+        <v>419.49999999999994</v>
       </c>
       <c r="E17" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F17" t="n">
-        <v>1764.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8096697857549711</v>
+        <v>0.5628600338412071</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>4.9975000000000005</v>
+        <v>4.829761904761905</v>
       </c>
       <c r="D18" t="n">
-        <v>48.67</v>
+        <v>459.4000000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F18" t="n">
-        <v>1764.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8096697857549711</v>
+        <v>0.5615367267319866</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" t="n">
-        <v>4.9975000000000005</v>
+        <v>4.844047619047619</v>
       </c>
       <c r="D19" t="n">
-        <v>48.67</v>
+        <v>433.2000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F19" t="n">
-        <v>1764.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8096697857549711</v>
+        <v>0.5615367267319866</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" t="n">
-        <v>4.9975000000000005</v>
+        <v>4.844047619047619</v>
       </c>
       <c r="D20" t="n">
-        <v>48.67</v>
+        <v>433.2000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F20" t="n">
-        <v>1764.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8091033556789805</v>
+        <v>0.5615367267319866</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>5.003125</v>
+        <v>4.844047619047619</v>
       </c>
       <c r="D21" t="n">
-        <v>61.160000000000004</v>
+        <v>433.2000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -574,39 +604,39 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.7973183474544756</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
-        <v>4.979166666666666</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D22" t="n">
-        <v>39.59</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E22" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="F22" t="n">
-        <v>3600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.7963978368775868</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>4.982738095238095</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D23" t="n">
-        <v>57.91</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E23" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="F23" t="n">
         <v>1800.0</v>
@@ -614,19 +644,19 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.7963978368775868</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C24" t="n">
-        <v>4.982738095238095</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D24" t="n">
-        <v>57.91</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E24" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="F24" t="n">
         <v>1800.0</v>
@@ -634,19 +664,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7963978368775868</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>4.982738095238095</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D25" t="n">
-        <v>57.91</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E25" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="F25" t="n">
         <v>1800.0</v>
@@ -654,99 +684,99 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.7927296563791004</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>5.05238095238095</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D26" t="n">
-        <v>74.5</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E26" t="n">
-        <v>21.0</v>
+        <v>42.0</v>
       </c>
       <c r="F26" t="n">
-        <v>3600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.7910467211615304</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C27" t="n">
-        <v>4.8448863636363635</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D27" t="n">
-        <v>74.928</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E27" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.7910467211615304</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C28" t="n">
-        <v>4.8448863636363635</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D28" t="n">
-        <v>74.928</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E28" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.7910467211615304</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B29" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
-        <v>4.8448863636363635</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D29" t="n">
-        <v>74.928</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E29" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.7865977060826959</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>4.917045454545453</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D30" t="n">
-        <v>59.50000000000001</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E30" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F30" t="n">
         <v>1800.0</v>
@@ -754,259 +784,259 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.7864354364987007</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>4.91590909090909</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D31" t="n">
-        <v>41.21</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E31" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.7864354364987007</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C32" t="n">
-        <v>4.91590909090909</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D32" t="n">
-        <v>41.21</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E32" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.7830666683599622</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C33" t="n">
-        <v>4.968181818181818</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D33" t="n">
-        <v>52.81</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E33" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.7830666683599622</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>4.968181818181818</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D34" t="n">
-        <v>52.81</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E34" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.7830666683599622</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C35" t="n">
-        <v>4.968181818181818</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D35" t="n">
-        <v>52.81</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E35" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.7830666683599622</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B36" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>4.968181818181818</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D36" t="n">
-        <v>52.81</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E36" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.7830666683599622</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B37" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
-        <v>4.968181818181818</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D37" t="n">
-        <v>52.81</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E37" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.7830666683599622</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>4.968181818181818</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D38" t="n">
-        <v>52.81</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E38" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.7816078983411361</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
-        <v>4.990909090909091</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D39" t="n">
-        <v>43.39999999999999</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E39" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.7816078983411361</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>4.990909090909091</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D40" t="n">
-        <v>43.39999999999999</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E40" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7816078983411361</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>4.990909090909091</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D41" t="n">
-        <v>43.39999999999999</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E41" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.7816078983411361</v>
+        <v>0.5568259498518704</v>
       </c>
       <c r="B42" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C42" t="n">
-        <v>4.990909090909091</v>
+        <v>4.897023809523809</v>
       </c>
       <c r="D42" t="n">
-        <v>43.39999999999999</v>
+        <v>268.09999999999997</v>
       </c>
       <c r="E42" t="n">
-        <v>22.0</v>
+        <v>42.0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.7816078983411361</v>
+        <v>0.5556696819837533</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C43" t="n">
-        <v>4.990909090909091</v>
+        <v>4.830523255813955</v>
       </c>
       <c r="D43" t="n">
-        <v>43.39999999999999</v>
+        <v>266.40000000000003</v>
       </c>
       <c r="E43" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -1014,19 +1044,19 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.7816078983411361</v>
+        <v>0.5556696819837533</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C44" t="n">
-        <v>4.990909090909091</v>
+        <v>4.830523255813955</v>
       </c>
       <c r="D44" t="n">
-        <v>43.39999999999999</v>
+        <v>266.40000000000003</v>
       </c>
       <c r="E44" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -1034,539 +1064,539 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.7802817151235142</v>
+        <v>0.5556696819837533</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C45" t="n">
-        <v>5.015340909090909</v>
+        <v>4.830523255813955</v>
       </c>
       <c r="D45" t="n">
-        <v>52.900000000000006</v>
+        <v>266.40000000000003</v>
       </c>
       <c r="E45" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F45" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.7802817151235142</v>
+        <v>0.5546378002270054</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C46" t="n">
-        <v>5.015340909090909</v>
+        <v>4.842151162790697</v>
       </c>
       <c r="D46" t="n">
-        <v>52.900000000000006</v>
+        <v>414.85</v>
       </c>
       <c r="E46" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F46" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5546378002270054</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C47" t="n">
-        <v>5.035227272727273</v>
+        <v>4.842151162790697</v>
       </c>
       <c r="D47" t="n">
-        <v>51.15</v>
+        <v>414.85</v>
       </c>
       <c r="E47" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F47" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5545978985373515</v>
       </c>
       <c r="B48" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C48" t="n">
-        <v>5.035227272727273</v>
+        <v>4.842441860465115</v>
       </c>
       <c r="D48" t="n">
-        <v>51.15</v>
+        <v>382.0</v>
       </c>
       <c r="E48" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F48" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5545978985373515</v>
       </c>
       <c r="B49" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C49" t="n">
-        <v>5.035227272727273</v>
+        <v>4.842441860465115</v>
       </c>
       <c r="D49" t="n">
-        <v>51.15</v>
+        <v>382.0</v>
       </c>
       <c r="E49" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F49" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5537367704568831</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C50" t="n">
-        <v>5.035227272727273</v>
+        <v>4.851453488372092</v>
       </c>
       <c r="D50" t="n">
-        <v>51.15</v>
+        <v>314.3999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F50" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5537367704568831</v>
       </c>
       <c r="B51" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C51" t="n">
-        <v>5.035227272727273</v>
+        <v>4.851453488372092</v>
       </c>
       <c r="D51" t="n">
-        <v>51.15</v>
+        <v>314.3999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F51" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5537367704568831</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C52" t="n">
-        <v>5.035227272727273</v>
+        <v>4.851453488372092</v>
       </c>
       <c r="D52" t="n">
-        <v>51.15</v>
+        <v>314.3999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F52" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C53" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D53" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E53" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F53" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C54" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D54" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E54" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F54" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C55" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D55" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E55" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F55" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C56" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D56" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E56" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F56" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C57" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D57" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E57" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F57" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C58" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D58" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E58" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F58" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C59" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D59" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E59" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F59" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C60" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D60" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E60" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F60" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C61" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D61" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E61" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F61" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D62" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E62" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F62" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C63" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D63" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E63" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F63" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C64" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D64" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E64" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F64" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C65" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D65" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E65" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F65" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D66" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E66" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F66" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.5512875801956366</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C67" t="n">
-        <v>5.035227272727273</v>
+        <v>4.878197674418604</v>
       </c>
       <c r="D67" t="n">
-        <v>51.15</v>
+        <v>415.65</v>
       </c>
       <c r="E67" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F67" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.7790127592782411</v>
+        <v>0.550379320869333</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C68" t="n">
-        <v>5.035227272727273</v>
+        <v>4.888372093023255</v>
       </c>
       <c r="D68" t="n">
-        <v>51.15</v>
+        <v>497.2000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>22.0</v>
+        <v>43.0</v>
       </c>
       <c r="F68" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.7767357862379847</v>
+        <v>0.550379320869333</v>
       </c>
       <c r="B69" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C69" t="n">
-        <v>4.868478260869565</v>
+        <v>4.888372093023255</v>
       </c>
       <c r="D69" t="n">
-        <v>55.900000000000006</v>
+        <v>497.2000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F69" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.7767357862379847</v>
+        <v>0.550379320869333</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C70" t="n">
-        <v>4.868478260869565</v>
+        <v>4.888372093023255</v>
       </c>
       <c r="D70" t="n">
-        <v>55.900000000000006</v>
+        <v>497.2000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F70" t="n">
-        <v>3600.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.775423316589079</v>
+        <v>0.550379320869333</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C71" t="n">
-        <v>4.873913043478261</v>
+        <v>4.888372093023255</v>
       </c>
       <c r="D71" t="n">
-        <v>48.75000000000001</v>
+        <v>497.2000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -1574,19 +1604,19 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.775423316589079</v>
+        <v>0.550379320869333</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C72" t="n">
-        <v>4.873913043478261</v>
+        <v>4.888372093023255</v>
       </c>
       <c r="D72" t="n">
-        <v>48.75000000000001</v>
+        <v>497.2000000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -1594,19 +1624,19 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C73" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D73" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E73" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -1614,19 +1644,19 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C74" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D74" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E74" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -1634,19 +1664,19 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C75" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D75" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E75" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -1654,19 +1684,19 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D76" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E76" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -1674,19 +1704,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C77" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D77" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E77" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -1694,19 +1724,19 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C78" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D78" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E78" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -1714,19 +1744,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B79" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C79" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D79" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E79" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -1734,19 +1764,19 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B80" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D80" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E80" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -1754,19 +1784,19 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C81" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D81" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E81" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -1774,19 +1804,19 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C82" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D82" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E82" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -1794,19 +1824,19 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B83" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D83" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E83" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -1814,19 +1844,19 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C84" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D84" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E84" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -1834,19 +1864,19 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B85" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C85" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D85" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E85" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -1854,19 +1884,19 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B86" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C86" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D86" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E86" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -1874,19 +1904,19 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C87" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D87" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E87" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -1894,19 +1924,19 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B88" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C88" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D88" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E88" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -1914,19 +1944,19 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B89" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C89" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D89" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E89" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -1934,19 +1964,19 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C90" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D90" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E90" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -1954,19 +1984,19 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B91" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C91" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D91" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E91" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -1974,19 +2004,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B92" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C92" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D92" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E92" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -1994,19 +2024,19 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C93" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D93" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E93" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -2014,19 +2044,19 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B94" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C94" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D94" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E94" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -2034,19 +2064,19 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B95" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C95" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D95" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E95" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -2054,19 +2084,19 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C96" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D96" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E96" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -2074,19 +2104,19 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C97" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D97" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E97" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -2094,19 +2124,19 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C98" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D98" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E98" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -2114,19 +2144,19 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C99" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D99" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E99" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -2134,19 +2164,19 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.775423316589079</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B100" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C100" t="n">
-        <v>4.873913043478261</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D100" t="n">
-        <v>48.75000000000001</v>
+        <v>355.2</v>
       </c>
       <c r="E100" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -2154,19 +2184,19 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B101" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C101" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D101" t="n">
-        <v>46.218</v>
+        <v>355.2</v>
       </c>
       <c r="E101" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -2174,19 +2204,19 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B102" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C102" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D102" t="n">
-        <v>46.218</v>
+        <v>355.2</v>
       </c>
       <c r="E102" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -2194,19 +2224,19 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C103" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D103" t="n">
-        <v>46.218</v>
+        <v>355.2</v>
       </c>
       <c r="E103" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F103" t="n">
         <v>0.0</v>
@@ -2214,19 +2244,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5490505254345455</v>
       </c>
       <c r="B104" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C104" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.90203488372093</v>
       </c>
       <c r="D104" t="n">
-        <v>46.218</v>
+        <v>355.2</v>
       </c>
       <c r="E104" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -2234,19 +2264,19 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.7747051105723</v>
+        <v>0.548852764484459</v>
       </c>
       <c r="B105" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C105" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.904360465116278</v>
       </c>
       <c r="D105" t="n">
-        <v>46.218</v>
+        <v>403.4</v>
       </c>
       <c r="E105" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -2254,19 +2284,19 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.7747051105723</v>
+        <v>0.548852764484459</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C106" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.904360465116278</v>
       </c>
       <c r="D106" t="n">
-        <v>46.218</v>
+        <v>403.4</v>
       </c>
       <c r="E106" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -2274,19 +2304,19 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.7747051105723</v>
+        <v>0.548852764484459</v>
       </c>
       <c r="B107" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C107" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.904360465116278</v>
       </c>
       <c r="D107" t="n">
-        <v>46.218</v>
+        <v>403.4</v>
       </c>
       <c r="E107" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -2294,19 +2324,19 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.7747051105723</v>
+        <v>0.548852764484459</v>
       </c>
       <c r="B108" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C108" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.904360465116278</v>
       </c>
       <c r="D108" t="n">
-        <v>46.218</v>
+        <v>403.4</v>
       </c>
       <c r="E108" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -2314,19 +2344,19 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.7747051105723</v>
+        <v>0.548852764484459</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C109" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.904360465116278</v>
       </c>
       <c r="D109" t="n">
-        <v>46.218</v>
+        <v>403.4</v>
       </c>
       <c r="E109" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -2334,19 +2364,19 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.7747051105723</v>
+        <v>0.548852764484459</v>
       </c>
       <c r="B110" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C110" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.904360465116278</v>
       </c>
       <c r="D110" t="n">
-        <v>46.218</v>
+        <v>403.4</v>
       </c>
       <c r="E110" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -2354,19 +2384,19 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.7747051105723</v>
+        <v>0.548852764484459</v>
       </c>
       <c r="B111" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C111" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.904360465116278</v>
       </c>
       <c r="D111" t="n">
-        <v>46.218</v>
+        <v>403.4</v>
       </c>
       <c r="E111" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -2374,19 +2404,19 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.7747051105723</v>
+        <v>0.548852764484459</v>
       </c>
       <c r="B112" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C112" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.904360465116278</v>
       </c>
       <c r="D112" t="n">
-        <v>46.218</v>
+        <v>403.4</v>
       </c>
       <c r="E112" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -2394,19 +2424,19 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5486387159930887</v>
       </c>
       <c r="B113" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C113" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.906395348837209</v>
       </c>
       <c r="D113" t="n">
-        <v>46.218</v>
+        <v>334.90000000000003</v>
       </c>
       <c r="E113" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -2414,19 +2444,19 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5486387159930887</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C114" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.906395348837209</v>
       </c>
       <c r="D114" t="n">
-        <v>46.218</v>
+        <v>334.90000000000003</v>
       </c>
       <c r="E114" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -2434,19 +2464,19 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5486387159930887</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C115" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.906395348837209</v>
       </c>
       <c r="D115" t="n">
-        <v>46.218</v>
+        <v>334.90000000000003</v>
       </c>
       <c r="E115" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -2454,19 +2484,19 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5486387159930887</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C116" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.906395348837209</v>
       </c>
       <c r="D116" t="n">
-        <v>46.218</v>
+        <v>334.90000000000003</v>
       </c>
       <c r="E116" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -2474,19 +2504,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5486387159930887</v>
       </c>
       <c r="B117" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C117" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.906395348837209</v>
       </c>
       <c r="D117" t="n">
-        <v>46.218</v>
+        <v>334.90000000000003</v>
       </c>
       <c r="E117" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -2494,19 +2524,19 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5486387159930887</v>
       </c>
       <c r="B118" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C118" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.906395348837209</v>
       </c>
       <c r="D118" t="n">
-        <v>46.218</v>
+        <v>334.90000000000003</v>
       </c>
       <c r="E118" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -2514,19 +2544,19 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5486289225379689</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C119" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.9069767441860455</v>
       </c>
       <c r="D119" t="n">
-        <v>46.218</v>
+        <v>448.4</v>
       </c>
       <c r="E119" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -2534,19 +2564,19 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5486289225379689</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C120" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.9069767441860455</v>
       </c>
       <c r="D120" t="n">
-        <v>46.218</v>
+        <v>448.4</v>
       </c>
       <c r="E120" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -2554,19 +2584,19 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5472011764820014</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C121" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.921802325581396</v>
       </c>
       <c r="D121" t="n">
-        <v>46.218</v>
+        <v>311.8</v>
       </c>
       <c r="E121" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -2574,19 +2604,19 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5472011764820014</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C122" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.921802325581396</v>
       </c>
       <c r="D122" t="n">
-        <v>46.218</v>
+        <v>311.8</v>
       </c>
       <c r="E122" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -2594,19 +2624,19 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5472011764820014</v>
       </c>
       <c r="B123" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C123" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.921802325581396</v>
       </c>
       <c r="D123" t="n">
-        <v>46.218</v>
+        <v>311.8</v>
       </c>
       <c r="E123" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -2614,19 +2644,19 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5472011764820014</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C124" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.921802325581396</v>
       </c>
       <c r="D124" t="n">
-        <v>46.218</v>
+        <v>311.8</v>
       </c>
       <c r="E124" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -2634,19 +2664,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5472011764820014</v>
       </c>
       <c r="B125" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C125" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.921802325581396</v>
       </c>
       <c r="D125" t="n">
-        <v>46.218</v>
+        <v>311.8</v>
       </c>
       <c r="E125" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -2654,19 +2684,19 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5472011764820014</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C126" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.921802325581396</v>
       </c>
       <c r="D126" t="n">
-        <v>46.218</v>
+        <v>311.8</v>
       </c>
       <c r="E126" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F126" t="n">
         <v>0.0</v>
@@ -2674,19 +2704,19 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5472011764820014</v>
       </c>
       <c r="B127" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C127" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.921802325581396</v>
       </c>
       <c r="D127" t="n">
-        <v>46.218</v>
+        <v>311.8</v>
       </c>
       <c r="E127" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F127" t="n">
         <v>0.0</v>
@@ -2694,19 +2724,19 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B128" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C128" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D128" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E128" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F128" t="n">
         <v>0.0</v>
@@ -2714,19 +2744,19 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B129" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C129" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D129" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E129" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F129" t="n">
         <v>0.0</v>
@@ -2734,19 +2764,19 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B130" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C130" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D130" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E130" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -2754,19 +2784,19 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B131" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C131" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D131" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E131" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F131" t="n">
         <v>0.0</v>
@@ -2774,19 +2804,19 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B132" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C132" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D132" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E132" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -2794,19 +2824,19 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B133" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C133" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D133" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E133" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F133" t="n">
         <v>0.0</v>
@@ -2814,19 +2844,19 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B134" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C134" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D134" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E134" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F134" t="n">
         <v>0.0</v>
@@ -2834,19 +2864,19 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B135" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D135" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E135" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F135" t="n">
         <v>0.0</v>
@@ -2854,19 +2884,19 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B136" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C136" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D136" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E136" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F136" t="n">
         <v>0.0</v>
@@ -2874,19 +2904,19 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B137" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C137" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D137" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E137" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F137" t="n">
         <v>0.0</v>
@@ -2894,19 +2924,19 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B138" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C138" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D138" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E138" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F138" t="n">
         <v>0.0</v>
@@ -2914,19 +2944,19 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B139" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C139" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D139" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E139" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F139" t="n">
         <v>0.0</v>
@@ -2934,19 +2964,19 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B140" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C140" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D140" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E140" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F140" t="n">
         <v>0.0</v>
@@ -2954,19 +2984,19 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.7747051105723</v>
+        <v>0.546721868874576</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C141" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.926744186046512</v>
       </c>
       <c r="D141" t="n">
-        <v>46.218</v>
+        <v>235.95</v>
       </c>
       <c r="E141" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F141" t="n">
         <v>0.0</v>
@@ -2974,19 +3004,19 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5462368976053813</v>
       </c>
       <c r="B142" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C142" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.931976744186047</v>
       </c>
       <c r="D142" t="n">
-        <v>46.218</v>
+        <v>238.25</v>
       </c>
       <c r="E142" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F142" t="n">
         <v>0.0</v>
@@ -2994,19 +3024,19 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5462368976053813</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C143" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.931976744186047</v>
       </c>
       <c r="D143" t="n">
-        <v>46.218</v>
+        <v>238.25</v>
       </c>
       <c r="E143" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F143" t="n">
         <v>0.0</v>
@@ -3014,19 +3044,19 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5460000989175655</v>
       </c>
       <c r="B144" t="s">
         <v>26</v>
       </c>
       <c r="C144" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.934593023255814</v>
       </c>
       <c r="D144" t="n">
-        <v>46.218</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="E144" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F144" t="n">
         <v>0.0</v>
@@ -3034,19 +3064,19 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.7747051105723</v>
+        <v>0.5460000989175655</v>
       </c>
       <c r="B145" t="s">
         <v>26</v>
       </c>
       <c r="C145" t="n">
-        <v>4.8847826086956525</v>
+        <v>4.934593023255814</v>
       </c>
       <c r="D145" t="n">
-        <v>46.218</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="E145" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F145" t="n">
         <v>0.0</v>
@@ -3054,419 +3084,419 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5460000989175655</v>
       </c>
       <c r="B146" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C146" t="n">
-        <v>4.888586956521739</v>
+        <v>4.934593023255814</v>
       </c>
       <c r="D146" t="n">
-        <v>60.400000000000006</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="E146" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F146" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5460000989175655</v>
       </c>
       <c r="B147" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C147" t="n">
-        <v>4.888586956521739</v>
+        <v>4.934593023255814</v>
       </c>
       <c r="D147" t="n">
-        <v>60.400000000000006</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="E147" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F147" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5460000989175655</v>
       </c>
       <c r="B148" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C148" t="n">
-        <v>4.888586956521739</v>
+        <v>4.934593023255814</v>
       </c>
       <c r="D148" t="n">
-        <v>60.400000000000006</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="E148" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F148" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5460000989175655</v>
       </c>
       <c r="B149" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C149" t="n">
-        <v>4.888586956521739</v>
+        <v>4.934593023255814</v>
       </c>
       <c r="D149" t="n">
-        <v>60.400000000000006</v>
+        <v>262.00000000000006</v>
       </c>
       <c r="E149" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F149" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B150" t="s">
         <v>27</v>
       </c>
       <c r="C150" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D150" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F150" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B151" t="s">
         <v>27</v>
       </c>
       <c r="C151" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D151" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E151" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F151" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B152" t="s">
         <v>27</v>
       </c>
       <c r="C152" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D152" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F152" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B153" t="s">
         <v>27</v>
       </c>
       <c r="C153" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D153" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E153" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F153" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B154" t="s">
         <v>27</v>
       </c>
       <c r="C154" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D154" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E154" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F154" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B155" t="s">
         <v>27</v>
       </c>
       <c r="C155" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D155" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E155" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F155" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B156" t="s">
         <v>27</v>
       </c>
       <c r="C156" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D156" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E156" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F156" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B157" t="s">
         <v>27</v>
       </c>
       <c r="C157" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D157" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E157" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F157" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B158" t="s">
         <v>27</v>
       </c>
       <c r="C158" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D158" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E158" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F158" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B159" t="s">
         <v>27</v>
       </c>
       <c r="C159" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D159" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E159" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F159" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B160" t="s">
         <v>27</v>
       </c>
       <c r="C160" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D160" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E160" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F160" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B161" t="s">
         <v>27</v>
       </c>
       <c r="C161" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D161" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E161" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F161" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B162" t="s">
         <v>27</v>
       </c>
       <c r="C162" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D162" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F162" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5459929452423778</v>
       </c>
       <c r="B163" t="s">
         <v>27</v>
       </c>
       <c r="C163" t="n">
-        <v>4.888586956521739</v>
+        <v>4.9351744186046504</v>
       </c>
       <c r="D163" t="n">
-        <v>60.400000000000006</v>
+        <v>402.9000000000001</v>
       </c>
       <c r="E163" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F163" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5454108750955755</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C164" t="n">
-        <v>4.888586956521739</v>
+        <v>4.94156976744186</v>
       </c>
       <c r="D164" t="n">
-        <v>60.400000000000006</v>
+        <v>429.65</v>
       </c>
       <c r="E164" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F164" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5454108750955755</v>
       </c>
       <c r="B165" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C165" t="n">
-        <v>4.888586956521739</v>
+        <v>4.94156976744186</v>
       </c>
       <c r="D165" t="n">
-        <v>60.400000000000006</v>
+        <v>429.65</v>
       </c>
       <c r="E165" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F165" t="n">
-        <v>1800.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C166" t="n">
-        <v>4.888586956521739</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D166" t="n">
-        <v>60.400000000000006</v>
+        <v>253.1</v>
       </c>
       <c r="E166" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F166" t="n">
         <v>1800.0</v>
@@ -3474,19 +3504,19 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B167" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C167" t="n">
-        <v>4.888586956521739</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D167" t="n">
-        <v>60.400000000000006</v>
+        <v>253.1</v>
       </c>
       <c r="E167" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F167" t="n">
         <v>1800.0</v>
@@ -3494,19 +3524,19 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B168" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C168" t="n">
-        <v>4.888586956521739</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D168" t="n">
-        <v>60.400000000000006</v>
+        <v>253.1</v>
       </c>
       <c r="E168" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F168" t="n">
         <v>1800.0</v>
@@ -3514,19 +3544,19 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.7746932092708836</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B169" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C169" t="n">
-        <v>4.888586956521739</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D169" t="n">
-        <v>60.400000000000006</v>
+        <v>253.1</v>
       </c>
       <c r="E169" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F169" t="n">
         <v>1800.0</v>
@@ -3534,319 +3564,319 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B170" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C170" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D170" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E170" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B171" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C171" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D171" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E171" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B172" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C172" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D172" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E172" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B173" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C173" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D173" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E173" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B174" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C174" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D174" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E174" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B175" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C175" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D175" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E175" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F175" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C176" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D176" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E176" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B177" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C177" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D177" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E177" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B178" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C178" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D178" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E178" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F178" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B179" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C179" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D179" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E179" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B180" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C180" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D180" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E180" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F180" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C181" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D181" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E181" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F181" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B182" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C182" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D182" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E182" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B183" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C183" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D183" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E183" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5448064422604724</v>
       </c>
       <c r="B184" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C184" t="n">
-        <v>4.893478260869565</v>
+        <v>4.949709302325582</v>
       </c>
       <c r="D184" t="n">
-        <v>56.00000000000001</v>
+        <v>253.1</v>
       </c>
       <c r="E184" t="n">
-        <v>23.0</v>
+        <v>43.0</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B185" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C185" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D185" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E185" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F185" t="n">
         <v>0.0</v>
@@ -3854,19 +3884,19 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B186" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C186" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D186" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E186" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F186" t="n">
         <v>0.0</v>
@@ -3874,19 +3904,19 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C187" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D187" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E187" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F187" t="n">
         <v>0.0</v>
@@ -3894,19 +3924,19 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B188" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C188" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D188" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E188" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F188" t="n">
         <v>0.0</v>
@@ -3914,19 +3944,19 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B189" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C189" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D189" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E189" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F189" t="n">
         <v>0.0</v>
@@ -3934,19 +3964,19 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B190" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C190" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D190" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E190" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F190" t="n">
         <v>0.0</v>
@@ -3954,19 +3984,19 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B191" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C191" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D191" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E191" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F191" t="n">
         <v>0.0</v>
@@ -3974,19 +4004,19 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B192" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C192" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D192" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E192" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F192" t="n">
         <v>0.0</v>
@@ -3994,19 +4024,19 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B193" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C193" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D193" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E193" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F193" t="n">
         <v>0.0</v>
@@ -4014,19 +4044,19 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>0.774131569366742</v>
+        <v>0.5439422796330566</v>
       </c>
       <c r="B194" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C194" t="n">
-        <v>4.893478260869565</v>
+        <v>4.886079545454546</v>
       </c>
       <c r="D194" t="n">
-        <v>56.00000000000001</v>
+        <v>325.6500000000001</v>
       </c>
       <c r="E194" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F194" t="n">
         <v>0.0</v>
@@ -4034,19 +4064,19 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B195" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C195" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D195" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E195" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F195" t="n">
         <v>0.0</v>
@@ -4054,19 +4084,19 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B196" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C196" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D196" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E196" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F196" t="n">
         <v>0.0</v>
@@ -4074,19 +4104,19 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B197" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C197" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D197" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E197" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F197" t="n">
         <v>0.0</v>
@@ -4094,19 +4124,19 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B198" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C198" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D198" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E198" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F198" t="n">
         <v>0.0</v>
@@ -4114,19 +4144,19 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B199" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C199" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D199" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E199" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F199" t="n">
         <v>0.0</v>
@@ -4134,19 +4164,19 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B200" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C200" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D200" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E200" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F200" t="n">
         <v>0.0</v>
@@ -4154,19 +4184,19 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B201" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C201" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D201" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E201" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F201" t="n">
         <v>0.0</v>
@@ -4174,19 +4204,19 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B202" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C202" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D202" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E202" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F202" t="n">
         <v>0.0</v>
@@ -4194,19 +4224,19 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B203" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C203" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D203" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E203" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F203" t="n">
         <v>0.0</v>
@@ -4214,19 +4244,19 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B204" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C204" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D204" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E204" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F204" t="n">
         <v>0.0</v>
@@ -4234,19 +4264,19 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B205" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C205" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D205" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E205" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F205" t="n">
         <v>0.0</v>
@@ -4254,19 +4284,19 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B206" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C206" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D206" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E206" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F206" t="n">
         <v>0.0</v>
@@ -4274,19 +4304,19 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B207" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C207" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D207" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E207" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F207" t="n">
         <v>0.0</v>
@@ -4294,19 +4324,19 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B208" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C208" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D208" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E208" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F208" t="n">
         <v>0.0</v>
@@ -4314,19 +4344,19 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B209" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C209" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D209" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E209" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F209" t="n">
         <v>0.0</v>
@@ -4334,19 +4364,19 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B210" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C210" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D210" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E210" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F210" t="n">
         <v>0.0</v>
@@ -4354,19 +4384,19 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5430963776259234</v>
       </c>
       <c r="B211" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C211" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.895170454545454</v>
       </c>
       <c r="D211" t="n">
-        <v>57.39999999999999</v>
+        <v>351.25000000000006</v>
       </c>
       <c r="E211" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F211" t="n">
         <v>0.0</v>
@@ -4374,19 +4404,19 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5428929924879552</v>
       </c>
       <c r="B212" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C212" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.897443181818182</v>
       </c>
       <c r="D212" t="n">
-        <v>57.39999999999999</v>
+        <v>379.15</v>
       </c>
       <c r="E212" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F212" t="n">
         <v>0.0</v>
@@ -4394,19 +4424,19 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5428929924879552</v>
       </c>
       <c r="B213" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C213" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.897443181818182</v>
       </c>
       <c r="D213" t="n">
-        <v>57.39999999999999</v>
+        <v>379.15</v>
       </c>
       <c r="E213" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F213" t="n">
         <v>0.0</v>
@@ -4414,19 +4444,19 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5428929924879552</v>
       </c>
       <c r="B214" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C214" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.897443181818182</v>
       </c>
       <c r="D214" t="n">
-        <v>57.39999999999999</v>
+        <v>379.15</v>
       </c>
       <c r="E214" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F214" t="n">
         <v>0.0</v>
@@ -4434,19 +4464,19 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5428929924879552</v>
       </c>
       <c r="B215" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C215" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.897443181818182</v>
       </c>
       <c r="D215" t="n">
-        <v>57.39999999999999</v>
+        <v>379.15</v>
       </c>
       <c r="E215" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F215" t="n">
         <v>0.0</v>
@@ -4454,19 +4484,19 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5419752480749074</v>
       </c>
       <c r="B216" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C216" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907102272727273</v>
       </c>
       <c r="D216" t="n">
-        <v>57.39999999999999</v>
+        <v>351.95000000000005</v>
       </c>
       <c r="E216" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F216" t="n">
         <v>0.0</v>
@@ -4474,19 +4504,19 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5419752480749074</v>
       </c>
       <c r="B217" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C217" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907102272727273</v>
       </c>
       <c r="D217" t="n">
-        <v>57.39999999999999</v>
+        <v>351.95000000000005</v>
       </c>
       <c r="E217" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F217" t="n">
         <v>0.0</v>
@@ -4494,19 +4524,19 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5419752480749074</v>
       </c>
       <c r="B218" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C218" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907102272727273</v>
       </c>
       <c r="D218" t="n">
-        <v>57.39999999999999</v>
+        <v>351.95000000000005</v>
       </c>
       <c r="E218" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F218" t="n">
         <v>0.0</v>
@@ -4514,19 +4544,19 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5419752480749074</v>
       </c>
       <c r="B219" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C219" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907102272727273</v>
       </c>
       <c r="D219" t="n">
-        <v>57.39999999999999</v>
+        <v>351.95000000000005</v>
       </c>
       <c r="E219" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F219" t="n">
         <v>0.0</v>
@@ -4534,19 +4564,19 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5419752480749074</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C220" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907102272727273</v>
       </c>
       <c r="D220" t="n">
-        <v>57.39999999999999</v>
+        <v>351.95000000000005</v>
       </c>
       <c r="E220" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F220" t="n">
         <v>0.0</v>
@@ -4554,19 +4584,19 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5419752480749074</v>
       </c>
       <c r="B221" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C221" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907102272727273</v>
       </c>
       <c r="D221" t="n">
-        <v>57.39999999999999</v>
+        <v>351.95000000000005</v>
       </c>
       <c r="E221" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F221" t="n">
         <v>0.0</v>
@@ -4574,19 +4604,19 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B222" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C222" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D222" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E222" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F222" t="n">
         <v>0.0</v>
@@ -4594,19 +4624,19 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B223" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C223" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D223" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E223" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F223" t="n">
         <v>0.0</v>
@@ -4614,19 +4644,19 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B224" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C224" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D224" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E224" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F224" t="n">
         <v>0.0</v>
@@ -4634,19 +4664,19 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B225" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C225" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D225" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E225" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F225" t="n">
         <v>0.0</v>
@@ -4654,19 +4684,19 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B226" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C226" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D226" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E226" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F226" t="n">
         <v>0.0</v>
@@ -4674,19 +4704,19 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B227" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C227" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D227" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E227" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F227" t="n">
         <v>0.0</v>
@@ -4694,19 +4724,19 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B228" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C228" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D228" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E228" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F228" t="n">
         <v>0.0</v>
@@ -4714,19 +4744,19 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B229" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C229" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D229" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E229" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F229" t="n">
         <v>0.0</v>
@@ -4734,19 +4764,19 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.541897701322529</v>
       </c>
       <c r="B230" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C230" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.907954545454545</v>
       </c>
       <c r="D230" t="n">
-        <v>57.39999999999999</v>
+        <v>359.05</v>
       </c>
       <c r="E230" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F230" t="n">
         <v>0.0</v>
@@ -4754,19 +4784,19 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5417154172529421</v>
       </c>
       <c r="B231" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C231" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.909943181818181</v>
       </c>
       <c r="D231" t="n">
-        <v>57.39999999999999</v>
+        <v>371.5</v>
       </c>
       <c r="E231" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F231" t="n">
         <v>0.0</v>
@@ -4774,19 +4804,19 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5417154172529421</v>
       </c>
       <c r="B232" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C232" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.909943181818181</v>
       </c>
       <c r="D232" t="n">
-        <v>57.39999999999999</v>
+        <v>371.5</v>
       </c>
       <c r="E232" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F232" t="n">
         <v>0.0</v>
@@ -4794,19 +4824,19 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5417154172529421</v>
       </c>
       <c r="B233" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C233" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.909943181818181</v>
       </c>
       <c r="D233" t="n">
-        <v>57.39999999999999</v>
+        <v>371.5</v>
       </c>
       <c r="E233" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F233" t="n">
         <v>0.0</v>
@@ -4814,19 +4844,19 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B234" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C234" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D234" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E234" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F234" t="n">
         <v>0.0</v>
@@ -4834,19 +4864,19 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B235" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C235" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D235" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E235" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F235" t="n">
         <v>0.0</v>
@@ -4854,19 +4884,19 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B236" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C236" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D236" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E236" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F236" t="n">
         <v>0.0</v>
@@ -4874,19 +4904,19 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B237" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C237" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D237" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E237" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F237" t="n">
         <v>0.0</v>
@@ -4894,19 +4924,19 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B238" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C238" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D238" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E238" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F238" t="n">
         <v>0.0</v>
@@ -4914,19 +4944,19 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B239" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C239" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D239" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E239" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F239" t="n">
         <v>0.0</v>
@@ -4934,19 +4964,19 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B240" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C240" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D240" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E240" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F240" t="n">
         <v>0.0</v>
@@ -4954,19 +4984,19 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B241" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C241" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D241" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E241" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F241" t="n">
         <v>0.0</v>
@@ -4974,19 +5004,19 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B242" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C242" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D242" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E242" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F242" t="n">
         <v>0.0</v>
@@ -4994,19 +5024,19 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B243" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C243" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D243" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E243" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F243" t="n">
         <v>0.0</v>
@@ -5014,19 +5044,19 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B244" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C244" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D244" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E244" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F244" t="n">
         <v>0.0</v>
@@ -5034,19 +5064,19 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B245" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C245" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D245" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E245" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F245" t="n">
         <v>0.0</v>
@@ -5054,19 +5084,19 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B246" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C246" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D246" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E246" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F246" t="n">
         <v>0.0</v>
@@ -5074,19 +5104,19 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B247" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C247" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D247" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E247" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F247" t="n">
         <v>0.0</v>
@@ -5094,19 +5124,19 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B248" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C248" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D248" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E248" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F248" t="n">
         <v>0.0</v>
@@ -5114,19 +5144,19 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5415902343372777</v>
       </c>
       <c r="B249" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C249" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.9110795454545455</v>
       </c>
       <c r="D249" t="n">
-        <v>57.39999999999999</v>
+        <v>318.50000000000006</v>
       </c>
       <c r="E249" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F249" t="n">
         <v>0.0</v>
@@ -5134,19 +5164,19 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B250" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C250" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D250" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E250" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F250" t="n">
         <v>0.0</v>
@@ -5154,19 +5184,19 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B251" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C251" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D251" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E251" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F251" t="n">
         <v>0.0</v>
@@ -5174,19 +5204,19 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B252" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C252" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D252" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E252" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F252" t="n">
         <v>0.0</v>
@@ -5194,19 +5224,19 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B253" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C253" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D253" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E253" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F253" t="n">
         <v>0.0</v>
@@ -5214,19 +5244,19 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B254" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C254" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D254" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E254" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F254" t="n">
         <v>0.0</v>
@@ -5234,19 +5264,19 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B255" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C255" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D255" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E255" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F255" t="n">
         <v>0.0</v>
@@ -5254,19 +5284,19 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B256" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C256" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D256" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E256" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F256" t="n">
         <v>0.0</v>
@@ -5274,19 +5304,19 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B257" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C257" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D257" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E257" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F257" t="n">
         <v>0.0</v>
@@ -5294,19 +5324,19 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B258" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C258" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D258" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E258" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F258" t="n">
         <v>0.0</v>
@@ -5314,19 +5344,19 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B259" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C259" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D259" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E259" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F259" t="n">
         <v>0.0</v>
@@ -5334,19 +5364,19 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B260" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C260" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D260" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E260" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F260" t="n">
         <v>0.0</v>
@@ -5354,19 +5384,19 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B261" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C261" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D261" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E261" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F261" t="n">
         <v>0.0</v>
@@ -5374,19 +5404,19 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B262" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C262" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D262" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E262" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F262" t="n">
         <v>0.0</v>
@@ -5394,19 +5424,19 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B263" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C263" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D263" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E263" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F263" t="n">
         <v>0.0</v>
@@ -5414,19 +5444,19 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B264" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C264" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D264" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E264" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F264" t="n">
         <v>0.0</v>
@@ -5434,19 +5464,19 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B265" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C265" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D265" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E265" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F265" t="n">
         <v>0.0</v>
@@ -5454,19 +5484,19 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B266" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C266" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D266" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E266" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F266" t="n">
         <v>0.0</v>
@@ -5474,19 +5504,19 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B267" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C267" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D267" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E267" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F267" t="n">
         <v>0.0</v>
@@ -5494,19 +5524,19 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B268" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C268" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D268" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E268" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F268" t="n">
         <v>0.0</v>
@@ -5514,19 +5544,19 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B269" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C269" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D269" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E269" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F269" t="n">
         <v>0.0</v>
@@ -5534,19 +5564,19 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B270" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C270" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D270" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E270" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F270" t="n">
         <v>0.0</v>
@@ -5554,19 +5584,19 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B271" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C271" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D271" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E271" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F271" t="n">
         <v>0.0</v>
@@ -5574,19 +5604,19 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B272" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C272" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D272" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E272" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F272" t="n">
         <v>0.0</v>
@@ -5594,19 +5624,19 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B273" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C273" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D273" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E273" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F273" t="n">
         <v>0.0</v>
@@ -5614,19 +5644,19 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B274" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C274" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D274" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E274" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F274" t="n">
         <v>0.0</v>
@@ -5634,19 +5664,19 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B275" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C275" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D275" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E275" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F275" t="n">
         <v>0.0</v>
@@ -5654,19 +5684,19 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B276" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C276" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D276" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E276" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F276" t="n">
         <v>0.0</v>
@@ -5674,19 +5704,19 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B277" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C277" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D277" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E277" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F277" t="n">
         <v>0.0</v>
@@ -5694,19 +5724,19 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B278" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C278" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D278" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E278" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F278" t="n">
         <v>0.0</v>
@@ -5714,19 +5744,19 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B279" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C279" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D279" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E279" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F279" t="n">
         <v>0.0</v>
@@ -5734,19 +5764,19 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B280" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C280" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D280" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E280" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F280" t="n">
         <v>0.0</v>
@@ -5754,19 +5784,19 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B281" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C281" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D281" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E281" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F281" t="n">
         <v>0.0</v>
@@ -5774,19 +5804,19 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B282" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C282" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D282" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E282" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F282" t="n">
         <v>0.0</v>
@@ -5794,19 +5824,19 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B283" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C283" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D283" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E283" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F283" t="n">
         <v>0.0</v>
@@ -5814,19 +5844,19 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B284" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C284" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D284" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E284" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F284" t="n">
         <v>0.0</v>
@@ -5834,19 +5864,19 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5410085967071512</v>
       </c>
       <c r="B285" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C285" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.917329545454546</v>
       </c>
       <c r="D285" t="n">
-        <v>57.39999999999999</v>
+        <v>335.45000000000005</v>
       </c>
       <c r="E285" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F285" t="n">
         <v>0.0</v>
@@ -5854,19 +5884,19 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5403965517251371</v>
       </c>
       <c r="B286" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C286" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.923863636363636</v>
       </c>
       <c r="D286" t="n">
-        <v>57.39999999999999</v>
+        <v>340.65000000000003</v>
       </c>
       <c r="E286" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F286" t="n">
         <v>0.0</v>
@@ -5874,19 +5904,19 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5403965517251371</v>
       </c>
       <c r="B287" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C287" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.923863636363636</v>
       </c>
       <c r="D287" t="n">
-        <v>57.39999999999999</v>
+        <v>340.65000000000003</v>
       </c>
       <c r="E287" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F287" t="n">
         <v>0.0</v>
@@ -5894,19 +5924,19 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5403965517251371</v>
       </c>
       <c r="B288" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C288" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.923863636363636</v>
       </c>
       <c r="D288" t="n">
-        <v>57.39999999999999</v>
+        <v>340.65000000000003</v>
       </c>
       <c r="E288" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F288" t="n">
         <v>0.0</v>
@@ -5914,19 +5944,19 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5403965517251371</v>
       </c>
       <c r="B289" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C289" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.923863636363636</v>
       </c>
       <c r="D289" t="n">
-        <v>57.39999999999999</v>
+        <v>340.65000000000003</v>
       </c>
       <c r="E289" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F289" t="n">
         <v>0.0</v>
@@ -5934,19 +5964,19 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5403965517251371</v>
       </c>
       <c r="B290" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C290" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.923863636363636</v>
       </c>
       <c r="D290" t="n">
-        <v>57.39999999999999</v>
+        <v>340.65000000000003</v>
       </c>
       <c r="E290" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F290" t="n">
         <v>0.0</v>
@@ -5954,19 +5984,19 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B291" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C291" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D291" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E291" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F291" t="n">
         <v>0.0</v>
@@ -5974,19 +6004,19 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B292" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C292" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D292" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E292" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F292" t="n">
         <v>0.0</v>
@@ -5994,19 +6024,19 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B293" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C293" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D293" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E293" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F293" t="n">
         <v>0.0</v>
@@ -6014,19 +6044,19 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B294" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C294" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D294" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E294" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F294" t="n">
         <v>0.0</v>
@@ -6034,19 +6064,19 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B295" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C295" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D295" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E295" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F295" t="n">
         <v>0.0</v>
@@ -6054,19 +6084,19 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B296" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C296" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D296" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E296" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F296" t="n">
         <v>0.0</v>
@@ -6074,19 +6104,19 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B297" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C297" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D297" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E297" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F297" t="n">
         <v>0.0</v>
@@ -6094,19 +6124,19 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B298" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C298" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D298" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E298" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F298" t="n">
         <v>0.0</v>
@@ -6114,19 +6144,19 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B299" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C299" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D299" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E299" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F299" t="n">
         <v>0.0</v>
@@ -6134,19 +6164,19 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B300" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C300" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D300" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E300" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F300" t="n">
         <v>0.0</v>
@@ -6154,19 +6184,19 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>0.7740240820887928</v>
+        <v>0.5394085132113431</v>
       </c>
       <c r="B301" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C301" t="n">
-        <v>4.8951086956521745</v>
+        <v>4.934374999999999</v>
       </c>
       <c r="D301" t="n">
-        <v>57.39999999999999</v>
+        <v>338.35</v>
       </c>
       <c r="E301" t="n">
-        <v>23.0</v>
+        <v>44.0</v>
       </c>
       <c r="F301" t="n">
         <v>0.0</v>
